--- a/ACCU PnL Output.xlsx
+++ b/ACCU PnL Output.xlsx
@@ -483,16 +483,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-829360.5000000001</v>
+        <v>-802574.7500000001</v>
       </c>
       <c r="C2" t="n">
-        <v>392265.5293122933</v>
+        <v>315390.2692299538</v>
       </c>
       <c r="D2" t="n">
-        <v>1463067.1248649</v>
+        <v>1464443.838634921</v>
       </c>
       <c r="E2" t="n">
-        <v>1025972.154177193</v>
+        <v>977259.3578648749</v>
       </c>
     </row>
     <row r="3">
@@ -500,16 +500,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-775330.5000000001</v>
+        <v>-750289.7500000001</v>
       </c>
       <c r="C3" t="n">
-        <v>366969.2596317768</v>
+        <v>295193.5109344829</v>
       </c>
       <c r="D3" t="n">
-        <v>1339824.932379683</v>
+        <v>1341201.646149704</v>
       </c>
       <c r="E3" t="n">
-        <v>931463.69201146</v>
+        <v>886105.4070841873</v>
       </c>
     </row>
     <row r="4">
@@ -517,16 +517,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-721300.5000000001</v>
+        <v>-698004.7500000001</v>
       </c>
       <c r="C4" t="n">
-        <v>341672.9899512604</v>
+        <v>274996.752639012</v>
       </c>
       <c r="D4" t="n">
-        <v>1217806.070514257</v>
+        <v>1219182.784284278</v>
       </c>
       <c r="E4" t="n">
-        <v>838178.560465517</v>
+        <v>796174.7869232898</v>
       </c>
     </row>
     <row r="5">
@@ -534,16 +534,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-667270.5000000001</v>
+        <v>-645719.7500000001</v>
       </c>
       <c r="C5" t="n">
-        <v>316376.720270744</v>
+        <v>254799.9943435411</v>
       </c>
       <c r="D5" t="n">
-        <v>1097499.376080581</v>
+        <v>1098876.089850602</v>
       </c>
       <c r="E5" t="n">
-        <v>746605.5963513243</v>
+        <v>707956.3341941427</v>
       </c>
     </row>
     <row r="6">
@@ -551,16 +551,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-613240.5000000001</v>
+        <v>-593434.7500000001</v>
       </c>
       <c r="C6" t="n">
-        <v>291080.4505902276</v>
+        <v>234603.2360480701</v>
       </c>
       <c r="D6" t="n">
-        <v>979424.8759126242</v>
+        <v>980801.5896826454</v>
       </c>
       <c r="E6" t="n">
-        <v>657264.8265028517</v>
+        <v>621970.0757307154</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-559210.5000000001</v>
+        <v>-541149.7500000001</v>
       </c>
       <c r="C7" t="n">
-        <v>265784.1809097112</v>
+        <v>214406.4777525992</v>
       </c>
       <c r="D7" t="n">
-        <v>864083.5190226211</v>
+        <v>865460.2327926422</v>
       </c>
       <c r="E7" t="n">
-        <v>570657.1999323322</v>
+        <v>538716.9605452414</v>
       </c>
     </row>
     <row r="8">
@@ -585,16 +585,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-505180.5000000001</v>
+        <v>-488864.7500000001</v>
       </c>
       <c r="C8" t="n">
-        <v>240487.9112291947</v>
+        <v>194209.7194571283</v>
       </c>
       <c r="D8" t="n">
-        <v>751907.3524730913</v>
+        <v>753284.0662431124</v>
       </c>
       <c r="E8" t="n">
-        <v>487214.763702286</v>
+        <v>458629.0357002407</v>
       </c>
     </row>
     <row r="9">
@@ -602,16 +602,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-451150.5000000001</v>
+        <v>-436579.7500000001</v>
       </c>
       <c r="C9" t="n">
-        <v>215191.6415486784</v>
+        <v>174012.9611616575</v>
       </c>
       <c r="D9" t="n">
-        <v>643219.3032679426</v>
+        <v>644596.0170379637</v>
       </c>
       <c r="E9" t="n">
-        <v>407260.444816621</v>
+        <v>382029.2281996211</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +619,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-397120.5000000001</v>
+        <v>-384294.7500000001</v>
       </c>
       <c r="C10" t="n">
-        <v>189895.3718681619</v>
+        <v>153816.2028661865</v>
       </c>
       <c r="D10" t="n">
-        <v>538208.6016592254</v>
+        <v>539585.3154292465</v>
       </c>
       <c r="E10" t="n">
-        <v>330983.4735273873</v>
+        <v>309106.768295433</v>
       </c>
     </row>
     <row r="11">
@@ -636,16 +636,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-343090.5000000001</v>
+        <v>-332009.7500000001</v>
       </c>
       <c r="C11" t="n">
-        <v>164599.1021876456</v>
+        <v>133619.4445707157</v>
       </c>
       <c r="D11" t="n">
-        <v>436923.8374787559</v>
+        <v>438300.551248777</v>
       </c>
       <c r="E11" t="n">
-        <v>258432.4396664014</v>
+        <v>239910.2458194926</v>
       </c>
     </row>
     <row r="12">
@@ -653,16 +653,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-289060.5000000001</v>
+        <v>-279724.7500000001</v>
       </c>
       <c r="C12" t="n">
-        <v>139302.8325071291</v>
+        <v>113422.6862752447</v>
       </c>
       <c r="D12" t="n">
-        <v>339281.9949312396</v>
+        <v>340658.7087012608</v>
       </c>
       <c r="E12" t="n">
-        <v>189524.3274383687</v>
+        <v>174356.6449765054</v>
       </c>
     </row>
     <row r="13">
@@ -670,16 +670,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-235030.5000000001</v>
+        <v>-227439.7500000001</v>
       </c>
       <c r="C13" t="n">
-        <v>114006.5628266126</v>
+        <v>93225.92797977373</v>
       </c>
       <c r="D13" t="n">
-        <v>245089.3784572065</v>
+        <v>246466.0922272277</v>
       </c>
       <c r="E13" t="n">
-        <v>124065.4412838191</v>
+        <v>112252.2702070013</v>
       </c>
     </row>
     <row r="14">
@@ -687,16 +687,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-181000.5000000001</v>
+        <v>-175154.7500000001</v>
       </c>
       <c r="C14" t="n">
-        <v>88710.29314609617</v>
+        <v>73029.16968430276</v>
       </c>
       <c r="D14" t="n">
-        <v>154069.3508269427</v>
+        <v>155446.0645969638</v>
       </c>
       <c r="E14" t="n">
-        <v>61779.14397303879</v>
+        <v>53320.48428126652</v>
       </c>
     </row>
     <row r="15">
@@ -704,16 +704,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-126970.5000000001</v>
+        <v>-122869.7500000001</v>
       </c>
       <c r="C15" t="n">
-        <v>63414.02346557993</v>
+        <v>52832.41138883203</v>
       </c>
       <c r="D15" t="n">
-        <v>65892.03593731555</v>
+        <v>67268.74970733667</v>
       </c>
       <c r="E15" t="n">
-        <v>2335.559402895407</v>
+        <v>-2768.588903831376</v>
       </c>
     </row>
     <row r="16">
@@ -721,16 +721,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-72940.50000000007</v>
+        <v>-70584.75000000007</v>
       </c>
       <c r="C16" t="n">
-        <v>38117.75378506345</v>
+        <v>32635.65309336106</v>
       </c>
       <c r="D16" t="n">
-        <v>-19797.84668263554</v>
+        <v>-18421.1329126144</v>
       </c>
       <c r="E16" t="n">
-        <v>-54620.59289757215</v>
+        <v>-56370.22981925341</v>
       </c>
     </row>
     <row r="17">
@@ -738,16 +738,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-18910.50000000008</v>
+        <v>-18299.75000000007</v>
       </c>
       <c r="C17" t="n">
-        <v>12821.48410454713</v>
+        <v>12438.89479789021</v>
       </c>
       <c r="D17" t="n">
-        <v>-28357.51187215592</v>
+        <v>-26980.79810213478</v>
       </c>
       <c r="E17" t="n">
-        <v>-34446.52776760887</v>
+        <v>-32841.65330424464</v>
       </c>
     </row>
     <row r="18">
@@ -755,16 +755,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>35119.49999999992</v>
+        <v>33985.24999999993</v>
       </c>
       <c r="C18" t="n">
-        <v>-12474.78557596935</v>
+        <v>-7757.863497580751</v>
       </c>
       <c r="D18" t="n">
-        <v>-35128.20057149764</v>
+        <v>-33751.48680147651</v>
       </c>
       <c r="E18" t="n">
-        <v>-12483.48614746707</v>
+        <v>-7524.100299057332</v>
       </c>
     </row>
     <row r="19">
@@ -772,16 +772,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>89149.49999999993</v>
+        <v>86270.24999999993</v>
       </c>
       <c r="C19" t="n">
-        <v>-37771.05525648571</v>
+        <v>-27954.6217930516</v>
       </c>
       <c r="D19" t="n">
-        <v>-40422.98480693769</v>
+        <v>-39046.27103691656</v>
       </c>
       <c r="E19" t="n">
-        <v>10955.45993657653</v>
+        <v>19269.35717003177</v>
       </c>
     </row>
     <row r="20">
@@ -789,16 +789,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>143179.4999999999</v>
+        <v>138555.2499999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-63067.32493700218</v>
+        <v>-48151.38008852256</v>
       </c>
       <c r="D20" t="n">
-        <v>-44519.72753743132</v>
+        <v>-43143.01376741019</v>
       </c>
       <c r="E20" t="n">
-        <v>35592.44752556641</v>
+        <v>47260.85614406716</v>
       </c>
     </row>
     <row r="21">
@@ -806,16 +806,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>197209.4999999999</v>
+        <v>190840.2499999999</v>
       </c>
       <c r="C21" t="n">
-        <v>-88363.59461751863</v>
+        <v>-68348.13838399353</v>
       </c>
       <c r="D21" t="n">
-        <v>-47658.25258962649</v>
+        <v>-46281.53881960535</v>
       </c>
       <c r="E21" t="n">
-        <v>61187.6527928548</v>
+        <v>76210.57279640103</v>
       </c>
     </row>
     <row r="22">
@@ -823,16 +823,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>251239.4999999999</v>
+        <v>243125.2499999999</v>
       </c>
       <c r="C22" t="n">
-        <v>-113659.864298035</v>
+        <v>-88544.89667946438</v>
       </c>
       <c r="D22" t="n">
-        <v>-50040.65270829423</v>
+        <v>-48663.9389382731</v>
       </c>
       <c r="E22" t="n">
-        <v>87538.9829936707</v>
+        <v>105916.4143822624</v>
       </c>
     </row>
     <row r="23">
@@ -840,16 +840,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>305269.4999999999</v>
+        <v>295410.2499999999</v>
       </c>
       <c r="C23" t="n">
-        <v>-138956.1339785515</v>
+        <v>-108741.6549749353</v>
       </c>
       <c r="D23" t="n">
-        <v>-51833.71405363345</v>
+        <v>-50457.00028361232</v>
       </c>
       <c r="E23" t="n">
-        <v>114479.651967815</v>
+        <v>136211.5947414523</v>
       </c>
     </row>
     <row r="24">
@@ -857,16 +857,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>359299.4999999999</v>
+        <v>347695.2499999999</v>
       </c>
       <c r="C24" t="n">
-        <v>-164252.4036590678</v>
+        <v>-128938.4132704062</v>
       </c>
       <c r="D24" t="n">
-        <v>-53172.58680198738</v>
+        <v>-51795.87303196625</v>
       </c>
       <c r="E24" t="n">
-        <v>141874.5095389448</v>
+        <v>166960.9636976275</v>
       </c>
     </row>
     <row r="25">
@@ -874,16 +874,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>413329.4999999999</v>
+        <v>399980.2499999999</v>
       </c>
       <c r="C25" t="n">
-        <v>-189548.6733395843</v>
+        <v>-149135.1715658772</v>
       </c>
       <c r="D25" t="n">
-        <v>-54165.02373489553</v>
+        <v>-52788.3099648744</v>
       </c>
       <c r="E25" t="n">
-        <v>169615.8029255201</v>
+        <v>198056.7684692484</v>
       </c>
     </row>
     <row r="26">
@@ -891,16 +891,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>467359.4999999999</v>
+        <v>452265.2499999999</v>
       </c>
       <c r="C26" t="n">
-        <v>-214844.9430201007</v>
+        <v>-169331.9298613481</v>
       </c>
       <c r="D26" t="n">
-        <v>-54895.70098864401</v>
+        <v>-53518.98721862288</v>
       </c>
       <c r="E26" t="n">
-        <v>197618.8559912552</v>
+        <v>229414.3329200289</v>
       </c>
     </row>
     <row r="27">
@@ -908,16 +908,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>521389.4999999999</v>
+        <v>504550.2499999999</v>
       </c>
       <c r="C27" t="n">
-        <v>-240141.2127006171</v>
+        <v>-189528.688156819</v>
       </c>
       <c r="D27" t="n">
-        <v>-55430.30395532207</v>
+        <v>-54053.59018530094</v>
       </c>
       <c r="E27" t="n">
-        <v>225817.9833440608</v>
+        <v>260967.97165788</v>
       </c>
     </row>
   </sheetData>
@@ -971,16 +971,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-829360.5000000001</v>
+        <v>-802574.7500000001</v>
       </c>
       <c r="C2" t="n">
-        <v>394271.5297925296</v>
+        <v>316995.0803188738</v>
       </c>
       <c r="D2" t="n">
-        <v>1468048.594146562</v>
+        <v>1469425.307916583</v>
       </c>
       <c r="E2" t="n">
-        <v>1032959.623939091</v>
+        <v>983845.6382354565</v>
       </c>
     </row>
     <row r="3">
@@ -988,16 +988,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-775330.5000000001</v>
+        <v>-750289.7500000001</v>
       </c>
       <c r="C3" t="n">
-        <v>369074.7656750899</v>
+        <v>296877.7681169138</v>
       </c>
       <c r="D3" t="n">
-        <v>1344056.888240306</v>
+        <v>1345433.602010327</v>
       </c>
       <c r="E3" t="n">
-        <v>937801.1539153955</v>
+        <v>892021.6201272404</v>
       </c>
     </row>
     <row r="4">
@@ -1005,16 +1005,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-721300.5000000001</v>
+        <v>-698004.7500000001</v>
       </c>
       <c r="C4" t="n">
-        <v>343878.0015576502</v>
+        <v>276760.4559149537</v>
       </c>
       <c r="D4" t="n">
-        <v>1220970.693302598</v>
+        <v>1222347.40707262</v>
       </c>
       <c r="E4" t="n">
-        <v>843548.1948602484</v>
+        <v>801103.1129875731</v>
       </c>
     </row>
     <row r="5">
@@ -1022,16 +1022,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-667270.5000000001</v>
+        <v>-645719.7500000001</v>
       </c>
       <c r="C5" t="n">
-        <v>318681.2374402105</v>
+        <v>256643.1437129937</v>
       </c>
       <c r="D5" t="n">
-        <v>1099283.471762921</v>
+        <v>1100660.185532942</v>
       </c>
       <c r="E5" t="n">
-        <v>750694.209203131</v>
+        <v>711583.5792459353</v>
       </c>
     </row>
     <row r="6">
@@ -1039,16 +1039,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-613240.5000000001</v>
+        <v>-593434.7500000001</v>
       </c>
       <c r="C6" t="n">
-        <v>293484.4733227708</v>
+        <v>236525.8315110337</v>
       </c>
       <c r="D6" t="n">
-        <v>979575.6437640502</v>
+        <v>980952.3575340714</v>
       </c>
       <c r="E6" t="n">
-        <v>659819.6170868209</v>
+        <v>624043.439045105</v>
       </c>
     </row>
     <row r="7">
@@ -1056,16 +1056,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-559210.5000000001</v>
+        <v>-541149.7500000001</v>
       </c>
       <c r="C7" t="n">
-        <v>268287.709205331</v>
+        <v>216408.5193090737</v>
       </c>
       <c r="D7" t="n">
-        <v>862458.638805642</v>
+        <v>863835.3525756631</v>
       </c>
       <c r="E7" t="n">
-        <v>571535.848010973</v>
+        <v>539094.1218847367</v>
       </c>
     </row>
     <row r="8">
@@ -1073,16 +1073,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-505180.5000000001</v>
+        <v>-488864.7500000001</v>
       </c>
       <c r="C8" t="n">
-        <v>243090.9450878912</v>
+        <v>196291.2071071136</v>
       </c>
       <c r="D8" t="n">
-        <v>748506.0592458197</v>
+        <v>749882.7730158408</v>
       </c>
       <c r="E8" t="n">
-        <v>486416.5043337109</v>
+        <v>457309.2301229543</v>
       </c>
     </row>
     <row r="9">
@@ -1090,16 +1090,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-451150.5000000001</v>
+        <v>-436579.7500000001</v>
       </c>
       <c r="C9" t="n">
-        <v>217894.1809704517</v>
+        <v>176173.8949051537</v>
       </c>
       <c r="D9" t="n">
-        <v>638187.3136439446</v>
+        <v>639564.0274139657</v>
       </c>
       <c r="E9" t="n">
-        <v>404930.9946143962</v>
+        <v>379158.1723191193</v>
       </c>
     </row>
     <row r="10">
@@ -1107,16 +1107,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-397120.5000000001</v>
+        <v>-384294.7500000001</v>
       </c>
       <c r="C10" t="n">
-        <v>192697.4168530119</v>
+        <v>156056.5827031935</v>
       </c>
       <c r="D10" t="n">
-        <v>531817.5417826924</v>
+        <v>533194.2555527135</v>
       </c>
       <c r="E10" t="n">
-        <v>327394.4586357042</v>
+        <v>304956.088255907</v>
       </c>
     </row>
     <row r="11">
@@ -1124,16 +1124,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-343090.5000000001</v>
+        <v>-332009.7500000001</v>
       </c>
       <c r="C11" t="n">
-        <v>167500.6527355722</v>
+        <v>135939.2705012335</v>
       </c>
       <c r="D11" t="n">
-        <v>429532.1737980867</v>
+        <v>430908.8875681078</v>
       </c>
       <c r="E11" t="n">
-        <v>253942.3265336588</v>
+        <v>234838.4080693413</v>
       </c>
     </row>
     <row r="12">
@@ -1141,16 +1141,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-289060.5000000001</v>
+        <v>-279724.7500000001</v>
       </c>
       <c r="C12" t="n">
-        <v>142303.8886181324</v>
+        <v>115821.9582992735</v>
       </c>
       <c r="D12" t="n">
-        <v>331287.6258248626</v>
+        <v>332664.3395948837</v>
       </c>
       <c r="E12" t="n">
-        <v>184531.014442995</v>
+        <v>168761.5478941572</v>
       </c>
     </row>
     <row r="13">
@@ -1158,16 +1158,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-235030.5000000001</v>
+        <v>-227439.7500000001</v>
       </c>
       <c r="C13" t="n">
-        <v>117107.1245006928</v>
+        <v>95704.6460973135</v>
       </c>
       <c r="D13" t="n">
-        <v>236883.8407760849</v>
+        <v>238260.554546106</v>
       </c>
       <c r="E13" t="n">
-        <v>118960.4652767775</v>
+        <v>106525.4506434194</v>
       </c>
     </row>
     <row r="14">
@@ -1175,16 +1175,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-181000.5000000001</v>
+        <v>-175154.7500000001</v>
       </c>
       <c r="C14" t="n">
-        <v>91910.36038325308</v>
+        <v>75587.33389535348</v>
       </c>
       <c r="D14" t="n">
-        <v>146001.0093657098</v>
+        <v>147377.723135731</v>
       </c>
       <c r="E14" t="n">
-        <v>56910.86974896281</v>
+        <v>47810.30703108435</v>
       </c>
     </row>
     <row r="15">
@@ -1192,16 +1192,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-126970.5000000001</v>
+        <v>-122869.7500000001</v>
       </c>
       <c r="C15" t="n">
-        <v>66713.59626581339</v>
+        <v>55470.02169339347</v>
       </c>
       <c r="D15" t="n">
-        <v>58242.05184884886</v>
+        <v>59618.76561886998</v>
       </c>
       <c r="E15" t="n">
-        <v>-2014.851885337819</v>
+        <v>-7780.962687736617</v>
       </c>
     </row>
     <row r="16">
@@ -1209,16 +1209,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-72940.50000000007</v>
+        <v>-70584.75000000007</v>
       </c>
       <c r="C16" t="n">
-        <v>41516.83214837356</v>
+        <v>35352.70949143334</v>
       </c>
       <c r="D16" t="n">
-        <v>-26826.32136074688</v>
+        <v>-25449.60759072574</v>
       </c>
       <c r="E16" t="n">
-        <v>-58249.98921237339</v>
+        <v>-60681.64809929248</v>
       </c>
     </row>
     <row r="17">
@@ -1226,16 +1226,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-18910.50000000008</v>
+        <v>-18299.75000000007</v>
       </c>
       <c r="C17" t="n">
-        <v>16320.068030934</v>
+        <v>15235.39728947345</v>
       </c>
       <c r="D17" t="n">
-        <v>-34638.8711188701</v>
+        <v>-33262.15734884897</v>
       </c>
       <c r="E17" t="n">
-        <v>-37229.30308793618</v>
+        <v>-36326.51005937559</v>
       </c>
     </row>
     <row r="18">
@@ -1243,16 +1243,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>35119.49999999992</v>
+        <v>33985.24999999993</v>
       </c>
       <c r="C18" t="n">
-        <v>-8876.69608650569</v>
+        <v>-4881.914912486565</v>
       </c>
       <c r="D18" t="n">
-        <v>-40605.85745030032</v>
+        <v>-39229.14368027919</v>
       </c>
       <c r="E18" t="n">
-        <v>-14363.05353680609</v>
+        <v>-10125.80859276582</v>
       </c>
     </row>
     <row r="19">
@@ -1260,16 +1260,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>89149.49999999993</v>
+        <v>86270.24999999993</v>
       </c>
       <c r="C19" t="n">
-        <v>-34073.46020394549</v>
+        <v>-24999.22711444669</v>
       </c>
       <c r="D19" t="n">
-        <v>-45096.22465166172</v>
+        <v>-43719.51088164058</v>
       </c>
       <c r="E19" t="n">
-        <v>9979.81514439272</v>
+        <v>17551.51200391265</v>
       </c>
     </row>
     <row r="20">
@@ -1277,16 +1277,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>143179.4999999999</v>
+        <v>138555.2499999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-59270.22432138523</v>
+        <v>-45116.53931640671</v>
       </c>
       <c r="D20" t="n">
-        <v>-48428.94063822794</v>
+        <v>-47052.2268682068</v>
       </c>
       <c r="E20" t="n">
-        <v>35480.33504038674</v>
+        <v>46386.4838153864</v>
       </c>
     </row>
     <row r="21">
@@ -1294,16 +1294,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>197209.4999999999</v>
+        <v>190840.2499999999</v>
       </c>
       <c r="C21" t="n">
-        <v>-84466.9884388248</v>
+        <v>-65233.8515183666</v>
       </c>
       <c r="D21" t="n">
-        <v>-50870.76241418564</v>
+        <v>-49494.0486441645</v>
       </c>
       <c r="E21" t="n">
-        <v>61871.74914698947</v>
+        <v>76112.34983746881</v>
       </c>
     </row>
     <row r="22">
@@ -1311,16 +1311,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>251239.4999999999</v>
+        <v>243125.2499999999</v>
       </c>
       <c r="C22" t="n">
-        <v>-109663.7525562646</v>
+        <v>-85351.16372032673</v>
       </c>
       <c r="D22" t="n">
-        <v>-52638.50883557716</v>
+        <v>-51261.79506555603</v>
       </c>
       <c r="E22" t="n">
-        <v>88937.23860815815</v>
+        <v>106512.2912141172</v>
       </c>
     </row>
     <row r="23">
@@ -1328,16 +1328,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>305269.4999999999</v>
+        <v>295410.2499999999</v>
       </c>
       <c r="C23" t="n">
-        <v>-134860.5166737043</v>
+        <v>-105468.4759222867</v>
       </c>
       <c r="D23" t="n">
-        <v>-53904.08231776804</v>
+        <v>-52527.36854774691</v>
       </c>
       <c r="E23" t="n">
-        <v>116504.9010085276</v>
+        <v>137414.4055299663</v>
       </c>
     </row>
     <row r="24">
@@ -1345,16 +1345,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>359299.4999999999</v>
+        <v>347695.2499999999</v>
       </c>
       <c r="C24" t="n">
-        <v>-160057.280791144</v>
+        <v>-125585.7881242468</v>
       </c>
       <c r="D24" t="n">
-        <v>-54800.82202750113</v>
+        <v>-53424.10825747999</v>
       </c>
       <c r="E24" t="n">
-        <v>144441.3971813548</v>
+        <v>168685.3536182732</v>
       </c>
     </row>
     <row r="25">
@@ -1362,16 +1362,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>413329.4999999999</v>
+        <v>399980.2499999999</v>
       </c>
       <c r="C25" t="n">
-        <v>-185254.0449085838</v>
+        <v>-145703.1003262069</v>
       </c>
       <c r="D25" t="n">
-        <v>-55430.16361931362</v>
+        <v>-54053.44984929249</v>
       </c>
       <c r="E25" t="n">
-        <v>172645.2914721025</v>
+        <v>200223.6998245006</v>
       </c>
     </row>
     <row r="26">
@@ -1379,16 +1379,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>467359.4999999999</v>
+        <v>452265.2499999999</v>
       </c>
       <c r="C26" t="n">
-        <v>-210450.8090260234</v>
+        <v>-165820.4125281668</v>
       </c>
       <c r="D26" t="n">
-        <v>-55867.94402592456</v>
+        <v>-54491.23025590342</v>
       </c>
       <c r="E26" t="n">
-        <v>201040.746948052</v>
+        <v>231953.6072159297</v>
       </c>
     </row>
     <row r="27">
@@ -1396,16 +1396,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>521389.4999999999</v>
+        <v>504550.2499999999</v>
       </c>
       <c r="C27" t="n">
-        <v>-235647.5731434631</v>
+        <v>-185937.7247301268</v>
       </c>
       <c r="D27" t="n">
-        <v>-56169.98445583591</v>
+        <v>-54793.27068581477</v>
       </c>
       <c r="E27" t="n">
-        <v>229571.942400701</v>
+        <v>263819.2545840584</v>
       </c>
     </row>
   </sheetData>
@@ -1459,16 +1459,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-829360.5000000001</v>
+        <v>-802574.7500000001</v>
       </c>
       <c r="C2" t="n">
-        <v>396205.3071539887</v>
+        <v>318542.1125273638</v>
       </c>
       <c r="D2" t="n">
-        <v>1473281.302721376</v>
+        <v>1474658.016491397</v>
       </c>
       <c r="E2" t="n">
-        <v>1040126.109875364</v>
+        <v>990625.3790187603</v>
       </c>
     </row>
     <row r="3">
@@ -1476,16 +1476,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-775330.5000000001</v>
+        <v>-750289.7500000001</v>
       </c>
       <c r="C3" t="n">
-        <v>371104.466047093</v>
+        <v>298501.3860782993</v>
       </c>
       <c r="D3" t="n">
-        <v>1348722.958755264</v>
+        <v>1350099.672525285</v>
       </c>
       <c r="E3" t="n">
-        <v>944496.9248023565</v>
+        <v>898311.3086035841</v>
       </c>
     </row>
     <row r="4">
@@ -1493,16 +1493,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-721300.5000000001</v>
+        <v>-698004.7500000001</v>
       </c>
       <c r="C4" t="n">
-        <v>346003.6249401973</v>
+        <v>278460.6596292348</v>
       </c>
       <c r="D4" t="n">
-        <v>1224717.468102951</v>
+        <v>1226094.181872972</v>
       </c>
       <c r="E4" t="n">
-        <v>849420.5930431481</v>
+        <v>806550.0915022065</v>
       </c>
     </row>
     <row r="5">
@@ -1510,16 +1510,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-667270.5000000001</v>
+        <v>-645719.7500000001</v>
       </c>
       <c r="C5" t="n">
-        <v>320902.7838333016</v>
+        <v>258419.9331801703</v>
       </c>
       <c r="D5" t="n">
-        <v>1101704.88102901</v>
+        <v>1103081.594799032</v>
       </c>
       <c r="E5" t="n">
-        <v>755337.1648623117</v>
+        <v>715781.7779792016</v>
       </c>
     </row>
     <row r="6">
@@ -1527,16 +1527,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-613240.5000000001</v>
+        <v>-593434.7500000001</v>
       </c>
       <c r="C6" t="n">
-        <v>295801.9427264059</v>
+        <v>238379.2067311059</v>
       </c>
       <c r="D6" t="n">
-        <v>980283.8359960531</v>
+        <v>981660.5497660742</v>
       </c>
       <c r="E6" t="n">
-        <v>662845.2787224588</v>
+        <v>626605.0064971799</v>
       </c>
     </row>
     <row r="7">
@@ -1544,16 +1544,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-559210.5000000001</v>
+        <v>-541149.7500000001</v>
       </c>
       <c r="C7" t="n">
-        <v>270701.1016195102</v>
+        <v>218338.4802820414</v>
       </c>
       <c r="D7" t="n">
-        <v>861169.2141881776</v>
+        <v>862545.9279581986</v>
       </c>
       <c r="E7" t="n">
-        <v>572659.8158076876</v>
+        <v>539734.6582402398</v>
       </c>
     </row>
     <row r="8">
@@ -1561,16 +1561,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-505180.5000000001</v>
+        <v>-488864.7500000001</v>
       </c>
       <c r="C8" t="n">
-        <v>245600.2605126145</v>
+        <v>198297.7538329769</v>
       </c>
       <c r="D8" t="n">
-        <v>745110.2094030498</v>
+        <v>746486.9231730709</v>
       </c>
       <c r="E8" t="n">
-        <v>485529.9699156642</v>
+        <v>455919.9270060477</v>
       </c>
     </row>
     <row r="9">
@@ -1578,16 +1578,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-451150.5000000001</v>
+        <v>-436579.7500000001</v>
       </c>
       <c r="C9" t="n">
-        <v>220499.4194057188</v>
+        <v>178257.0273839125</v>
       </c>
       <c r="D9" t="n">
-        <v>632787.8778887182</v>
+        <v>634164.5916587393</v>
       </c>
       <c r="E9" t="n">
-        <v>402136.7972944369</v>
+        <v>375841.8690426517</v>
       </c>
     </row>
     <row r="10">
@@ -1595,16 +1595,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-397120.5000000001</v>
+        <v>-384294.7500000001</v>
       </c>
       <c r="C10" t="n">
-        <v>195398.578298823</v>
+        <v>158216.3009348479</v>
       </c>
       <c r="D10" t="n">
-        <v>524719.0261467161</v>
+        <v>526095.7399167372</v>
       </c>
       <c r="E10" t="n">
-        <v>322997.1044455391</v>
+        <v>300017.290851585</v>
       </c>
     </row>
     <row r="11">
@@ -1612,16 +1612,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-343090.5000000001</v>
+        <v>-332009.7500000001</v>
       </c>
       <c r="C11" t="n">
-        <v>170297.7371919273</v>
+        <v>138175.5744857835</v>
       </c>
       <c r="D11" t="n">
-        <v>421190.2791226715</v>
+        <v>422566.9928926926</v>
       </c>
       <c r="E11" t="n">
-        <v>248397.5163145988</v>
+        <v>228732.817378476</v>
       </c>
     </row>
     <row r="12">
@@ -1629,16 +1629,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-289060.5000000001</v>
+        <v>-279724.7500000001</v>
       </c>
       <c r="C12" t="n">
-        <v>145196.8960850317</v>
+        <v>118134.848036719</v>
       </c>
       <c r="D12" t="n">
-        <v>322235.0413271291</v>
+        <v>323611.7550971502</v>
       </c>
       <c r="E12" t="n">
-        <v>178371.4374121607</v>
+        <v>162021.8531338692</v>
       </c>
     </row>
     <row r="13">
@@ -1646,16 +1646,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-235030.5000000001</v>
+        <v>-227439.7500000001</v>
       </c>
       <c r="C13" t="n">
-        <v>120096.0549781359</v>
+        <v>98094.12158765446</v>
       </c>
       <c r="D13" t="n">
-        <v>227652.6339054231</v>
+        <v>229029.3476754442</v>
       </c>
       <c r="E13" t="n">
-        <v>112718.1888835589</v>
+        <v>99683.71926309861</v>
       </c>
     </row>
     <row r="14">
@@ -1663,16 +1663,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-181000.5000000001</v>
+        <v>-175154.7500000001</v>
       </c>
       <c r="C14" t="n">
-        <v>94995.21387124009</v>
+        <v>78053.3951385899</v>
       </c>
       <c r="D14" t="n">
-        <v>137058.5150085662</v>
+        <v>138435.2287785873</v>
       </c>
       <c r="E14" t="n">
-        <v>51053.22887980618</v>
+        <v>41333.87391717712</v>
       </c>
     </row>
     <row r="15">
@@ -1680,16 +1680,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-126970.5000000001</v>
+        <v>-122869.7500000001</v>
       </c>
       <c r="C15" t="n">
-        <v>69894.37276434456</v>
+        <v>58012.66868952557</v>
       </c>
       <c r="D15" t="n">
-        <v>49949.82730309783</v>
+        <v>51326.54107311896</v>
       </c>
       <c r="E15" t="n">
-        <v>-7126.299932557682</v>
+        <v>-13530.54023735554</v>
       </c>
     </row>
     <row r="16">
@@ -1697,16 +1697,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-72940.50000000007</v>
+        <v>-70584.75000000007</v>
       </c>
       <c r="C16" t="n">
-        <v>44793.53165744885</v>
+        <v>37971.94224046113</v>
       </c>
       <c r="D16" t="n">
-        <v>-34228.680079968</v>
+        <v>-32851.96630994687</v>
       </c>
       <c r="E16" t="n">
-        <v>-62375.64842251922</v>
+        <v>-65464.77406948581</v>
       </c>
     </row>
     <row r="17">
@@ -1714,16 +1714,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-18910.50000000008</v>
+        <v>-18299.75000000007</v>
       </c>
       <c r="C17" t="n">
-        <v>19692.69055055297</v>
+        <v>17931.21579139645</v>
       </c>
       <c r="D17" t="n">
-        <v>-41029.05170424122</v>
+        <v>-39652.33793422009</v>
       </c>
       <c r="E17" t="n">
-        <v>-40246.86115368833</v>
+        <v>-40020.87214282372</v>
       </c>
     </row>
     <row r="18">
@@ -1731,16 +1731,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>35119.49999999992</v>
+        <v>33985.24999999993</v>
       </c>
       <c r="C18" t="n">
-        <v>-5408.150556342618</v>
+        <v>-2109.510657667881</v>
       </c>
       <c r="D18" t="n">
-        <v>-45960.21216678854</v>
+        <v>-44583.49839676741</v>
       </c>
       <c r="E18" t="n">
-        <v>-16248.86272313123</v>
+        <v>-12707.75905443536</v>
       </c>
     </row>
     <row r="19">
@@ -1748,16 +1748,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>89149.49999999993</v>
+        <v>86270.24999999993</v>
       </c>
       <c r="C19" t="n">
-        <v>-30508.99166323827</v>
+        <v>-22150.23710673233</v>
       </c>
       <c r="D19" t="n">
-        <v>-49464.47418598871</v>
+        <v>-48087.76041596758</v>
       </c>
       <c r="E19" t="n">
-        <v>9176.034150772946</v>
+        <v>16032.25247730002</v>
       </c>
     </row>
     <row r="20">
@@ -1765,16 +1765,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>143179.4999999999</v>
+        <v>138555.2499999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-55609.83277013418</v>
+        <v>-42190.963555797</v>
       </c>
       <c r="D20" t="n">
-        <v>-51908.13983104541</v>
+        <v>-50531.42606102428</v>
       </c>
       <c r="E20" t="n">
-        <v>35661.52739882033</v>
+        <v>45832.86038317863</v>
       </c>
     </row>
     <row r="21">
@@ -1782,16 +1782,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>197209.4999999999</v>
+        <v>190840.2499999999</v>
       </c>
       <c r="C21" t="n">
-        <v>-80710.67387702974</v>
+        <v>-62231.69000486133</v>
       </c>
       <c r="D21" t="n">
-        <v>-53582.44537923925</v>
+        <v>-52205.73160921811</v>
       </c>
       <c r="E21" t="n">
-        <v>62916.38074373093</v>
+        <v>76402.82838592047</v>
       </c>
     </row>
     <row r="22">
@@ -1799,16 +1799,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>251239.4999999999</v>
+        <v>243125.2499999999</v>
       </c>
       <c r="C22" t="n">
-        <v>-105811.5149839254</v>
+        <v>-82272.41645392578</v>
       </c>
       <c r="D22" t="n">
-        <v>-54710.94891555439</v>
+        <v>-53334.23514553326</v>
       </c>
       <c r="E22" t="n">
-        <v>90717.03610052014</v>
+        <v>107518.5984005409</v>
       </c>
     </row>
     <row r="23">
@@ -1816,16 +1816,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>305269.4999999999</v>
+        <v>295410.2499999999</v>
       </c>
       <c r="C23" t="n">
-        <v>-130912.3560908211</v>
+        <v>-102313.1429029902</v>
       </c>
       <c r="D23" t="n">
-        <v>-55460.06361654919</v>
+        <v>-54083.34984652806</v>
       </c>
       <c r="E23" t="n">
-        <v>118897.0802926297</v>
+        <v>139013.7572504817</v>
       </c>
     </row>
     <row r="24">
@@ -1833,16 +1833,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>359299.4999999999</v>
+        <v>347695.2499999999</v>
       </c>
       <c r="C24" t="n">
-        <v>-156013.1971977169</v>
+        <v>-122353.8693520548</v>
       </c>
       <c r="D24" t="n">
-        <v>-55950.34514653348</v>
+        <v>-54573.63137651235</v>
       </c>
       <c r="E24" t="n">
-        <v>147335.9576557496</v>
+        <v>170767.7492714328</v>
       </c>
     </row>
     <row r="25">
@@ -1850,16 +1850,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>413329.4999999999</v>
+        <v>399980.2499999999</v>
       </c>
       <c r="C25" t="n">
-        <v>-181114.0383046125</v>
+        <v>-142394.5958011192</v>
       </c>
       <c r="D25" t="n">
-        <v>-56267.04027443878</v>
+        <v>-54890.32650441765</v>
       </c>
       <c r="E25" t="n">
-        <v>175948.4214209486</v>
+        <v>202695.3276944631</v>
       </c>
     </row>
     <row r="26">
@@ -1867,16 +1867,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>467359.4999999999</v>
+        <v>452265.2499999999</v>
       </c>
       <c r="C26" t="n">
-        <v>-206214.8794115082</v>
+        <v>-162435.3222501837</v>
       </c>
       <c r="D26" t="n">
-        <v>-56469.1350624135</v>
+        <v>-55092.42129239237</v>
       </c>
       <c r="E26" t="n">
-        <v>204675.4855260783</v>
+        <v>234737.5064574239</v>
       </c>
     </row>
     <row r="27">
@@ -1884,16 +1884,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>521389.4999999999</v>
+        <v>504550.2499999999</v>
       </c>
       <c r="C27" t="n">
-        <v>-231315.720518404</v>
+        <v>-182476.0486992482</v>
       </c>
       <c r="D27" t="n">
-        <v>-56596.6553067924</v>
+        <v>-55219.94153677126</v>
       </c>
       <c r="E27" t="n">
-        <v>233477.1241748036</v>
+        <v>266854.2597639805</v>
       </c>
     </row>
   </sheetData>
@@ -1947,16 +1947,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-829360.5000000001</v>
+        <v>-802574.7500000001</v>
       </c>
       <c r="C2" t="n">
-        <v>397169.4334024842</v>
+        <v>319313.4186710803</v>
       </c>
       <c r="D2" t="n">
-        <v>1476033.998744711</v>
+        <v>1477410.712514732</v>
       </c>
       <c r="E2" t="n">
-        <v>1043842.932147195</v>
+        <v>994149.3811858119</v>
       </c>
     </row>
     <row r="3">
@@ -1964,16 +1964,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-775330.5000000001</v>
+        <v>-750289.7500000001</v>
       </c>
       <c r="C3" t="n">
-        <v>372116.4167732886</v>
+        <v>299310.8756944769</v>
       </c>
       <c r="D3" t="n">
-        <v>1351275.015007722</v>
+        <v>1352651.728777743</v>
       </c>
       <c r="E3" t="n">
-        <v>948060.9317810102</v>
+        <v>901672.8544722197</v>
       </c>
     </row>
     <row r="4">
@@ -1981,16 +1981,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-721300.5000000001</v>
+        <v>-698004.7500000001</v>
       </c>
       <c r="C4" t="n">
-        <v>347063.4001440931</v>
+        <v>279308.3327178737</v>
       </c>
       <c r="D4" t="n">
-        <v>1226891.487516287</v>
+        <v>1228268.201286308</v>
       </c>
       <c r="E4" t="n">
-        <v>852654.38766038</v>
+        <v>809571.7840041819</v>
       </c>
     </row>
     <row r="5">
@@ -1998,16 +1998,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-667270.5000000001</v>
+        <v>-645719.7500000001</v>
       </c>
       <c r="C5" t="n">
-        <v>322010.3835148975</v>
+        <v>259305.7897412704</v>
       </c>
       <c r="D5" t="n">
-        <v>1103262.498441756</v>
+        <v>1104639.212211777</v>
       </c>
       <c r="E5" t="n">
-        <v>758002.381956653</v>
+        <v>718225.251953047</v>
       </c>
     </row>
     <row r="6">
@@ -2015,16 +2015,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-613240.5000000001</v>
+        <v>-593434.7500000001</v>
       </c>
       <c r="C6" t="n">
-        <v>296957.3668857021</v>
+        <v>239303.2467646672</v>
       </c>
       <c r="D6" t="n">
-        <v>980961.1870308993</v>
+        <v>982337.9008009204</v>
       </c>
       <c r="E6" t="n">
-        <v>664678.0539166012</v>
+        <v>628206.3975655874</v>
       </c>
     </row>
     <row r="7">
@@ -2032,16 +2032,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-559210.5000000001</v>
+        <v>-541149.7500000001</v>
       </c>
       <c r="C7" t="n">
-        <v>271904.3502565065</v>
+        <v>219300.7037880639</v>
       </c>
       <c r="D7" t="n">
-        <v>860736.1501151603</v>
+        <v>862112.8638851814</v>
       </c>
       <c r="E7" t="n">
-        <v>573430.0003716666</v>
+        <v>540263.8176732452</v>
       </c>
     </row>
     <row r="8">
@@ -2049,16 +2049,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-505180.5000000001</v>
+        <v>-488864.7500000001</v>
       </c>
       <c r="C8" t="n">
-        <v>246851.333627311</v>
+        <v>199298.1608114606</v>
       </c>
       <c r="D8" t="n">
-        <v>743434.3727544989</v>
+        <v>744811.08652452</v>
       </c>
       <c r="E8" t="n">
-        <v>485105.2063818098</v>
+        <v>455244.4973359805</v>
       </c>
     </row>
     <row r="9">
@@ -2066,16 +2066,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-451150.5000000001</v>
+        <v>-436579.7500000001</v>
       </c>
       <c r="C9" t="n">
-        <v>221798.3169981154</v>
+        <v>179295.6178348573</v>
       </c>
       <c r="D9" t="n">
-        <v>629879.8272445116</v>
+        <v>631256.5410145327</v>
       </c>
       <c r="E9" t="n">
-        <v>400527.6442426268</v>
+        <v>373972.4088493899</v>
       </c>
     </row>
     <row r="10">
@@ -2083,16 +2083,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-397120.5000000001</v>
+        <v>-384294.7500000001</v>
       </c>
       <c r="C10" t="n">
-        <v>196745.3003689199</v>
+        <v>159293.0748582541</v>
       </c>
       <c r="D10" t="n">
-        <v>520741.6028022465</v>
+        <v>522118.3165722676</v>
       </c>
       <c r="E10" t="n">
-        <v>320366.4031711663</v>
+        <v>297116.6414305216</v>
       </c>
     </row>
     <row r="11">
@@ -2100,16 +2100,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-343090.5000000001</v>
+        <v>-332009.7500000001</v>
       </c>
       <c r="C11" t="n">
-        <v>171692.2837397243</v>
+        <v>139290.5318816508</v>
       </c>
       <c r="D11" t="n">
-        <v>416429.9083014398</v>
+        <v>417806.6220714609</v>
       </c>
       <c r="E11" t="n">
-        <v>245031.6920411641</v>
+        <v>225087.4039531117</v>
       </c>
     </row>
     <row r="12">
@@ -2117,16 +2117,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-289060.5000000001</v>
+        <v>-279724.7500000001</v>
       </c>
       <c r="C12" t="n">
-        <v>146639.2671105288</v>
+        <v>119287.9889050475</v>
       </c>
       <c r="D12" t="n">
-        <v>317046.5507651881</v>
+        <v>318423.2645352092</v>
       </c>
       <c r="E12" t="n">
-        <v>174625.3178757168</v>
+        <v>157986.5034402566</v>
       </c>
     </row>
     <row r="13">
@@ -2134,16 +2134,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-235030.5000000001</v>
+        <v>-227439.7500000001</v>
       </c>
       <c r="C13" t="n">
-        <v>121586.2504813332</v>
+        <v>99285.44592844427</v>
       </c>
       <c r="D13" t="n">
-        <v>222396.2069151064</v>
+        <v>223772.9206851276</v>
       </c>
       <c r="E13" t="n">
-        <v>108951.9573964396</v>
+        <v>95618.61661357174</v>
       </c>
     </row>
     <row r="14">
@@ -2151,16 +2151,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-181000.5000000001</v>
+        <v>-175154.7500000001</v>
       </c>
       <c r="C14" t="n">
-        <v>96533.2338521377</v>
+        <v>79282.90295184101</v>
       </c>
       <c r="D14" t="n">
-        <v>132046.1396494173</v>
+        <v>133422.8534194384</v>
       </c>
       <c r="E14" t="n">
-        <v>47578.87350155492</v>
+        <v>37551.00637127933</v>
       </c>
     </row>
     <row r="15">
@@ -2168,16 +2168,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-126970.5000000001</v>
+        <v>-122869.7500000001</v>
       </c>
       <c r="C15" t="n">
-        <v>71480.21722294216</v>
+        <v>59280.35997523775</v>
       </c>
       <c r="D15" t="n">
-        <v>45411.76050886775</v>
+        <v>46788.47427888888</v>
       </c>
       <c r="E15" t="n">
-        <v>-10078.52226819017</v>
+        <v>-16800.91574587344</v>
       </c>
     </row>
     <row r="16">
@@ -2185,16 +2185,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-72940.50000000007</v>
+        <v>-70584.75000000007</v>
       </c>
       <c r="C16" t="n">
-        <v>46427.20059374665</v>
+        <v>39277.81699863449</v>
       </c>
       <c r="D16" t="n">
-        <v>-38155.14238907869</v>
+        <v>-36778.42861905756</v>
       </c>
       <c r="E16" t="n">
-        <v>-64668.44179533212</v>
+        <v>-68085.36162042315</v>
       </c>
     </row>
     <row r="17">
@@ -2202,16 +2202,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-18910.50000000008</v>
+        <v>-18299.75000000007</v>
       </c>
       <c r="C17" t="n">
-        <v>21374.18396455096</v>
+        <v>19275.27402203111</v>
       </c>
       <c r="D17" t="n">
-        <v>-44292.52077510364</v>
+        <v>-42915.8070050825</v>
       </c>
       <c r="E17" t="n">
-        <v>-41828.83681055275</v>
+        <v>-41940.28298305147</v>
       </c>
     </row>
     <row r="18">
@@ -2219,16 +2219,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>35119.49999999992</v>
+        <v>33985.24999999993</v>
       </c>
       <c r="C18" t="n">
-        <v>-3678.832664644462</v>
+        <v>-727.268954572035</v>
       </c>
       <c r="D18" t="n">
-        <v>-48576.92165563472</v>
+        <v>-47200.20788561359</v>
       </c>
       <c r="E18" t="n">
-        <v>-17136.25432027927</v>
+        <v>-13942.2268401857</v>
       </c>
     </row>
     <row r="19">
@@ -2236,16 +2236,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>89149.49999999993</v>
+        <v>86270.24999999993</v>
       </c>
       <c r="C19" t="n">
-        <v>-28731.84929384009</v>
+        <v>-20729.81193117541</v>
       </c>
       <c r="D19" t="n">
-        <v>-51495.87982323499</v>
+        <v>-50119.16605321386</v>
       </c>
       <c r="E19" t="n">
-        <v>8921.770882924844</v>
+        <v>15421.27201561065</v>
       </c>
     </row>
     <row r="20">
@@ -2253,16 +2253,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>143179.4999999999</v>
+        <v>138555.2499999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-53784.86592303563</v>
+        <v>-40732.35490777867</v>
       </c>
       <c r="D20" t="n">
-        <v>-53439.77639243437</v>
+        <v>-52063.06262241324</v>
       </c>
       <c r="E20" t="n">
-        <v>35954.85768452991</v>
+        <v>45759.832469808</v>
       </c>
     </row>
     <row r="21">
@@ -2270,16 +2270,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>197209.4999999999</v>
+        <v>190840.2499999999</v>
       </c>
       <c r="C21" t="n">
-        <v>-78837.8825522312</v>
+        <v>-60734.89788438194</v>
       </c>
       <c r="D21" t="n">
-        <v>-54707.09336781292</v>
+        <v>-53330.37959779179</v>
       </c>
       <c r="E21" t="n">
-        <v>63664.52407995579</v>
+        <v>76774.97251782619</v>
       </c>
     </row>
     <row r="22">
@@ -2287,16 +2287,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>251239.4999999999</v>
+        <v>243125.2499999999</v>
       </c>
       <c r="C22" t="n">
-        <v>-103890.8991814267</v>
+        <v>-80737.4408609852</v>
       </c>
       <c r="D22" t="n">
-        <v>-55517.11772971858</v>
+        <v>-54140.40395969744</v>
       </c>
       <c r="E22" t="n">
-        <v>91831.48308885463</v>
+        <v>108247.4051793173</v>
       </c>
     </row>
     <row r="23">
@@ -2304,16 +2304,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>305269.4999999999</v>
+        <v>295410.2499999999</v>
       </c>
       <c r="C23" t="n">
-        <v>-128943.9158106222</v>
+        <v>-100739.9838375885</v>
       </c>
       <c r="D23" t="n">
-        <v>-56025.41237706797</v>
+        <v>-54648.69860704684</v>
       </c>
       <c r="E23" t="n">
-        <v>120300.1718123097</v>
+        <v>140021.5675553646</v>
       </c>
     </row>
     <row r="24">
@@ -2321,16 +2321,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>359299.4999999999</v>
+        <v>347695.2499999999</v>
       </c>
       <c r="C24" t="n">
-        <v>-153996.9324398178</v>
+        <v>-120742.5268141917</v>
       </c>
       <c r="D24" t="n">
-        <v>-56338.96401933745</v>
+        <v>-54962.25024931631</v>
       </c>
       <c r="E24" t="n">
-        <v>148963.6035408447</v>
+        <v>171990.4729364919</v>
       </c>
     </row>
     <row r="25">
@@ -2338,16 +2338,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>413329.4999999999</v>
+        <v>399980.2499999999</v>
       </c>
       <c r="C25" t="n">
-        <v>-179049.9490690133</v>
+        <v>-140745.069790795</v>
       </c>
       <c r="D25" t="n">
-        <v>-56529.34205215668</v>
+        <v>-55152.62828213554</v>
       </c>
       <c r="E25" t="n">
-        <v>177750.20887883</v>
+        <v>204082.5519270694</v>
       </c>
     </row>
     <row r="26">
@@ -2355,16 +2355,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>467359.4999999999</v>
+        <v>452265.2499999999</v>
       </c>
       <c r="C26" t="n">
-        <v>-204102.9656982089</v>
+        <v>-160747.6127673982</v>
       </c>
       <c r="D26" t="n">
-        <v>-56643.24729629437</v>
+        <v>-55266.53352627324</v>
       </c>
       <c r="E26" t="n">
-        <v>206613.2870054967</v>
+        <v>236251.1037063285</v>
       </c>
     </row>
     <row r="27">
@@ -2372,16 +2372,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>521389.4999999999</v>
+        <v>504550.2499999999</v>
       </c>
       <c r="C27" t="n">
-        <v>-229155.9823274044</v>
+        <v>-180750.1557440015</v>
       </c>
       <c r="D27" t="n">
-        <v>-56710.47716368804</v>
+        <v>-55333.76339366691</v>
       </c>
       <c r="E27" t="n">
-        <v>235523.0405089075</v>
+        <v>268466.3308623316</v>
       </c>
     </row>
   </sheetData>
@@ -2435,16 +2435,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-829360.5000000001</v>
+        <v>-802574.7500000001</v>
       </c>
       <c r="C2" t="n">
-        <v>390121.4035997935</v>
+        <v>313727.0421781571</v>
       </c>
       <c r="D2" t="n">
-        <v>1451938.151278466</v>
+        <v>1453785.55068297</v>
       </c>
       <c r="E2" t="n">
-        <v>1012699.05487826</v>
+        <v>964937.8428611266</v>
       </c>
     </row>
     <row r="3">
@@ -2452,16 +2452,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-775330.5000000001</v>
+        <v>-750289.7500000001</v>
       </c>
       <c r="C3" t="n">
-        <v>364718.7767980144</v>
+        <v>293447.9459098249</v>
       </c>
       <c r="D3" t="n">
-        <v>1329595.690847607</v>
+        <v>1331414.913383993</v>
       </c>
       <c r="E3" t="n">
-        <v>918983.9676456212</v>
+        <v>874573.1092938179</v>
       </c>
     </row>
     <row r="4">
@@ -2469,16 +2469,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-721300.5000000001</v>
+        <v>-698004.7500000001</v>
       </c>
       <c r="C4" t="n">
-        <v>339316.1499962353</v>
+        <v>273168.8496414928</v>
       </c>
       <c r="D4" t="n">
-        <v>1208747.95376225</v>
+        <v>1210531.754217331</v>
       </c>
       <c r="E4" t="n">
-        <v>826763.6037584849</v>
+        <v>785695.853858824</v>
       </c>
     </row>
     <row r="5">
@@ -2486,16 +2486,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-667270.5000000001</v>
+        <v>-645719.7500000001</v>
       </c>
       <c r="C5" t="n">
-        <v>313913.5231944561</v>
+        <v>252889.7533731607</v>
       </c>
       <c r="D5" t="n">
-        <v>1089847.741329522</v>
+        <v>1091590.210811301</v>
       </c>
       <c r="E5" t="n">
-        <v>736490.7645239779</v>
+        <v>698760.2141844619</v>
       </c>
     </row>
     <row r="6">
@@ -2503,16 +2503,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-613240.5000000001</v>
+        <v>-593434.7500000001</v>
       </c>
       <c r="C6" t="n">
-        <v>288510.896392677</v>
+        <v>232610.6571048285</v>
       </c>
       <c r="D6" t="n">
-        <v>973340.5486083908</v>
+        <v>975038.0221980857</v>
       </c>
       <c r="E6" t="n">
-        <v>648610.9450010677</v>
+        <v>614213.9293029141</v>
       </c>
     </row>
     <row r="7">
@@ -2520,16 +2520,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-559210.5000000001</v>
+        <v>-541149.7500000001</v>
       </c>
       <c r="C7" t="n">
-        <v>263108.2695908979</v>
+        <v>212331.5608364964</v>
       </c>
       <c r="D7" t="n">
-        <v>859625.3721051377</v>
+        <v>861276.9857587928</v>
       </c>
       <c r="E7" t="n">
-        <v>563523.1416960354</v>
+        <v>532458.7965952891</v>
       </c>
     </row>
     <row r="8">
@@ -2537,16 +2537,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-505180.5000000001</v>
+        <v>-488864.7500000001</v>
       </c>
       <c r="C8" t="n">
-        <v>237705.6427891187</v>
+        <v>192052.4645681642</v>
       </c>
       <c r="D8" t="n">
-        <v>749021.8790161076</v>
+        <v>750629.539795537</v>
       </c>
       <c r="E8" t="n">
-        <v>481547.0218052263</v>
+        <v>453817.2543637012</v>
       </c>
     </row>
     <row r="9">
@@ -2554,16 +2554,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-451150.5000000001</v>
+        <v>-436579.7500000001</v>
       </c>
       <c r="C9" t="n">
-        <v>212303.0159873396</v>
+        <v>171773.3682998321</v>
       </c>
       <c r="D9" t="n">
-        <v>641751.9655198964</v>
+        <v>643318.5867524734</v>
       </c>
       <c r="E9" t="n">
-        <v>402904.4815072359</v>
+        <v>378512.2050523054</v>
       </c>
     </row>
     <row r="10">
@@ -2571,16 +2571,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-397120.5000000001</v>
+        <v>-384294.7500000001</v>
       </c>
       <c r="C10" t="n">
-        <v>186900.3891855605</v>
+        <v>151494.2720315</v>
       </c>
       <c r="D10" t="n">
-        <v>537958.6341028567</v>
+        <v>539479.6096792243</v>
       </c>
       <c r="E10" t="n">
-        <v>327738.5232884173</v>
+        <v>306679.1317107243</v>
       </c>
     </row>
     <row r="11">
@@ -2588,16 +2588,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-343090.5000000001</v>
+        <v>-332009.7500000001</v>
       </c>
       <c r="C11" t="n">
-        <v>161497.7623837815</v>
+        <v>131215.1757631678</v>
       </c>
       <c r="D11" t="n">
-        <v>437835.505045046</v>
+        <v>439273.3363334715</v>
       </c>
       <c r="E11" t="n">
-        <v>256242.7674288274</v>
+        <v>238478.7620966392</v>
       </c>
     </row>
     <row r="12">
@@ -2605,16 +2605,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-289060.5000000001</v>
+        <v>-279724.7500000001</v>
       </c>
       <c r="C12" t="n">
-        <v>136095.1355820023</v>
+        <v>110936.0794948357</v>
       </c>
       <c r="D12" t="n">
-        <v>341991.6957955622</v>
+        <v>343236.964816145</v>
       </c>
       <c r="E12" t="n">
-        <v>189026.3313775644</v>
+        <v>174448.2943109806</v>
       </c>
     </row>
     <row r="13">
@@ -2622,16 +2622,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-235030.5000000001</v>
+        <v>-227439.7500000001</v>
       </c>
       <c r="C13" t="n">
-        <v>110692.5087802232</v>
+        <v>90656.98322650359</v>
       </c>
       <c r="D13" t="n">
-        <v>252036.7340428166</v>
+        <v>252906.2490595974</v>
       </c>
       <c r="E13" t="n">
-        <v>127698.7428230397</v>
+        <v>116123.4822861009</v>
       </c>
     </row>
     <row r="14">
@@ -2639,16 +2639,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-181000.5000000001</v>
+        <v>-175154.7500000001</v>
       </c>
       <c r="C14" t="n">
-        <v>85289.88197844409</v>
+        <v>70377.88695817138</v>
       </c>
       <c r="D14" t="n">
-        <v>170917.0715732324</v>
+        <v>171255.5362812268</v>
       </c>
       <c r="E14" t="n">
-        <v>75206.45355167639</v>
+        <v>66478.67323939811</v>
       </c>
     </row>
     <row r="15">
@@ -2656,16 +2656,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-126970.5000000001</v>
+        <v>-122869.7500000001</v>
       </c>
       <c r="C15" t="n">
-        <v>59887.25517666497</v>
+        <v>50098.79068983917</v>
       </c>
       <c r="D15" t="n">
-        <v>102282.1790594753</v>
+        <v>102122.6795050891</v>
       </c>
       <c r="E15" t="n">
-        <v>35198.93423614021</v>
+        <v>29351.72019492822</v>
       </c>
     </row>
     <row r="16">
@@ -2673,16 +2673,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-72940.50000000007</v>
+        <v>-70584.75000000007</v>
       </c>
       <c r="C16" t="n">
-        <v>34484.62837488591</v>
+        <v>29819.69442150719</v>
       </c>
       <c r="D16" t="n">
-        <v>48856.96237610211</v>
+        <v>48470.04944950326</v>
       </c>
       <c r="E16" t="n">
-        <v>10401.09075098795</v>
+        <v>7704.993871010374</v>
       </c>
     </row>
     <row r="17">
@@ -2690,16 +2690,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-18910.50000000008</v>
+        <v>-18299.75000000007</v>
       </c>
       <c r="C17" t="n">
-        <v>9082.001573106681</v>
+        <v>9540.598153174971</v>
       </c>
       <c r="D17" t="n">
-        <v>10949.65662975813</v>
+        <v>10697.52548016187</v>
       </c>
       <c r="E17" t="n">
-        <v>1121.158202864735</v>
+        <v>1938.373633336772</v>
       </c>
     </row>
     <row r="18">
@@ -2707,16 +2707,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>35119.49999999992</v>
+        <v>33985.24999999993</v>
       </c>
       <c r="C18" t="n">
-        <v>-16320.62522867238</v>
+        <v>-10738.49811515713</v>
       </c>
       <c r="D18" t="n">
-        <v>-13695.27050487906</v>
+        <v>-13564.92904190558</v>
       </c>
       <c r="E18" t="n">
-        <v>5103.604266448481</v>
+        <v>9681.822842937218</v>
       </c>
     </row>
     <row r="19">
@@ -2724,16 +2724,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>89149.49999999993</v>
+        <v>86270.24999999993</v>
       </c>
       <c r="C19" t="n">
-        <v>-41723.25203045149</v>
+        <v>-31017.59438348934</v>
       </c>
       <c r="D19" t="n">
-        <v>-28712.53041396434</v>
+        <v>-28151.93883196831</v>
       </c>
       <c r="E19" t="n">
-        <v>18713.71755558409</v>
+        <v>27100.71678454228</v>
       </c>
     </row>
     <row r="20">
@@ -2741,16 +2741,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>143179.4999999999</v>
+        <v>138555.2499999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-67125.87883223069</v>
+        <v>-51296.69065182144</v>
       </c>
       <c r="D20" t="n">
-        <v>-37649.24983325403</v>
+        <v>-36750.51528551408</v>
       </c>
       <c r="E20" t="n">
-        <v>38404.37133451518</v>
+        <v>50508.04406266439</v>
       </c>
     </row>
     <row r="21">
@@ -2758,16 +2758,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>197209.4999999999</v>
+        <v>190840.2499999999</v>
       </c>
       <c r="C21" t="n">
-        <v>-92528.50563400978</v>
+        <v>-71575.78692015365</v>
       </c>
       <c r="D21" t="n">
-        <v>-43117.40406991678</v>
+        <v>-42008.20872862534</v>
       </c>
       <c r="E21" t="n">
-        <v>61563.59029607335</v>
+        <v>77256.25435122092</v>
       </c>
     </row>
     <row r="22">
@@ -2775,16 +2775,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>251239.4999999999</v>
+        <v>243125.2499999999</v>
       </c>
       <c r="C22" t="n">
-        <v>-117931.1324357889</v>
+        <v>-91854.88318848575</v>
       </c>
       <c r="D22" t="n">
-        <v>-46692.84269427613</v>
+        <v>-45472.11050417808</v>
       </c>
       <c r="E22" t="n">
-        <v>86615.52486993492</v>
+        <v>105798.2563073361</v>
       </c>
     </row>
     <row r="23">
@@ -2792,16 +2792,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>305269.4999999999</v>
+        <v>295410.2499999999</v>
       </c>
       <c r="C23" t="n">
-        <v>-143333.7592375681</v>
+        <v>-112133.979456818</v>
       </c>
       <c r="D23" t="n">
-        <v>-49203.09889276209</v>
+        <v>-47927.86330960641</v>
       </c>
       <c r="E23" t="n">
-        <v>112732.6418696698</v>
+        <v>135348.4072335756</v>
       </c>
     </row>
     <row r="24">
@@ -2809,16 +2809,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>359299.4999999999</v>
+        <v>347695.2499999999</v>
       </c>
       <c r="C24" t="n">
-        <v>-168736.3860393472</v>
+        <v>-132413.0757251499</v>
       </c>
       <c r="D24" t="n">
-        <v>-51054.77767878312</v>
+        <v>-49752.03625731076</v>
       </c>
       <c r="E24" t="n">
-        <v>139508.3362818697</v>
+        <v>165530.1380175392</v>
       </c>
     </row>
     <row r="25">
@@ -2826,16 +2826,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>413329.4999999999</v>
+        <v>399980.2499999999</v>
       </c>
       <c r="C25" t="n">
-        <v>-194139.0128411263</v>
+        <v>-152692.1719934822</v>
       </c>
       <c r="D25" t="n">
-        <v>-52454.15422925918</v>
+        <v>-51135.27504082768</v>
       </c>
       <c r="E25" t="n">
-        <v>166736.3329296145</v>
+        <v>196152.8029656901</v>
       </c>
     </row>
     <row r="26">
@@ -2843,16 +2843,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>467359.4999999999</v>
+        <v>452265.2499999999</v>
       </c>
       <c r="C26" t="n">
-        <v>-219541.6396429054</v>
+        <v>-172971.2682618143</v>
       </c>
       <c r="D26" t="n">
-        <v>-53520.06778365593</v>
+        <v>-52189.85929543556</v>
       </c>
       <c r="E26" t="n">
-        <v>194297.7925734385</v>
+        <v>227104.1224427501</v>
       </c>
     </row>
     <row r="27">
@@ -2860,16 +2860,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>521389.4999999999</v>
+        <v>504550.2499999999</v>
       </c>
       <c r="C27" t="n">
-        <v>-244944.2664446846</v>
+        <v>-193250.3645301465</v>
       </c>
       <c r="D27" t="n">
-        <v>-54332.0531460006</v>
+        <v>-52992.94886694913</v>
       </c>
       <c r="E27" t="n">
-        <v>222113.1804093148</v>
+        <v>258306.9366029043</v>
       </c>
     </row>
   </sheetData>
@@ -2923,16 +2923,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-829360.5000000001</v>
+        <v>-802574.7500000001</v>
       </c>
       <c r="C2" t="n">
-        <v>390316.6960668563</v>
+        <v>313831.192233938</v>
       </c>
       <c r="D2" t="n">
-        <v>1453351.566327965</v>
+        <v>1454728.280097986</v>
       </c>
       <c r="E2" t="n">
-        <v>1014307.762394821</v>
+        <v>965984.722331924</v>
       </c>
     </row>
     <row r="3">
@@ -2940,16 +2940,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-775330.5000000001</v>
+        <v>-750289.7500000001</v>
       </c>
       <c r="C3" t="n">
-        <v>364923.7565443631</v>
+        <v>293557.2519089614</v>
       </c>
       <c r="D3" t="n">
-        <v>1330924.701196041</v>
+        <v>1332301.414966062</v>
       </c>
       <c r="E3" t="n">
-        <v>920517.9577404039</v>
+        <v>875568.9168750232</v>
       </c>
     </row>
     <row r="4">
@@ -2957,16 +2957,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-721300.5000000001</v>
+        <v>-698004.7500000001</v>
       </c>
       <c r="C4" t="n">
-        <v>339530.8170218699</v>
+        <v>273283.3115839848</v>
       </c>
       <c r="D4" t="n">
-        <v>1209970.648217544</v>
+        <v>1211347.361987565</v>
       </c>
       <c r="E4" t="n">
-        <v>828200.9652394135</v>
+        <v>786625.9235715496</v>
       </c>
     </row>
     <row r="5">
@@ -2974,16 +2974,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-667270.5000000001</v>
+        <v>-645719.7500000001</v>
       </c>
       <c r="C5" t="n">
-        <v>314137.8774993767</v>
+        <v>253009.3712590081</v>
       </c>
       <c r="D5" t="n">
-        <v>1090946.186017263</v>
+        <v>1092322.899787284</v>
       </c>
       <c r="E5" t="n">
-        <v>737813.5635166399</v>
+        <v>699612.5210462924</v>
       </c>
     </row>
     <row r="6">
@@ -2991,16 +2991,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-613240.5000000001</v>
+        <v>-593434.7500000001</v>
       </c>
       <c r="C6" t="n">
-        <v>288744.9379768834</v>
+        <v>232735.4309340314</v>
       </c>
       <c r="D6" t="n">
-        <v>974303.5533705128</v>
+        <v>975680.2671405339</v>
       </c>
       <c r="E6" t="n">
-        <v>649807.991347396</v>
+        <v>614980.9480745652</v>
       </c>
     </row>
     <row r="7">
@@ -3008,16 +3008,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-559210.5000000001</v>
+        <v>-541149.7500000001</v>
       </c>
       <c r="C7" t="n">
-        <v>263351.9984543903</v>
+        <v>212461.4906090548</v>
       </c>
       <c r="D7" t="n">
-        <v>860450.2148864855</v>
+        <v>861826.9286565066</v>
       </c>
       <c r="E7" t="n">
-        <v>564591.7133408757</v>
+        <v>533138.6692655613</v>
       </c>
     </row>
     <row r="8">
@@ -3025,16 +3025,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-505180.5000000001</v>
+        <v>-488864.7500000001</v>
       </c>
       <c r="C8" t="n">
-        <v>237959.0589318971</v>
+        <v>192187.5502840781</v>
       </c>
       <c r="D8" t="n">
-        <v>749714.4059643638</v>
+        <v>751091.1197343849</v>
       </c>
       <c r="E8" t="n">
-        <v>482492.9648962609</v>
+        <v>454413.920018463</v>
       </c>
     </row>
     <row r="9">
@@ -3042,16 +3042,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-451150.5000000001</v>
+        <v>-436579.7500000001</v>
       </c>
       <c r="C9" t="n">
-        <v>212566.1194094039</v>
+        <v>171913.6099591015</v>
       </c>
       <c r="D9" t="n">
-        <v>642322.3869159535</v>
+        <v>643699.1006859746</v>
       </c>
       <c r="E9" t="n">
-        <v>403738.0063253574</v>
+        <v>379032.9606450761</v>
       </c>
     </row>
     <row r="10">
@@ -3059,16 +3059,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-397120.5000000001</v>
+        <v>-384294.7500000001</v>
       </c>
       <c r="C10" t="n">
-        <v>187173.1798869107</v>
+        <v>151639.6696341248</v>
       </c>
       <c r="D10" t="n">
-        <v>538399.4920000036</v>
+        <v>539776.2057700247</v>
       </c>
       <c r="E10" t="n">
-        <v>328452.1718869142</v>
+        <v>307121.1254041495</v>
       </c>
     </row>
     <row r="11">
@@ -3076,16 +3076,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-343090.5000000001</v>
+        <v>-332009.7500000001</v>
       </c>
       <c r="C11" t="n">
-        <v>161780.2403644176</v>
+        <v>131365.7293091483</v>
       </c>
       <c r="D11" t="n">
-        <v>438048.6083270111</v>
+        <v>439425.3220970322</v>
       </c>
       <c r="E11" t="n">
-        <v>256738.3486914285</v>
+        <v>238781.3014061804</v>
       </c>
     </row>
     <row r="12">
@@ -3093,16 +3093,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-289060.5000000001</v>
+        <v>-279724.7500000001</v>
       </c>
       <c r="C12" t="n">
-        <v>136387.3008419243</v>
+        <v>111091.7889841716</v>
       </c>
       <c r="D12" t="n">
-        <v>341658.343343808</v>
+        <v>343035.0571138291</v>
       </c>
       <c r="E12" t="n">
-        <v>188985.1441857322</v>
+        <v>174402.0960980006</v>
       </c>
     </row>
     <row r="13">
@@ -3110,16 +3110,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-235030.5000000001</v>
+        <v>-227439.7500000001</v>
       </c>
       <c r="C13" t="n">
-        <v>110994.361319431</v>
+        <v>90817.84865919489</v>
       </c>
       <c r="D13" t="n">
-        <v>250579.8861045543</v>
+        <v>251956.5998745754</v>
       </c>
       <c r="E13" t="n">
-        <v>126543.7474239853</v>
+        <v>115334.6985337702</v>
       </c>
     </row>
     <row r="14">
@@ -3127,16 +3127,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-181000.5000000001</v>
+        <v>-175154.7500000001</v>
       </c>
       <c r="C14" t="n">
-        <v>85601.42179693779</v>
+        <v>70543.9083342182</v>
       </c>
       <c r="D14" t="n">
-        <v>167803.9677137946</v>
+        <v>169180.6814838157</v>
       </c>
       <c r="E14" t="n">
-        <v>72404.88951073235</v>
+        <v>64569.83981803386</v>
       </c>
     </row>
     <row r="15">
@@ -3144,16 +3144,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-126970.5000000001</v>
+        <v>-122869.7500000001</v>
       </c>
       <c r="C15" t="n">
-        <v>60208.48227444466</v>
+        <v>50269.96800924162</v>
       </c>
       <c r="D15" t="n">
-        <v>97573.34275277701</v>
+        <v>98950.05652279814</v>
       </c>
       <c r="E15" t="n">
-        <v>30811.3250272216</v>
+        <v>26350.27453203969</v>
       </c>
     </row>
     <row r="16">
@@ -3161,16 +3161,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-72940.50000000007</v>
+        <v>-70584.75000000007</v>
       </c>
       <c r="C16" t="n">
-        <v>34815.54275195141</v>
+        <v>29996.02768426493</v>
       </c>
       <c r="D16" t="n">
-        <v>43413.36921281322</v>
+        <v>44790.08298283436</v>
       </c>
       <c r="E16" t="n">
-        <v>5288.411964764557</v>
+        <v>4201.360667099216</v>
       </c>
     </row>
     <row r="17">
@@ -3178,16 +3178,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-18910.50000000008</v>
+        <v>-18299.75000000007</v>
       </c>
       <c r="C17" t="n">
-        <v>9422.603229458298</v>
+        <v>9722.087359288358</v>
       </c>
       <c r="D17" t="n">
-        <v>5952.233303368581</v>
+        <v>7328.947073389712</v>
       </c>
       <c r="E17" t="n">
-        <v>-3535.663467173197</v>
+        <v>-1248.715567322002</v>
       </c>
     </row>
     <row r="18">
@@ -3195,16 +3195,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>35119.49999999992</v>
+        <v>33985.24999999993</v>
       </c>
       <c r="C18" t="n">
-        <v>-15970.33629303495</v>
+        <v>-10551.85296568833</v>
       </c>
       <c r="D18" t="n">
-        <v>-17455.52091246587</v>
+        <v>-16078.80714244474</v>
       </c>
       <c r="E18" t="n">
-        <v>1693.642794499094</v>
+        <v>7354.589891866855</v>
       </c>
     </row>
     <row r="19">
@@ -3212,16 +3212,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>89149.49999999993</v>
+        <v>86270.24999999993</v>
       </c>
       <c r="C19" t="n">
-        <v>-41363.27581552809</v>
+        <v>-30825.79329066491</v>
       </c>
       <c r="D19" t="n">
-        <v>-31115.87933186281</v>
+        <v>-29739.16556184167</v>
       </c>
       <c r="E19" t="n">
-        <v>16670.34485260903</v>
+        <v>25705.29114749335</v>
       </c>
     </row>
     <row r="20">
@@ -3229,16 +3229,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>143179.4999999999</v>
+        <v>138555.2499999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-66756.21533802134</v>
+        <v>-51099.7336156416</v>
       </c>
       <c r="D20" t="n">
-        <v>-39021.44548998185</v>
+        <v>-37644.73171996071</v>
       </c>
       <c r="E20" t="n">
-        <v>37401.83917199672</v>
+        <v>49810.7846643976</v>
       </c>
     </row>
     <row r="21">
@@ -3246,16 +3246,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>197209.4999999999</v>
+        <v>190840.2499999999</v>
       </c>
       <c r="C21" t="n">
-        <v>-92149.15486051459</v>
+        <v>-71373.67394061829</v>
       </c>
       <c r="D21" t="n">
-        <v>-43872.77390865104</v>
+        <v>-42496.06013862991</v>
       </c>
       <c r="E21" t="n">
-        <v>61187.57123083428</v>
+        <v>76970.51592075171</v>
       </c>
     </row>
     <row r="22">
@@ -3263,16 +3263,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>251239.4999999999</v>
+        <v>243125.2499999999</v>
       </c>
       <c r="C22" t="n">
-        <v>-117542.0943830078</v>
+        <v>-91647.61426559498</v>
       </c>
       <c r="D22" t="n">
-        <v>-47134.17006195327</v>
+        <v>-45757.45629193215</v>
       </c>
       <c r="E22" t="n">
-        <v>86563.23555503879</v>
+        <v>105720.1794424728</v>
       </c>
     </row>
     <row r="23">
@@ -3280,16 +3280,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>305269.4999999999</v>
+        <v>295410.2499999999</v>
       </c>
       <c r="C23" t="n">
-        <v>-142935.0339055011</v>
+        <v>-111921.5545905717</v>
       </c>
       <c r="D23" t="n">
-        <v>-49495.28235528321</v>
+        <v>-48118.56858526208</v>
       </c>
       <c r="E23" t="n">
-        <v>112839.1837392156</v>
+        <v>135370.1268241662</v>
       </c>
     </row>
     <row r="24">
@@ -3297,16 +3297,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>359299.4999999999</v>
+        <v>347695.2499999999</v>
       </c>
       <c r="C24" t="n">
-        <v>-168327.9734279941</v>
+        <v>-132195.4949155481</v>
       </c>
       <c r="D24" t="n">
-        <v>-51271.66780713754</v>
+        <v>-49894.9540371164</v>
       </c>
       <c r="E24" t="n">
-        <v>139699.8587648683</v>
+        <v>165604.8010473354</v>
       </c>
     </row>
     <row r="25">
@@ -3314,16 +3314,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>413329.4999999999</v>
+        <v>399980.2499999999</v>
       </c>
       <c r="C25" t="n">
-        <v>-193720.9129504874</v>
+        <v>-152469.4352405248</v>
       </c>
       <c r="D25" t="n">
-        <v>-52625.52614401291</v>
+        <v>-51248.81237399178</v>
       </c>
       <c r="E25" t="n">
-        <v>166983.0609054997</v>
+        <v>196262.0023854834</v>
       </c>
     </row>
     <row r="26">
@@ -3331,16 +3331,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>467359.4999999999</v>
+        <v>452265.2499999999</v>
       </c>
       <c r="C26" t="n">
-        <v>-219113.8524729806</v>
+        <v>-172743.3755655015</v>
       </c>
       <c r="D26" t="n">
-        <v>-53658.43262088063</v>
+        <v>-52281.7188508595</v>
       </c>
       <c r="E26" t="n">
-        <v>194587.2149061387</v>
+        <v>227240.1555836389</v>
       </c>
     </row>
     <row r="27">
@@ -3348,16 +3348,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>521389.4999999999</v>
+        <v>504550.2499999999</v>
       </c>
       <c r="C27" t="n">
-        <v>-244506.7919954738</v>
+        <v>-193017.3158904782</v>
       </c>
       <c r="D27" t="n">
-        <v>-54444.03862681327</v>
+        <v>-53067.32485679214</v>
       </c>
       <c r="E27" t="n">
-        <v>222438.6693777128</v>
+        <v>258465.6092527296</v>
       </c>
     </row>
   </sheetData>
@@ -3411,16 +3411,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-829360.5000000001</v>
+        <v>-802574.7500000001</v>
       </c>
       <c r="C2" t="n">
-        <v>384293.7125738464</v>
+        <v>309012.7732987513</v>
       </c>
       <c r="D2" t="n">
-        <v>1411694.204406871</v>
+        <v>1413070.918176892</v>
       </c>
       <c r="E2" t="n">
-        <v>966627.4169807169</v>
+        <v>919508.941475643</v>
       </c>
     </row>
     <row r="3">
@@ -3428,16 +3428,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-775330.5000000001</v>
+        <v>-750289.7500000001</v>
       </c>
       <c r="C3" t="n">
-        <v>358602.0092326112</v>
+        <v>288500.2973829238</v>
       </c>
       <c r="D3" t="n">
-        <v>1291972.545393926</v>
+        <v>1293349.259163947</v>
       </c>
       <c r="E3" t="n">
-        <v>875244.0546265371</v>
+        <v>831559.8065468711</v>
       </c>
     </row>
     <row r="4">
@@ -3445,16 +3445,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-721300.5000000001</v>
+        <v>-698004.7500000001</v>
       </c>
       <c r="C4" t="n">
-        <v>332910.305891376</v>
+        <v>267987.8214670964</v>
       </c>
       <c r="D4" t="n">
-        <v>1174307.42081109</v>
+        <v>1175684.134581111</v>
       </c>
       <c r="E4" t="n">
-        <v>785917.2267024656</v>
+        <v>745667.2060482071</v>
       </c>
     </row>
     <row r="5">
@@ -3462,16 +3462,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-667270.5000000001</v>
+        <v>-645719.7500000001</v>
       </c>
       <c r="C5" t="n">
-        <v>307218.6025501408</v>
+        <v>247475.3455512689</v>
       </c>
       <c r="D5" t="n">
-        <v>1059158.110049861</v>
+        <v>1060534.823819882</v>
       </c>
       <c r="E5" t="n">
-        <v>699106.2126000019</v>
+        <v>662290.419371151</v>
       </c>
     </row>
     <row r="6">
@@ -3479,16 +3479,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-613240.5000000001</v>
+        <v>-593434.7500000001</v>
       </c>
       <c r="C6" t="n">
-        <v>281526.8992089056</v>
+        <v>226962.8696354415</v>
       </c>
       <c r="D6" t="n">
-        <v>947042.7920793162</v>
+        <v>948419.5058493374</v>
       </c>
       <c r="E6" t="n">
-        <v>615329.1912882217</v>
+        <v>581947.6254847788</v>
       </c>
     </row>
     <row r="7">
@@ -3496,16 +3496,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-559210.5000000001</v>
+        <v>-541149.7500000001</v>
       </c>
       <c r="C7" t="n">
-        <v>255835.1958676704</v>
+        <v>206450.393719614</v>
       </c>
       <c r="D7" t="n">
-        <v>838558.1850215229</v>
+        <v>839934.8987915441</v>
       </c>
       <c r="E7" t="n">
-        <v>535182.8808891932</v>
+        <v>505235.542511158</v>
       </c>
     </row>
     <row r="8">
@@ -3513,16 +3513,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-505180.5000000001</v>
+        <v>-488864.7500000001</v>
       </c>
       <c r="C8" t="n">
-        <v>230143.4925264352</v>
+        <v>185937.9178037865</v>
       </c>
       <c r="D8" t="n">
-        <v>734390.1215637103</v>
+        <v>735766.8353337315</v>
       </c>
       <c r="E8" t="n">
-        <v>459353.1140901454</v>
+        <v>432840.0031375179</v>
       </c>
     </row>
     <row r="9">
@@ -3530,16 +3530,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-451150.5000000001</v>
+        <v>-436579.7500000001</v>
       </c>
       <c r="C9" t="n">
-        <v>204451.7891852</v>
+        <v>165425.441887959</v>
       </c>
       <c r="D9" t="n">
-        <v>635302.8460490431</v>
+        <v>636679.5598190643</v>
       </c>
       <c r="E9" t="n">
-        <v>388604.1352342431</v>
+        <v>365525.2517070233</v>
       </c>
     </row>
     <row r="10">
@@ -3547,16 +3547,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-397120.5000000001</v>
+        <v>-384294.7500000001</v>
       </c>
       <c r="C10" t="n">
-        <v>178760.0858439649</v>
+        <v>144912.9659721316</v>
       </c>
       <c r="D10" t="n">
-        <v>542100.5185757368</v>
+        <v>543477.2323457579</v>
       </c>
       <c r="E10" t="n">
-        <v>323740.1044197016</v>
+        <v>304095.4483178894</v>
       </c>
     </row>
     <row r="11">
@@ -3564,16 +3564,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-343090.5000000001</v>
+        <v>-332009.7500000001</v>
       </c>
       <c r="C11" t="n">
-        <v>153068.3825027296</v>
+        <v>124400.490056304</v>
       </c>
       <c r="D11" t="n">
-        <v>455563.6159481228</v>
+        <v>456940.3297181439</v>
       </c>
       <c r="E11" t="n">
-        <v>265541.4984508523</v>
+        <v>249331.0697744479</v>
       </c>
     </row>
     <row r="12">
@@ -3581,16 +3581,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-289060.5000000001</v>
+        <v>-279724.7500000001</v>
       </c>
       <c r="C12" t="n">
-        <v>127376.6791614945</v>
+        <v>103888.0141404766</v>
       </c>
       <c r="D12" t="n">
-        <v>376371.6925993662</v>
+        <v>377748.4063693873</v>
       </c>
       <c r="E12" t="n">
-        <v>214687.8717608606</v>
+        <v>201911.6705098639</v>
       </c>
     </row>
     <row r="13">
@@ -3598,16 +3598,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-235030.5000000001</v>
+        <v>-227439.7500000001</v>
       </c>
       <c r="C13" t="n">
-        <v>101684.9758202593</v>
+        <v>83375.53822464915</v>
       </c>
       <c r="D13" t="n">
-        <v>305028.7842835798</v>
+        <v>306405.498053601</v>
       </c>
       <c r="E13" t="n">
-        <v>171683.260103839</v>
+        <v>162341.28627825</v>
       </c>
     </row>
     <row r="14">
@@ -3615,16 +3615,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-181000.5000000001</v>
+        <v>-175154.7500000001</v>
       </c>
       <c r="C14" t="n">
-        <v>75993.27247902399</v>
+        <v>62863.06230882159</v>
       </c>
       <c r="D14" t="n">
-        <v>241807.1153179467</v>
+        <v>243183.8290879678</v>
       </c>
       <c r="E14" t="n">
-        <v>136799.8877969706</v>
+        <v>130892.1413967893</v>
       </c>
     </row>
     <row r="15">
@@ -3632,16 +3632,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-126970.5000000001</v>
+        <v>-122869.7500000001</v>
       </c>
       <c r="C15" t="n">
-        <v>50301.56913778896</v>
+        <v>42350.58639299427</v>
       </c>
       <c r="D15" t="n">
-        <v>186719.5728861577</v>
+        <v>188096.2866561788</v>
       </c>
       <c r="E15" t="n">
-        <v>110050.6420239466</v>
+        <v>107577.123049173</v>
       </c>
     </row>
     <row r="16">
@@ -3649,16 +3649,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-72940.50000000007</v>
+        <v>-70584.75000000007</v>
       </c>
       <c r="C16" t="n">
-        <v>24609.86579655367</v>
+        <v>21838.11047716672</v>
       </c>
       <c r="D16" t="n">
-        <v>139524.0217038556</v>
+        <v>140900.7354738767</v>
       </c>
       <c r="E16" t="n">
-        <v>91193.38750040917</v>
+        <v>92154.09595104337</v>
       </c>
     </row>
     <row r="17">
@@ -3666,16 +3666,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-18910.50000000008</v>
+        <v>-18299.75000000007</v>
       </c>
       <c r="C17" t="n">
-        <v>-1081.837544681504</v>
+        <v>1325.634561339277</v>
       </c>
       <c r="D17" t="n">
-        <v>99755.56659102587</v>
+        <v>101132.280361047</v>
       </c>
       <c r="E17" t="n">
-        <v>79763.22904634429</v>
+        <v>84158.1649223862</v>
       </c>
     </row>
     <row r="18">
@@ -3683,16 +3683,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>35119.49999999992</v>
+        <v>33985.24999999993</v>
       </c>
       <c r="C18" t="n">
-        <v>-26773.54088591677</v>
+        <v>-19186.84135448828</v>
       </c>
       <c r="D18" t="n">
-        <v>66778.16983331657</v>
+        <v>68154.8836033377</v>
       </c>
       <c r="E18" t="n">
-        <v>75124.12894739973</v>
+        <v>82953.29224884935</v>
       </c>
     </row>
     <row r="19">
@@ -3700,16 +3700,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>89149.49999999993</v>
+        <v>86270.24999999993</v>
       </c>
       <c r="C19" t="n">
-        <v>-52465.24422715182</v>
+        <v>-39699.3172703156</v>
       </c>
       <c r="D19" t="n">
-        <v>39845.25730516686</v>
+        <v>41221.97107518799</v>
       </c>
       <c r="E19" t="n">
-        <v>76529.51307801496</v>
+        <v>87792.90380487232</v>
       </c>
     </row>
     <row r="20">
@@ -3717,16 +3717,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>143179.4999999999</v>
+        <v>138555.2499999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-78156.94756838706</v>
+        <v>-60211.79318614316</v>
       </c>
       <c r="D20" t="n">
-        <v>18159.74341886477</v>
+        <v>19536.4571888859</v>
       </c>
       <c r="E20" t="n">
-        <v>83182.29585047763</v>
+        <v>97879.91400274266</v>
       </c>
     </row>
     <row r="21">
@@ -3734,16 +3734,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>197209.4999999999</v>
+        <v>190840.2499999999</v>
       </c>
       <c r="C21" t="n">
-        <v>-103848.6509096223</v>
+        <v>-80724.26910197071</v>
       </c>
       <c r="D21" t="n">
-        <v>926.3389991182048</v>
+        <v>2303.052769139334</v>
       </c>
       <c r="E21" t="n">
-        <v>94287.18808949577</v>
+        <v>112419.0336671685</v>
       </c>
     </row>
     <row r="22">
@@ -3751,16 +3751,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>251239.4999999999</v>
+        <v>243125.2499999999</v>
       </c>
       <c r="C22" t="n">
-        <v>-129540.3542508575</v>
+        <v>-101236.7450177982</v>
       </c>
       <c r="D22" t="n">
-        <v>-12607.95750596995</v>
+        <v>-11231.24373594882</v>
       </c>
       <c r="E22" t="n">
-        <v>109091.1882431725</v>
+        <v>130657.261246253</v>
       </c>
     </row>
     <row r="23">
@@ -3768,16 +3768,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>305269.4999999999</v>
+        <v>295410.2499999999</v>
       </c>
       <c r="C23" t="n">
-        <v>-155232.0575920927</v>
+        <v>-121749.2209336256</v>
       </c>
       <c r="D23" t="n">
-        <v>-23126.46689333294</v>
+        <v>-21749.75312331181</v>
       </c>
       <c r="E23" t="n">
-        <v>126910.9755145743</v>
+        <v>151911.2759430625</v>
       </c>
     </row>
     <row r="24">
@@ -3785,16 +3785,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>359299.4999999999</v>
+        <v>347695.2499999999</v>
       </c>
       <c r="C24" t="n">
-        <v>-180923.7609333278</v>
+        <v>-142261.696849453</v>
       </c>
       <c r="D24" t="n">
-        <v>-31227.69059953005</v>
+        <v>-29850.97682950892</v>
       </c>
       <c r="E24" t="n">
-        <v>147148.048467142</v>
+        <v>175582.576321038</v>
       </c>
     </row>
     <row r="25">
@@ -3802,16 +3802,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>413329.4999999999</v>
+        <v>399980.2499999999</v>
       </c>
       <c r="C25" t="n">
-        <v>-206615.4642745631</v>
+        <v>-162774.1727652806</v>
       </c>
       <c r="D25" t="n">
-        <v>-37420.29969254474</v>
+        <v>-36043.58592252361</v>
       </c>
       <c r="E25" t="n">
-        <v>169293.7360328921</v>
+        <v>201162.4913121958</v>
       </c>
     </row>
     <row r="26">
@@ -3819,16 +3819,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>467359.4999999999</v>
+        <v>452265.2499999999</v>
       </c>
       <c r="C26" t="n">
-        <v>-232307.1676157983</v>
+        <v>-183286.648681108</v>
       </c>
       <c r="D26" t="n">
-        <v>-42125.60135619379</v>
+        <v>-40748.88758617266</v>
       </c>
       <c r="E26" t="n">
-        <v>192926.7310280079</v>
+        <v>228229.7137327192</v>
       </c>
     </row>
     <row r="27">
@@ -3836,16 +3836,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>521389.4999999999</v>
+        <v>504550.2499999999</v>
       </c>
       <c r="C27" t="n">
-        <v>-257998.8709570334</v>
+        <v>-203799.1245969355</v>
       </c>
       <c r="D27" t="n">
-        <v>-45684.87165495202</v>
+        <v>-44308.15788493089</v>
       </c>
       <c r="E27" t="n">
-        <v>217705.7573880145</v>
+        <v>256442.9675181336</v>
       </c>
     </row>
   </sheetData>
@@ -3899,16 +3899,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-829360.5000000001</v>
+        <v>-802574.7500000001</v>
       </c>
       <c r="C2" t="n">
-        <v>385280.5339100064</v>
+        <v>309802.2356337084</v>
       </c>
       <c r="D2" t="n">
-        <v>1418259.948015898</v>
+        <v>1419636.661785919</v>
       </c>
       <c r="E2" t="n">
-        <v>974179.9819259038</v>
+        <v>926864.1474196271</v>
       </c>
     </row>
     <row r="3">
@@ -3916,16 +3916,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-775330.5000000001</v>
+        <v>-750289.7500000001</v>
       </c>
       <c r="C3" t="n">
-        <v>359637.780812641</v>
+        <v>289328.8420116907</v>
       </c>
       <c r="D3" t="n">
-        <v>1298071.516498236</v>
+        <v>1299448.230268257</v>
       </c>
       <c r="E3" t="n">
-        <v>882378.7973108771</v>
+        <v>838487.322279948</v>
       </c>
     </row>
     <row r="4">
@@ -3933,16 +3933,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-721300.5000000001</v>
+        <v>-698004.7500000001</v>
       </c>
       <c r="C4" t="n">
-        <v>333995.0277152758</v>
+        <v>268855.448389673</v>
       </c>
       <c r="D4" t="n">
-        <v>1179829.788250149</v>
+        <v>1181206.50202017</v>
       </c>
       <c r="E4" t="n">
-        <v>792524.3159654249</v>
+        <v>752057.2004098434</v>
       </c>
     </row>
     <row r="5">
@@ -3950,16 +3950,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-667270.5000000001</v>
+        <v>-645719.7500000001</v>
       </c>
       <c r="C5" t="n">
-        <v>308352.2746179105</v>
+        <v>248382.0547676552</v>
       </c>
       <c r="D5" t="n">
-        <v>1063964.629207563</v>
+        <v>1065341.342977584</v>
       </c>
       <c r="E5" t="n">
-        <v>705046.4038254737</v>
+        <v>668003.6477452394</v>
       </c>
     </row>
     <row r="6">
@@ -3967,16 +3967,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-613240.5000000001</v>
+        <v>-593434.7500000001</v>
       </c>
       <c r="C6" t="n">
-        <v>282709.5215205452</v>
+        <v>227908.6611456376</v>
       </c>
       <c r="D6" t="n">
-        <v>950949.8106585979</v>
+        <v>952326.5244286191</v>
       </c>
       <c r="E6" t="n">
-        <v>620418.832179143</v>
+        <v>586800.4355742566</v>
       </c>
     </row>
     <row r="7">
@@ -3984,16 +3984,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-559210.5000000001</v>
+        <v>-541149.7500000001</v>
       </c>
       <c r="C7" t="n">
-        <v>257066.7684231799</v>
+        <v>207435.2675236198</v>
       </c>
       <c r="D7" t="n">
-        <v>841331.4761134875</v>
+        <v>842708.1898835085</v>
       </c>
       <c r="E7" t="n">
-        <v>539187.7445366674</v>
+        <v>508993.7074071282</v>
       </c>
     </row>
     <row r="8">
@@ -4001,16 +4001,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-505180.5000000001</v>
+        <v>-488864.7500000001</v>
       </c>
       <c r="C8" t="n">
-        <v>231424.0153258146</v>
+        <v>186961.8739016021</v>
       </c>
       <c r="D8" t="n">
-        <v>735757.3711059766</v>
+        <v>737134.0848759979</v>
       </c>
       <c r="E8" t="n">
-        <v>462000.8864317912</v>
+        <v>435231.2087775999</v>
       </c>
     </row>
     <row r="9">
@@ -4018,16 +4018,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-451150.5000000001</v>
+        <v>-436579.7500000001</v>
       </c>
       <c r="C9" t="n">
-        <v>205781.2622284493</v>
+        <v>166488.4802795843</v>
       </c>
       <c r="D9" t="n">
-        <v>634988.8473557389</v>
+        <v>636365.56112576</v>
       </c>
       <c r="E9" t="n">
-        <v>389619.6095841881</v>
+        <v>366274.2914053442</v>
       </c>
     </row>
     <row r="10">
@@ -4035,16 +4035,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-397120.5000000001</v>
+        <v>-384294.7500000001</v>
       </c>
       <c r="C10" t="n">
-        <v>180138.5091310841</v>
+        <v>146015.0866575667</v>
       </c>
       <c r="D10" t="n">
-        <v>539879.7099364646</v>
+        <v>541256.4237064857</v>
       </c>
       <c r="E10" t="n">
-        <v>322897.7190675486</v>
+        <v>302976.7603640523</v>
       </c>
     </row>
     <row r="11">
@@ -4052,16 +4052,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-343090.5000000001</v>
+        <v>-332009.7500000001</v>
       </c>
       <c r="C11" t="n">
-        <v>154495.7560337187</v>
+        <v>125541.6930355489</v>
       </c>
       <c r="D11" t="n">
-        <v>451316.1713205543</v>
+        <v>452692.8850905754</v>
       </c>
       <c r="E11" t="n">
-        <v>262721.427354273</v>
+        <v>246224.8281261243</v>
       </c>
     </row>
     <row r="12">
@@ -4069,16 +4069,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-289060.5000000001</v>
+        <v>-279724.7500000001</v>
       </c>
       <c r="C12" t="n">
-        <v>128853.0029363534</v>
+        <v>105068.2994135312</v>
       </c>
       <c r="D12" t="n">
-        <v>370126.2509223617</v>
+        <v>371502.9646923828</v>
       </c>
       <c r="E12" t="n">
-        <v>209918.7538587151</v>
+        <v>196846.514105914</v>
       </c>
     </row>
     <row r="13">
@@ -4086,16 +4086,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-235030.5000000001</v>
+        <v>-227439.7500000001</v>
       </c>
       <c r="C13" t="n">
-        <v>103210.2498389882</v>
+        <v>84594.90579151351</v>
       </c>
       <c r="D13" t="n">
-        <v>296978.5409234058</v>
+        <v>298355.2546934269</v>
       </c>
       <c r="E13" t="n">
-        <v>165158.2907623939</v>
+        <v>155510.4104849403</v>
       </c>
     </row>
     <row r="14">
@@ -4103,16 +4103,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-181000.5000000001</v>
+        <v>-175154.7500000001</v>
       </c>
       <c r="C14" t="n">
-        <v>77567.49674162289</v>
+        <v>64121.51216949581</v>
       </c>
       <c r="D14" t="n">
-        <v>232294.4660263351</v>
+        <v>233671.1797963563</v>
       </c>
       <c r="E14" t="n">
-        <v>128861.4627679579</v>
+        <v>122637.941965852</v>
       </c>
     </row>
     <row r="15">
@@ -4120,16 +4120,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-126970.5000000001</v>
+        <v>-122869.7500000001</v>
       </c>
       <c r="C15" t="n">
-        <v>51924.7436442576</v>
+        <v>43648.11854747811</v>
       </c>
       <c r="D15" t="n">
-        <v>176193.922704986</v>
+        <v>177570.6364750072</v>
       </c>
       <c r="E15" t="n">
-        <v>101148.1663492435</v>
+        <v>98349.0050224852</v>
       </c>
     </row>
     <row r="16">
@@ -4137,16 +4137,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-72940.50000000007</v>
+        <v>-70584.75000000007</v>
       </c>
       <c r="C16" t="n">
-        <v>26281.99054689219</v>
+        <v>23174.72492546029</v>
       </c>
       <c r="D16" t="n">
-        <v>128484.1218862676</v>
+        <v>129860.8356562887</v>
       </c>
       <c r="E16" t="n">
-        <v>81825.61243315974</v>
+        <v>82450.81058174897</v>
       </c>
     </row>
     <row r="17">
@@ -4154,16 +4154,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-18910.50000000008</v>
+        <v>-18299.75000000007</v>
       </c>
       <c r="C17" t="n">
-        <v>639.2374495269614</v>
+        <v>2701.331303442596</v>
       </c>
       <c r="D17" t="n">
-        <v>88689.98947929706</v>
+        <v>90066.70324931818</v>
       </c>
       <c r="E17" t="n">
-        <v>70418.72692882395</v>
+        <v>74468.2845527607</v>
       </c>
     </row>
     <row r="18">
@@ -4171,16 +4171,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>35119.49999999992</v>
+        <v>33985.24999999993</v>
       </c>
       <c r="C18" t="n">
-        <v>-25003.51564783833</v>
+        <v>-17772.0623185751</v>
       </c>
       <c r="D18" t="n">
-        <v>56115.53757072896</v>
+        <v>57492.25134075009</v>
       </c>
       <c r="E18" t="n">
-        <v>66231.52192289055</v>
+        <v>73705.43902217492</v>
       </c>
     </row>
     <row r="19">
@@ -4188,16 +4188,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>89149.49999999993</v>
+        <v>86270.24999999993</v>
       </c>
       <c r="C19" t="n">
-        <v>-50646.2687452035</v>
+        <v>-38245.45594059268</v>
       </c>
       <c r="D19" t="n">
-        <v>29921.26557051922</v>
+        <v>31297.97934054035</v>
       </c>
       <c r="E19" t="n">
-        <v>68424.49682531564</v>
+        <v>79322.77339994759</v>
       </c>
     </row>
     <row r="20">
@@ -4205,16 +4205,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>143179.4999999999</v>
+        <v>138555.2499999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-76289.02184256897</v>
+        <v>-58718.84956261062</v>
       </c>
       <c r="D20" t="n">
-        <v>9202.882147960434</v>
+        <v>10579.59591798157</v>
       </c>
       <c r="E20" t="n">
-        <v>76093.36030539138</v>
+        <v>90415.99635537087</v>
       </c>
     </row>
     <row r="21">
@@ -4222,16 +4222,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>197209.4999999999</v>
+        <v>190840.2499999999</v>
       </c>
       <c r="C21" t="n">
-        <v>-101931.7749399341</v>
+        <v>-79192.2431846282</v>
       </c>
       <c r="D21" t="n">
-        <v>-6939.936650400979</v>
+        <v>-5563.222880379848</v>
       </c>
       <c r="E21" t="n">
-        <v>88337.78840966479</v>
+        <v>106084.7839349919</v>
       </c>
     </row>
     <row r="22">
@@ -4239,16 +4239,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>251239.4999999999</v>
+        <v>243125.2499999999</v>
       </c>
       <c r="C22" t="n">
-        <v>-127574.5280372994</v>
+        <v>-99665.6368066459</v>
       </c>
       <c r="D22" t="n">
-        <v>-19351.26513756388</v>
+        <v>-17974.55136754275</v>
       </c>
       <c r="E22" t="n">
-        <v>104313.7068251366</v>
+        <v>125485.0618258113</v>
       </c>
     </row>
     <row r="23">
@@ -4256,16 +4256,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>305269.4999999999</v>
+        <v>295410.2499999999</v>
       </c>
       <c r="C23" t="n">
-        <v>-153217.2811346647</v>
+        <v>-120139.0304286636</v>
       </c>
       <c r="D23" t="n">
-        <v>-28785.07641985144</v>
+        <v>-27408.36264983031</v>
       </c>
       <c r="E23" t="n">
-        <v>123267.1424454838</v>
+        <v>147862.856921506</v>
       </c>
     </row>
     <row r="24">
@@ -4273,16 +4273,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>359299.4999999999</v>
+        <v>347695.2499999999</v>
       </c>
       <c r="C24" t="n">
-        <v>-178860.0342320301</v>
+        <v>-140612.4240506814</v>
       </c>
       <c r="D24" t="n">
-        <v>-35888.36790058087</v>
+        <v>-34511.65413055974</v>
       </c>
       <c r="E24" t="n">
-        <v>144551.097867389</v>
+        <v>172571.1718187588</v>
       </c>
     </row>
     <row r="25">
@@ -4290,16 +4290,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>413329.4999999999</v>
+        <v>399980.2499999999</v>
       </c>
       <c r="C25" t="n">
-        <v>-204502.7873293953</v>
+        <v>-161085.8176726991</v>
       </c>
       <c r="D25" t="n">
-        <v>-41197.84633298208</v>
+        <v>-39821.13256296095</v>
       </c>
       <c r="E25" t="n">
-        <v>167628.8663376225</v>
+        <v>199073.2997643399</v>
       </c>
     </row>
     <row r="26">
@@ -4307,16 +4307,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>467359.4999999999</v>
+        <v>452265.2499999999</v>
       </c>
       <c r="C26" t="n">
-        <v>-230145.5404267606</v>
+        <v>-181559.2112947168</v>
       </c>
       <c r="D26" t="n">
-        <v>-45146.07897783501</v>
+        <v>-43769.36520781388</v>
       </c>
       <c r="E26" t="n">
-        <v>192067.8805954043</v>
+        <v>226936.6734974693</v>
       </c>
     </row>
     <row r="27">
@@ -4324,16 +4324,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>521389.4999999999</v>
+        <v>504550.2499999999</v>
       </c>
       <c r="C27" t="n">
-        <v>-255788.2935241259</v>
+        <v>-202032.6049167345</v>
       </c>
       <c r="D27" t="n">
-        <v>-48073.25215522835</v>
+        <v>-46696.53838520723</v>
       </c>
       <c r="E27" t="n">
-        <v>217527.9543206457</v>
+        <v>255821.1066980582</v>
       </c>
     </row>
   </sheetData>
@@ -4387,16 +4387,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-829360.5000000001</v>
+        <v>-802574.7500000001</v>
       </c>
       <c r="C2" t="n">
-        <v>386134.2580787211</v>
+        <v>310485.2195244555</v>
       </c>
       <c r="D2" t="n">
-        <v>1424021.170259602</v>
+        <v>1425397.884029623</v>
       </c>
       <c r="E2" t="n">
-        <v>980794.9283383231</v>
+        <v>933308.3535540786</v>
       </c>
     </row>
     <row r="3">
@@ -4404,16 +4404,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-775330.5000000001</v>
+        <v>-750289.7500000001</v>
       </c>
       <c r="C3" t="n">
-        <v>360533.8530789545</v>
+        <v>290045.6369861381</v>
       </c>
       <c r="D3" t="n">
-        <v>1303442.400687564</v>
+        <v>1304819.114457585</v>
       </c>
       <c r="E3" t="n">
-        <v>888645.7537665183</v>
+        <v>844575.001443723</v>
       </c>
     </row>
     <row r="4">
@@ -4421,16 +4421,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-721300.5000000001</v>
+        <v>-698004.7500000001</v>
       </c>
       <c r="C4" t="n">
-        <v>334933.448079188</v>
+        <v>269606.0544478208</v>
       </c>
       <c r="D4" t="n">
-        <v>1184726.701119191</v>
+        <v>1186103.414889212</v>
       </c>
       <c r="E4" t="n">
-        <v>798359.6491983789</v>
+        <v>757704.7193370329</v>
       </c>
     </row>
     <row r="5">
@@ -4438,16 +4438,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-667270.5000000001</v>
+        <v>-645719.7500000001</v>
       </c>
       <c r="C5" t="n">
-        <v>309333.0430794214</v>
+        <v>249166.4719095034</v>
       </c>
       <c r="D5" t="n">
-        <v>1068285.19445956</v>
+        <v>1069661.908229582</v>
       </c>
       <c r="E5" t="n">
-        <v>710347.7375389816</v>
+        <v>673108.6301390848</v>
       </c>
     </row>
     <row r="6">
@@ -4455,16 +4455,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-613240.5000000001</v>
+        <v>-593434.7500000001</v>
       </c>
       <c r="C6" t="n">
-        <v>283732.6380796549</v>
+        <v>228726.8893711861</v>
       </c>
       <c r="D6" t="n">
-        <v>954553.4827430428</v>
+        <v>955930.196513064</v>
       </c>
       <c r="E6" t="n">
-        <v>625045.6208226975</v>
+        <v>591222.33588425</v>
       </c>
     </row>
     <row r="7">
@@ -4472,16 +4472,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-559210.5000000001</v>
+        <v>-541149.7500000001</v>
       </c>
       <c r="C7" t="n">
-        <v>258132.2330798883</v>
+        <v>208287.3068328687</v>
       </c>
       <c r="D7" t="n">
-        <v>844021.8599046954</v>
+        <v>845398.5736747165</v>
       </c>
       <c r="E7" t="n">
-        <v>542943.5929845837</v>
+        <v>512536.1305075851</v>
       </c>
     </row>
     <row r="8">
@@ -4489,16 +4489,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-505180.5000000001</v>
+        <v>-488864.7500000001</v>
       </c>
       <c r="C8" t="n">
-        <v>232531.8280801217</v>
+        <v>187847.7242945513</v>
       </c>
       <c r="D8" t="n">
-        <v>737279.6689569976</v>
+        <v>738656.3827270188</v>
       </c>
       <c r="E8" t="n">
-        <v>464630.9970371192</v>
+        <v>437639.35702157</v>
       </c>
     </row>
     <row r="9">
@@ -4506,16 +4506,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-451150.5000000001</v>
+        <v>-436579.7500000001</v>
       </c>
       <c r="C9" t="n">
-        <v>206931.4230803552</v>
+        <v>167408.141756234</v>
       </c>
       <c r="D9" t="n">
-        <v>635053.719425793</v>
+        <v>636430.4331958143</v>
       </c>
       <c r="E9" t="n">
-        <v>390834.6425061482</v>
+        <v>367258.8249520482</v>
       </c>
     </row>
     <row r="10">
@@ -4523,16 +4523,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-397120.5000000001</v>
+        <v>-384294.7500000001</v>
       </c>
       <c r="C10" t="n">
-        <v>181331.0180805886</v>
+        <v>146968.5592179166</v>
       </c>
       <c r="D10" t="n">
-        <v>538214.9751467332</v>
+        <v>539591.6889167543</v>
       </c>
       <c r="E10" t="n">
-        <v>322425.4932273218</v>
+        <v>302265.4981346708</v>
       </c>
     </row>
     <row r="11">
@@ -4540,16 +4540,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-343090.5000000001</v>
+        <v>-332009.7500000001</v>
       </c>
       <c r="C11" t="n">
-        <v>155730.6130808221</v>
+        <v>126528.9766795993</v>
       </c>
       <c r="D11" t="n">
-        <v>447734.4824328042</v>
+        <v>449111.1962028253</v>
       </c>
       <c r="E11" t="n">
-        <v>260374.5955136263</v>
+        <v>243630.4228824246</v>
       </c>
     </row>
     <row r="12">
@@ -4557,16 +4557,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-289060.5000000001</v>
+        <v>-279724.7500000001</v>
       </c>
       <c r="C12" t="n">
-        <v>130130.2080810555</v>
+        <v>106089.3941412818</v>
       </c>
       <c r="D12" t="n">
-        <v>364587.4185714758</v>
+        <v>365964.1323414969</v>
       </c>
       <c r="E12" t="n">
-        <v>205657.1266525312</v>
+        <v>192328.7764827787</v>
       </c>
     </row>
     <row r="13">
@@ -4574,16 +4574,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-235030.5000000001</v>
+        <v>-227439.7500000001</v>
       </c>
       <c r="C13" t="n">
-        <v>104529.803081289</v>
+        <v>85649.81160296453</v>
       </c>
       <c r="D13" t="n">
-        <v>289624.9435208656</v>
+        <v>291001.6572908867</v>
       </c>
       <c r="E13" t="n">
-        <v>159124.2466021545</v>
+        <v>149211.7188938512</v>
       </c>
     </row>
     <row r="14">
@@ -4591,16 +4591,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-181000.5000000001</v>
+        <v>-175154.7500000001</v>
       </c>
       <c r="C14" t="n">
-        <v>78929.39808152249</v>
+        <v>65210.22906464722</v>
       </c>
       <c r="D14" t="n">
-        <v>223447.080783288</v>
+        <v>224823.7945533092</v>
       </c>
       <c r="E14" t="n">
-        <v>121375.9788648104</v>
+        <v>114879.2736179563</v>
       </c>
     </row>
     <row r="15">
@@ -4608,16 +4608,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-126970.5000000001</v>
+        <v>-122869.7500000001</v>
       </c>
       <c r="C15" t="n">
-        <v>53328.99308175588</v>
+        <v>44770.6465263298</v>
       </c>
       <c r="D15" t="n">
-        <v>166310.1721190333</v>
+        <v>167686.8858890544</v>
       </c>
       <c r="E15" t="n">
-        <v>92668.6652007891</v>
+        <v>89587.78241538415</v>
       </c>
     </row>
     <row r="16">
@@ -4625,16 +4625,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-72940.50000000007</v>
+        <v>-70584.75000000007</v>
       </c>
       <c r="C16" t="n">
-        <v>27728.58808198926</v>
+        <v>24331.06398801238</v>
       </c>
       <c r="D16" t="n">
-        <v>118090.5813879391</v>
+        <v>119467.2951579602</v>
       </c>
       <c r="E16" t="n">
-        <v>72878.66946992825</v>
+        <v>73213.60914597251</v>
       </c>
     </row>
     <row r="17">
@@ -4642,16 +4642,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-18910.50000000008</v>
+        <v>-18299.75000000007</v>
       </c>
       <c r="C17" t="n">
-        <v>2128.183082222735</v>
+        <v>3891.481449695071</v>
       </c>
       <c r="D17" t="n">
-        <v>78308.62580371356</v>
+        <v>79685.33957373469</v>
       </c>
       <c r="E17" t="n">
-        <v>61526.30888593622</v>
+        <v>65277.07102342969</v>
       </c>
     </row>
     <row r="18">
@@ -4659,16 +4659,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>35119.49999999992</v>
+        <v>33985.24999999993</v>
       </c>
       <c r="C18" t="n">
-        <v>-23472.22191754385</v>
+        <v>-16548.10108862235</v>
       </c>
       <c r="D18" t="n">
-        <v>46200.72378915107</v>
+        <v>47577.43755917221</v>
       </c>
       <c r="E18" t="n">
-        <v>57848.00187160714</v>
+        <v>65014.58647054979</v>
       </c>
     </row>
     <row r="19">
@@ -4676,16 +4676,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>89149.49999999993</v>
+        <v>86270.24999999993</v>
       </c>
       <c r="C19" t="n">
-        <v>-49072.62691731035</v>
+        <v>-36987.68362693966</v>
       </c>
       <c r="D19" t="n">
-        <v>20818.53030900302</v>
+        <v>22195.24407902416</v>
       </c>
       <c r="E19" t="n">
-        <v>60895.4033916926</v>
+        <v>71477.81045208442</v>
       </c>
     </row>
     <row r="20">
@@ -4693,16 +4693,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>143179.4999999999</v>
+        <v>138555.2499999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-74673.03191707685</v>
+        <v>-57427.26616525697</v>
       </c>
       <c r="D20" t="n">
-        <v>1132.570666404598</v>
+        <v>2509.284436425729</v>
       </c>
       <c r="E20" t="n">
-        <v>69639.03874932766</v>
+        <v>83637.26827116868</v>
       </c>
     </row>
     <row r="21">
@@ -4710,16 +4710,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>197209.4999999999</v>
+        <v>190840.2499999999</v>
       </c>
       <c r="C21" t="n">
-        <v>-100273.4369168435</v>
+        <v>-77866.84870357439</v>
       </c>
       <c r="D21" t="n">
-        <v>-13877.34032282355</v>
+        <v>-12500.62655280242</v>
       </c>
       <c r="E21" t="n">
-        <v>83058.72276033286</v>
+        <v>100472.7747436231</v>
       </c>
     </row>
     <row r="22">
@@ -4727,16 +4727,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>251239.4999999999</v>
+        <v>243125.2499999999</v>
       </c>
       <c r="C22" t="n">
-        <v>-125873.8419166101</v>
+        <v>-98306.43124189181</v>
       </c>
       <c r="D22" t="n">
-        <v>-25155.04569492898</v>
+        <v>-23778.33192490785</v>
       </c>
       <c r="E22" t="n">
-        <v>100210.6123884608</v>
+        <v>121040.4868332003</v>
       </c>
     </row>
     <row r="23">
@@ -4744,16 +4744,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>305269.4999999999</v>
+        <v>295410.2499999999</v>
       </c>
       <c r="C23" t="n">
-        <v>-151474.2469163766</v>
+        <v>-118746.0137802091</v>
       </c>
       <c r="D23" t="n">
-        <v>-33527.12010363891</v>
+        <v>-32150.40633361778</v>
       </c>
       <c r="E23" t="n">
-        <v>120268.1329799844</v>
+        <v>144513.829886173</v>
       </c>
     </row>
     <row r="24">
@@ -4761,16 +4761,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>359299.4999999999</v>
+        <v>347695.2499999999</v>
       </c>
       <c r="C24" t="n">
-        <v>-177074.6519161431</v>
+        <v>-139185.5963185264</v>
       </c>
       <c r="D24" t="n">
-        <v>-39685.40332681708</v>
+        <v>-38308.68955679595</v>
       </c>
       <c r="E24" t="n">
-        <v>142539.4447570398</v>
+        <v>170200.9641246776</v>
       </c>
     </row>
     <row r="25">
@@ -4778,16 +4778,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>413329.4999999999</v>
+        <v>399980.2499999999</v>
       </c>
       <c r="C25" t="n">
-        <v>-202675.0569159098</v>
+        <v>-159625.178856844</v>
       </c>
       <c r="D25" t="n">
-        <v>-44187.41266390753</v>
+        <v>-42810.69889388639</v>
       </c>
       <c r="E25" t="n">
-        <v>166467.0304201826</v>
+        <v>197544.3722492696</v>
       </c>
     </row>
     <row r="26">
@@ -4795,16 +4795,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>467359.4999999999</v>
+        <v>452265.2499999999</v>
       </c>
       <c r="C26" t="n">
-        <v>-228275.4619156763</v>
+        <v>-180064.7613951613</v>
       </c>
       <c r="D26" t="n">
-        <v>-47468.31544799608</v>
+        <v>-46091.60167797495</v>
       </c>
       <c r="E26" t="n">
-        <v>191615.7226363275</v>
+        <v>226108.8869268637</v>
       </c>
     </row>
     <row r="27">
@@ -4812,16 +4812,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>521389.4999999999</v>
+        <v>504550.2499999999</v>
       </c>
       <c r="C27" t="n">
-        <v>-253875.8669154428</v>
+        <v>-200504.3439334786</v>
       </c>
       <c r="D27" t="n">
-        <v>-49858.84504592672</v>
+        <v>-48482.13127590559</v>
       </c>
       <c r="E27" t="n">
-        <v>217654.7880386304</v>
+        <v>255563.7747906158</v>
       </c>
     </row>
   </sheetData>
@@ -4875,16 +4875,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-829360.5000000001</v>
+        <v>-802574.7500000001</v>
       </c>
       <c r="C2" t="n">
-        <v>388295.0773923584</v>
+        <v>312213.8865062646</v>
       </c>
       <c r="D2" t="n">
-        <v>1438936.248895401</v>
+        <v>1440312.962665422</v>
       </c>
       <c r="E2" t="n">
-        <v>997870.826287759</v>
+        <v>949952.0991716863</v>
       </c>
     </row>
     <row r="3">
@@ -4892,16 +4892,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-775330.5000000001</v>
+        <v>-750289.7500000001</v>
       </c>
       <c r="C3" t="n">
-        <v>362801.8575825402</v>
+        <v>291859.8815413041</v>
       </c>
       <c r="D3" t="n">
-        <v>1317394.817093563</v>
+        <v>1318771.530863585</v>
       </c>
       <c r="E3" t="n">
-        <v>904866.1746761035</v>
+        <v>860341.6624048888</v>
       </c>
     </row>
     <row r="4">
@@ -4909,16 +4909,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-721300.5000000001</v>
+        <v>-698004.7500000001</v>
       </c>
       <c r="C4" t="n">
-        <v>337308.6377727219</v>
+        <v>271505.8765763437</v>
       </c>
       <c r="D4" t="n">
-        <v>1197528.918933663</v>
+        <v>1198905.632703684</v>
       </c>
       <c r="E4" t="n">
-        <v>813537.0567063844</v>
+        <v>772406.7592800274</v>
       </c>
     </row>
     <row r="5">
@@ -4926,16 +4926,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-667270.5000000001</v>
+        <v>-645719.7500000001</v>
       </c>
       <c r="C5" t="n">
-        <v>311815.4179629037</v>
+        <v>251151.8716113832</v>
       </c>
       <c r="D5" t="n">
-        <v>1079753.045149343</v>
+        <v>1081129.758919364</v>
       </c>
       <c r="E5" t="n">
-        <v>724297.9631122467</v>
+        <v>686561.8805307474</v>
       </c>
     </row>
     <row r="6">
@@ -4943,16 +4943,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-613240.5000000001</v>
+        <v>-593434.7500000001</v>
       </c>
       <c r="C6" t="n">
-        <v>286322.1981530854</v>
+        <v>230797.8666464227</v>
       </c>
       <c r="D6" t="n">
-        <v>964461.9874891459</v>
+        <v>965838.7012591669</v>
       </c>
       <c r="E6" t="n">
-        <v>637543.6856422313</v>
+        <v>603201.8179055895</v>
       </c>
     </row>
     <row r="7">
@@ -4960,16 +4960,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-559210.5000000001</v>
+        <v>-541149.7500000001</v>
       </c>
       <c r="C7" t="n">
-        <v>260828.9783432672</v>
+        <v>210443.8616814623</v>
       </c>
       <c r="D7" t="n">
-        <v>852021.0714026998</v>
+        <v>853397.7851727209</v>
       </c>
       <c r="E7" t="n">
-        <v>553639.5497459669</v>
+        <v>522691.8968541831</v>
       </c>
     </row>
     <row r="8">
@@ -4977,16 +4977,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-505180.5000000001</v>
+        <v>-488864.7500000001</v>
       </c>
       <c r="C8" t="n">
-        <v>235335.7585334489</v>
+        <v>190089.8567165018</v>
       </c>
       <c r="D8" t="n">
-        <v>742794.0384739941</v>
+        <v>744170.7522440152</v>
       </c>
       <c r="E8" t="n">
-        <v>472949.297007443</v>
+        <v>445395.8589605169</v>
       </c>
     </row>
     <row r="9">
@@ -4994,16 +4994,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-451150.5000000001</v>
+        <v>-436579.7500000001</v>
       </c>
       <c r="C9" t="n">
-        <v>209842.5387236307</v>
+        <v>169735.8517515413</v>
       </c>
       <c r="D9" t="n">
-        <v>637224.6860659679</v>
+        <v>638601.399835989</v>
       </c>
       <c r="E9" t="n">
-        <v>395916.7247895985</v>
+        <v>371757.5015875302</v>
       </c>
     </row>
     <row r="10">
@@ -5011,16 +5011,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-397120.5000000001</v>
+        <v>-384294.7500000001</v>
       </c>
       <c r="C10" t="n">
-        <v>184349.3189138124</v>
+        <v>149381.8467865807</v>
       </c>
       <c r="D10" t="n">
-        <v>535963.0530692304</v>
+        <v>537339.7668392515</v>
       </c>
       <c r="E10" t="n">
-        <v>323191.8719830427</v>
+        <v>302426.8636258322</v>
       </c>
     </row>
     <row r="11">
@@ -5028,16 +5028,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-343090.5000000001</v>
+        <v>-332009.7500000001</v>
       </c>
       <c r="C11" t="n">
-        <v>158856.0991039941</v>
+        <v>129027.8418216202</v>
       </c>
       <c r="D11" t="n">
-        <v>439983.2177411288</v>
+        <v>441359.9315111499</v>
       </c>
       <c r="E11" t="n">
-        <v>255748.8168451228</v>
+        <v>238378.0233327701</v>
       </c>
     </row>
     <row r="12">
@@ -5045,16 +5045,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-289060.5000000001</v>
+        <v>-279724.7500000001</v>
       </c>
       <c r="C12" t="n">
-        <v>133362.8792941759</v>
+        <v>108673.8368566599</v>
       </c>
       <c r="D12" t="n">
-        <v>350607.6150378841</v>
+        <v>351984.3288079052</v>
       </c>
       <c r="E12" t="n">
-        <v>194909.99433206</v>
+        <v>180933.415664565</v>
       </c>
     </row>
     <row r="13">
@@ -5062,16 +5062,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-235030.5000000001</v>
+        <v>-227439.7500000001</v>
       </c>
       <c r="C13" t="n">
-        <v>107869.6594843576</v>
+        <v>88319.83189169934</v>
       </c>
       <c r="D13" t="n">
-        <v>269370.9256366461</v>
+        <v>270747.6394066673</v>
       </c>
       <c r="E13" t="n">
-        <v>142210.0851210036</v>
+        <v>131627.7212983665</v>
       </c>
     </row>
     <row r="14">
@@ -5079,16 +5079,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-181000.5000000001</v>
+        <v>-175154.7500000001</v>
       </c>
       <c r="C14" t="n">
-        <v>82376.43967453935</v>
+        <v>67965.82692673884</v>
       </c>
       <c r="D14" t="n">
-        <v>197731.5455723503</v>
+        <v>199108.2593423714</v>
       </c>
       <c r="E14" t="n">
-        <v>99107.48524688953</v>
+        <v>91919.33626911018</v>
       </c>
     </row>
     <row r="15">
@@ -5096,16 +5096,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-126970.5000000001</v>
+        <v>-122869.7500000001</v>
       </c>
       <c r="C15" t="n">
-        <v>56883.21986472118</v>
+        <v>47611.82196177845</v>
       </c>
       <c r="D15" t="n">
-        <v>136726.7216004192</v>
+        <v>138103.4353704403</v>
       </c>
       <c r="E15" t="n">
-        <v>66639.44146514031</v>
+        <v>62845.50733221871</v>
       </c>
     </row>
     <row r="16">
@@ -5113,16 +5113,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-72940.50000000007</v>
+        <v>-70584.75000000007</v>
       </c>
       <c r="C16" t="n">
-        <v>31390.00005490289</v>
+        <v>27257.81699681794</v>
       </c>
       <c r="D16" t="n">
-        <v>86707.10567705698</v>
+        <v>88083.8194470781</v>
       </c>
       <c r="E16" t="n">
-        <v>45156.6057319598</v>
+        <v>44756.88644389597</v>
       </c>
     </row>
     <row r="17">
@@ -5130,16 +5130,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-18910.50000000008</v>
+        <v>-18299.75000000007</v>
       </c>
       <c r="C17" t="n">
-        <v>5896.78024508449</v>
+        <v>6903.81203185732</v>
       </c>
       <c r="D17" t="n">
-        <v>47250.68147864118</v>
+        <v>48627.39524866231</v>
       </c>
       <c r="E17" t="n">
-        <v>34236.96172372559</v>
+        <v>37231.45728051956</v>
       </c>
     </row>
     <row r="18">
@@ -5147,16 +5147,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>35119.49999999992</v>
+        <v>33985.24999999993</v>
       </c>
       <c r="C18" t="n">
-        <v>-19596.43956473368</v>
+        <v>-13450.19293310307</v>
       </c>
       <c r="D18" t="n">
-        <v>17271.85833469753</v>
+        <v>18648.57210471866</v>
       </c>
       <c r="E18" t="n">
-        <v>32794.91876996377</v>
+        <v>39183.62917161552</v>
       </c>
     </row>
     <row r="19">
@@ -5164,16 +5164,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>89149.49999999993</v>
+        <v>86270.24999999993</v>
       </c>
       <c r="C19" t="n">
-        <v>-45089.65937455199</v>
+        <v>-33804.19789806358</v>
       </c>
       <c r="D19" t="n">
-        <v>-4736.923406680815</v>
+        <v>-3360.209636659683</v>
       </c>
       <c r="E19" t="n">
-        <v>39322.91721876712</v>
+        <v>49105.84246527667</v>
       </c>
     </row>
     <row r="20">
@@ -5181,16 +5181,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>143179.4999999999</v>
+        <v>138555.2499999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-70582.87918437028</v>
+        <v>-54158.20286302408</v>
       </c>
       <c r="D20" t="n">
-        <v>-20427.53603615335</v>
+        <v>-19050.82226613222</v>
       </c>
       <c r="E20" t="n">
-        <v>52169.08477947628</v>
+        <v>65346.22487084361</v>
       </c>
     </row>
     <row r="21">
@@ -5198,16 +5198,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>197209.4999999999</v>
+        <v>190840.2499999999</v>
       </c>
       <c r="C21" t="n">
-        <v>-96076.09899418845</v>
+        <v>-74512.20782798447</v>
       </c>
       <c r="D21" t="n">
-        <v>-31364.42458581004</v>
+        <v>-29987.7108157889</v>
       </c>
       <c r="E21" t="n">
-        <v>69768.97642000143</v>
+        <v>86340.33135622654</v>
       </c>
     </row>
     <row r="22">
@@ -5215,16 +5215,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>251239.4999999999</v>
+        <v>243125.2499999999</v>
       </c>
       <c r="C22" t="n">
-        <v>-121569.3188040067</v>
+        <v>-94866.21279294498</v>
       </c>
       <c r="D22" t="n">
-        <v>-38880.20162226587</v>
+        <v>-37503.48785224474</v>
       </c>
       <c r="E22" t="n">
-        <v>90789.97957372734</v>
+        <v>110755.5493548102</v>
       </c>
     </row>
     <row r="23">
@@ -5232,16 +5232,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>305269.4999999999</v>
+        <v>295410.2499999999</v>
       </c>
       <c r="C23" t="n">
-        <v>-147062.538613825</v>
+        <v>-115220.2177579055</v>
       </c>
       <c r="D23" t="n">
-        <v>-44019.81764340869</v>
+        <v>-42643.10387338756</v>
       </c>
       <c r="E23" t="n">
-        <v>114187.1437427663</v>
+        <v>137546.9283687069</v>
       </c>
     </row>
     <row r="24">
@@ -5249,16 +5249,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>359299.4999999999</v>
+        <v>347695.2499999999</v>
       </c>
       <c r="C24" t="n">
-        <v>-172555.7584236432</v>
+        <v>-135574.2227228659</v>
       </c>
       <c r="D24" t="n">
-        <v>-47550.18019412633</v>
+        <v>-46173.46642410519</v>
       </c>
       <c r="E24" t="n">
-        <v>139193.5613822305</v>
+        <v>165947.5608530289</v>
       </c>
     </row>
     <row r="25">
@@ -5266,16 +5266,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>413329.4999999999</v>
+        <v>399980.2499999999</v>
       </c>
       <c r="C25" t="n">
-        <v>-198048.9782334614</v>
+        <v>-155928.2276878264</v>
       </c>
       <c r="D25" t="n">
-        <v>-50005.48027977622</v>
+        <v>-48628.76650975509</v>
       </c>
       <c r="E25" t="n">
-        <v>165275.0414867623</v>
+        <v>195423.2558024185</v>
       </c>
     </row>
     <row r="26">
@@ -5283,16 +5283,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>467359.4999999999</v>
+        <v>452265.2499999999</v>
       </c>
       <c r="C26" t="n">
-        <v>-223542.1980432798</v>
+        <v>-176282.2326527869</v>
       </c>
       <c r="D26" t="n">
-        <v>-51743.59592083731</v>
+        <v>-50366.88215081618</v>
       </c>
       <c r="E26" t="n">
-        <v>192073.7060358829</v>
+        <v>225616.1351963969</v>
       </c>
     </row>
     <row r="27">
@@ -5300,16 +5300,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>521389.4999999999</v>
+        <v>504550.2499999999</v>
       </c>
       <c r="C27" t="n">
-        <v>-249035.4178530979</v>
+        <v>-196636.2376177473</v>
       </c>
       <c r="D27" t="n">
-        <v>-52998.340778538</v>
+        <v>-51621.62700851687</v>
       </c>
       <c r="E27" t="n">
-        <v>219355.741368364</v>
+        <v>256292.3853737358</v>
       </c>
     </row>
   </sheetData>
@@ -5363,16 +5363,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-829360.5000000001</v>
+        <v>-802574.7500000001</v>
       </c>
       <c r="C2" t="n">
-        <v>390251.6068542034</v>
+        <v>313779.1205164766</v>
       </c>
       <c r="D2" t="n">
-        <v>1452879.974761256</v>
+        <v>1454256.688531277</v>
       </c>
       <c r="E2" t="n">
-        <v>1013771.08161546</v>
+        <v>965461.0590477537</v>
       </c>
     </row>
     <row r="3">
@@ -5380,16 +5380,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-775330.5000000001</v>
+        <v>-750289.7500000001</v>
       </c>
       <c r="C3" t="n">
-        <v>364855.4386491555</v>
+        <v>293502.6023837048</v>
       </c>
       <c r="D3" t="n">
-        <v>1330481.202116983</v>
+        <v>1331857.915887005</v>
       </c>
       <c r="E3" t="n">
-        <v>920006.1407661389</v>
+        <v>875070.7682707093</v>
       </c>
     </row>
     <row r="4">
@@ -5397,16 +5397,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-721300.5000000001</v>
+        <v>-698004.7500000001</v>
       </c>
       <c r="C4" t="n">
-        <v>339459.2704441077</v>
+        <v>273226.0842509331</v>
       </c>
       <c r="D4" t="n">
-        <v>1209562.603976585</v>
+        <v>1210939.317746607</v>
       </c>
       <c r="E4" t="n">
-        <v>827721.374420693</v>
+        <v>786160.6519975397</v>
       </c>
     </row>
     <row r="5">
@@ -5414,16 +5414,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-667270.5000000001</v>
+        <v>-645719.7500000001</v>
       </c>
       <c r="C5" t="n">
-        <v>314063.1022390597</v>
+        <v>252949.5661181613</v>
       </c>
       <c r="D5" t="n">
-        <v>1090579.643872442</v>
+        <v>1091956.357642463</v>
       </c>
       <c r="E5" t="n">
-        <v>737372.2461115018</v>
+        <v>699186.1737606246</v>
       </c>
     </row>
     <row r="6">
@@ -5431,16 +5431,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-613240.5000000001</v>
+        <v>-593434.7500000001</v>
       </c>
       <c r="C6" t="n">
-        <v>288666.9340340119</v>
+        <v>232673.0479853895</v>
       </c>
       <c r="D6" t="n">
-        <v>973982.3088535019</v>
+        <v>975359.0226235231</v>
       </c>
       <c r="E6" t="n">
-        <v>649408.7428875137</v>
+        <v>614597.3206089125</v>
       </c>
     </row>
     <row r="7">
@@ -5448,16 +5448,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-559210.5000000001</v>
+        <v>-541149.7500000001</v>
       </c>
       <c r="C7" t="n">
-        <v>263270.765828964</v>
+        <v>212396.5298526178</v>
       </c>
       <c r="D7" t="n">
-        <v>860175.2197229043</v>
+        <v>861551.9334929254</v>
       </c>
       <c r="E7" t="n">
-        <v>564235.4855518681</v>
+        <v>532798.713345543</v>
       </c>
     </row>
     <row r="8">
@@ -5465,16 +5465,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-505180.5000000001</v>
+        <v>-488864.7500000001</v>
       </c>
       <c r="C8" t="n">
-        <v>237874.597623916</v>
+        <v>192120.0117198459</v>
       </c>
       <c r="D8" t="n">
-        <v>749483.6773232351</v>
+        <v>750860.3910932563</v>
       </c>
       <c r="E8" t="n">
-        <v>482177.7749471511</v>
+        <v>454115.6528131022</v>
       </c>
     </row>
     <row r="9">
@@ -5482,16 +5482,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-451150.5000000001</v>
+        <v>-436579.7500000001</v>
       </c>
       <c r="C9" t="n">
-        <v>212478.4294188682</v>
+        <v>171843.4935870742</v>
       </c>
       <c r="D9" t="n">
-        <v>642132.0650991881</v>
+        <v>643508.7788692092</v>
       </c>
       <c r="E9" t="n">
-        <v>403459.9945180563</v>
+        <v>378772.5224562834</v>
       </c>
     </row>
     <row r="10">
@@ -5499,16 +5499,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-397120.5000000001</v>
+        <v>-384294.7500000001</v>
       </c>
       <c r="C10" t="n">
-        <v>187082.2612138202</v>
+        <v>151566.9754543024</v>
       </c>
       <c r="D10" t="n">
-        <v>538249.9970408933</v>
+        <v>539626.7108109144</v>
       </c>
       <c r="E10" t="n">
-        <v>328211.7582547135</v>
+        <v>306898.9362652167</v>
       </c>
     </row>
     <row r="11">
@@ -5516,16 +5516,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-343090.5000000001</v>
+        <v>-332009.7500000001</v>
       </c>
       <c r="C11" t="n">
-        <v>161686.0930087724</v>
+        <v>131290.4573215307</v>
       </c>
       <c r="D11" t="n">
-        <v>437967.8052987412</v>
+        <v>439344.5190687624</v>
       </c>
       <c r="E11" t="n">
-        <v>256563.3983075135</v>
+        <v>238625.226390293</v>
       </c>
     </row>
     <row r="12">
@@ -5533,16 +5533,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-289060.5000000001</v>
+        <v>-279724.7500000001</v>
       </c>
       <c r="C12" t="n">
-        <v>136289.9248037245</v>
+        <v>111013.939188759</v>
       </c>
       <c r="D12" t="n">
-        <v>341748.8635177956</v>
+        <v>343125.5772878167</v>
       </c>
       <c r="E12" t="n">
-        <v>188978.2883215201</v>
+        <v>174414.7664765756</v>
       </c>
     </row>
     <row r="13">
@@ -5550,16 +5550,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-235030.5000000001</v>
+        <v>-227439.7500000001</v>
       </c>
       <c r="C13" t="n">
-        <v>110893.7565986766</v>
+        <v>90737.42105598713</v>
       </c>
       <c r="D13" t="n">
-        <v>251043.0470704199</v>
+        <v>252419.760840441</v>
       </c>
       <c r="E13" t="n">
-        <v>126906.3036690964</v>
+        <v>115717.4318964281</v>
       </c>
     </row>
     <row r="14">
@@ -5567,16 +5567,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-181000.5000000001</v>
+        <v>-175154.7500000001</v>
       </c>
       <c r="C14" t="n">
-        <v>85497.58839362874</v>
+        <v>70460.90292321541</v>
       </c>
       <c r="D14" t="n">
-        <v>168840.5038420815</v>
+        <v>170217.2176121026</v>
       </c>
       <c r="E14" t="n">
-        <v>73337.59223571015</v>
+        <v>65523.37053531795</v>
       </c>
     </row>
     <row r="15">
@@ -5584,16 +5584,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-126970.5000000001</v>
+        <v>-122869.7500000001</v>
       </c>
       <c r="C15" t="n">
-        <v>60101.42018858079</v>
+        <v>50184.38479044358</v>
       </c>
       <c r="D15" t="n">
-        <v>99177.01938122146</v>
+        <v>100553.7331512426</v>
       </c>
       <c r="E15" t="n">
-        <v>32307.93956980217</v>
+        <v>27868.3679416861</v>
       </c>
     </row>
     <row r="16">
@@ -5601,16 +5601,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-72940.50000000007</v>
+        <v>-70584.75000000007</v>
       </c>
       <c r="C16" t="n">
-        <v>34705.25198353294</v>
+        <v>29907.86665767187</v>
       </c>
       <c r="D16" t="n">
-        <v>45280.26618634802</v>
+        <v>46656.97995636915</v>
       </c>
       <c r="E16" t="n">
-        <v>7045.018169880888</v>
+        <v>5980.096614040944</v>
       </c>
     </row>
     <row r="17">
@@ -5618,16 +5618,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-18910.50000000008</v>
+        <v>-18299.75000000007</v>
       </c>
       <c r="C17" t="n">
-        <v>9309.083778484957</v>
+        <v>9631.348524900037</v>
       </c>
       <c r="D17" t="n">
-        <v>7655.787324485842</v>
+        <v>9032.501094506973</v>
       </c>
       <c r="E17" t="n">
-        <v>-1945.628897029277</v>
+        <v>364.0996194069376</v>
       </c>
     </row>
     <row r="18">
@@ -5635,16 +5635,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>35119.49999999992</v>
+        <v>33985.24999999993</v>
       </c>
       <c r="C18" t="n">
-        <v>-16087.084426563</v>
+        <v>-10645.16960787179</v>
       </c>
       <c r="D18" t="n">
-        <v>-16195.47156802148</v>
+        <v>-14818.75779800035</v>
       </c>
       <c r="E18" t="n">
-        <v>2836.94400541544</v>
+        <v>8521.322594127785</v>
       </c>
     </row>
     <row r="19">
@@ -5652,16 +5652,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>89149.49999999993</v>
+        <v>86270.24999999993</v>
       </c>
       <c r="C19" t="n">
-        <v>-41483.25263161084</v>
+        <v>-30921.68774064351</v>
       </c>
       <c r="D19" t="n">
-        <v>-30330.64033518374</v>
+        <v>-28953.9265651626</v>
       </c>
       <c r="E19" t="n">
-        <v>17335.60703320535</v>
+        <v>26394.63569419381</v>
       </c>
     </row>
     <row r="20">
@@ -5669,16 +5669,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>143179.4999999999</v>
+        <v>138555.2499999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-66879.42083665868</v>
+        <v>-51198.20587341522</v>
       </c>
       <c r="D20" t="n">
-        <v>-38585.17837501637</v>
+        <v>-37208.46460499524</v>
       </c>
       <c r="E20" t="n">
-        <v>37714.90078832486</v>
+        <v>50148.57952158945</v>
       </c>
     </row>
     <row r="21">
@@ -5686,16 +5686,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>197209.4999999999</v>
+        <v>190840.2499999999</v>
       </c>
       <c r="C21" t="n">
-        <v>-92275.58904170652</v>
+        <v>-71474.72400618694</v>
       </c>
       <c r="D21" t="n">
-        <v>-43636.80304724637</v>
+        <v>-42260.08927722524</v>
       </c>
       <c r="E21" t="n">
-        <v>61297.10791104702</v>
+        <v>77105.43671658773</v>
       </c>
     </row>
     <row r="22">
@@ -5703,16 +5703,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>251239.4999999999</v>
+        <v>243125.2499999999</v>
       </c>
       <c r="C22" t="n">
-        <v>-117671.7572467546</v>
+        <v>-91751.24213895889</v>
       </c>
       <c r="D22" t="n">
-        <v>-46995.80135646313</v>
+        <v>-45619.08758644199</v>
       </c>
       <c r="E22" t="n">
-        <v>86571.94139678216</v>
+        <v>105754.920274599</v>
       </c>
     </row>
     <row r="23">
@@ -5720,16 +5720,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>305269.4999999999</v>
+        <v>295410.2499999999</v>
       </c>
       <c r="C23" t="n">
-        <v>-143067.9254518025</v>
+        <v>-112027.7602717306</v>
       </c>
       <c r="D23" t="n">
-        <v>-49401.82736670307</v>
+        <v>-48025.11359668194</v>
       </c>
       <c r="E23" t="n">
-        <v>112799.7471814944</v>
+        <v>135357.3761315874</v>
       </c>
     </row>
     <row r="24">
@@ -5737,16 +5737,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>359299.4999999999</v>
+        <v>347695.2499999999</v>
       </c>
       <c r="C24" t="n">
-        <v>-168464.0936568503</v>
+        <v>-132304.2784045023</v>
       </c>
       <c r="D24" t="n">
-        <v>-51200.96020306404</v>
+        <v>-49824.24643304291</v>
       </c>
       <c r="E24" t="n">
-        <v>139634.4461400856</v>
+        <v>165566.7251624547</v>
       </c>
     </row>
     <row r="25">
@@ -5754,16 +5754,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>413329.4999999999</v>
+        <v>399980.2499999999</v>
       </c>
       <c r="C25" t="n">
-        <v>-193860.2618618981</v>
+        <v>-152580.796537274</v>
       </c>
       <c r="D25" t="n">
-        <v>-52569.07472220068</v>
+        <v>-51192.36095217955</v>
       </c>
       <c r="E25" t="n">
-        <v>166900.1634159011</v>
+        <v>196207.0925105464</v>
       </c>
     </row>
     <row r="26">
@@ -5771,16 +5771,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>467359.4999999999</v>
+        <v>452265.2499999999</v>
       </c>
       <c r="C26" t="n">
-        <v>-219256.4300669461</v>
+        <v>-172857.3146700459</v>
       </c>
       <c r="D26" t="n">
-        <v>-53612.68142181852</v>
+        <v>-52235.96765179739</v>
       </c>
       <c r="E26" t="n">
-        <v>194490.3885112354</v>
+        <v>227171.9676781567</v>
       </c>
     </row>
     <row r="27">
@@ -5788,16 +5788,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>521389.4999999999</v>
+        <v>504550.2499999999</v>
       </c>
       <c r="C27" t="n">
-        <v>-244652.5982719939</v>
+        <v>-193133.8328028176</v>
       </c>
       <c r="D27" t="n">
-        <v>-54406.98744793884</v>
+        <v>-53030.27367791771</v>
       </c>
       <c r="E27" t="n">
-        <v>222329.9142800672</v>
+        <v>258386.1435192646</v>
       </c>
     </row>
   </sheetData>
@@ -5851,16 +5851,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-829360.5000000001</v>
+        <v>-802574.7500000001</v>
       </c>
       <c r="C2" t="n">
-        <v>391356.998789105</v>
+        <v>314663.4399631617</v>
       </c>
       <c r="D2" t="n">
-        <v>1460959.923559174</v>
+        <v>1462336.637329195</v>
       </c>
       <c r="E2" t="n">
-        <v>1022956.422348279</v>
+        <v>974425.3272923568</v>
       </c>
     </row>
     <row r="3">
@@ -5868,16 +5868,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-775330.5000000001</v>
+        <v>-750289.7500000001</v>
       </c>
       <c r="C3" t="n">
-        <v>366015.6623988979</v>
+        <v>294430.7000208199</v>
       </c>
       <c r="D3" t="n">
-        <v>1338090.578923548</v>
+        <v>1339467.292693569</v>
       </c>
       <c r="E3" t="n">
-        <v>928775.7413224457</v>
+        <v>883608.2427143889</v>
       </c>
     </row>
     <row r="4">
@@ -5885,16 +5885,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-721300.5000000001</v>
+        <v>-698004.7500000001</v>
       </c>
       <c r="C4" t="n">
-        <v>340674.3260086908</v>
+        <v>274197.9600784781</v>
       </c>
       <c r="D4" t="n">
-        <v>1216568.029397763</v>
+        <v>1217944.743167784</v>
       </c>
       <c r="E4" t="n">
-        <v>835941.8554064537</v>
+        <v>794137.9532462623</v>
       </c>
     </row>
     <row r="5">
@@ -5902,16 +5902,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-667270.5000000001</v>
+        <v>-645719.7500000001</v>
       </c>
       <c r="C5" t="n">
-        <v>315332.9896184836</v>
+        <v>253965.2201361363</v>
       </c>
       <c r="D5" t="n">
-        <v>1096868.267274091</v>
+        <v>1098244.981044112</v>
       </c>
       <c r="E5" t="n">
-        <v>744930.7568925743</v>
+        <v>706490.4511802479</v>
       </c>
     </row>
     <row r="6">
@@ -5919,16 +5919,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-613240.5000000001</v>
+        <v>-593434.7500000001</v>
       </c>
       <c r="C6" t="n">
-        <v>289991.6532282764</v>
+        <v>233732.4801937944</v>
       </c>
       <c r="D6" t="n">
-        <v>979479.8433898904</v>
+        <v>980856.5571599116</v>
       </c>
       <c r="E6" t="n">
-        <v>656230.9966181667</v>
+        <v>621154.2873537058</v>
       </c>
     </row>
     <row r="7">
@@ -5936,16 +5936,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-559210.5000000001</v>
+        <v>-541149.7500000001</v>
       </c>
       <c r="C7" t="n">
-        <v>264650.3168380692</v>
+        <v>213499.7402514525</v>
       </c>
       <c r="D7" t="n">
-        <v>864858.1450797589</v>
+        <v>866234.8588497801</v>
       </c>
       <c r="E7" t="n">
-        <v>570297.9619178281</v>
+        <v>538584.8491012325</v>
       </c>
     </row>
     <row r="8">
@@ -5953,16 +5953,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-505180.5000000001</v>
+        <v>-488864.7500000001</v>
       </c>
       <c r="C8" t="n">
-        <v>239308.9804478622</v>
+        <v>193267.0003091107</v>
       </c>
       <c r="D8" t="n">
-        <v>753383.2131257423</v>
+        <v>754759.9268957635</v>
       </c>
       <c r="E8" t="n">
-        <v>487511.6935736043</v>
+        <v>459162.1772048742</v>
       </c>
     </row>
     <row r="9">
@@ -5970,16 +5970,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-451150.5000000001</v>
+        <v>-436579.7500000001</v>
       </c>
       <c r="C9" t="n">
-        <v>213967.644057655</v>
+        <v>173034.2603667689</v>
       </c>
       <c r="D9" t="n">
-        <v>645328.0402531718</v>
+        <v>646704.7540231929</v>
       </c>
       <c r="E9" t="n">
-        <v>408145.1843108268</v>
+        <v>383159.2643899618</v>
       </c>
     </row>
     <row r="10">
@@ -5987,16 +5987,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-397120.5000000001</v>
+        <v>-384294.7500000001</v>
       </c>
       <c r="C10" t="n">
-        <v>188626.3076674479</v>
+        <v>152801.5204244271</v>
       </c>
       <c r="D10" t="n">
-        <v>540841.2738233993</v>
+        <v>542217.9875934205</v>
       </c>
       <c r="E10" t="n">
-        <v>332347.0814908472</v>
+        <v>310724.7580178476</v>
       </c>
     </row>
     <row r="11">
@@ -6004,16 +6004,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-343090.5000000001</v>
+        <v>-332009.7500000001</v>
       </c>
       <c r="C11" t="n">
-        <v>163284.9712772408</v>
+        <v>132568.7804820853</v>
       </c>
       <c r="D11" t="n">
-        <v>439944.9269495743</v>
+        <v>441321.6407195955</v>
       </c>
       <c r="E11" t="n">
-        <v>260139.398226815</v>
+        <v>241880.6712016807</v>
       </c>
     </row>
     <row r="12">
@@ -6021,16 +6021,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-289060.5000000001</v>
+        <v>-279724.7500000001</v>
       </c>
       <c r="C12" t="n">
-        <v>137943.6348870337</v>
+        <v>112336.0405397435</v>
       </c>
       <c r="D12" t="n">
-        <v>342544.9952752399</v>
+        <v>343921.709045261</v>
       </c>
       <c r="E12" t="n">
-        <v>191428.1301622735</v>
+        <v>176532.9995850045</v>
       </c>
     </row>
     <row r="13">
@@ -6038,16 +6038,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-235030.5000000001</v>
+        <v>-227439.7500000001</v>
       </c>
       <c r="C13" t="n">
-        <v>112602.2984968266</v>
+        <v>92103.30059740169</v>
       </c>
       <c r="D13" t="n">
-        <v>248451.2487658329</v>
+        <v>249827.962535854</v>
       </c>
       <c r="E13" t="n">
-        <v>126023.0472626593</v>
+        <v>114491.5131332556</v>
       </c>
     </row>
     <row r="14">
@@ -6055,16 +6055,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-181000.5000000001</v>
+        <v>-175154.7500000001</v>
       </c>
       <c r="C14" t="n">
-        <v>87260.96210661941</v>
+        <v>71870.56065505987</v>
       </c>
       <c r="D14" t="n">
-        <v>157401.9605840473</v>
+        <v>158778.6743540684</v>
       </c>
       <c r="E14" t="n">
-        <v>63662.42269066663</v>
+        <v>55494.48500912823</v>
       </c>
     </row>
     <row r="15">
@@ -6072,16 +6072,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-126970.5000000001</v>
+        <v>-122869.7500000001</v>
       </c>
       <c r="C15" t="n">
-        <v>61919.62571641229</v>
+        <v>51637.82071271806</v>
       </c>
       <c r="D15" t="n">
-        <v>69089.70668518478</v>
+        <v>70466.42045520589</v>
       </c>
       <c r="E15" t="n">
-        <v>4038.832401596999</v>
+        <v>-765.5088320761133</v>
       </c>
     </row>
     <row r="16">
@@ -6089,16 +6089,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-72940.50000000007</v>
+        <v>-70584.75000000007</v>
       </c>
       <c r="C16" t="n">
-        <v>36578.28932620518</v>
+        <v>31405.08077037625</v>
       </c>
       <c r="D16" t="n">
-        <v>-16814.73597984557</v>
+        <v>-15438.02220982444</v>
       </c>
       <c r="E16" t="n">
-        <v>-53176.94665364047</v>
+        <v>-54617.69143944826</v>
       </c>
     </row>
     <row r="17">
@@ -6106,16 +6106,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-18910.50000000008</v>
+        <v>-18299.75000000007</v>
       </c>
       <c r="C17" t="n">
-        <v>11236.95293599807</v>
+        <v>11172.34082803444</v>
       </c>
       <c r="D17" t="n">
-        <v>-25642.2871152286</v>
+        <v>-24265.57334520747</v>
       </c>
       <c r="E17" t="n">
-        <v>-33315.83417923062</v>
+        <v>-31392.9825171731</v>
       </c>
     </row>
     <row r="18">
@@ -6123,16 +6123,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>35119.49999999992</v>
+        <v>33985.24999999993</v>
       </c>
       <c r="C18" t="n">
-        <v>-14104.38345420905</v>
+        <v>-9060.399114307365</v>
       </c>
       <c r="D18" t="n">
-        <v>-32710.14058403785</v>
+        <v>-31333.42681401672</v>
       </c>
       <c r="E18" t="n">
-        <v>-11695.02403824698</v>
+        <v>-6408.575928324157</v>
       </c>
     </row>
     <row r="19">
@@ -6140,16 +6140,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>89149.49999999993</v>
+        <v>86270.24999999993</v>
       </c>
       <c r="C19" t="n">
-        <v>-39445.71984441619</v>
+        <v>-29293.13905664918</v>
       </c>
       <c r="D19" t="n">
-        <v>-38311.10519651035</v>
+        <v>-36934.39142648922</v>
       </c>
       <c r="E19" t="n">
-        <v>11392.67495907338</v>
+        <v>20042.71951686153</v>
       </c>
     </row>
     <row r="20">
@@ -6157,16 +6157,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>143179.4999999999</v>
+        <v>138555.2499999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-64787.05623462331</v>
+        <v>-49525.87899899099</v>
       </c>
       <c r="D20" t="n">
-        <v>-42707.25088297339</v>
+        <v>-41330.53711295225</v>
       </c>
       <c r="E20" t="n">
-        <v>35685.19288240322</v>
+        <v>47698.83388805668</v>
       </c>
     </row>
     <row r="21">
@@ -6174,16 +6174,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>197209.4999999999</v>
+        <v>190840.2499999999</v>
       </c>
       <c r="C21" t="n">
-        <v>-90128.39262483042</v>
+        <v>-69758.6189413328</v>
       </c>
       <c r="D21" t="n">
-        <v>-46127.10529655848</v>
+        <v>-44750.39152653735</v>
       </c>
       <c r="E21" t="n">
-        <v>60954.00207861101</v>
+        <v>76331.23953212977</v>
       </c>
     </row>
     <row r="22">
@@ -6191,16 +6191,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>251239.4999999999</v>
+        <v>243125.2499999999</v>
       </c>
       <c r="C22" t="n">
-        <v>-115469.7290150375</v>
+        <v>-89991.35888367461</v>
       </c>
       <c r="D22" t="n">
-        <v>-48765.54374872515</v>
+        <v>-47388.82997870402</v>
       </c>
       <c r="E22" t="n">
-        <v>87004.22723623723</v>
+        <v>105745.0611376213</v>
       </c>
     </row>
     <row r="23">
@@ -6208,16 +6208,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>305269.4999999999</v>
+        <v>295410.2499999999</v>
       </c>
       <c r="C23" t="n">
-        <v>-140811.0654052446</v>
+        <v>-110224.0988260164</v>
       </c>
       <c r="D23" t="n">
-        <v>-50785.54792346546</v>
+        <v>-49408.83415344432</v>
       </c>
       <c r="E23" t="n">
-        <v>113672.8866712898</v>
+        <v>135777.3170205392</v>
       </c>
     </row>
     <row r="24">
@@ -6225,16 +6225,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>359299.4999999999</v>
+        <v>347695.2499999999</v>
       </c>
       <c r="C24" t="n">
-        <v>-166152.4017954518</v>
+        <v>-130456.8387683582</v>
       </c>
       <c r="D24" t="n">
-        <v>-52321.12000276622</v>
+        <v>-50944.40623274509</v>
       </c>
       <c r="E24" t="n">
-        <v>140825.9782017819</v>
+        <v>166294.0049988966</v>
       </c>
     </row>
     <row r="25">
@@ -6242,16 +6242,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>413329.4999999999</v>
+        <v>399980.2499999999</v>
       </c>
       <c r="C25" t="n">
-        <v>-191493.7381856589</v>
+        <v>-150689.5787107</v>
       </c>
       <c r="D25" t="n">
-        <v>-53480.78426172232</v>
+        <v>-52104.07049170119</v>
       </c>
       <c r="E25" t="n">
-        <v>168354.9775526187</v>
+        <v>197186.6007975987</v>
       </c>
     </row>
     <row r="26">
@@ -6259,16 +6259,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>467359.4999999999</v>
+        <v>452265.2499999999</v>
       </c>
       <c r="C26" t="n">
-        <v>-216835.074575866</v>
+        <v>-170922.3186530418</v>
       </c>
       <c r="D26" t="n">
-        <v>-54351.25706550965</v>
+        <v>-52974.54329548852</v>
       </c>
       <c r="E26" t="n">
-        <v>196173.1683586243</v>
+        <v>228368.3880514696</v>
       </c>
     </row>
     <row r="27">
@@ -6276,16 +6276,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>521389.4999999999</v>
+        <v>504550.2499999999</v>
       </c>
       <c r="C27" t="n">
-        <v>-242176.4109660732</v>
+        <v>-191155.0585953837</v>
       </c>
       <c r="D27" t="n">
-        <v>-55001.00008111705</v>
+        <v>-53624.28631109592</v>
       </c>
       <c r="E27" t="n">
-        <v>224212.0889528097</v>
+        <v>259770.9050935204</v>
       </c>
     </row>
   </sheetData>

--- a/ACCU PnL Output.xlsx
+++ b/ACCU PnL Output.xlsx
@@ -20,6 +20,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of Oct" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of Nov" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dec expiry" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of Dec" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,16 +484,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-802574.7500000001</v>
+        <v>-227286</v>
       </c>
       <c r="C2" t="n">
-        <v>315390.2692299538</v>
+        <v>244460.5443793969</v>
       </c>
       <c r="D2" t="n">
-        <v>1464443.838634921</v>
+        <v>995746.9542483415</v>
       </c>
       <c r="E2" t="n">
-        <v>977259.3578648749</v>
+        <v>1012921.498627738</v>
       </c>
     </row>
     <row r="3">
@@ -500,16 +501,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-750289.7500000001</v>
+        <v>-213256</v>
       </c>
       <c r="C3" t="n">
-        <v>295193.5109344829</v>
+        <v>229363.2974689715</v>
       </c>
       <c r="D3" t="n">
-        <v>1341201.646149704</v>
+        <v>898671.9371381556</v>
       </c>
       <c r="E3" t="n">
-        <v>886105.4070841873</v>
+        <v>914779.234607127</v>
       </c>
     </row>
     <row r="4">
@@ -517,16 +518,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-698004.7500000001</v>
+        <v>-199226</v>
       </c>
       <c r="C4" t="n">
-        <v>274996.752639012</v>
+        <v>214266.050558546</v>
       </c>
       <c r="D4" t="n">
-        <v>1219182.784284278</v>
+        <v>803573.0020401387</v>
       </c>
       <c r="E4" t="n">
-        <v>796174.7869232898</v>
+        <v>818613.0525986847</v>
       </c>
     </row>
     <row r="5">
@@ -534,16 +535,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-645719.7500000001</v>
+        <v>-185196</v>
       </c>
       <c r="C5" t="n">
-        <v>254799.9943435411</v>
+        <v>199168.8036481207</v>
       </c>
       <c r="D5" t="n">
-        <v>1098876.089850602</v>
+        <v>711233.739323378</v>
       </c>
       <c r="E5" t="n">
-        <v>707956.3341941427</v>
+        <v>725206.5429714986</v>
       </c>
     </row>
     <row r="6">
@@ -551,16 +552,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-593434.7500000001</v>
+        <v>-171166</v>
       </c>
       <c r="C6" t="n">
-        <v>234603.2360480701</v>
+        <v>184071.5567376953</v>
       </c>
       <c r="D6" t="n">
-        <v>980801.5896826454</v>
+        <v>622504.3287314479</v>
       </c>
       <c r="E6" t="n">
-        <v>621970.0757307154</v>
+        <v>635409.8854691432</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +569,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-541149.7500000001</v>
+        <v>-157136</v>
       </c>
       <c r="C7" t="n">
-        <v>214406.4777525992</v>
+        <v>168974.3098272699</v>
       </c>
       <c r="D7" t="n">
-        <v>865460.2327926422</v>
+        <v>538232.1958625272</v>
       </c>
       <c r="E7" t="n">
-        <v>538716.9605452414</v>
+        <v>550070.5056897971</v>
       </c>
     </row>
     <row r="8">
@@ -585,16 +586,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-488864.7500000001</v>
+        <v>-143106</v>
       </c>
       <c r="C8" t="n">
-        <v>194209.7194571283</v>
+        <v>153877.0629168444</v>
       </c>
       <c r="D8" t="n">
-        <v>753284.0662431124</v>
+        <v>459190.1176124725</v>
       </c>
       <c r="E8" t="n">
-        <v>458629.0357002407</v>
+        <v>469961.1805293169</v>
       </c>
     </row>
     <row r="9">
@@ -602,16 +603,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-436579.7500000001</v>
+        <v>-129076</v>
       </c>
       <c r="C9" t="n">
-        <v>174012.9611616575</v>
+        <v>138779.816006419</v>
       </c>
       <c r="D9" t="n">
-        <v>644596.0170379637</v>
+        <v>386013.7465868891</v>
       </c>
       <c r="E9" t="n">
-        <v>382029.2281996211</v>
+        <v>395717.5625933081</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +620,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-384294.7500000001</v>
+        <v>-115046</v>
       </c>
       <c r="C10" t="n">
-        <v>153816.2028661865</v>
+        <v>123682.5690959936</v>
       </c>
       <c r="D10" t="n">
-        <v>539585.3154292465</v>
+        <v>319157.2397499189</v>
       </c>
       <c r="E10" t="n">
-        <v>309106.768295433</v>
+        <v>327793.8088459124</v>
       </c>
     </row>
     <row r="11">
@@ -636,16 +637,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-332009.7500000001</v>
+        <v>-101016</v>
       </c>
       <c r="C11" t="n">
-        <v>133619.4445707157</v>
+        <v>108585.3221855682</v>
       </c>
       <c r="D11" t="n">
-        <v>438300.551248777</v>
+        <v>258871.0691619226</v>
       </c>
       <c r="E11" t="n">
-        <v>239910.2458194926</v>
+        <v>266440.3913474908</v>
       </c>
     </row>
     <row r="12">
@@ -653,16 +654,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-279724.7500000001</v>
+        <v>-86986.00000000004</v>
       </c>
       <c r="C12" t="n">
-        <v>113422.6862752447</v>
+        <v>93488.07527514288</v>
       </c>
       <c r="D12" t="n">
-        <v>340658.7087012608</v>
+        <v>205201.6308269705</v>
       </c>
       <c r="E12" t="n">
-        <v>174356.6449765054</v>
+        <v>211703.7061021134</v>
       </c>
     </row>
     <row r="13">
@@ -670,16 +671,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-227439.7500000001</v>
+        <v>-72956.00000000004</v>
       </c>
       <c r="C13" t="n">
-        <v>93225.92797977373</v>
+        <v>78390.82836471728</v>
       </c>
       <c r="D13" t="n">
-        <v>246466.0922272277</v>
+        <v>158008.9430307159</v>
       </c>
       <c r="E13" t="n">
-        <v>112252.2702070013</v>
+        <v>163443.7713954332</v>
       </c>
     </row>
     <row r="14">
@@ -687,16 +688,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-175154.7500000001</v>
+        <v>-58926.00000000004</v>
       </c>
       <c r="C14" t="n">
-        <v>73029.16968430276</v>
+        <v>63293.58145429206</v>
       </c>
       <c r="D14" t="n">
-        <v>155446.0645969638</v>
+        <v>116996.9274710647</v>
       </c>
       <c r="E14" t="n">
-        <v>53320.48428126652</v>
+        <v>121364.5089253567</v>
       </c>
     </row>
     <row r="15">
@@ -704,16 +705,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-122869.7500000001</v>
+        <v>-44896.00000000004</v>
       </c>
       <c r="C15" t="n">
-        <v>52832.41138883203</v>
+        <v>48196.3345438666</v>
       </c>
       <c r="D15" t="n">
-        <v>67268.74970733667</v>
+        <v>81750.3925347896</v>
       </c>
       <c r="E15" t="n">
-        <v>-2768.588903831376</v>
+        <v>85050.72707865617</v>
       </c>
     </row>
     <row r="16">
@@ -721,16 +722,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-70584.75000000007</v>
+        <v>-30866.00000000004</v>
       </c>
       <c r="C16" t="n">
-        <v>32635.65309336106</v>
+        <v>33099.08763344114</v>
       </c>
       <c r="D16" t="n">
-        <v>-18421.1329126144</v>
+        <v>51773.50421014686</v>
       </c>
       <c r="E16" t="n">
-        <v>-56370.22981925341</v>
+        <v>54006.59184358796</v>
       </c>
     </row>
     <row r="17">
@@ -738,16 +739,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-18299.75000000007</v>
+        <v>-16836.00000000004</v>
       </c>
       <c r="C17" t="n">
-        <v>12438.89479789021</v>
+        <v>18001.84072301578</v>
       </c>
       <c r="D17" t="n">
-        <v>-26980.79810213478</v>
+        <v>26525.77216254635</v>
       </c>
       <c r="E17" t="n">
-        <v>-32841.65330424464</v>
+        <v>27691.61288556208</v>
       </c>
     </row>
     <row r="18">
@@ -755,16 +756,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>33985.24999999993</v>
+        <v>-2806.00000000004</v>
       </c>
       <c r="C18" t="n">
-        <v>-7757.863497580751</v>
+        <v>2904.593812590319</v>
       </c>
       <c r="D18" t="n">
-        <v>-33751.48680147651</v>
+        <v>5452.989775602291</v>
       </c>
       <c r="E18" t="n">
-        <v>-7524.100299057332</v>
+        <v>5551.58358819257</v>
       </c>
     </row>
     <row r="19">
@@ -772,16 +773,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>86270.24999999993</v>
+        <v>11223.99999999996</v>
       </c>
       <c r="C19" t="n">
-        <v>-27954.6217930516</v>
+        <v>-12192.65309783502</v>
       </c>
       <c r="D19" t="n">
-        <v>-39046.27103691656</v>
+        <v>-11988.13708146731</v>
       </c>
       <c r="E19" t="n">
-        <v>19269.35717003177</v>
+        <v>-12956.79017930237</v>
       </c>
     </row>
     <row r="20">
@@ -789,16 +790,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>138555.2499999999</v>
+        <v>25253.99999999996</v>
       </c>
       <c r="C20" t="n">
-        <v>-48151.38008852256</v>
+        <v>-27289.90000826048</v>
       </c>
       <c r="D20" t="n">
-        <v>-43143.01376741019</v>
+        <v>-26311.91155838279</v>
       </c>
       <c r="E20" t="n">
-        <v>47260.85614406716</v>
+        <v>-28347.81156664331</v>
       </c>
     </row>
     <row r="21">
@@ -806,16 +807,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>190840.2499999999</v>
+        <v>39283.99999999996</v>
       </c>
       <c r="C21" t="n">
-        <v>-68348.13838399353</v>
+        <v>-42387.14691868596</v>
       </c>
       <c r="D21" t="n">
-        <v>-46281.53881960535</v>
+        <v>-37991.64860080257</v>
       </c>
       <c r="E21" t="n">
-        <v>76210.57279640103</v>
+        <v>-41094.79551948857</v>
       </c>
     </row>
     <row r="22">
@@ -823,16 +824,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>243125.2499999999</v>
+        <v>53313.99999999996</v>
       </c>
       <c r="C22" t="n">
-        <v>-88544.89667946438</v>
+        <v>-57484.3938291113</v>
       </c>
       <c r="D22" t="n">
-        <v>-48663.9389382731</v>
+        <v>-47452.87861050946</v>
       </c>
       <c r="E22" t="n">
-        <v>105916.4143822624</v>
+        <v>-51623.2724396208</v>
       </c>
     </row>
     <row r="23">
@@ -840,16 +841,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>295410.2499999999</v>
+        <v>67343.99999999996</v>
       </c>
       <c r="C23" t="n">
-        <v>-108741.6549749353</v>
+        <v>-72581.64073953676</v>
       </c>
       <c r="D23" t="n">
-        <v>-50457.00028361232</v>
+        <v>-55070.69872387858</v>
       </c>
       <c r="E23" t="n">
-        <v>136211.5947414523</v>
+        <v>-60308.33946341538</v>
       </c>
     </row>
     <row r="24">
@@ -857,16 +858,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>347695.2499999999</v>
+        <v>81373.99999999996</v>
       </c>
       <c r="C24" t="n">
-        <v>-128938.4132704062</v>
+        <v>-87678.8876499621</v>
       </c>
       <c r="D24" t="n">
-        <v>-51795.87303196625</v>
+        <v>-61170.21492560385</v>
       </c>
       <c r="E24" t="n">
-        <v>166960.9636976275</v>
+        <v>-67475.10257556599</v>
       </c>
     </row>
     <row r="25">
@@ -874,16 +875,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>399980.2499999999</v>
+        <v>95403.99999999996</v>
       </c>
       <c r="C25" t="n">
-        <v>-149135.1715658772</v>
+        <v>-102776.1345603876</v>
       </c>
       <c r="D25" t="n">
-        <v>-52788.3099648744</v>
+        <v>-66029.11967676695</v>
       </c>
       <c r="E25" t="n">
-        <v>198056.7684692484</v>
+        <v>-73401.25423715454</v>
       </c>
     </row>
     <row r="26">
@@ -891,16 +892,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>452265.2499999999</v>
+        <v>109434</v>
       </c>
       <c r="C26" t="n">
-        <v>-169331.9298613481</v>
+        <v>-117873.381470813</v>
       </c>
       <c r="D26" t="n">
-        <v>-53518.98721862288</v>
+        <v>-69881.60434061805</v>
       </c>
       <c r="E26" t="n">
-        <v>229414.3329200289</v>
+        <v>-78320.98581143114</v>
       </c>
     </row>
     <row r="27">
@@ -908,16 +909,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>504550.2499999999</v>
+        <v>123464</v>
       </c>
       <c r="C27" t="n">
-        <v>-189528.688156819</v>
+        <v>-132970.6283812384</v>
       </c>
       <c r="D27" t="n">
-        <v>-54053.59018530094</v>
+        <v>-72922.97624334099</v>
       </c>
       <c r="E27" t="n">
-        <v>260967.97165788</v>
+        <v>-82429.60462457941</v>
       </c>
     </row>
   </sheetData>
@@ -971,16 +972,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-802574.7500000001</v>
+        <v>-227286</v>
       </c>
       <c r="C2" t="n">
-        <v>316995.0803188738</v>
+        <v>245660.1937723249</v>
       </c>
       <c r="D2" t="n">
-        <v>1469425.307916583</v>
+        <v>1006571.4152792</v>
       </c>
       <c r="E2" t="n">
-        <v>983845.6382354565</v>
+        <v>1024945.609051525</v>
       </c>
     </row>
     <row r="3">
@@ -988,16 +989,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-750289.7500000001</v>
+        <v>-213256</v>
       </c>
       <c r="C3" t="n">
-        <v>296877.7681169138</v>
+        <v>230622.3334858446</v>
       </c>
       <c r="D3" t="n">
-        <v>1345433.602010327</v>
+        <v>908268.8588069126</v>
       </c>
       <c r="E3" t="n">
-        <v>892021.6201272404</v>
+        <v>925635.1922927571</v>
       </c>
     </row>
     <row r="4">
@@ -1005,16 +1006,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-698004.7500000001</v>
+        <v>-199226</v>
       </c>
       <c r="C4" t="n">
-        <v>276760.4559149537</v>
+        <v>215584.4731993643</v>
       </c>
       <c r="D4" t="n">
-        <v>1222347.40707262</v>
+        <v>811422.040793845</v>
       </c>
       <c r="E4" t="n">
-        <v>801103.1129875731</v>
+        <v>827780.5139932092</v>
       </c>
     </row>
     <row r="5">
@@ -1022,16 +1023,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-645719.7500000001</v>
+        <v>-185196</v>
       </c>
       <c r="C5" t="n">
-        <v>256643.1437129937</v>
+        <v>200546.6129128839</v>
       </c>
       <c r="D5" t="n">
-        <v>1100660.185532942</v>
+        <v>716801.3755348432</v>
       </c>
       <c r="E5" t="n">
-        <v>711583.5792459353</v>
+        <v>732151.9884477271</v>
       </c>
     </row>
     <row r="6">
@@ -1039,16 +1040,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-593434.7500000001</v>
+        <v>-171166</v>
       </c>
       <c r="C6" t="n">
-        <v>236525.8315110337</v>
+        <v>185508.7526264035</v>
       </c>
       <c r="D6" t="n">
-        <v>980952.3575340714</v>
+        <v>625321.5607429284</v>
       </c>
       <c r="E6" t="n">
-        <v>624043.439045105</v>
+        <v>639664.3133693319</v>
       </c>
     </row>
     <row r="7">
@@ -1056,16 +1057,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-541149.7500000001</v>
+        <v>-157136</v>
       </c>
       <c r="C7" t="n">
-        <v>216408.5193090737</v>
+        <v>170470.8923399233</v>
       </c>
       <c r="D7" t="n">
-        <v>863835.3525756631</v>
+        <v>537969.0593595754</v>
       </c>
       <c r="E7" t="n">
-        <v>539094.1218847367</v>
+        <v>551303.9516994987</v>
       </c>
     </row>
     <row r="8">
@@ -1073,16 +1074,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-488864.7500000001</v>
+        <v>-143106</v>
       </c>
       <c r="C8" t="n">
-        <v>196291.2071071136</v>
+        <v>155433.032053443</v>
       </c>
       <c r="D8" t="n">
-        <v>749882.7730158408</v>
+        <v>455709.6520532935</v>
       </c>
       <c r="E8" t="n">
-        <v>457309.2301229543</v>
+        <v>468036.6841067364</v>
       </c>
     </row>
     <row r="9">
@@ -1090,16 +1091,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-436579.7500000001</v>
+        <v>-129076</v>
       </c>
       <c r="C9" t="n">
-        <v>176173.8949051537</v>
+        <v>140395.1717669625</v>
       </c>
       <c r="D9" t="n">
-        <v>639564.0274139657</v>
+        <v>379394.5266192176</v>
       </c>
       <c r="E9" t="n">
-        <v>379158.1723191193</v>
+        <v>390713.69838618</v>
       </c>
     </row>
     <row r="10">
@@ -1107,16 +1108,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-384294.7500000001</v>
+        <v>-115046</v>
       </c>
       <c r="C10" t="n">
-        <v>156056.5827031935</v>
+        <v>125357.3114804822</v>
       </c>
       <c r="D10" t="n">
-        <v>533194.2555527135</v>
+        <v>309682.4146104075</v>
       </c>
       <c r="E10" t="n">
-        <v>304956.088255907</v>
+        <v>319993.7260908897</v>
       </c>
     </row>
     <row r="11">
@@ -1124,16 +1125,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-332009.7500000001</v>
+        <v>-101016</v>
       </c>
       <c r="C11" t="n">
-        <v>135939.2705012335</v>
+        <v>110319.4511940019</v>
       </c>
       <c r="D11" t="n">
-        <v>430908.8875681078</v>
+        <v>246989.7139295063</v>
       </c>
       <c r="E11" t="n">
-        <v>234838.4080693413</v>
+        <v>256293.1651235081</v>
       </c>
     </row>
     <row r="12">
@@ -1141,16 +1142,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-279724.7500000001</v>
+        <v>-86986.00000000004</v>
       </c>
       <c r="C12" t="n">
-        <v>115821.9582992735</v>
+        <v>95281.59090752155</v>
       </c>
       <c r="D12" t="n">
-        <v>332664.3395948837</v>
+        <v>191472.9949746466</v>
       </c>
       <c r="E12" t="n">
-        <v>168761.5478941572</v>
+        <v>199768.5858821681</v>
       </c>
     </row>
     <row r="13">
@@ -1158,16 +1159,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-227439.7500000001</v>
+        <v>-72956.00000000004</v>
       </c>
       <c r="C13" t="n">
-        <v>95704.6460973135</v>
+        <v>80243.73062104121</v>
       </c>
       <c r="D13" t="n">
-        <v>238260.554546106</v>
+        <v>143041.3580272408</v>
       </c>
       <c r="E13" t="n">
-        <v>106525.4506434194</v>
+        <v>150329.0886482819</v>
       </c>
     </row>
     <row r="14">
@@ -1175,16 +1176,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-175154.7500000001</v>
+        <v>-58926.00000000004</v>
       </c>
       <c r="C14" t="n">
-        <v>75587.33389535348</v>
+        <v>65205.87033456075</v>
       </c>
       <c r="D14" t="n">
-        <v>147377.723135731</v>
+        <v>101391.4225297711</v>
       </c>
       <c r="E14" t="n">
-        <v>47810.30703108435</v>
+        <v>107671.2928643318</v>
       </c>
     </row>
     <row r="15">
@@ -1192,16 +1193,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-122869.7500000001</v>
+        <v>-44896.00000000004</v>
       </c>
       <c r="C15" t="n">
-        <v>55470.02169339347</v>
+        <v>50168.01004808053</v>
       </c>
       <c r="D15" t="n">
-        <v>59618.76561886998</v>
+        <v>66055.7583750987</v>
       </c>
       <c r="E15" t="n">
-        <v>-7780.962687736617</v>
+        <v>71327.76842317919</v>
       </c>
     </row>
     <row r="16">
@@ -1209,16 +1210,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-70584.75000000007</v>
+        <v>-30866.00000000004</v>
       </c>
       <c r="C16" t="n">
-        <v>35352.70949143334</v>
+        <v>35130.14976160022</v>
       </c>
       <c r="D16" t="n">
-        <v>-25449.60759072574</v>
+        <v>36455.90584223037</v>
       </c>
       <c r="E16" t="n">
-        <v>-60681.64809929248</v>
+        <v>40720.05560383055</v>
       </c>
     </row>
     <row r="17">
@@ -1226,16 +1227,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-18299.75000000007</v>
+        <v>-16836.00000000004</v>
       </c>
       <c r="C17" t="n">
-        <v>15235.39728947345</v>
+        <v>20092.28947511976</v>
       </c>
       <c r="D17" t="n">
-        <v>-33262.15734884897</v>
+        <v>11952.93524839802</v>
       </c>
       <c r="E17" t="n">
-        <v>-36326.51005937559</v>
+        <v>15209.22472351774</v>
       </c>
     </row>
     <row r="18">
@@ -1243,16 +1244,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>33985.24999999993</v>
+        <v>-2806.00000000004</v>
       </c>
       <c r="C18" t="n">
-        <v>-4881.914912486565</v>
+        <v>5054.42918863942</v>
       </c>
       <c r="D18" t="n">
-        <v>-39229.14368027919</v>
+        <v>-8109.101989939814</v>
       </c>
       <c r="E18" t="n">
-        <v>-10125.80859276582</v>
+        <v>-5860.672801300434</v>
       </c>
     </row>
     <row r="19">
@@ -1260,16 +1261,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>86270.24999999993</v>
+        <v>11223.99999999996</v>
       </c>
       <c r="C19" t="n">
-        <v>-24999.22711444669</v>
+        <v>-9983.431097840803</v>
       </c>
       <c r="D19" t="n">
-        <v>-43719.51088164058</v>
+        <v>-24369.15059202896</v>
       </c>
       <c r="E19" t="n">
-        <v>17551.51200391265</v>
+        <v>-23128.5816898698</v>
       </c>
     </row>
     <row r="20">
@@ -1277,16 +1278,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>138555.2499999999</v>
+        <v>25253.99999999996</v>
       </c>
       <c r="C20" t="n">
-        <v>-45116.53931640671</v>
+        <v>-25021.2913843212</v>
       </c>
       <c r="D20" t="n">
-        <v>-47052.2268682068</v>
+        <v>-37425.00849653627</v>
       </c>
       <c r="E20" t="n">
-        <v>46386.4838153864</v>
+        <v>-37192.29988085751</v>
       </c>
     </row>
     <row r="21">
@@ -1294,16 +1295,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>190840.2499999999</v>
+        <v>39283.99999999996</v>
       </c>
       <c r="C21" t="n">
-        <v>-65233.8515183666</v>
+        <v>-40059.15167080154</v>
       </c>
       <c r="D21" t="n">
-        <v>-49494.0486441645</v>
+        <v>-47818.24722146868</v>
       </c>
       <c r="E21" t="n">
-        <v>76112.34983746881</v>
+        <v>-48593.39889227026</v>
       </c>
     </row>
     <row r="22">
@@ -1311,16 +1312,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>243125.2499999999</v>
+        <v>53313.99999999996</v>
       </c>
       <c r="C22" t="n">
-        <v>-85351.16372032673</v>
+        <v>-55097.01195728188</v>
       </c>
       <c r="D22" t="n">
-        <v>-51261.79506555603</v>
+        <v>-56026.67986491055</v>
       </c>
       <c r="E22" t="n">
-        <v>106512.2912141172</v>
+        <v>-57809.69182219246</v>
       </c>
     </row>
     <row r="23">
@@ -1328,16 +1329,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>295410.2499999999</v>
+        <v>67343.99999999996</v>
       </c>
       <c r="C23" t="n">
-        <v>-105468.4759222867</v>
+        <v>-70134.87224376219</v>
       </c>
       <c r="D23" t="n">
-        <v>-52527.36854774691</v>
+        <v>-62462.6116262701</v>
       </c>
       <c r="E23" t="n">
-        <v>137414.4055299663</v>
+        <v>-65253.48387003234</v>
       </c>
     </row>
     <row r="24">
@@ -1345,16 +1346,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>347695.2499999999</v>
+        <v>81373.99999999996</v>
       </c>
       <c r="C24" t="n">
-        <v>-125585.7881242468</v>
+        <v>-85172.73253024253</v>
       </c>
       <c r="D24" t="n">
-        <v>-53424.10825747999</v>
+        <v>-67475.16304705206</v>
       </c>
       <c r="E24" t="n">
-        <v>168685.3536182732</v>
+        <v>-71273.89557729464</v>
       </c>
     </row>
     <row r="25">
@@ -1362,16 +1363,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>399980.2499999999</v>
+        <v>95403.99999999996</v>
       </c>
       <c r="C25" t="n">
-        <v>-145703.1003262069</v>
+        <v>-100210.5928167229</v>
       </c>
       <c r="D25" t="n">
-        <v>-54053.44984929249</v>
+        <v>-71355.18478089471</v>
       </c>
       <c r="E25" t="n">
-        <v>200223.6998245006</v>
+        <v>-76161.77759761762</v>
       </c>
     </row>
     <row r="26">
@@ -1379,16 +1380,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>452265.2499999999</v>
+        <v>109434</v>
       </c>
       <c r="C26" t="n">
-        <v>-165820.4125281668</v>
+        <v>-115248.4531032033</v>
       </c>
       <c r="D26" t="n">
-        <v>-54491.23025590342</v>
+        <v>-74341.58370517268</v>
       </c>
       <c r="E26" t="n">
-        <v>231953.6072159297</v>
+        <v>-80156.03680837605</v>
       </c>
     </row>
     <row r="27">
@@ -1396,16 +1397,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>504550.2499999999</v>
+        <v>123464</v>
       </c>
       <c r="C27" t="n">
-        <v>-185937.7247301268</v>
+        <v>-130286.3133896835</v>
       </c>
       <c r="D27" t="n">
-        <v>-54793.27068581477</v>
+        <v>-76628.18630993746</v>
       </c>
       <c r="E27" t="n">
-        <v>263819.2545840584</v>
+        <v>-83450.49969962102</v>
       </c>
     </row>
   </sheetData>
@@ -1459,16 +1460,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-802574.7500000001</v>
+        <v>-227286</v>
       </c>
       <c r="C2" t="n">
-        <v>318542.1125273638</v>
+        <v>246816.651540201</v>
       </c>
       <c r="D2" t="n">
-        <v>1474658.016491397</v>
+        <v>1017736.143391909</v>
       </c>
       <c r="E2" t="n">
-        <v>990625.3790187603</v>
+        <v>1037266.79493211</v>
       </c>
     </row>
     <row r="3">
@@ -1476,16 +1477,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-750289.7500000001</v>
+        <v>-213256</v>
       </c>
       <c r="C3" t="n">
-        <v>298501.3860782993</v>
+        <v>231836.0397489677</v>
       </c>
       <c r="D3" t="n">
-        <v>1350099.672525285</v>
+        <v>918510.0863406502</v>
       </c>
       <c r="E3" t="n">
-        <v>898311.3086035841</v>
+        <v>937090.1260896178</v>
       </c>
     </row>
     <row r="4">
@@ -1493,16 +1494,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-698004.7500000001</v>
+        <v>-199226</v>
       </c>
       <c r="C4" t="n">
-        <v>278460.6596292348</v>
+        <v>216855.4279577346</v>
       </c>
       <c r="D4" t="n">
-        <v>1226094.181872972</v>
+        <v>820184.2869482456</v>
       </c>
       <c r="E4" t="n">
-        <v>806550.0915022065</v>
+        <v>837813.7149059802</v>
       </c>
     </row>
     <row r="5">
@@ -1510,16 +1511,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-645719.7500000001</v>
+        <v>-185196</v>
       </c>
       <c r="C5" t="n">
-        <v>258419.9331801703</v>
+        <v>201874.8161665013</v>
       </c>
       <c r="D5" t="n">
-        <v>1103081.594799032</v>
+        <v>723434.6868367125</v>
       </c>
       <c r="E5" t="n">
-        <v>715781.7779792016</v>
+        <v>740113.5030032138</v>
       </c>
     </row>
     <row r="6">
@@ -1527,16 +1528,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-593434.7500000001</v>
+        <v>-171166</v>
       </c>
       <c r="C6" t="n">
-        <v>238379.2067311059</v>
+        <v>186894.2043752681</v>
       </c>
       <c r="D6" t="n">
-        <v>981660.5497660742</v>
+        <v>629174.8169644296</v>
       </c>
       <c r="E6" t="n">
-        <v>626605.0064971799</v>
+        <v>644903.0213396976</v>
       </c>
     </row>
     <row r="7">
@@ -1544,16 +1545,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-541149.7500000001</v>
+        <v>-157136</v>
       </c>
       <c r="C7" t="n">
-        <v>218338.4802820414</v>
+        <v>171913.5925840348</v>
       </c>
       <c r="D7" t="n">
-        <v>862545.9279581986</v>
+        <v>538505.0235912412</v>
       </c>
       <c r="E7" t="n">
-        <v>539734.6582402398</v>
+        <v>553282.616175276</v>
       </c>
     </row>
     <row r="8">
@@ -1561,16 +1562,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-488864.7500000001</v>
+        <v>-143106</v>
       </c>
       <c r="C8" t="n">
-        <v>198297.7538329769</v>
+        <v>156932.9807928015</v>
       </c>
       <c r="D8" t="n">
-        <v>746486.9231730709</v>
+        <v>452610.109662016</v>
       </c>
       <c r="E8" t="n">
-        <v>455919.9270060477</v>
+        <v>466437.0904548175</v>
       </c>
     </row>
     <row r="9">
@@ -1578,16 +1579,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-436579.7500000001</v>
+        <v>-129076</v>
       </c>
       <c r="C9" t="n">
-        <v>178257.0273839125</v>
+        <v>141952.3690015683</v>
       </c>
       <c r="D9" t="n">
-        <v>634164.5916587393</v>
+        <v>372626.6607732512</v>
       </c>
       <c r="E9" t="n">
-        <v>375841.8690426517</v>
+        <v>385503.0297748194</v>
       </c>
     </row>
     <row r="10">
@@ -1595,16 +1596,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-384294.7500000001</v>
+        <v>-115046</v>
       </c>
       <c r="C10" t="n">
-        <v>158216.3009348479</v>
+        <v>126971.757210335</v>
       </c>
       <c r="D10" t="n">
-        <v>526095.7399167372</v>
+        <v>299510.9159364512</v>
       </c>
       <c r="E10" t="n">
-        <v>300017.290851585</v>
+        <v>311436.6731467861</v>
       </c>
     </row>
     <row r="11">
@@ -1612,16 +1613,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-332009.7500000001</v>
+        <v>-101016</v>
       </c>
       <c r="C11" t="n">
-        <v>138175.5744857835</v>
+        <v>111991.1454191018</v>
       </c>
       <c r="D11" t="n">
-        <v>422566.9928926926</v>
+        <v>233936.126017454</v>
       </c>
       <c r="E11" t="n">
-        <v>228732.817378476</v>
+        <v>244911.2714365557</v>
       </c>
     </row>
     <row r="12">
@@ -1629,16 +1630,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-279724.7500000001</v>
+        <v>-86986.00000000004</v>
       </c>
       <c r="C12" t="n">
-        <v>118134.848036719</v>
+        <v>97010.53362786851</v>
       </c>
       <c r="D12" t="n">
-        <v>323611.7550971502</v>
+        <v>176237.4226862635</v>
       </c>
       <c r="E12" t="n">
-        <v>162021.8531338692</v>
+        <v>186261.956314132</v>
       </c>
     </row>
     <row r="13">
@@ -1646,16 +1647,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-227439.7500000001</v>
+        <v>-72956.00000000004</v>
       </c>
       <c r="C13" t="n">
-        <v>98094.12158765446</v>
+        <v>82029.92183663519</v>
       </c>
       <c r="D13" t="n">
-        <v>229029.3476754442</v>
+        <v>126407.982424351</v>
       </c>
       <c r="E13" t="n">
-        <v>99683.71926309861</v>
+        <v>135481.9042609861</v>
       </c>
     </row>
     <row r="14">
@@ -1663,16 +1664,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-175154.7500000001</v>
+        <v>-58926.00000000004</v>
       </c>
       <c r="C14" t="n">
-        <v>78053.3951385899</v>
+        <v>67049.31004540197</v>
       </c>
       <c r="D14" t="n">
-        <v>138435.2287785873</v>
+        <v>84138.1820725275</v>
       </c>
       <c r="E14" t="n">
-        <v>41333.87391717712</v>
+        <v>92261.49211792945</v>
       </c>
     </row>
     <row r="15">
@@ -1680,16 +1681,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-122869.7500000001</v>
+        <v>-44896.00000000004</v>
       </c>
       <c r="C15" t="n">
-        <v>58012.66868952557</v>
+        <v>52068.69825416862</v>
       </c>
       <c r="D15" t="n">
-        <v>51326.54107311896</v>
+        <v>48882.57990925653</v>
       </c>
       <c r="E15" t="n">
-        <v>-13530.54023735554</v>
+        <v>56055.27816342511</v>
       </c>
     </row>
     <row r="16">
@@ -1697,16 +1698,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-70584.75000000007</v>
+        <v>-30866.00000000004</v>
       </c>
       <c r="C16" t="n">
-        <v>37971.94224046113</v>
+        <v>37088.08646293543</v>
       </c>
       <c r="D16" t="n">
-        <v>-32851.96630994687</v>
+        <v>19938.24954188623</v>
       </c>
       <c r="E16" t="n">
-        <v>-65464.77406948581</v>
+        <v>26160.33600482162</v>
       </c>
     </row>
     <row r="17">
@@ -1714,16 +1715,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-18299.75000000007</v>
+        <v>-16836.00000000004</v>
       </c>
       <c r="C17" t="n">
-        <v>17931.21579139645</v>
+        <v>22107.47467170219</v>
       </c>
       <c r="D17" t="n">
-        <v>-39652.33793422009</v>
+        <v>-3479.270802291934</v>
       </c>
       <c r="E17" t="n">
-        <v>-40020.87214282372</v>
+        <v>1792.203869410218</v>
       </c>
     </row>
     <row r="18">
@@ -1731,16 +1732,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>33985.24999999993</v>
+        <v>-2806.00000000004</v>
       </c>
       <c r="C18" t="n">
-        <v>-2109.510657667881</v>
+        <v>7126.862880469009</v>
       </c>
       <c r="D18" t="n">
-        <v>-44583.49839676741</v>
+        <v>-22171.49581451991</v>
       </c>
       <c r="E18" t="n">
-        <v>-12707.75905443536</v>
+        <v>-17850.63293405094</v>
       </c>
     </row>
     <row r="19">
@@ -1748,16 +1749,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>86270.24999999993</v>
+        <v>11223.99999999996</v>
       </c>
       <c r="C19" t="n">
-        <v>-22150.23710673233</v>
+        <v>-7853.748910764349</v>
       </c>
       <c r="D19" t="n">
-        <v>-48087.76041596758</v>
+        <v>-36908.29233475641</v>
       </c>
       <c r="E19" t="n">
-        <v>16032.25247730002</v>
+        <v>-33538.0412455208</v>
       </c>
     </row>
     <row r="20">
@@ -1765,16 +1766,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>138555.2499999999</v>
+        <v>25253.99999999996</v>
       </c>
       <c r="C20" t="n">
-        <v>-42190.963555797</v>
+        <v>-22834.36070199756</v>
       </c>
       <c r="D20" t="n">
-        <v>-50531.42606102428</v>
+        <v>-48395.48550451356</v>
       </c>
       <c r="E20" t="n">
-        <v>45832.86038317863</v>
+        <v>-45975.84620651117</v>
       </c>
     </row>
     <row r="21">
@@ -1782,16 +1783,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>190840.2499999999</v>
+        <v>39283.99999999996</v>
       </c>
       <c r="C21" t="n">
-        <v>-62231.69000486133</v>
+        <v>-37814.97249323077</v>
       </c>
       <c r="D21" t="n">
-        <v>-52205.73160921811</v>
+        <v>-57256.87055982157</v>
       </c>
       <c r="E21" t="n">
-        <v>76402.82838592047</v>
+        <v>-55787.84305305238</v>
       </c>
     </row>
     <row r="22">
@@ -1799,16 +1800,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>243125.2499999999</v>
+        <v>53313.99999999996</v>
       </c>
       <c r="C22" t="n">
-        <v>-82272.41645392578</v>
+        <v>-52795.58428446413</v>
       </c>
       <c r="D22" t="n">
-        <v>-53334.23514553326</v>
+        <v>-64027.56723877395</v>
       </c>
       <c r="E22" t="n">
-        <v>107518.5984005409</v>
+        <v>-63509.15152323811</v>
       </c>
     </row>
     <row r="23">
@@ -1816,16 +1817,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>295410.2499999999</v>
+        <v>67343.99999999996</v>
       </c>
       <c r="C23" t="n">
-        <v>-102313.1429029902</v>
+        <v>-67776.19607569734</v>
       </c>
       <c r="D23" t="n">
-        <v>-54083.34984652806</v>
+        <v>-69155.42724770385</v>
       </c>
       <c r="E23" t="n">
-        <v>139013.7572504817</v>
+        <v>-69587.62332340123</v>
       </c>
     </row>
     <row r="24">
@@ -1833,16 +1834,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>347695.2499999999</v>
+        <v>81373.99999999996</v>
       </c>
       <c r="C24" t="n">
-        <v>-122353.8693520548</v>
+        <v>-82756.80786693055</v>
       </c>
       <c r="D24" t="n">
-        <v>-54573.63137651235</v>
+        <v>-73007.54328679935</v>
       </c>
       <c r="E24" t="n">
-        <v>170767.7492714328</v>
+        <v>-74390.35115372995</v>
       </c>
     </row>
     <row r="25">
@@ -1850,16 +1851,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>399980.2499999999</v>
+        <v>95403.99999999996</v>
       </c>
       <c r="C25" t="n">
-        <v>-142394.5958011192</v>
+        <v>-97737.41965816388</v>
       </c>
       <c r="D25" t="n">
-        <v>-54890.32650441765</v>
+        <v>-75879.503588826</v>
       </c>
       <c r="E25" t="n">
-        <v>202695.3276944631</v>
+        <v>-78212.92324698993</v>
       </c>
     </row>
     <row r="26">
@@ -1867,16 +1868,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>452265.2499999999</v>
+        <v>109434</v>
       </c>
       <c r="C26" t="n">
-        <v>-162435.3222501837</v>
+        <v>-112718.0314493971</v>
       </c>
       <c r="D26" t="n">
-        <v>-55092.42129239237</v>
+        <v>-78005.68000683089</v>
       </c>
       <c r="E26" t="n">
-        <v>234737.5064574239</v>
+        <v>-81289.71145622806</v>
       </c>
     </row>
     <row r="27">
@@ -1884,16 +1885,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>504550.2499999999</v>
+        <v>123464</v>
       </c>
       <c r="C27" t="n">
-        <v>-182476.0486992482</v>
+        <v>-127698.6432406303</v>
       </c>
       <c r="D27" t="n">
-        <v>-55219.94153677126</v>
+        <v>-79569.41351937193</v>
       </c>
       <c r="E27" t="n">
-        <v>266854.2597639805</v>
+        <v>-83804.05676000228</v>
       </c>
     </row>
   </sheetData>
@@ -1947,16 +1948,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-802574.7500000001</v>
+        <v>-227286</v>
       </c>
       <c r="C2" t="n">
-        <v>319313.4186710803</v>
+        <v>247431.6277805321</v>
       </c>
       <c r="D2" t="n">
-        <v>1477410.712514732</v>
+        <v>1023937.900163858</v>
       </c>
       <c r="E2" t="n">
-        <v>994149.3811858119</v>
+        <v>1044083.52794439</v>
       </c>
     </row>
     <row r="3">
@@ -1964,16 +1965,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-750289.7500000001</v>
+        <v>-213256</v>
       </c>
       <c r="C3" t="n">
-        <v>299310.8756944769</v>
+        <v>232481.4593529475</v>
       </c>
       <c r="D3" t="n">
-        <v>1352651.728777743</v>
+        <v>924361.7880766457</v>
       </c>
       <c r="E3" t="n">
-        <v>901672.8544722197</v>
+        <v>943587.2474295931</v>
       </c>
     </row>
     <row r="4">
@@ -1981,16 +1982,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-698004.7500000001</v>
+        <v>-199226</v>
       </c>
       <c r="C4" t="n">
-        <v>279308.3327178737</v>
+        <v>217531.2909253628</v>
       </c>
       <c r="D4" t="n">
-        <v>1228268.201286308</v>
+        <v>825393.6889357831</v>
       </c>
       <c r="E4" t="n">
-        <v>809571.7840041819</v>
+        <v>843698.9798611458</v>
       </c>
     </row>
     <row r="5">
@@ -1998,16 +1999,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-645719.7500000001</v>
+        <v>-185196</v>
       </c>
       <c r="C5" t="n">
-        <v>259305.7897412704</v>
+        <v>202581.1224977781</v>
       </c>
       <c r="D5" t="n">
-        <v>1104639.212211777</v>
+        <v>727609.4699431146</v>
       </c>
       <c r="E5" t="n">
-        <v>718225.251953047</v>
+        <v>744994.5924408926</v>
       </c>
     </row>
     <row r="6">
@@ -2015,16 +2016,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-593434.7500000001</v>
+        <v>-171166</v>
       </c>
       <c r="C6" t="n">
-        <v>239303.2467646672</v>
+        <v>187630.9540701934</v>
       </c>
       <c r="D6" t="n">
-        <v>982337.9008009204</v>
+        <v>631869.4830555182</v>
       </c>
       <c r="E6" t="n">
-        <v>628206.3975655874</v>
+        <v>648334.4371257116</v>
       </c>
     </row>
     <row r="7">
@@ -2032,16 +2033,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-541149.7500000001</v>
+        <v>-157136</v>
       </c>
       <c r="C7" t="n">
-        <v>219300.7037880639</v>
+        <v>172680.7856426087</v>
       </c>
       <c r="D7" t="n">
-        <v>862112.8638851814</v>
+        <v>539301.5731746831</v>
       </c>
       <c r="E7" t="n">
-        <v>540263.8176732452</v>
+        <v>554846.3588172919</v>
       </c>
     </row>
     <row r="8">
@@ -2049,16 +2050,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-488864.7500000001</v>
+        <v>-143106</v>
       </c>
       <c r="C8" t="n">
-        <v>199298.1608114606</v>
+        <v>157730.617215024</v>
       </c>
       <c r="D8" t="n">
-        <v>744811.08652452</v>
+        <v>451209.7052153799</v>
       </c>
       <c r="E8" t="n">
-        <v>455244.4973359805</v>
+        <v>465834.322430404</v>
       </c>
     </row>
     <row r="9">
@@ -2066,16 +2067,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-436579.7500000001</v>
+        <v>-129076</v>
       </c>
       <c r="C9" t="n">
-        <v>179295.6178348573</v>
+        <v>142780.4487874394</v>
       </c>
       <c r="D9" t="n">
-        <v>631256.5410145327</v>
+        <v>368922.5259457057</v>
       </c>
       <c r="E9" t="n">
-        <v>373972.4088493899</v>
+        <v>382626.974733145</v>
       </c>
     </row>
     <row r="10">
@@ -2083,16 +2084,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-384294.7500000001</v>
+        <v>-115046</v>
       </c>
       <c r="C10" t="n">
-        <v>159293.0748582541</v>
+        <v>127830.2803598547</v>
       </c>
       <c r="D10" t="n">
-        <v>522118.3165722676</v>
+        <v>293619.483976496</v>
       </c>
       <c r="E10" t="n">
-        <v>297116.6414305216</v>
+        <v>306403.7643363506</v>
       </c>
     </row>
     <row r="11">
@@ -2100,16 +2101,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-332009.7500000001</v>
+        <v>-101016</v>
       </c>
       <c r="C11" t="n">
-        <v>139290.5318816508</v>
+        <v>112880.11193227</v>
       </c>
       <c r="D11" t="n">
-        <v>417806.6220714609</v>
+        <v>226179.4095667831</v>
       </c>
       <c r="E11" t="n">
-        <v>225087.4039531117</v>
+        <v>238043.5214990531</v>
       </c>
     </row>
     <row r="12">
@@ -2117,16 +2118,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-279724.7500000001</v>
+        <v>-86986.00000000004</v>
       </c>
       <c r="C12" t="n">
-        <v>119287.9889050475</v>
+        <v>97929.94350468533</v>
       </c>
       <c r="D12" t="n">
-        <v>318423.2645352092</v>
+        <v>167086.0921361019</v>
       </c>
       <c r="E12" t="n">
-        <v>157986.5034402566</v>
+        <v>178030.0356407872</v>
       </c>
     </row>
     <row r="13">
@@ -2134,16 +2135,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-227439.7500000001</v>
+        <v>-72956.00000000004</v>
       </c>
       <c r="C13" t="n">
-        <v>99285.44592844427</v>
+        <v>82979.77507710064</v>
       </c>
       <c r="D13" t="n">
-        <v>223772.9206851276</v>
+        <v>116404.6566319363</v>
       </c>
       <c r="E13" t="n">
-        <v>95618.61661357174</v>
+        <v>126428.4317090369</v>
       </c>
     </row>
     <row r="14">
@@ -2151,16 +2152,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-175154.7500000001</v>
+        <v>-58926.00000000004</v>
       </c>
       <c r="C14" t="n">
-        <v>79282.90295184101</v>
+        <v>68029.60664951598</v>
       </c>
       <c r="D14" t="n">
-        <v>133422.8534194384</v>
+        <v>73821.66478523496</v>
       </c>
       <c r="E14" t="n">
-        <v>37551.00637127933</v>
+        <v>82925.2714347509</v>
       </c>
     </row>
     <row r="15">
@@ -2168,16 +2169,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-122869.7500000001</v>
+        <v>-44896.00000000004</v>
       </c>
       <c r="C15" t="n">
-        <v>59280.35997523775</v>
+        <v>53079.43822193131</v>
       </c>
       <c r="D15" t="n">
-        <v>46788.47427888888</v>
+        <v>38728.29488613174</v>
       </c>
       <c r="E15" t="n">
-        <v>-16800.91574587344</v>
+        <v>46911.73310806302</v>
       </c>
     </row>
     <row r="16">
@@ -2185,16 +2186,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-70584.75000000007</v>
+        <v>-30866.00000000004</v>
       </c>
       <c r="C16" t="n">
-        <v>39277.81699863449</v>
+        <v>38129.26979434662</v>
       </c>
       <c r="D16" t="n">
-        <v>-36778.42861905756</v>
+        <v>10321.94021063506</v>
       </c>
       <c r="E16" t="n">
-        <v>-68085.36162042315</v>
+        <v>17585.21000498164</v>
       </c>
     </row>
     <row r="17">
@@ -2202,16 +2203,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-18299.75000000007</v>
+        <v>-16836.00000000004</v>
       </c>
       <c r="C17" t="n">
-        <v>19275.27402203111</v>
+        <v>23179.10136676193</v>
       </c>
       <c r="D17" t="n">
-        <v>-42915.8070050825</v>
+        <v>-12294.8696775274</v>
       </c>
       <c r="E17" t="n">
-        <v>-41940.28298305147</v>
+        <v>-5951.76831076551</v>
       </c>
     </row>
     <row r="18">
@@ -2219,16 +2220,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>33985.24999999993</v>
+        <v>-2806.00000000004</v>
       </c>
       <c r="C18" t="n">
-        <v>-727.268954572035</v>
+        <v>8228.932939177263</v>
       </c>
       <c r="D18" t="n">
-        <v>-47200.20788561359</v>
+        <v>-30031.96360810148</v>
       </c>
       <c r="E18" t="n">
-        <v>-13942.2268401857</v>
+        <v>-24609.03066892425</v>
       </c>
     </row>
     <row r="19">
@@ -2236,16 +2237,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>86270.24999999993</v>
+        <v>11223.99999999996</v>
       </c>
       <c r="C19" t="n">
-        <v>-20729.81193117541</v>
+        <v>-6721.23548840743</v>
       </c>
       <c r="D19" t="n">
-        <v>-50119.16605321386</v>
+        <v>-43751.48193994788</v>
       </c>
       <c r="E19" t="n">
-        <v>15421.27201561065</v>
+        <v>-39248.71742835535</v>
       </c>
     </row>
     <row r="20">
@@ -2253,16 +2254,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>138555.2499999999</v>
+        <v>25253.99999999996</v>
       </c>
       <c r="C20" t="n">
-        <v>-40732.35490777867</v>
+        <v>-21671.40391599212</v>
       </c>
       <c r="D20" t="n">
-        <v>-52063.06262241324</v>
+        <v>-54230.37663230136</v>
       </c>
       <c r="E20" t="n">
-        <v>45759.832469808</v>
+        <v>-50647.78054829352</v>
       </c>
     </row>
     <row r="21">
@@ -2270,16 +2271,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>190840.2499999999</v>
+        <v>39283.99999999996</v>
       </c>
       <c r="C21" t="n">
-        <v>-60734.89788438194</v>
+        <v>-36621.57234357679</v>
       </c>
       <c r="D21" t="n">
-        <v>-53330.37959779179</v>
+        <v>-62142.00136486094</v>
       </c>
       <c r="E21" t="n">
-        <v>76774.97251782619</v>
+        <v>-59479.57370843776</v>
       </c>
     </row>
     <row r="22">
@@ -2287,16 +2288,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>243125.2499999999</v>
+        <v>53313.99999999996</v>
       </c>
       <c r="C22" t="n">
-        <v>-80737.4408609852</v>
+        <v>-51571.74077116148</v>
       </c>
       <c r="D22" t="n">
-        <v>-54140.40395969744</v>
+        <v>-68051.91948684736</v>
       </c>
       <c r="E22" t="n">
-        <v>108247.4051793173</v>
+        <v>-66309.66025800887</v>
       </c>
     </row>
     <row r="23">
@@ -2304,16 +2305,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>295410.2499999999</v>
+        <v>67343.99999999996</v>
       </c>
       <c r="C23" t="n">
-        <v>-100739.9838375885</v>
+        <v>-66521.90919874614</v>
       </c>
       <c r="D23" t="n">
-        <v>-54648.69860704684</v>
+        <v>-72423.09440170767</v>
       </c>
       <c r="E23" t="n">
-        <v>140021.5675553646</v>
+        <v>-71601.00360045386</v>
       </c>
     </row>
     <row r="24">
@@ -2321,16 +2322,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>347695.2499999999</v>
+        <v>81373.99999999996</v>
       </c>
       <c r="C24" t="n">
-        <v>-120742.5268141917</v>
+        <v>-81472.07762633081</v>
       </c>
       <c r="D24" t="n">
-        <v>-54962.25024931631</v>
+        <v>-75626.42700382293</v>
       </c>
       <c r="E24" t="n">
-        <v>171990.4729364919</v>
+        <v>-75724.50463015378</v>
       </c>
     </row>
     <row r="25">
@@ -2338,16 +2339,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>399980.2499999999</v>
+        <v>95403.99999999996</v>
       </c>
       <c r="C25" t="n">
-        <v>-140745.069790795</v>
+        <v>-96422.24605391553</v>
       </c>
       <c r="D25" t="n">
-        <v>-55152.62828213554</v>
+        <v>-77953.65348156281</v>
       </c>
       <c r="E25" t="n">
-        <v>204082.5519270694</v>
+        <v>-78971.89953547838</v>
       </c>
     </row>
     <row r="26">
@@ -2355,16 +2356,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>452265.2499999999</v>
+        <v>109434</v>
       </c>
       <c r="C26" t="n">
-        <v>-160747.6127673982</v>
+        <v>-111372.4144815002</v>
       </c>
       <c r="D26" t="n">
-        <v>-55266.53352627324</v>
+        <v>-79630.60961265847</v>
       </c>
       <c r="E26" t="n">
-        <v>236251.1037063285</v>
+        <v>-81569.02409415871</v>
       </c>
     </row>
     <row r="27">
@@ -2372,16 +2373,504 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>504550.2499999999</v>
+        <v>123464</v>
       </c>
       <c r="C27" t="n">
-        <v>-180750.1557440015</v>
+        <v>-126322.5829090849</v>
       </c>
       <c r="D27" t="n">
-        <v>-55333.76339366691</v>
+        <v>-80829.66888743833</v>
       </c>
       <c r="E27" t="n">
-        <v>268466.3308623316</v>
+        <v>-83688.25179652323</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Spot</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Fwds</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Total_Pnl</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-227286</v>
+      </c>
+      <c r="C2" t="n">
+        <v>247393.2284055154</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1023545.930135934</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1043653.158541449</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-213256</v>
+      </c>
+      <c r="C3" t="n">
+        <v>232441.1590815043</v>
+      </c>
+      <c r="D3" t="n">
+        <v>923988.4376951717</v>
+      </c>
+      <c r="E3" t="n">
+        <v>943173.5967766759</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-199226</v>
+      </c>
+      <c r="C4" t="n">
+        <v>217489.0897574933</v>
+      </c>
+      <c r="D4" t="n">
+        <v>825056.6113647457</v>
+      </c>
+      <c r="E4" t="n">
+        <v>843319.701122239</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-185196</v>
+      </c>
+      <c r="C5" t="n">
+        <v>202537.0204334823</v>
+      </c>
+      <c r="D5" t="n">
+        <v>727333.7618672037</v>
+      </c>
+      <c r="E5" t="n">
+        <v>744674.782300686</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-171166</v>
+      </c>
+      <c r="C6" t="n">
+        <v>187584.9511094713</v>
+      </c>
+      <c r="D6" t="n">
+        <v>631685.1110394243</v>
+      </c>
+      <c r="E6" t="n">
+        <v>648104.0621488956</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-157136</v>
+      </c>
+      <c r="C7" t="n">
+        <v>172632.8817854604</v>
+      </c>
+      <c r="D7" t="n">
+        <v>539238.0238367026</v>
+      </c>
+      <c r="E7" t="n">
+        <v>554734.9056221629</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>26</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-143106</v>
+      </c>
+      <c r="C8" t="n">
+        <v>157680.8124614494</v>
+      </c>
+      <c r="D8" t="n">
+        <v>451289.3140874085</v>
+      </c>
+      <c r="E8" t="n">
+        <v>465864.1265488578</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>27</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-129076</v>
+      </c>
+      <c r="C9" t="n">
+        <v>142728.7431374385</v>
+      </c>
+      <c r="D9" t="n">
+        <v>369154.7453148118</v>
+      </c>
+      <c r="E9" t="n">
+        <v>382807.4884522502</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-115046</v>
+      </c>
+      <c r="C10" t="n">
+        <v>127776.6738134273</v>
+      </c>
+      <c r="D10" t="n">
+        <v>293998.0499332877</v>
+      </c>
+      <c r="E10" t="n">
+        <v>306728.723746715</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>29</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-101016</v>
+      </c>
+      <c r="C11" t="n">
+        <v>112824.6044894164</v>
+      </c>
+      <c r="D11" t="n">
+        <v>226683.1923494376</v>
+      </c>
+      <c r="E11" t="n">
+        <v>238491.796838854</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>30</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-86986.00000000004</v>
+      </c>
+      <c r="C12" t="n">
+        <v>97872.53516540537</v>
+      </c>
+      <c r="D12" t="n">
+        <v>167683.0543518554</v>
+      </c>
+      <c r="E12" t="n">
+        <v>178569.5895172607</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>31</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-72956.00000000004</v>
+      </c>
+      <c r="C13" t="n">
+        <v>82920.46584139438</v>
+      </c>
+      <c r="D13" t="n">
+        <v>117057.44940583</v>
+      </c>
+      <c r="E13" t="n">
+        <v>127021.9152472243</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>32</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-58926.00000000004</v>
+      </c>
+      <c r="C14" t="n">
+        <v>67968.3965173834</v>
+      </c>
+      <c r="D14" t="n">
+        <v>74493.22303555923</v>
+      </c>
+      <c r="E14" t="n">
+        <v>83535.6195529426</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-44896.00000000004</v>
+      </c>
+      <c r="C15" t="n">
+        <v>53016.32719337242</v>
+      </c>
+      <c r="D15" t="n">
+        <v>39386.20899022376</v>
+      </c>
+      <c r="E15" t="n">
+        <v>47506.53618359614</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>34</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-30866.00000000004</v>
+      </c>
+      <c r="C16" t="n">
+        <v>38064.25786936141</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10941.0446954727</v>
+      </c>
+      <c r="E16" t="n">
+        <v>18139.30256483407</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-16836.00000000004</v>
+      </c>
+      <c r="C17" t="n">
+        <v>23112.18854535045</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-11731.64996000349</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-5455.461414653077</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-2806.00000000004</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8160.119221339468</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-29534.0986876844</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-24179.97946634497</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37</v>
+      </c>
+      <c r="B19" t="n">
+        <v>11223.99999999996</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-6791.950102671544</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-43322.11838447956</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-38890.06848715115</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38</v>
+      </c>
+      <c r="B20" t="n">
+        <v>25253.99999999996</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-21744.01942668264</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-53867.93360639428</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-50357.95303307696</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39</v>
+      </c>
+      <c r="B21" t="n">
+        <v>39283.99999999996</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-36696.08875069348</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-61841.73629725033</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-59253.82504794385</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>40</v>
+      </c>
+      <c r="B22" t="n">
+        <v>53313.99999999996</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-51648.15807470461</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-67807.26712931755</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-66141.42520402221</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>41</v>
+      </c>
+      <c r="B23" t="n">
+        <v>67343.99999999996</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-66600.22739871548</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-72226.70257312102</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-71482.92997183654</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42</v>
+      </c>
+      <c r="B24" t="n">
+        <v>81373.99999999996</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-81552.29672272661</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-75470.89032520073</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-75649.18704792738</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>43</v>
+      </c>
+      <c r="B25" t="n">
+        <v>95403.99999999996</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-96504.36604673759</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-77831.9872362068</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-78932.35328294443</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>44</v>
+      </c>
+      <c r="B26" t="n">
+        <v>109434</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-111456.4353707485</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-79536.5203365676</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-81558.95570731618</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>45</v>
+      </c>
+      <c r="B27" t="n">
+        <v>123464</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-126408.5046947595</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-80757.67732388765</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-83702.18201864722</v>
       </c>
     </row>
   </sheetData>
@@ -2435,16 +2924,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-802574.7500000001</v>
+        <v>-227286</v>
       </c>
       <c r="C2" t="n">
-        <v>313727.0421781571</v>
+        <v>244770.5841160937</v>
       </c>
       <c r="D2" t="n">
-        <v>1453785.55068297</v>
+        <v>998469.2763593215</v>
       </c>
       <c r="E2" t="n">
-        <v>964937.8428611266</v>
+        <v>1015953.860475415</v>
       </c>
     </row>
     <row r="3">
@@ -2452,16 +2941,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-750289.7500000001</v>
+        <v>-213256</v>
       </c>
       <c r="C3" t="n">
-        <v>293447.9459098249</v>
+        <v>229688.6852009741</v>
       </c>
       <c r="D3" t="n">
-        <v>1331414.913383993</v>
+        <v>901057.0145318033</v>
       </c>
       <c r="E3" t="n">
-        <v>874573.1092938179</v>
+        <v>917489.6997327773</v>
       </c>
     </row>
     <row r="4">
@@ -2469,16 +2958,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-698004.7500000001</v>
+        <v>-199226</v>
       </c>
       <c r="C4" t="n">
-        <v>273168.8496414928</v>
+        <v>214606.7862858544</v>
       </c>
       <c r="D4" t="n">
-        <v>1210531.754217331</v>
+        <v>805493.8397147325</v>
       </c>
       <c r="E4" t="n">
-        <v>785695.853858824</v>
+        <v>820874.6260005869</v>
       </c>
     </row>
     <row r="5">
@@ -2486,16 +2975,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-645719.7500000001</v>
+        <v>-185196</v>
       </c>
       <c r="C5" t="n">
-        <v>252889.7533731607</v>
+        <v>199524.8873707348</v>
       </c>
       <c r="D5" t="n">
-        <v>1091590.210811301</v>
+        <v>712565.6214291778</v>
       </c>
       <c r="E5" t="n">
-        <v>698760.2141844619</v>
+        <v>726894.5087999126</v>
       </c>
     </row>
     <row r="6">
@@ -2503,16 +2992,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-593434.7500000001</v>
+        <v>-171166</v>
       </c>
       <c r="C6" t="n">
-        <v>232610.6571048285</v>
+        <v>184442.9884556152</v>
       </c>
       <c r="D6" t="n">
-        <v>975038.0221980857</v>
+        <v>623142.5951739177</v>
       </c>
       <c r="E6" t="n">
-        <v>614213.9293029141</v>
+        <v>636419.5836295329</v>
       </c>
     </row>
     <row r="7">
@@ -2520,16 +3009,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-541149.7500000001</v>
+        <v>-157136</v>
       </c>
       <c r="C7" t="n">
-        <v>212331.5608364964</v>
+        <v>169361.0895404955</v>
       </c>
       <c r="D7" t="n">
-        <v>861276.9857587928</v>
+        <v>538107.9894407394</v>
       </c>
       <c r="E7" t="n">
-        <v>532458.7965952891</v>
+        <v>550333.0789812349</v>
       </c>
     </row>
     <row r="8">
@@ -2537,16 +3026,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-488864.7500000001</v>
+        <v>-143106</v>
       </c>
       <c r="C8" t="n">
-        <v>192052.4645681642</v>
+        <v>154279.1906253759</v>
       </c>
       <c r="D8" t="n">
-        <v>750629.539795537</v>
+        <v>458280.749440097</v>
       </c>
       <c r="E8" t="n">
-        <v>453817.2543637012</v>
+        <v>469453.9400654729</v>
       </c>
     </row>
     <row r="9">
@@ -2554,16 +3043,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-436579.7500000001</v>
+        <v>-129076</v>
       </c>
       <c r="C9" t="n">
-        <v>171773.3682998321</v>
+        <v>139197.2917102564</v>
       </c>
       <c r="D9" t="n">
-        <v>643318.5867524734</v>
+        <v>384345.9272487939</v>
       </c>
       <c r="E9" t="n">
-        <v>378512.2050523054</v>
+        <v>394467.2189590502</v>
       </c>
     </row>
     <row r="10">
@@ -2571,16 +3060,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-384294.7500000001</v>
+        <v>-115046</v>
       </c>
       <c r="C10" t="n">
-        <v>151494.2720315</v>
+        <v>124115.3927951367</v>
       </c>
       <c r="D10" t="n">
-        <v>539479.6096792243</v>
+        <v>316803.247121776</v>
       </c>
       <c r="E10" t="n">
-        <v>306679.1317107243</v>
+        <v>325872.6399169127</v>
       </c>
     </row>
     <row r="11">
@@ -2588,16 +3077,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-332009.7500000001</v>
+        <v>-101016</v>
       </c>
       <c r="C11" t="n">
-        <v>131215.1757631678</v>
+        <v>109033.493880017</v>
       </c>
       <c r="D11" t="n">
-        <v>439273.3363334715</v>
+        <v>255939.3836694536</v>
       </c>
       <c r="E11" t="n">
-        <v>238478.7620966392</v>
+        <v>263956.8775494706</v>
       </c>
     </row>
     <row r="12">
@@ -2605,16 +3094,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-279724.7500000001</v>
+        <v>-86986.00000000004</v>
       </c>
       <c r="C12" t="n">
-        <v>110936.0794948357</v>
+        <v>93951.59496489746</v>
       </c>
       <c r="D12" t="n">
-        <v>343236.964816145</v>
+        <v>201824.3545185986</v>
       </c>
       <c r="E12" t="n">
-        <v>174448.2943109806</v>
+        <v>208789.949483496</v>
       </c>
     </row>
     <row r="13">
@@ -2622,16 +3111,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-227439.7500000001</v>
+        <v>-72956.00000000004</v>
       </c>
       <c r="C13" t="n">
-        <v>90656.98322650359</v>
+        <v>78869.69604977779</v>
       </c>
       <c r="D13" t="n">
-        <v>252906.2490595974</v>
+        <v>154328.4114669061</v>
       </c>
       <c r="E13" t="n">
-        <v>116123.4822861009</v>
+        <v>160242.1075166839</v>
       </c>
     </row>
     <row r="14">
@@ -2639,16 +3128,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-175154.7500000001</v>
+        <v>-58926.00000000004</v>
       </c>
       <c r="C14" t="n">
-        <v>70377.88695817138</v>
+        <v>63787.79713465823</v>
       </c>
       <c r="D14" t="n">
-        <v>171255.5362812268</v>
+        <v>113153.5019892972</v>
       </c>
       <c r="E14" t="n">
-        <v>66478.67323939811</v>
+        <v>118015.2991239554</v>
       </c>
     </row>
     <row r="15">
@@ -2656,16 +3145,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-122869.7500000001</v>
+        <v>-44896.00000000004</v>
       </c>
       <c r="C15" t="n">
-        <v>50098.79068983917</v>
+        <v>48705.89821953856</v>
       </c>
       <c r="D15" t="n">
-        <v>102122.6795050891</v>
+        <v>77872.73742366181</v>
       </c>
       <c r="E15" t="n">
-        <v>29351.72019492822</v>
+        <v>81682.63564320034</v>
       </c>
     </row>
     <row r="16">
@@ -2673,16 +3162,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-70584.75000000007</v>
+        <v>-30866.00000000004</v>
       </c>
       <c r="C16" t="n">
-        <v>29819.69442150719</v>
+        <v>33623.99930441889</v>
       </c>
       <c r="D16" t="n">
-        <v>48470.04944950326</v>
+        <v>47971.93705466021</v>
       </c>
       <c r="E16" t="n">
-        <v>7704.993871010374</v>
+        <v>50729.93635907906</v>
       </c>
     </row>
     <row r="17">
@@ -2690,16 +3179,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-18299.75000000007</v>
+        <v>-16836.00000000004</v>
       </c>
       <c r="C17" t="n">
-        <v>9540.598153174971</v>
+        <v>18542.10038929933</v>
       </c>
       <c r="D17" t="n">
-        <v>10697.52548016187</v>
+        <v>22888.67971402984</v>
       </c>
       <c r="E17" t="n">
-        <v>1938.373633336772</v>
+        <v>24594.78010332913</v>
       </c>
     </row>
     <row r="18">
@@ -2707,16 +3196,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>33985.24999999993</v>
+        <v>-2806.00000000004</v>
       </c>
       <c r="C18" t="n">
-        <v>-10738.49811515713</v>
+        <v>3460.201474179659</v>
       </c>
       <c r="D18" t="n">
-        <v>-13564.92904190558</v>
+        <v>2045.89656883245</v>
       </c>
       <c r="E18" t="n">
-        <v>9681.822842937218</v>
+        <v>2700.098043012069</v>
       </c>
     </row>
     <row r="19">
@@ -2724,16 +3213,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>86270.24999999993</v>
+        <v>11223.99999999996</v>
       </c>
       <c r="C19" t="n">
-        <v>-31017.59438348934</v>
+        <v>-11621.69744094001</v>
       </c>
       <c r="D19" t="n">
-        <v>-28151.93883196831</v>
+        <v>-15121.47010750133</v>
       </c>
       <c r="E19" t="n">
-        <v>27100.71678454228</v>
+        <v>-15519.16754844139</v>
       </c>
     </row>
     <row r="20">
@@ -2741,16 +3230,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>138555.2499999999</v>
+        <v>25253.99999999996</v>
       </c>
       <c r="C20" t="n">
-        <v>-51296.69065182144</v>
+        <v>-26703.59635605957</v>
       </c>
       <c r="D20" t="n">
-        <v>-36750.51528551408</v>
+        <v>-29147.03136345016</v>
       </c>
       <c r="E20" t="n">
-        <v>50508.04406266439</v>
+        <v>-30596.62771950977</v>
       </c>
     </row>
     <row r="21">
@@ -2758,16 +3247,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>190840.2499999999</v>
+        <v>39283.99999999996</v>
       </c>
       <c r="C21" t="n">
-        <v>-71575.78692015365</v>
+        <v>-41785.49527117924</v>
       </c>
       <c r="D21" t="n">
-        <v>-42008.20872862534</v>
+        <v>-40520.21161109416</v>
       </c>
       <c r="E21" t="n">
-        <v>77256.25435122092</v>
+        <v>-43021.70688227344</v>
       </c>
     </row>
     <row r="22">
@@ -2775,16 +3264,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>243125.2499999999</v>
+        <v>53313.99999999996</v>
       </c>
       <c r="C22" t="n">
-        <v>-91854.88318848575</v>
+        <v>-56867.39418629892</v>
       </c>
       <c r="D22" t="n">
-        <v>-45472.11050417808</v>
+        <v>-49679.2062829635</v>
       </c>
       <c r="E22" t="n">
-        <v>105798.2563073361</v>
+        <v>-53232.60046926245</v>
       </c>
     </row>
     <row r="23">
@@ -2792,16 +3281,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>295410.2499999999</v>
+        <v>67343.99999999996</v>
       </c>
       <c r="C23" t="n">
-        <v>-112133.979456818</v>
+        <v>-71949.29310141847</v>
       </c>
       <c r="D23" t="n">
-        <v>-47927.86330960641</v>
+        <v>-57008.44669962543</v>
       </c>
       <c r="E23" t="n">
-        <v>135348.4072335756</v>
+        <v>-61613.73980104394</v>
       </c>
     </row>
     <row r="24">
@@ -2809,16 +3298,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>347695.2499999999</v>
+        <v>81373.99999999996</v>
       </c>
       <c r="C24" t="n">
-        <v>-132413.0757251499</v>
+        <v>-87031.19201653815</v>
       </c>
       <c r="D24" t="n">
-        <v>-49752.03625731076</v>
+        <v>-62839.38515099733</v>
       </c>
       <c r="E24" t="n">
-        <v>165530.1380175392</v>
+        <v>-68496.57716753552</v>
       </c>
     </row>
     <row r="25">
@@ -2826,16 +3315,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>399980.2499999999</v>
+        <v>95403.99999999996</v>
       </c>
       <c r="C25" t="n">
-        <v>-152692.1719934822</v>
+        <v>-102113.0909316578</v>
       </c>
       <c r="D25" t="n">
-        <v>-51135.27504082768</v>
+        <v>-67453.5360674187</v>
       </c>
       <c r="E25" t="n">
-        <v>196152.8029656901</v>
+        <v>-74162.62699907656</v>
       </c>
     </row>
     <row r="26">
@@ -2843,16 +3332,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>452265.2499999999</v>
+        <v>109434</v>
       </c>
       <c r="C26" t="n">
-        <v>-172971.2682618143</v>
+        <v>-117194.9898467774</v>
       </c>
       <c r="D26" t="n">
-        <v>-52189.85929543556</v>
+        <v>-71086.89051910304</v>
       </c>
       <c r="E26" t="n">
-        <v>227104.1224427501</v>
+        <v>-78847.88036588045</v>
       </c>
     </row>
     <row r="27">
@@ -2860,16 +3349,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>504550.2499999999</v>
+        <v>123464</v>
       </c>
       <c r="C27" t="n">
-        <v>-193250.3645301465</v>
+        <v>-132276.888761897</v>
       </c>
       <c r="D27" t="n">
-        <v>-52992.94886694913</v>
+        <v>-73935.01797634827</v>
       </c>
       <c r="E27" t="n">
-        <v>258306.9366029043</v>
+        <v>-82747.90673824536</v>
       </c>
     </row>
   </sheetData>
@@ -2923,16 +3412,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-802574.7500000001</v>
+        <v>-227286</v>
       </c>
       <c r="C2" t="n">
-        <v>313831.192233938</v>
+        <v>245660.1937723249</v>
       </c>
       <c r="D2" t="n">
-        <v>1454728.280097986</v>
+        <v>1006571.4152792</v>
       </c>
       <c r="E2" t="n">
-        <v>965984.722331924</v>
+        <v>1024945.609051525</v>
       </c>
     </row>
     <row r="3">
@@ -2940,16 +3429,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-750289.7500000001</v>
+        <v>-213256</v>
       </c>
       <c r="C3" t="n">
-        <v>293557.2519089614</v>
+        <v>230622.3334858446</v>
       </c>
       <c r="D3" t="n">
-        <v>1332301.414966062</v>
+        <v>908268.8588069126</v>
       </c>
       <c r="E3" t="n">
-        <v>875568.9168750232</v>
+        <v>925635.1922927571</v>
       </c>
     </row>
     <row r="4">
@@ -2957,16 +3446,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-698004.7500000001</v>
+        <v>-199226</v>
       </c>
       <c r="C4" t="n">
-        <v>273283.3115839848</v>
+        <v>215584.4731993643</v>
       </c>
       <c r="D4" t="n">
-        <v>1211347.361987565</v>
+        <v>811422.040793845</v>
       </c>
       <c r="E4" t="n">
-        <v>786625.9235715496</v>
+        <v>827780.5139932092</v>
       </c>
     </row>
     <row r="5">
@@ -2974,16 +3463,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-645719.7500000001</v>
+        <v>-185196</v>
       </c>
       <c r="C5" t="n">
-        <v>253009.3712590081</v>
+        <v>200546.6129128839</v>
       </c>
       <c r="D5" t="n">
-        <v>1092322.899787284</v>
+        <v>716801.3755348432</v>
       </c>
       <c r="E5" t="n">
-        <v>699612.5210462924</v>
+        <v>732151.9884477271</v>
       </c>
     </row>
     <row r="6">
@@ -2991,16 +3480,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-593434.7500000001</v>
+        <v>-171166</v>
       </c>
       <c r="C6" t="n">
-        <v>232735.4309340314</v>
+        <v>185508.7526264035</v>
       </c>
       <c r="D6" t="n">
-        <v>975680.2671405339</v>
+        <v>625321.5607429284</v>
       </c>
       <c r="E6" t="n">
-        <v>614980.9480745652</v>
+        <v>639664.3133693319</v>
       </c>
     </row>
     <row r="7">
@@ -3008,16 +3497,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-541149.7500000001</v>
+        <v>-157136</v>
       </c>
       <c r="C7" t="n">
-        <v>212461.4906090548</v>
+        <v>170470.8923399233</v>
       </c>
       <c r="D7" t="n">
-        <v>861826.9286565066</v>
+        <v>537969.0593595754</v>
       </c>
       <c r="E7" t="n">
-        <v>533138.6692655613</v>
+        <v>551303.9516994987</v>
       </c>
     </row>
     <row r="8">
@@ -3025,16 +3514,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-488864.7500000001</v>
+        <v>-143106</v>
       </c>
       <c r="C8" t="n">
-        <v>192187.5502840781</v>
+        <v>155433.032053443</v>
       </c>
       <c r="D8" t="n">
-        <v>751091.1197343849</v>
+        <v>455709.6520532935</v>
       </c>
       <c r="E8" t="n">
-        <v>454413.920018463</v>
+        <v>468036.6841067364</v>
       </c>
     </row>
     <row r="9">
@@ -3042,16 +3531,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-436579.7500000001</v>
+        <v>-129076</v>
       </c>
       <c r="C9" t="n">
-        <v>171913.6099591015</v>
+        <v>140395.1717669625</v>
       </c>
       <c r="D9" t="n">
-        <v>643699.1006859746</v>
+        <v>379394.5266192176</v>
       </c>
       <c r="E9" t="n">
-        <v>379032.9606450761</v>
+        <v>390713.69838618</v>
       </c>
     </row>
     <row r="10">
@@ -3059,16 +3548,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-384294.7500000001</v>
+        <v>-115046</v>
       </c>
       <c r="C10" t="n">
-        <v>151639.6696341248</v>
+        <v>125357.3114804822</v>
       </c>
       <c r="D10" t="n">
-        <v>539776.2057700247</v>
+        <v>309682.4146104075</v>
       </c>
       <c r="E10" t="n">
-        <v>307121.1254041495</v>
+        <v>319993.7260908897</v>
       </c>
     </row>
     <row r="11">
@@ -3076,16 +3565,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-332009.7500000001</v>
+        <v>-101016</v>
       </c>
       <c r="C11" t="n">
-        <v>131365.7293091483</v>
+        <v>110319.4511940019</v>
       </c>
       <c r="D11" t="n">
-        <v>439425.3220970322</v>
+        <v>246989.7139295063</v>
       </c>
       <c r="E11" t="n">
-        <v>238781.3014061804</v>
+        <v>256293.1651235081</v>
       </c>
     </row>
     <row r="12">
@@ -3093,16 +3582,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-279724.7500000001</v>
+        <v>-86986.00000000004</v>
       </c>
       <c r="C12" t="n">
-        <v>111091.7889841716</v>
+        <v>95281.59090752155</v>
       </c>
       <c r="D12" t="n">
-        <v>343035.0571138291</v>
+        <v>191472.9949746466</v>
       </c>
       <c r="E12" t="n">
-        <v>174402.0960980006</v>
+        <v>199768.5858821681</v>
       </c>
     </row>
     <row r="13">
@@ -3110,16 +3599,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-227439.7500000001</v>
+        <v>-72956.00000000004</v>
       </c>
       <c r="C13" t="n">
-        <v>90817.84865919489</v>
+        <v>80243.73062104121</v>
       </c>
       <c r="D13" t="n">
-        <v>251956.5998745754</v>
+        <v>143041.3580272408</v>
       </c>
       <c r="E13" t="n">
-        <v>115334.6985337702</v>
+        <v>150329.0886482819</v>
       </c>
     </row>
     <row r="14">
@@ -3127,16 +3616,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-175154.7500000001</v>
+        <v>-58926.00000000004</v>
       </c>
       <c r="C14" t="n">
-        <v>70543.9083342182</v>
+        <v>65205.87033456075</v>
       </c>
       <c r="D14" t="n">
-        <v>169180.6814838157</v>
+        <v>101391.4225297711</v>
       </c>
       <c r="E14" t="n">
-        <v>64569.83981803386</v>
+        <v>107671.2928643318</v>
       </c>
     </row>
     <row r="15">
@@ -3144,16 +3633,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-122869.7500000001</v>
+        <v>-44896.00000000004</v>
       </c>
       <c r="C15" t="n">
-        <v>50269.96800924162</v>
+        <v>50168.01004808053</v>
       </c>
       <c r="D15" t="n">
-        <v>98950.05652279814</v>
+        <v>66055.7583750987</v>
       </c>
       <c r="E15" t="n">
-        <v>26350.27453203969</v>
+        <v>71327.76842317919</v>
       </c>
     </row>
     <row r="16">
@@ -3161,16 +3650,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-70584.75000000007</v>
+        <v>-30866.00000000004</v>
       </c>
       <c r="C16" t="n">
-        <v>29996.02768426493</v>
+        <v>35130.14976160022</v>
       </c>
       <c r="D16" t="n">
-        <v>44790.08298283436</v>
+        <v>36455.90584223037</v>
       </c>
       <c r="E16" t="n">
-        <v>4201.360667099216</v>
+        <v>40720.05560383055</v>
       </c>
     </row>
     <row r="17">
@@ -3178,16 +3667,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-18299.75000000007</v>
+        <v>-16836.00000000004</v>
       </c>
       <c r="C17" t="n">
-        <v>9722.087359288358</v>
+        <v>20092.28947511976</v>
       </c>
       <c r="D17" t="n">
-        <v>7328.947073389712</v>
+        <v>11952.93524839802</v>
       </c>
       <c r="E17" t="n">
-        <v>-1248.715567322002</v>
+        <v>15209.22472351774</v>
       </c>
     </row>
     <row r="18">
@@ -3195,16 +3684,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>33985.24999999993</v>
+        <v>-2806.00000000004</v>
       </c>
       <c r="C18" t="n">
-        <v>-10551.85296568833</v>
+        <v>5054.42918863942</v>
       </c>
       <c r="D18" t="n">
-        <v>-16078.80714244474</v>
+        <v>-8109.101989939814</v>
       </c>
       <c r="E18" t="n">
-        <v>7354.589891866855</v>
+        <v>-5860.672801300434</v>
       </c>
     </row>
     <row r="19">
@@ -3212,16 +3701,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>86270.24999999993</v>
+        <v>11223.99999999996</v>
       </c>
       <c r="C19" t="n">
-        <v>-30825.79329066491</v>
+        <v>-9983.431097840803</v>
       </c>
       <c r="D19" t="n">
-        <v>-29739.16556184167</v>
+        <v>-24369.15059202896</v>
       </c>
       <c r="E19" t="n">
-        <v>25705.29114749335</v>
+        <v>-23128.5816898698</v>
       </c>
     </row>
     <row r="20">
@@ -3229,16 +3718,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>138555.2499999999</v>
+        <v>25253.99999999996</v>
       </c>
       <c r="C20" t="n">
-        <v>-51099.7336156416</v>
+        <v>-25021.2913843212</v>
       </c>
       <c r="D20" t="n">
-        <v>-37644.73171996071</v>
+        <v>-37425.00849653627</v>
       </c>
       <c r="E20" t="n">
-        <v>49810.7846643976</v>
+        <v>-37192.29988085751</v>
       </c>
     </row>
     <row r="21">
@@ -3246,16 +3735,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>190840.2499999999</v>
+        <v>39283.99999999996</v>
       </c>
       <c r="C21" t="n">
-        <v>-71373.67394061829</v>
+        <v>-40059.15167080154</v>
       </c>
       <c r="D21" t="n">
-        <v>-42496.06013862991</v>
+        <v>-47818.24722146868</v>
       </c>
       <c r="E21" t="n">
-        <v>76970.51592075171</v>
+        <v>-48593.39889227026</v>
       </c>
     </row>
     <row r="22">
@@ -3263,16 +3752,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>243125.2499999999</v>
+        <v>53313.99999999996</v>
       </c>
       <c r="C22" t="n">
-        <v>-91647.61426559498</v>
+        <v>-55097.01195728188</v>
       </c>
       <c r="D22" t="n">
-        <v>-45757.45629193215</v>
+        <v>-56026.67986491055</v>
       </c>
       <c r="E22" t="n">
-        <v>105720.1794424728</v>
+        <v>-57809.69182219246</v>
       </c>
     </row>
     <row r="23">
@@ -3280,16 +3769,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>295410.2499999999</v>
+        <v>67343.99999999996</v>
       </c>
       <c r="C23" t="n">
-        <v>-111921.5545905717</v>
+        <v>-70134.87224376219</v>
       </c>
       <c r="D23" t="n">
-        <v>-48118.56858526208</v>
+        <v>-62462.6116262701</v>
       </c>
       <c r="E23" t="n">
-        <v>135370.1268241662</v>
+        <v>-65253.48387003234</v>
       </c>
     </row>
     <row r="24">
@@ -3297,16 +3786,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>347695.2499999999</v>
+        <v>81373.99999999996</v>
       </c>
       <c r="C24" t="n">
-        <v>-132195.4949155481</v>
+        <v>-85172.73253024253</v>
       </c>
       <c r="D24" t="n">
-        <v>-49894.9540371164</v>
+        <v>-67475.16304705206</v>
       </c>
       <c r="E24" t="n">
-        <v>165604.8010473354</v>
+        <v>-71273.89557729464</v>
       </c>
     </row>
     <row r="25">
@@ -3314,16 +3803,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>399980.2499999999</v>
+        <v>95403.99999999996</v>
       </c>
       <c r="C25" t="n">
-        <v>-152469.4352405248</v>
+        <v>-100210.5928167229</v>
       </c>
       <c r="D25" t="n">
-        <v>-51248.81237399178</v>
+        <v>-71355.18478089471</v>
       </c>
       <c r="E25" t="n">
-        <v>196262.0023854834</v>
+        <v>-76161.77759761762</v>
       </c>
     </row>
     <row r="26">
@@ -3331,16 +3820,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>452265.2499999999</v>
+        <v>109434</v>
       </c>
       <c r="C26" t="n">
-        <v>-172743.3755655015</v>
+        <v>-115248.4531032033</v>
       </c>
       <c r="D26" t="n">
-        <v>-52281.7188508595</v>
+        <v>-74341.58370517268</v>
       </c>
       <c r="E26" t="n">
-        <v>227240.1555836389</v>
+        <v>-80156.03680837605</v>
       </c>
     </row>
     <row r="27">
@@ -3348,16 +3837,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>504550.2499999999</v>
+        <v>123464</v>
       </c>
       <c r="C27" t="n">
-        <v>-193017.3158904782</v>
+        <v>-130286.3133896835</v>
       </c>
       <c r="D27" t="n">
-        <v>-53067.32485679214</v>
+        <v>-76628.18630993746</v>
       </c>
       <c r="E27" t="n">
-        <v>258465.6092527296</v>
+        <v>-83450.49969962102</v>
       </c>
     </row>
   </sheetData>
@@ -3411,16 +3900,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-802574.7500000001</v>
+        <v>-227286</v>
       </c>
       <c r="C2" t="n">
-        <v>309012.7732987513</v>
+        <v>239693.1551364566</v>
       </c>
       <c r="D2" t="n">
-        <v>1413070.918176892</v>
+        <v>959799.3020544734</v>
       </c>
       <c r="E2" t="n">
-        <v>919508.941475643</v>
+        <v>972206.45719093</v>
       </c>
     </row>
     <row r="3">
@@ -3428,16 +3917,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-750289.7500000001</v>
+        <v>-213256</v>
       </c>
       <c r="C3" t="n">
-        <v>288500.2973829238</v>
+        <v>224359.9066460368</v>
       </c>
       <c r="D3" t="n">
-        <v>1293349.259163947</v>
+        <v>868622.7375714228</v>
       </c>
       <c r="E3" t="n">
-        <v>831559.8065468711</v>
+        <v>879726.6442174596</v>
       </c>
     </row>
     <row r="4">
@@ -3445,16 +3934,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-698004.7500000001</v>
+        <v>-199226</v>
       </c>
       <c r="C4" t="n">
-        <v>267987.8214670964</v>
+        <v>209026.6581556171</v>
       </c>
       <c r="D4" t="n">
-        <v>1175684.134581111</v>
+        <v>780736.6347314154</v>
       </c>
       <c r="E4" t="n">
-        <v>745667.2060482071</v>
+        <v>790537.2928870325</v>
       </c>
     </row>
     <row r="5">
@@ -3462,16 +3951,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-645719.7500000001</v>
+        <v>-185196</v>
       </c>
       <c r="C5" t="n">
-        <v>247475.3455512689</v>
+        <v>193693.4096651973</v>
       </c>
       <c r="D5" t="n">
-        <v>1060534.823819882</v>
+        <v>696714.7694045779</v>
       </c>
       <c r="E5" t="n">
-        <v>662290.419371151</v>
+        <v>705212.1790697752</v>
       </c>
     </row>
     <row r="6">
@@ -3479,16 +3968,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-593434.7500000001</v>
+        <v>-171166</v>
       </c>
       <c r="C6" t="n">
-        <v>226962.8696354415</v>
+        <v>178360.1611747776</v>
       </c>
       <c r="D6" t="n">
-        <v>948419.5058493374</v>
+        <v>617066.6153486022</v>
       </c>
       <c r="E6" t="n">
-        <v>581947.6254847788</v>
+        <v>624260.7765233798</v>
       </c>
     </row>
     <row r="7">
@@ -3496,16 +3985,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-541149.7500000001</v>
+        <v>-157136</v>
       </c>
       <c r="C7" t="n">
-        <v>206450.393719614</v>
+        <v>163026.9126843578</v>
       </c>
       <c r="D7" t="n">
-        <v>839934.8987915441</v>
+        <v>542210.6629425323</v>
       </c>
       <c r="E7" t="n">
-        <v>505235.542511158</v>
+        <v>548101.5756268902</v>
       </c>
     </row>
     <row r="8">
@@ -3513,16 +4002,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-488864.7500000001</v>
+        <v>-143106</v>
       </c>
       <c r="C8" t="n">
-        <v>185937.9178037865</v>
+        <v>147693.6641939381</v>
       </c>
       <c r="D8" t="n">
-        <v>735766.8353337315</v>
+        <v>472456.9791811703</v>
       </c>
       <c r="E8" t="n">
-        <v>432840.0031375179</v>
+        <v>477044.6433751085</v>
       </c>
     </row>
     <row r="9">
@@ -3530,16 +4019,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-436579.7500000001</v>
+        <v>-129076</v>
       </c>
       <c r="C9" t="n">
-        <v>165425.441887959</v>
+        <v>132360.4157035183</v>
       </c>
       <c r="D9" t="n">
-        <v>636679.5598190643</v>
+        <v>407999.3380378209</v>
       </c>
       <c r="E9" t="n">
-        <v>365525.2517070233</v>
+        <v>411283.7537413392</v>
       </c>
     </row>
     <row r="10">
@@ -3547,16 +4036,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-384294.7500000001</v>
+        <v>-115046</v>
       </c>
       <c r="C10" t="n">
-        <v>144912.9659721316</v>
+        <v>117027.1672130986</v>
       </c>
       <c r="D10" t="n">
-        <v>543477.2323457579</v>
+        <v>348916.0455593079</v>
       </c>
       <c r="E10" t="n">
-        <v>304095.4483178894</v>
+        <v>350897.2127724065</v>
       </c>
     </row>
     <row r="11">
@@ -3564,16 +4053,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-332009.7500000001</v>
+        <v>-101016</v>
       </c>
       <c r="C11" t="n">
-        <v>124400.490056304</v>
+        <v>101693.9187226788</v>
       </c>
       <c r="D11" t="n">
-        <v>456940.3297181439</v>
+        <v>295177.8154913618</v>
       </c>
       <c r="E11" t="n">
-        <v>249331.0697744479</v>
+        <v>295855.7342140406</v>
       </c>
     </row>
     <row r="12">
@@ -3581,16 +4070,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-279724.7500000001</v>
+        <v>-86986.00000000004</v>
       </c>
       <c r="C12" t="n">
-        <v>103888.0141404766</v>
+        <v>86360.67023225912</v>
       </c>
       <c r="D12" t="n">
-        <v>377748.4063693873</v>
+        <v>246660.7030431183</v>
       </c>
       <c r="E12" t="n">
-        <v>201911.6705098639</v>
+        <v>246035.3732753774</v>
       </c>
     </row>
     <row r="13">
@@ -3598,16 +4087,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-227439.7500000001</v>
+        <v>-72956.00000000004</v>
       </c>
       <c r="C13" t="n">
-        <v>83375.53822464915</v>
+        <v>71027.42174183929</v>
       </c>
       <c r="D13" t="n">
-        <v>306405.498053601</v>
+        <v>203162.0941874739</v>
       </c>
       <c r="E13" t="n">
-        <v>162341.28627825</v>
+        <v>201233.5159293131</v>
       </c>
     </row>
     <row r="14">
@@ -3615,16 +4104,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-175154.7500000001</v>
+        <v>-58926.00000000004</v>
       </c>
       <c r="C14" t="n">
-        <v>62863.06230882159</v>
+        <v>55694.17325141959</v>
       </c>
       <c r="D14" t="n">
-        <v>243183.8290879678</v>
+        <v>164417.9681261971</v>
       </c>
       <c r="E14" t="n">
-        <v>130892.1413967893</v>
+        <v>161186.1413776167</v>
       </c>
     </row>
     <row r="15">
@@ -3632,16 +4121,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-122869.7500000001</v>
+        <v>-44896.00000000004</v>
       </c>
       <c r="C15" t="n">
-        <v>42350.58639299427</v>
+        <v>40360.92476099986</v>
       </c>
       <c r="D15" t="n">
-        <v>188096.2866561788</v>
+        <v>130119.9974412057</v>
       </c>
       <c r="E15" t="n">
-        <v>107577.123049173</v>
+        <v>125584.9222022055</v>
       </c>
     </row>
     <row r="16">
@@ -3649,16 +4138,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-70584.75000000007</v>
+        <v>-30866.00000000004</v>
       </c>
       <c r="C16" t="n">
-        <v>21838.11047716672</v>
+        <v>25027.67627058004</v>
       </c>
       <c r="D16" t="n">
-        <v>140900.7354738767</v>
+        <v>99931.43979024692</v>
       </c>
       <c r="E16" t="n">
-        <v>92154.09595104337</v>
+        <v>94093.11606082691</v>
       </c>
     </row>
     <row r="17">
@@ -3666,16 +4155,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-18299.75000000007</v>
+        <v>-16836.00000000004</v>
       </c>
       <c r="C17" t="n">
-        <v>1325.634561339277</v>
+        <v>9694.427780160448</v>
       </c>
       <c r="D17" t="n">
-        <v>101132.280361047</v>
+        <v>73501.14764341514</v>
       </c>
       <c r="E17" t="n">
-        <v>84158.1649223862</v>
+        <v>66359.57542357554</v>
       </c>
     </row>
     <row r="18">
@@ -3683,16 +4172,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>33985.24999999993</v>
+        <v>-2806.00000000004</v>
       </c>
       <c r="C18" t="n">
-        <v>-19186.84135448828</v>
+        <v>-5638.820710259402</v>
       </c>
       <c r="D18" t="n">
-        <v>68154.8836033377</v>
+        <v>50475.34327662291</v>
       </c>
       <c r="E18" t="n">
-        <v>82953.29224884935</v>
+        <v>42030.52256636346</v>
       </c>
     </row>
     <row r="19">
@@ -3700,16 +4189,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>86270.24999999993</v>
+        <v>11223.99999999996</v>
       </c>
       <c r="C19" t="n">
-        <v>-39699.3172703156</v>
+        <v>-20972.06920067922</v>
       </c>
       <c r="D19" t="n">
-        <v>41221.97107518799</v>
+        <v>30507.05919418651</v>
       </c>
       <c r="E19" t="n">
-        <v>87792.90380487232</v>
+        <v>20758.98999350724</v>
       </c>
     </row>
     <row r="20">
@@ -3717,16 +4206,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>138555.2499999999</v>
+        <v>25253.99999999996</v>
       </c>
       <c r="C20" t="n">
-        <v>-60211.79318614316</v>
+        <v>-36305.31769109899</v>
       </c>
       <c r="D20" t="n">
-        <v>19536.4571888859</v>
+        <v>13263.32727648189</v>
       </c>
       <c r="E20" t="n">
-        <v>97879.91400274266</v>
+        <v>2212.009585382868</v>
       </c>
     </row>
     <row r="21">
@@ -3734,16 +4223,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>190840.2499999999</v>
+        <v>39283.99999999996</v>
       </c>
       <c r="C21" t="n">
-        <v>-80724.26910197071</v>
+        <v>-51638.56618151869</v>
       </c>
       <c r="D21" t="n">
-        <v>2303.052769139334</v>
+        <v>-1569.680287400633</v>
       </c>
       <c r="E21" t="n">
-        <v>112419.0336671685</v>
+        <v>-13924.24646891936</v>
       </c>
     </row>
     <row r="22">
@@ -3751,16 +4240,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>243125.2499999999</v>
+        <v>53313.99999999996</v>
       </c>
       <c r="C22" t="n">
-        <v>-101236.7450177982</v>
+        <v>-66971.81467193839</v>
       </c>
       <c r="D22" t="n">
-        <v>-11231.24373594882</v>
+        <v>-14283.28800841228</v>
       </c>
       <c r="E22" t="n">
-        <v>130657.261246253</v>
+        <v>-27941.1026803507</v>
       </c>
     </row>
     <row r="23">
@@ -3768,16 +4257,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>295410.2499999999</v>
+        <v>67343.99999999996</v>
       </c>
       <c r="C23" t="n">
-        <v>-121749.2209336256</v>
+        <v>-82305.06316235824</v>
       </c>
       <c r="D23" t="n">
-        <v>-21749.75312331181</v>
+        <v>-25144.43496280723</v>
       </c>
       <c r="E23" t="n">
-        <v>151911.2759430625</v>
+        <v>-40105.49812516551</v>
       </c>
     </row>
     <row r="24">
@@ -3785,16 +4274,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>347695.2499999999</v>
+        <v>81373.99999999996</v>
       </c>
       <c r="C24" t="n">
-        <v>-142261.696849453</v>
+        <v>-97638.31165277795</v>
       </c>
       <c r="D24" t="n">
-        <v>-29850.97682950892</v>
+        <v>-34394.97843340238</v>
       </c>
       <c r="E24" t="n">
-        <v>175582.576321038</v>
+        <v>-50659.29008618037</v>
       </c>
     </row>
     <row r="25">
@@ -3802,16 +4291,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>399980.2499999999</v>
+        <v>95403.99999999996</v>
       </c>
       <c r="C25" t="n">
-        <v>-162774.1727652806</v>
+        <v>-112971.5601431977</v>
       </c>
       <c r="D25" t="n">
-        <v>-36043.58592252361</v>
+        <v>-42251.90906914147</v>
       </c>
       <c r="E25" t="n">
-        <v>201162.4913121958</v>
+        <v>-59819.46921233917</v>
       </c>
     </row>
     <row r="26">
@@ -3819,16 +4308,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>452265.2499999999</v>
+        <v>109434</v>
       </c>
       <c r="C26" t="n">
-        <v>-183286.648681108</v>
+        <v>-128304.8086336174</v>
       </c>
       <c r="D26" t="n">
-        <v>-40748.88758617266</v>
+        <v>-48908.23494638954</v>
       </c>
       <c r="E26" t="n">
-        <v>228229.7137327192</v>
+        <v>-67779.04358000697</v>
       </c>
     </row>
     <row r="27">
@@ -3836,16 +4325,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>504550.2499999999</v>
+        <v>123464</v>
       </c>
       <c r="C27" t="n">
-        <v>-203799.1245969355</v>
+        <v>-143638.0571240372</v>
       </c>
       <c r="D27" t="n">
-        <v>-44308.15788493089</v>
+        <v>-54534.32838190992</v>
       </c>
       <c r="E27" t="n">
-        <v>256442.9675181336</v>
+        <v>-74708.38550594717</v>
       </c>
     </row>
   </sheetData>
@@ -3899,16 +4388,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-802574.7500000001</v>
+        <v>-227286</v>
       </c>
       <c r="C2" t="n">
-        <v>309802.2356337084</v>
+        <v>240283.3043555203</v>
       </c>
       <c r="D2" t="n">
-        <v>1419636.661785919</v>
+        <v>963719.172429496</v>
       </c>
       <c r="E2" t="n">
-        <v>926864.1474196271</v>
+        <v>976716.4767850162</v>
       </c>
     </row>
     <row r="3">
@@ -3916,16 +4405,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-750289.7500000001</v>
+        <v>-213256</v>
       </c>
       <c r="C3" t="n">
-        <v>289328.8420116907</v>
+        <v>224979.2702088501</v>
       </c>
       <c r="D3" t="n">
-        <v>1299448.230268257</v>
+        <v>871791.0622676129</v>
       </c>
       <c r="E3" t="n">
-        <v>838487.322279948</v>
+        <v>883514.3324764629</v>
       </c>
     </row>
     <row r="4">
@@ -3933,16 +4422,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-698004.7500000001</v>
+        <v>-199226</v>
       </c>
       <c r="C4" t="n">
-        <v>268855.448389673</v>
+        <v>209675.23606218</v>
       </c>
       <c r="D4" t="n">
-        <v>1181206.50202017</v>
+        <v>783045.3260989164</v>
       </c>
       <c r="E4" t="n">
-        <v>752057.2004098434</v>
+        <v>793494.5621610964</v>
       </c>
     </row>
     <row r="5">
@@ -3950,16 +4439,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-645719.7500000001</v>
+        <v>-185196</v>
       </c>
       <c r="C5" t="n">
-        <v>248382.0547676552</v>
+        <v>194371.2019155098</v>
       </c>
       <c r="D5" t="n">
-        <v>1065341.342977584</v>
+        <v>698086.855213401</v>
       </c>
       <c r="E5" t="n">
-        <v>668003.6477452394</v>
+        <v>707262.0571289108</v>
       </c>
     </row>
     <row r="6">
@@ -3967,16 +4456,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-593434.7500000001</v>
+        <v>-171166</v>
       </c>
       <c r="C6" t="n">
-        <v>227908.6611456376</v>
+        <v>179067.1677688397</v>
       </c>
       <c r="D6" t="n">
-        <v>952326.5244286191</v>
+        <v>617462.8846574606</v>
       </c>
       <c r="E6" t="n">
-        <v>586800.4355742566</v>
+        <v>625364.0524263002</v>
       </c>
     </row>
     <row r="7">
@@ -3984,16 +4473,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-541149.7500000001</v>
+        <v>-157136</v>
       </c>
       <c r="C7" t="n">
-        <v>207435.2675236198</v>
+        <v>163763.1336221695</v>
       </c>
       <c r="D7" t="n">
-        <v>842708.1898835085</v>
+        <v>541632.065746975</v>
       </c>
       <c r="E7" t="n">
-        <v>508993.7074071282</v>
+        <v>548259.1993691445</v>
       </c>
     </row>
     <row r="8">
@@ -4001,16 +4490,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-488864.7500000001</v>
+        <v>-143106</v>
       </c>
       <c r="C8" t="n">
-        <v>186961.8739016021</v>
+        <v>148459.0994754994</v>
       </c>
       <c r="D8" t="n">
-        <v>737134.0848759979</v>
+        <v>470943.011859034</v>
       </c>
       <c r="E8" t="n">
-        <v>435231.2087775999</v>
+        <v>476296.1113345334</v>
       </c>
     </row>
     <row r="9">
@@ -4018,16 +4507,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-436579.7500000001</v>
+        <v>-129076</v>
       </c>
       <c r="C9" t="n">
-        <v>166488.4802795843</v>
+        <v>133155.0653288292</v>
       </c>
       <c r="D9" t="n">
-        <v>636365.56112576</v>
+        <v>405623.1840051906</v>
       </c>
       <c r="E9" t="n">
-        <v>366274.2914053442</v>
+        <v>409702.2493340198</v>
       </c>
     </row>
     <row r="10">
@@ -4035,16 +4524,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-384294.7500000001</v>
+        <v>-115046</v>
       </c>
       <c r="C10" t="n">
-        <v>146015.0866575667</v>
+        <v>117851.0311821591</v>
       </c>
       <c r="D10" t="n">
-        <v>541256.4237064857</v>
+        <v>345777.5222025848</v>
       </c>
       <c r="E10" t="n">
-        <v>302976.7603640523</v>
+        <v>348582.5533847438</v>
       </c>
     </row>
     <row r="11">
@@ -4052,16 +4541,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-332009.7500000001</v>
+        <v>-101016</v>
       </c>
       <c r="C11" t="n">
-        <v>125541.6930355489</v>
+        <v>102546.997035489</v>
       </c>
       <c r="D11" t="n">
-        <v>452692.8850905754</v>
+        <v>291395.2281260094</v>
       </c>
       <c r="E11" t="n">
-        <v>246224.8281261243</v>
+        <v>292926.2251614983</v>
       </c>
     </row>
     <row r="12">
@@ -4069,16 +4558,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-279724.7500000001</v>
+        <v>-86986.00000000004</v>
       </c>
       <c r="C12" t="n">
-        <v>105068.2994135312</v>
+        <v>87242.96288881882</v>
       </c>
       <c r="D12" t="n">
-        <v>371502.9646923828</v>
+        <v>242362.5857873503</v>
       </c>
       <c r="E12" t="n">
-        <v>196846.514105914</v>
+        <v>242619.5486761691</v>
       </c>
     </row>
     <row r="13">
@@ -4086,16 +4575,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-227439.7500000001</v>
+        <v>-72956.00000000004</v>
       </c>
       <c r="C13" t="n">
-        <v>84594.90579151351</v>
+        <v>71938.92874214868</v>
       </c>
       <c r="D13" t="n">
-        <v>298355.2546934269</v>
+        <v>198479.598079271</v>
       </c>
       <c r="E13" t="n">
-        <v>155510.4104849403</v>
+        <v>197462.5268214196</v>
       </c>
     </row>
     <row r="14">
@@ -4103,16 +4592,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-175154.7500000001</v>
+        <v>-58926.00000000004</v>
       </c>
       <c r="C14" t="n">
-        <v>64121.51216949581</v>
+        <v>56634.89459547846</v>
       </c>
       <c r="D14" t="n">
-        <v>233671.1797963563</v>
+        <v>159478.4025147723</v>
       </c>
       <c r="E14" t="n">
-        <v>122637.941965852</v>
+        <v>157187.2971102507</v>
       </c>
     </row>
     <row r="15">
@@ -4120,16 +4609,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-122869.7500000001</v>
+        <v>-44896.00000000004</v>
       </c>
       <c r="C15" t="n">
-        <v>43648.11854747811</v>
+        <v>41330.86044880835</v>
       </c>
       <c r="D15" t="n">
-        <v>177570.6364750072</v>
+        <v>125041.7887185417</v>
       </c>
       <c r="E15" t="n">
-        <v>98349.0050224852</v>
+        <v>121476.64916735</v>
       </c>
     </row>
     <row r="16">
@@ -4137,16 +4626,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-70584.75000000007</v>
+        <v>-30866.00000000004</v>
       </c>
       <c r="C16" t="n">
-        <v>23174.72492546029</v>
+        <v>26026.82630213836</v>
       </c>
       <c r="D16" t="n">
-        <v>129860.8356562887</v>
+        <v>94820.57025149034</v>
       </c>
       <c r="E16" t="n">
-        <v>82450.81058174897</v>
+        <v>89981.39655362866</v>
       </c>
     </row>
     <row r="17">
@@ -4154,16 +4643,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-18299.75000000007</v>
+        <v>-16836.00000000004</v>
       </c>
       <c r="C17" t="n">
-        <v>2701.331303442596</v>
+        <v>10722.7921554682</v>
       </c>
       <c r="D17" t="n">
-        <v>90066.70324931818</v>
+        <v>68448.98884387934</v>
       </c>
       <c r="E17" t="n">
-        <v>74468.2845527607</v>
+        <v>62335.78099934749</v>
       </c>
     </row>
     <row r="18">
@@ -4171,16 +4660,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>33985.24999999993</v>
+        <v>-2806.00000000004</v>
       </c>
       <c r="C18" t="n">
-        <v>-17772.0623185751</v>
+        <v>-4581.241991202027</v>
       </c>
       <c r="D18" t="n">
-        <v>57492.25134075009</v>
+        <v>45557.70306297165</v>
       </c>
       <c r="E18" t="n">
-        <v>73705.43902217492</v>
+        <v>38170.46107176958</v>
       </c>
     </row>
     <row r="19">
@@ -4188,16 +4677,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>86270.24999999993</v>
+        <v>11223.99999999996</v>
       </c>
       <c r="C19" t="n">
-        <v>-38245.45594059268</v>
+        <v>-19885.27613787213</v>
       </c>
       <c r="D19" t="n">
-        <v>31297.97934054035</v>
+        <v>25784.21278845897</v>
       </c>
       <c r="E19" t="n">
-        <v>79322.77339994759</v>
+        <v>17122.9366505868</v>
       </c>
     </row>
     <row r="20">
@@ -4205,16 +4694,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>138555.2499999999</v>
+        <v>25253.99999999996</v>
       </c>
       <c r="C20" t="n">
-        <v>-58718.84956261062</v>
+        <v>-35189.3102845423</v>
       </c>
       <c r="D20" t="n">
-        <v>10579.59591798157</v>
+        <v>8780.790161612018</v>
       </c>
       <c r="E20" t="n">
-        <v>90415.99635537087</v>
+        <v>-1154.52012293032</v>
       </c>
     </row>
     <row r="21">
@@ -4222,16 +4711,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>190840.2499999999</v>
+        <v>39283.99999999996</v>
       </c>
       <c r="C21" t="n">
-        <v>-79192.2431846282</v>
+        <v>-50493.3444312124</v>
       </c>
       <c r="D21" t="n">
-        <v>-5563.222880379848</v>
+        <v>-5779.867251376247</v>
       </c>
       <c r="E21" t="n">
-        <v>106084.7839349919</v>
+        <v>-16989.21168258869</v>
       </c>
     </row>
     <row r="22">
@@ -4239,16 +4728,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>243125.2499999999</v>
+        <v>53313.99999999996</v>
       </c>
       <c r="C22" t="n">
-        <v>-99665.6368066459</v>
+        <v>-65797.37857788266</v>
       </c>
       <c r="D22" t="n">
-        <v>-17974.55136754275</v>
+        <v>-18200.96262569864</v>
       </c>
       <c r="E22" t="n">
-        <v>125485.0618258113</v>
+        <v>-30684.34120358133</v>
       </c>
     </row>
     <row r="23">
@@ -4256,16 +4745,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>295410.2499999999</v>
+        <v>67343.99999999996</v>
       </c>
       <c r="C23" t="n">
-        <v>-120139.0304286636</v>
+        <v>-81101.41272455276</v>
       </c>
       <c r="D23" t="n">
-        <v>-27408.36264983031</v>
+        <v>-28759.57253580555</v>
       </c>
       <c r="E23" t="n">
-        <v>147862.856921506</v>
+        <v>-42516.98526035836</v>
       </c>
     </row>
     <row r="24">
@@ -4273,16 +4762,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>347695.2499999999</v>
+        <v>81373.99999999996</v>
       </c>
       <c r="C24" t="n">
-        <v>-140612.4240506814</v>
+        <v>-96405.44687122287</v>
       </c>
       <c r="D24" t="n">
-        <v>-34511.65413055974</v>
+        <v>-37705.93353123975</v>
       </c>
       <c r="E24" t="n">
-        <v>172571.1718187588</v>
+        <v>-52737.38040246266</v>
       </c>
     </row>
     <row r="25">
@@ -4290,16 +4779,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>399980.2499999999</v>
+        <v>95403.99999999996</v>
       </c>
       <c r="C25" t="n">
-        <v>-161085.8176726991</v>
+        <v>-111709.481017893</v>
       </c>
       <c r="D25" t="n">
-        <v>-39821.13256296095</v>
+        <v>-45263.7330159417</v>
       </c>
       <c r="E25" t="n">
-        <v>199073.2997643399</v>
+        <v>-61569.21403383477</v>
       </c>
     </row>
     <row r="26">
@@ -4307,16 +4796,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>452265.2499999999</v>
+        <v>109434</v>
       </c>
       <c r="C26" t="n">
-        <v>-181559.2112947168</v>
+        <v>-127013.5151645633</v>
       </c>
       <c r="D26" t="n">
-        <v>-43769.36520781388</v>
+        <v>-51631.13084721579</v>
       </c>
       <c r="E26" t="n">
-        <v>226936.6734974693</v>
+        <v>-69210.64601177908</v>
       </c>
     </row>
     <row r="27">
@@ -4324,16 +4813,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>504550.2499999999</v>
+        <v>123464</v>
       </c>
       <c r="C27" t="n">
-        <v>-202032.6049167345</v>
+        <v>-142317.5493112334</v>
       </c>
       <c r="D27" t="n">
-        <v>-46696.53838520723</v>
+        <v>-56982.27994806856</v>
       </c>
       <c r="E27" t="n">
-        <v>255821.1066980582</v>
+        <v>-75835.82925930197</v>
       </c>
     </row>
   </sheetData>
@@ -4387,16 +4876,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-802574.7500000001</v>
+        <v>-227286</v>
       </c>
       <c r="C2" t="n">
-        <v>310485.2195244555</v>
+        <v>240793.8574141148</v>
       </c>
       <c r="D2" t="n">
-        <v>1425397.884029623</v>
+        <v>967217.1879695053</v>
       </c>
       <c r="E2" t="n">
-        <v>933308.3535540786</v>
+        <v>980725.0453836201</v>
       </c>
     </row>
     <row r="3">
@@ -4404,16 +4893,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-750289.7500000001</v>
+        <v>-213256</v>
       </c>
       <c r="C3" t="n">
-        <v>290045.6369861381</v>
+        <v>225515.0973372466</v>
       </c>
       <c r="D3" t="n">
-        <v>1304819.114457585</v>
+        <v>874637.2447028033</v>
       </c>
       <c r="E3" t="n">
-        <v>844575.001443723</v>
+        <v>886896.3420400498</v>
       </c>
     </row>
     <row r="4">
@@ -4421,16 +4910,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-698004.7500000001</v>
+        <v>-199226</v>
       </c>
       <c r="C4" t="n">
-        <v>269606.0544478208</v>
+        <v>210236.3372603784</v>
       </c>
       <c r="D4" t="n">
-        <v>1186103.414889212</v>
+        <v>785135.9254037588</v>
       </c>
       <c r="E4" t="n">
-        <v>757704.7193370329</v>
+        <v>796146.2626641372</v>
       </c>
     </row>
     <row r="5">
@@ -4438,16 +4927,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-645719.7500000001</v>
+        <v>-185196</v>
       </c>
       <c r="C5" t="n">
-        <v>249166.4719095034</v>
+        <v>194957.5771835102</v>
       </c>
       <c r="D5" t="n">
-        <v>1069661.908229582</v>
+        <v>699345.193110185</v>
       </c>
       <c r="E5" t="n">
-        <v>673108.6301390848</v>
+        <v>709106.7702936952</v>
       </c>
     </row>
     <row r="6">
@@ -4455,16 +4944,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-593434.7500000001</v>
+        <v>-171166</v>
       </c>
       <c r="C6" t="n">
-        <v>228726.8893711861</v>
+        <v>179678.817106642</v>
       </c>
       <c r="D6" t="n">
-        <v>955930.196513064</v>
+        <v>617846.5310156099</v>
       </c>
       <c r="E6" t="n">
-        <v>591222.33588425</v>
+        <v>626359.3481222519</v>
       </c>
     </row>
     <row r="7">
@@ -4472,16 +4961,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-541149.7500000001</v>
+        <v>-157136</v>
       </c>
       <c r="C7" t="n">
-        <v>208287.3068328687</v>
+        <v>164400.0570297739</v>
       </c>
       <c r="D7" t="n">
-        <v>845398.5736747165</v>
+        <v>541135.9912415292</v>
       </c>
       <c r="E7" t="n">
-        <v>512536.1305075851</v>
+        <v>548400.0482713031</v>
       </c>
     </row>
     <row r="8">
@@ -4489,16 +4978,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-488864.7500000001</v>
+        <v>-143106</v>
       </c>
       <c r="C8" t="n">
-        <v>187847.7242945513</v>
+        <v>149121.2969529057</v>
       </c>
       <c r="D8" t="n">
-        <v>738656.3827270188</v>
+        <v>469598.7744194079</v>
       </c>
       <c r="E8" t="n">
-        <v>437639.35702157</v>
+        <v>475614.0713723137</v>
       </c>
     </row>
     <row r="9">
@@ -4506,16 +4995,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-436579.7500000001</v>
+        <v>-129076</v>
       </c>
       <c r="C9" t="n">
-        <v>167408.141756234</v>
+        <v>133842.5368760375</v>
       </c>
       <c r="D9" t="n">
-        <v>636430.4331958143</v>
+        <v>403494.7972162119</v>
       </c>
       <c r="E9" t="n">
-        <v>367258.8249520482</v>
+        <v>408261.3340922494</v>
       </c>
     </row>
     <row r="10">
@@ -4523,16 +5012,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-384294.7500000001</v>
+        <v>-115046</v>
       </c>
       <c r="C10" t="n">
-        <v>146968.5592179166</v>
+        <v>118563.7767991694</v>
       </c>
       <c r="D10" t="n">
-        <v>539591.6889167543</v>
+        <v>342954.9943209422</v>
       </c>
       <c r="E10" t="n">
-        <v>302265.4981346708</v>
+        <v>346472.7711201116</v>
       </c>
     </row>
     <row r="11">
@@ -4540,16 +5029,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-332009.7500000001</v>
+        <v>-101016</v>
       </c>
       <c r="C11" t="n">
-        <v>126528.9766795993</v>
+        <v>103285.0167223012</v>
       </c>
       <c r="D11" t="n">
-        <v>449111.1962028253</v>
+        <v>287986.8582575965</v>
       </c>
       <c r="E11" t="n">
-        <v>243630.4228824246</v>
+        <v>290255.8749798976</v>
       </c>
     </row>
     <row r="12">
@@ -4557,16 +5046,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-279724.7500000001</v>
+        <v>-86986.00000000004</v>
       </c>
       <c r="C12" t="n">
-        <v>106089.3941412818</v>
+        <v>88006.25664543296</v>
       </c>
       <c r="D12" t="n">
-        <v>365964.1323414969</v>
+        <v>238487.0138340266</v>
       </c>
       <c r="E12" t="n">
-        <v>192328.7764827787</v>
+        <v>239507.2704794595</v>
       </c>
     </row>
     <row r="13">
@@ -4574,16 +5063,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-227439.7500000001</v>
+        <v>-72956.00000000004</v>
       </c>
       <c r="C13" t="n">
-        <v>85649.81160296453</v>
+        <v>72727.49656856485</v>
       </c>
       <c r="D13" t="n">
-        <v>291001.6572908867</v>
+        <v>194258.3996471752</v>
       </c>
       <c r="E13" t="n">
-        <v>149211.7188938512</v>
+        <v>194029.89621574</v>
       </c>
     </row>
     <row r="14">
@@ -4591,16 +5080,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-175154.7500000001</v>
+        <v>-58926.00000000004</v>
       </c>
       <c r="C14" t="n">
-        <v>65210.22906464722</v>
+        <v>57448.73649169673</v>
       </c>
       <c r="D14" t="n">
-        <v>224823.7945533092</v>
+        <v>155029.767289055</v>
       </c>
       <c r="E14" t="n">
-        <v>114879.2736179563</v>
+        <v>153552.5037807518</v>
       </c>
     </row>
     <row r="15">
@@ -4608,16 +5097,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-122869.7500000001</v>
+        <v>-44896.00000000004</v>
       </c>
       <c r="C15" t="n">
-        <v>44770.6465263298</v>
+        <v>42169.9764148285</v>
       </c>
       <c r="D15" t="n">
-        <v>167686.8858890544</v>
+        <v>120475.573151604</v>
       </c>
       <c r="E15" t="n">
-        <v>89587.78241538415</v>
+        <v>117749.5495664325</v>
       </c>
     </row>
     <row r="16">
@@ -4625,16 +5114,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-70584.75000000007</v>
+        <v>-30866.00000000004</v>
       </c>
       <c r="C16" t="n">
-        <v>24331.06398801238</v>
+        <v>26891.21633796039</v>
       </c>
       <c r="D16" t="n">
-        <v>119467.2951579602</v>
+        <v>90234.80564984521</v>
       </c>
       <c r="E16" t="n">
-        <v>73213.60914597251</v>
+        <v>86260.02198780555</v>
       </c>
     </row>
     <row r="17">
@@ -4642,16 +5131,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-18299.75000000007</v>
+        <v>-16836.00000000004</v>
       </c>
       <c r="C17" t="n">
-        <v>3891.481449695071</v>
+        <v>11612.45626109219</v>
       </c>
       <c r="D17" t="n">
-        <v>79685.33957373469</v>
+        <v>63927.76931851164</v>
       </c>
       <c r="E17" t="n">
-        <v>65277.07102342969</v>
+        <v>58704.22557960378</v>
       </c>
     </row>
     <row r="18">
@@ -4659,16 +5148,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>33985.24999999993</v>
+        <v>-2806.00000000004</v>
       </c>
       <c r="C18" t="n">
-        <v>-16548.10108862235</v>
+        <v>-3666.303815775958</v>
       </c>
       <c r="D18" t="n">
-        <v>47577.43755917221</v>
+        <v>41170.27632595546</v>
       </c>
       <c r="E18" t="n">
-        <v>65014.58647054979</v>
+        <v>34697.97251017946</v>
       </c>
     </row>
     <row r="19">
@@ -4676,16 +5165,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>86270.24999999993</v>
+        <v>11223.99999999996</v>
       </c>
       <c r="C19" t="n">
-        <v>-36987.68362693966</v>
+        <v>-18945.06389264419</v>
       </c>
       <c r="D19" t="n">
-        <v>22195.24407902416</v>
+        <v>21585.0440809362</v>
       </c>
       <c r="E19" t="n">
-        <v>71477.81045208442</v>
+        <v>13863.98018829197</v>
       </c>
     </row>
     <row r="20">
@@ -4693,16 +5182,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>138555.2499999999</v>
+        <v>25253.99999999996</v>
       </c>
       <c r="C20" t="n">
-        <v>-57427.26616525697</v>
+        <v>-34223.8239695123</v>
       </c>
       <c r="D20" t="n">
-        <v>2509.284436425729</v>
+        <v>4810.355234341035</v>
       </c>
       <c r="E20" t="n">
-        <v>83637.26827116868</v>
+        <v>-4159.46873517131</v>
       </c>
     </row>
     <row r="21">
@@ -4710,16 +5199,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>190840.2499999999</v>
+        <v>39283.99999999996</v>
       </c>
       <c r="C21" t="n">
-        <v>-77866.84870357439</v>
+        <v>-49502.58404638039</v>
       </c>
       <c r="D21" t="n">
-        <v>-12500.62655280242</v>
+        <v>-9493.791640319227</v>
       </c>
       <c r="E21" t="n">
-        <v>100472.7747436231</v>
+        <v>-19712.37568669966</v>
       </c>
     </row>
     <row r="22">
@@ -4727,16 +5216,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>243125.2499999999</v>
+        <v>53313.99999999996</v>
       </c>
       <c r="C22" t="n">
-        <v>-98306.43124189181</v>
+        <v>-64781.34412324874</v>
       </c>
       <c r="D22" t="n">
-        <v>-23778.33192490785</v>
+        <v>-21641.71322917779</v>
       </c>
       <c r="E22" t="n">
-        <v>121040.4868332003</v>
+        <v>-33109.05735242656</v>
       </c>
     </row>
     <row r="23">
@@ -4744,16 +5233,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>295410.2499999999</v>
+        <v>67343.99999999996</v>
       </c>
       <c r="C23" t="n">
-        <v>-118746.0137802091</v>
+        <v>-80060.10420011685</v>
       </c>
       <c r="D23" t="n">
-        <v>-32150.40633361778</v>
+        <v>-31919.88470978679</v>
       </c>
       <c r="E23" t="n">
-        <v>144513.829886173</v>
+        <v>-44635.9889099037</v>
       </c>
     </row>
     <row r="24">
@@ -4761,16 +5250,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>347695.2499999999</v>
+        <v>81373.99999999996</v>
       </c>
       <c r="C24" t="n">
-        <v>-139185.5963185264</v>
+        <v>-95338.864276985</v>
       </c>
       <c r="D24" t="n">
-        <v>-38308.68955679595</v>
+        <v>-40586.22374409197</v>
       </c>
       <c r="E24" t="n">
-        <v>170200.9641246776</v>
+        <v>-54551.08802107701</v>
       </c>
     </row>
     <row r="25">
@@ -4778,16 +5267,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>399980.2499999999</v>
+        <v>95403.99999999996</v>
       </c>
       <c r="C25" t="n">
-        <v>-159625.178856844</v>
+        <v>-110617.6243538531</v>
       </c>
       <c r="D25" t="n">
-        <v>-42810.69889388639</v>
+        <v>-47870.46928271835</v>
       </c>
       <c r="E25" t="n">
-        <v>197544.3722492696</v>
+        <v>-63084.0936365715</v>
       </c>
     </row>
     <row r="26">
@@ -4795,16 +5284,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>452265.2499999999</v>
+        <v>109434</v>
       </c>
       <c r="C26" t="n">
-        <v>-180064.7613951613</v>
+        <v>-125896.3844307214</v>
       </c>
       <c r="D26" t="n">
-        <v>-46091.60167797495</v>
+        <v>-53975.350002084</v>
       </c>
       <c r="E26" t="n">
-        <v>226108.8869268637</v>
+        <v>-70437.73443280548</v>
       </c>
     </row>
     <row r="27">
@@ -4812,16 +5301,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>504550.2499999999</v>
+        <v>123464</v>
       </c>
       <c r="C27" t="n">
-        <v>-200504.3439334786</v>
+        <v>-141175.1445075895</v>
       </c>
       <c r="D27" t="n">
-        <v>-48482.13127590559</v>
+        <v>-59078.28484636718</v>
       </c>
       <c r="E27" t="n">
-        <v>255563.7747906158</v>
+        <v>-76789.42935395677</v>
       </c>
     </row>
   </sheetData>
@@ -4875,16 +5364,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-802574.7500000001</v>
+        <v>-227286</v>
       </c>
       <c r="C2" t="n">
-        <v>312213.8865062646</v>
+        <v>242086.0931854277</v>
       </c>
       <c r="D2" t="n">
-        <v>1440312.962665422</v>
+        <v>976551.25835803</v>
       </c>
       <c r="E2" t="n">
-        <v>949952.0991716863</v>
+        <v>991351.3515434577</v>
       </c>
     </row>
     <row r="3">
@@ -4892,16 +5381,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-750289.7500000001</v>
+        <v>-213256</v>
       </c>
       <c r="C3" t="n">
-        <v>291859.8815413041</v>
+        <v>226871.303065325</v>
       </c>
       <c r="D3" t="n">
-        <v>1318771.530863585</v>
+        <v>882328.2455820671</v>
       </c>
       <c r="E3" t="n">
-        <v>860341.6624048888</v>
+        <v>895943.5486473921</v>
       </c>
     </row>
     <row r="4">
@@ -4909,16 +5398,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-698004.7500000001</v>
+        <v>-199226</v>
       </c>
       <c r="C4" t="n">
-        <v>271505.8765763437</v>
+        <v>211656.5129452223</v>
       </c>
       <c r="D4" t="n">
-        <v>1198905.632703684</v>
+        <v>790872.8574108025</v>
       </c>
       <c r="E4" t="n">
-        <v>772406.7592800274</v>
+        <v>803303.3703560248</v>
       </c>
     </row>
     <row r="5">
@@ -4926,16 +5415,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-645719.7500000001</v>
+        <v>-185196</v>
       </c>
       <c r="C5" t="n">
-        <v>251151.8716113832</v>
+        <v>196441.7228251197</v>
       </c>
       <c r="D5" t="n">
-        <v>1081129.758919364</v>
+        <v>702883.8532697321</v>
       </c>
       <c r="E5" t="n">
-        <v>686561.8805307474</v>
+        <v>714129.5760948517</v>
       </c>
     </row>
     <row r="6">
@@ -4943,16 +5432,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-593434.7500000001</v>
+        <v>-171166</v>
       </c>
       <c r="C6" t="n">
-        <v>230797.8666464227</v>
+        <v>181226.9327050169</v>
       </c>
       <c r="D6" t="n">
-        <v>965838.7012591669</v>
+        <v>619035.3033471083</v>
       </c>
       <c r="E6" t="n">
-        <v>603201.8179055895</v>
+        <v>629096.2360521252</v>
       </c>
     </row>
     <row r="7">
@@ -4960,16 +5449,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-541149.7500000001</v>
+        <v>-157136</v>
       </c>
       <c r="C7" t="n">
-        <v>210443.8616814623</v>
+        <v>166012.1425849142</v>
       </c>
       <c r="D7" t="n">
-        <v>853397.7851727209</v>
+        <v>539930.0362594305</v>
       </c>
       <c r="E7" t="n">
-        <v>522691.8968541831</v>
+        <v>548806.1788443447</v>
       </c>
     </row>
     <row r="8">
@@ -4977,16 +5466,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-488864.7500000001</v>
+        <v>-143106</v>
       </c>
       <c r="C8" t="n">
-        <v>190089.8567165018</v>
+        <v>150797.3524648115</v>
       </c>
       <c r="D8" t="n">
-        <v>744170.7522440152</v>
+        <v>466061.7429477131</v>
       </c>
       <c r="E8" t="n">
-        <v>445395.8589605169</v>
+        <v>473753.0954125246</v>
       </c>
     </row>
     <row r="9">
@@ -4994,16 +5483,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-436579.7500000001</v>
+        <v>-129076</v>
       </c>
       <c r="C9" t="n">
-        <v>169735.8517515413</v>
+        <v>135582.5623447088</v>
       </c>
       <c r="D9" t="n">
-        <v>638601.399835989</v>
+        <v>397789.3983357708</v>
       </c>
       <c r="E9" t="n">
-        <v>371757.5015875302</v>
+        <v>404295.9606804795</v>
       </c>
     </row>
     <row r="10">
@@ -5011,16 +5500,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-384294.7500000001</v>
+        <v>-115046</v>
       </c>
       <c r="C10" t="n">
-        <v>149381.8467865807</v>
+        <v>120367.7722246062</v>
       </c>
       <c r="D10" t="n">
-        <v>537339.7668392515</v>
+        <v>335325.2130505345</v>
       </c>
       <c r="E10" t="n">
-        <v>302426.8636258322</v>
+        <v>340646.9852751406</v>
       </c>
     </row>
     <row r="11">
@@ -5028,16 +5517,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-332009.7500000001</v>
+        <v>-101016</v>
       </c>
       <c r="C11" t="n">
-        <v>129027.8418216202</v>
+        <v>105152.9821045034</v>
       </c>
       <c r="D11" t="n">
-        <v>441359.9315111499</v>
+        <v>278735.2491643317</v>
       </c>
       <c r="E11" t="n">
-        <v>238378.0233327701</v>
+        <v>282872.2312688351</v>
       </c>
     </row>
     <row r="12">
@@ -5045,16 +5534,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-279724.7500000001</v>
+        <v>-86986.00000000004</v>
       </c>
       <c r="C12" t="n">
-        <v>108673.8368566599</v>
+        <v>89938.19198440071</v>
       </c>
       <c r="D12" t="n">
-        <v>351984.3288079052</v>
+        <v>227950.4122858565</v>
       </c>
       <c r="E12" t="n">
-        <v>180933.415664565</v>
+        <v>230902.6042702572</v>
       </c>
     </row>
     <row r="13">
@@ -5062,16 +5551,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-227439.7500000001</v>
+        <v>-72956.00000000004</v>
       </c>
       <c r="C13" t="n">
-        <v>88319.83189169934</v>
+        <v>74723.4018642981</v>
       </c>
       <c r="D13" t="n">
-        <v>270747.6394066673</v>
+        <v>182784.822055075</v>
       </c>
       <c r="E13" t="n">
-        <v>131627.7212983665</v>
+        <v>184552.2239193731</v>
       </c>
     </row>
     <row r="14">
@@ -5079,16 +5568,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-175154.7500000001</v>
+        <v>-58926.00000000004</v>
       </c>
       <c r="C14" t="n">
-        <v>67965.82692673884</v>
+        <v>59508.61174419525</v>
       </c>
       <c r="D14" t="n">
-        <v>199108.2593423714</v>
+        <v>142958.4617056221</v>
       </c>
       <c r="E14" t="n">
-        <v>91919.33626911018</v>
+        <v>143541.0734498173</v>
       </c>
     </row>
     <row r="15">
@@ -5096,16 +5585,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-122869.7500000001</v>
+        <v>-44896.00000000004</v>
       </c>
       <c r="C15" t="n">
-        <v>47611.82196177845</v>
+        <v>44293.82162409252</v>
       </c>
       <c r="D15" t="n">
-        <v>138103.4353704403</v>
+        <v>108121.3368102933</v>
       </c>
       <c r="E15" t="n">
-        <v>62845.50733221871</v>
+        <v>107519.1584343858</v>
       </c>
     </row>
     <row r="16">
@@ -5113,16 +5602,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-70584.75000000007</v>
+        <v>-30866.00000000004</v>
       </c>
       <c r="C16" t="n">
-        <v>27257.81699681794</v>
+        <v>29079.03150398991</v>
       </c>
       <c r="D16" t="n">
-        <v>88083.8194470781</v>
+        <v>77876.94482805816</v>
       </c>
       <c r="E16" t="n">
-        <v>44756.88644389597</v>
+        <v>76089.97633204803</v>
       </c>
     </row>
     <row r="17">
@@ -5130,16 +5619,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-18299.75000000007</v>
+        <v>-16836.00000000004</v>
       </c>
       <c r="C17" t="n">
-        <v>6903.81203185732</v>
+        <v>13864.24138388719</v>
       </c>
       <c r="D17" t="n">
-        <v>48627.39524866231</v>
+        <v>51803.510886185</v>
       </c>
       <c r="E17" t="n">
-        <v>37231.45728051956</v>
+        <v>48831.75227007215</v>
       </c>
     </row>
     <row r="18">
@@ -5147,16 +5636,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>33985.24999999993</v>
+        <v>-2806.00000000004</v>
       </c>
       <c r="C18" t="n">
-        <v>-13450.19293310307</v>
+        <v>-1350.54873621554</v>
       </c>
       <c r="D18" t="n">
-        <v>18648.57210471866</v>
+        <v>29472.06765082169</v>
       </c>
       <c r="E18" t="n">
-        <v>39183.62917161552</v>
+        <v>25315.51891460611</v>
       </c>
     </row>
     <row r="19">
@@ -5164,16 +5653,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>86270.24999999993</v>
+        <v>11223.99999999996</v>
       </c>
       <c r="C19" t="n">
-        <v>-33804.19789806358</v>
+        <v>-16565.33885631812</v>
       </c>
       <c r="D19" t="n">
-        <v>-3360.209636659683</v>
+        <v>10460.98131121029</v>
       </c>
       <c r="E19" t="n">
-        <v>49105.84246527667</v>
+        <v>5119.642454892131</v>
       </c>
     </row>
     <row r="20">
@@ -5181,16 +5670,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>138555.2499999999</v>
+        <v>25253.99999999996</v>
       </c>
       <c r="C20" t="n">
-        <v>-54158.20286302408</v>
+        <v>-31780.12897642085</v>
       </c>
       <c r="D20" t="n">
-        <v>-19050.82226613222</v>
+        <v>-5633.076496060574</v>
       </c>
       <c r="E20" t="n">
-        <v>65346.22487084361</v>
+        <v>-12159.20547248146</v>
       </c>
     </row>
     <row r="21">
@@ -5198,16 +5687,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>190840.2499999999</v>
+        <v>39283.99999999996</v>
       </c>
       <c r="C21" t="n">
-        <v>-74512.20782798447</v>
+        <v>-46994.91909652358</v>
       </c>
       <c r="D21" t="n">
-        <v>-29987.7108157889</v>
+        <v>-19187.44033717788</v>
       </c>
       <c r="E21" t="n">
-        <v>86340.33135622654</v>
+        <v>-26898.35943370149</v>
       </c>
     </row>
     <row r="22">
@@ -5215,16 +5704,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>243125.2499999999</v>
+        <v>53313.99999999996</v>
       </c>
       <c r="C22" t="n">
-        <v>-94866.21279294498</v>
+        <v>-62209.70921662622</v>
       </c>
       <c r="D22" t="n">
-        <v>-37503.48785224474</v>
+        <v>-30548.61662769186</v>
       </c>
       <c r="E22" t="n">
-        <v>110755.5493548102</v>
+        <v>-39444.32584431811</v>
       </c>
     </row>
     <row r="23">
@@ -5232,16 +5721,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>295410.2499999999</v>
+        <v>67343.99999999996</v>
       </c>
       <c r="C23" t="n">
-        <v>-115220.2177579055</v>
+        <v>-77424.49933672894</v>
       </c>
       <c r="D23" t="n">
-        <v>-42643.10387338756</v>
+        <v>-40029.8030808597</v>
       </c>
       <c r="E23" t="n">
-        <v>137546.9283687069</v>
+        <v>-50110.30241758869</v>
       </c>
     </row>
     <row r="24">
@@ -5249,16 +5738,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>347695.2499999999</v>
+        <v>81373.99999999996</v>
       </c>
       <c r="C24" t="n">
-        <v>-135574.2227228659</v>
+        <v>-92639.28945683167</v>
       </c>
       <c r="D24" t="n">
-        <v>-46173.46642410519</v>
+        <v>-47910.25515558743</v>
       </c>
       <c r="E24" t="n">
-        <v>165947.5608530289</v>
+        <v>-59175.54461241914</v>
       </c>
     </row>
     <row r="25">
@@ -5266,16 +5755,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>399980.2499999999</v>
+        <v>95403.99999999996</v>
       </c>
       <c r="C25" t="n">
-        <v>-155928.2276878264</v>
+        <v>-107854.0795769343</v>
       </c>
       <c r="D25" t="n">
-        <v>-48628.76650975509</v>
+        <v>-54436.02794036908</v>
       </c>
       <c r="E25" t="n">
-        <v>195423.2558024185</v>
+        <v>-66886.1075173034</v>
       </c>
     </row>
     <row r="26">
@@ -5283,16 +5772,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>452265.2499999999</v>
+        <v>109434</v>
       </c>
       <c r="C26" t="n">
-        <v>-176282.2326527869</v>
+        <v>-123068.869697037</v>
       </c>
       <c r="D26" t="n">
-        <v>-50366.88215081618</v>
+        <v>-59821.68089753369</v>
       </c>
       <c r="E26" t="n">
-        <v>225616.1351963969</v>
+        <v>-73456.55059457071</v>
       </c>
     </row>
     <row r="27">
@@ -5300,16 +5789,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>504550.2499999999</v>
+        <v>123464</v>
       </c>
       <c r="C27" t="n">
-        <v>-196636.2376177473</v>
+        <v>-138283.6598171398</v>
       </c>
       <c r="D27" t="n">
-        <v>-51621.62700851687</v>
+        <v>-64252.60205744165</v>
       </c>
       <c r="E27" t="n">
-        <v>256292.3853737358</v>
+        <v>-79072.26187458151</v>
       </c>
     </row>
   </sheetData>
@@ -5363,16 +5852,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-802574.7500000001</v>
+        <v>-227286</v>
       </c>
       <c r="C2" t="n">
-        <v>313779.1205164766</v>
+        <v>243256.1574023972</v>
       </c>
       <c r="D2" t="n">
-        <v>1454256.688531277</v>
+        <v>985656.4428008638</v>
       </c>
       <c r="E2" t="n">
-        <v>965461.0590477537</v>
+        <v>1001626.600203261</v>
       </c>
     </row>
     <row r="3">
@@ -5380,16 +5869,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-750289.7500000001</v>
+        <v>-213256</v>
       </c>
       <c r="C3" t="n">
-        <v>293502.6023837048</v>
+        <v>228099.2893419016</v>
       </c>
       <c r="D3" t="n">
-        <v>1331857.915887005</v>
+        <v>889983.4997005092</v>
       </c>
       <c r="E3" t="n">
-        <v>875070.7682707093</v>
+        <v>904826.7890424108</v>
       </c>
     </row>
     <row r="4">
@@ -5397,16 +5886,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-698004.7500000001</v>
+        <v>-199226</v>
       </c>
       <c r="C4" t="n">
-        <v>273226.0842509331</v>
+        <v>212942.421281406</v>
       </c>
       <c r="D4" t="n">
-        <v>1210939.317746607</v>
+        <v>796727.1529746603</v>
       </c>
       <c r="E4" t="n">
-        <v>786160.6519975397</v>
+        <v>810443.5742560662</v>
       </c>
     </row>
     <row r="5">
@@ -5414,16 +5903,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-645719.7500000001</v>
+        <v>-185196</v>
       </c>
       <c r="C5" t="n">
-        <v>252949.5661181613</v>
+        <v>197785.5532209103</v>
       </c>
       <c r="D5" t="n">
-        <v>1091956.357642463</v>
+        <v>706638.4562762813</v>
       </c>
       <c r="E5" t="n">
-        <v>699186.1737606246</v>
+        <v>719228.0094971915</v>
       </c>
     </row>
     <row r="6">
@@ -5431,16 +5920,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-593434.7500000001</v>
+        <v>-171166</v>
       </c>
       <c r="C6" t="n">
-        <v>232673.0479853895</v>
+        <v>182628.6851604147</v>
       </c>
       <c r="D6" t="n">
-        <v>975359.0226235231</v>
+        <v>620479.9412954117</v>
       </c>
       <c r="E6" t="n">
-        <v>614597.3206089125</v>
+        <v>631942.6264558263</v>
       </c>
     </row>
     <row r="7">
@@ -5448,16 +5937,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-541149.7500000001</v>
+        <v>-157136</v>
       </c>
       <c r="C7" t="n">
-        <v>212396.5298526178</v>
+        <v>167471.8170999191</v>
       </c>
       <c r="D7" t="n">
-        <v>861551.9334929254</v>
+        <v>538967.3323793955</v>
       </c>
       <c r="E7" t="n">
-        <v>532798.713345543</v>
+        <v>549303.1494793146</v>
       </c>
     </row>
     <row r="8">
@@ -5465,16 +5954,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-488864.7500000001</v>
+        <v>-143106</v>
       </c>
       <c r="C8" t="n">
-        <v>192120.0117198459</v>
+        <v>152314.9490394233</v>
       </c>
       <c r="D8" t="n">
-        <v>750860.3910932563</v>
+        <v>462716.7605035704</v>
       </c>
       <c r="E8" t="n">
-        <v>454115.6528131022</v>
+        <v>471925.7095429937</v>
       </c>
     </row>
     <row r="9">
@@ -5482,16 +5971,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-436579.7500000001</v>
+        <v>-129076</v>
       </c>
       <c r="C9" t="n">
-        <v>171843.4935870742</v>
+        <v>137158.0809789278</v>
       </c>
       <c r="D9" t="n">
-        <v>643508.7788692092</v>
+        <v>392204.3850658401</v>
       </c>
       <c r="E9" t="n">
-        <v>378772.5224562834</v>
+        <v>400286.4660447678</v>
       </c>
     </row>
     <row r="10">
@@ -5499,16 +5988,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-384294.7500000001</v>
+        <v>-115046</v>
       </c>
       <c r="C10" t="n">
-        <v>151566.9754543024</v>
+        <v>122001.2129184321</v>
       </c>
       <c r="D10" t="n">
-        <v>539626.7108109144</v>
+        <v>327742.2048649169</v>
       </c>
       <c r="E10" t="n">
-        <v>306898.9362652167</v>
+        <v>334697.4177833489</v>
       </c>
     </row>
     <row r="11">
@@ -5516,16 +6005,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-332009.7500000001</v>
+        <v>-101016</v>
       </c>
       <c r="C11" t="n">
-        <v>131290.4573215307</v>
+        <v>106844.3448579365</v>
       </c>
       <c r="D11" t="n">
-        <v>439344.5190687624</v>
+        <v>269470.6639206117</v>
       </c>
       <c r="E11" t="n">
-        <v>238625.226390293</v>
+        <v>275299.0087785482</v>
       </c>
     </row>
     <row r="12">
@@ -5533,16 +6022,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-279724.7500000001</v>
+        <v>-86986.00000000004</v>
       </c>
       <c r="C12" t="n">
-        <v>111013.939188759</v>
+        <v>91687.47679744088</v>
       </c>
       <c r="D12" t="n">
-        <v>343125.5772878167</v>
+        <v>217366.1230809342</v>
       </c>
       <c r="E12" t="n">
-        <v>174414.7664765756</v>
+        <v>222067.599878375</v>
       </c>
     </row>
     <row r="13">
@@ -5550,16 +6039,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-227439.7500000001</v>
+        <v>-72956.00000000004</v>
       </c>
       <c r="C13" t="n">
-        <v>90737.42105598713</v>
+        <v>76530.60873694517</v>
       </c>
       <c r="D13" t="n">
-        <v>252419.760840441</v>
+        <v>171259.6952971307</v>
       </c>
       <c r="E13" t="n">
-        <v>115717.4318964281</v>
+        <v>174834.3040340759</v>
       </c>
     </row>
     <row r="14">
@@ -5567,16 +6056,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-175154.7500000001</v>
+        <v>-58926.00000000004</v>
       </c>
       <c r="C14" t="n">
-        <v>70460.90292321541</v>
+        <v>61373.74067644947</v>
       </c>
       <c r="D14" t="n">
-        <v>170217.2176121026</v>
+        <v>130863.3350414289</v>
       </c>
       <c r="E14" t="n">
-        <v>65523.37053531795</v>
+        <v>133311.0757178784</v>
       </c>
     </row>
     <row r="15">
@@ -5584,16 +6073,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-122869.7500000001</v>
+        <v>-44896.00000000004</v>
       </c>
       <c r="C15" t="n">
-        <v>50184.38479044358</v>
+        <v>46216.87261595388</v>
       </c>
       <c r="D15" t="n">
-        <v>100553.7331512426</v>
+        <v>95799.23490635962</v>
       </c>
       <c r="E15" t="n">
-        <v>27868.3679416861</v>
+        <v>97120.10752231345</v>
       </c>
     </row>
     <row r="16">
@@ -5601,16 +6090,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-70584.75000000007</v>
+        <v>-30866.00000000004</v>
       </c>
       <c r="C16" t="n">
-        <v>29907.86665767187</v>
+        <v>31060.00455545829</v>
       </c>
       <c r="D16" t="n">
-        <v>46656.97995636915</v>
+        <v>65629.23948056425</v>
       </c>
       <c r="E16" t="n">
-        <v>5980.096614040944</v>
+        <v>65823.2440360225</v>
       </c>
     </row>
     <row r="17">
@@ -5618,16 +6107,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-18299.75000000007</v>
+        <v>-16836.00000000004</v>
       </c>
       <c r="C17" t="n">
-        <v>9631.348524900037</v>
+        <v>15903.13649496273</v>
       </c>
       <c r="D17" t="n">
-        <v>9032.501094506973</v>
+        <v>39881.8719691365</v>
       </c>
       <c r="E17" t="n">
-        <v>364.0996194069376</v>
+        <v>38949.0084640992</v>
       </c>
     </row>
     <row r="18">
@@ -5635,16 +6124,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>33985.24999999993</v>
+        <v>-2806.00000000004</v>
       </c>
       <c r="C18" t="n">
-        <v>-10645.16960787179</v>
+        <v>746.268434467027</v>
       </c>
       <c r="D18" t="n">
-        <v>-14818.75779800035</v>
+        <v>18075.47516363171</v>
       </c>
       <c r="E18" t="n">
-        <v>8521.322594127785</v>
+        <v>16015.74359809869</v>
       </c>
     </row>
     <row r="19">
@@ -5652,16 +6141,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>86270.24999999993</v>
+        <v>11223.99999999996</v>
       </c>
       <c r="C19" t="n">
-        <v>-30921.68774064351</v>
+        <v>-14410.59962602856</v>
       </c>
       <c r="D19" t="n">
-        <v>-28953.9265651626</v>
+        <v>-263.2380436820458</v>
       </c>
       <c r="E19" t="n">
-        <v>26394.63569419381</v>
+        <v>-3449.837669710647</v>
       </c>
     </row>
     <row r="20">
@@ -5669,16 +6158,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>138555.2499999999</v>
+        <v>25253.99999999996</v>
       </c>
       <c r="C20" t="n">
-        <v>-51198.20587341522</v>
+        <v>-29567.46768652427</v>
       </c>
       <c r="D20" t="n">
-        <v>-37208.46460499524</v>
+        <v>-15585.31370504663</v>
       </c>
       <c r="E20" t="n">
-        <v>50148.57952158945</v>
+        <v>-19898.78139157094</v>
       </c>
     </row>
     <row r="21">
@@ -5686,16 +6175,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>190840.2499999999</v>
+        <v>39283.99999999996</v>
       </c>
       <c r="C21" t="n">
-        <v>-71474.72400618694</v>
+        <v>-44724.33574701997</v>
       </c>
       <c r="D21" t="n">
-        <v>-42260.08927722524</v>
+        <v>-28310.03080176935</v>
       </c>
       <c r="E21" t="n">
-        <v>77105.43671658773</v>
+        <v>-33750.36654878936</v>
       </c>
     </row>
     <row r="22">
@@ -5703,16 +6192,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>243125.2499999999</v>
+        <v>53313.99999999996</v>
       </c>
       <c r="C22" t="n">
-        <v>-91751.24213895889</v>
+        <v>-59881.20380751553</v>
       </c>
       <c r="D22" t="n">
-        <v>-45619.08758644199</v>
+        <v>-38819.1355040913</v>
       </c>
       <c r="E22" t="n">
-        <v>105754.920274599</v>
+        <v>-45386.33931160687</v>
       </c>
     </row>
     <row r="23">
@@ -5720,16 +6209,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>295410.2499999999</v>
+        <v>67343.99999999996</v>
       </c>
       <c r="C23" t="n">
-        <v>-112027.7602717306</v>
+        <v>-75038.07186801112</v>
       </c>
       <c r="D23" t="n">
-        <v>-48025.11359668194</v>
+        <v>-47454.14025890293</v>
       </c>
       <c r="E23" t="n">
-        <v>135357.3761315874</v>
+        <v>-55148.21212691409</v>
       </c>
     </row>
     <row r="24">
@@ -5737,16 +6226,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>347695.2499999999</v>
+        <v>81373.99999999996</v>
       </c>
       <c r="C24" t="n">
-        <v>-132304.2784045023</v>
+        <v>-90194.93992850673</v>
       </c>
       <c r="D24" t="n">
-        <v>-49824.24643304291</v>
+        <v>-54515.98198997595</v>
       </c>
       <c r="E24" t="n">
-        <v>165566.7251624547</v>
+        <v>-63336.92191848272</v>
       </c>
     </row>
     <row r="25">
@@ -5754,16 +6243,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>399980.2499999999</v>
+        <v>95403.99999999996</v>
       </c>
       <c r="C25" t="n">
-        <v>-152580.796537274</v>
+        <v>-105351.8079890026</v>
       </c>
       <c r="D25" t="n">
-        <v>-51192.36095217955</v>
+        <v>-60266.38814481316</v>
       </c>
       <c r="E25" t="n">
-        <v>196207.0925105464</v>
+        <v>-70214.19613381576</v>
       </c>
     </row>
     <row r="26">
@@ -5771,16 +6260,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>452265.2499999999</v>
+        <v>109434</v>
       </c>
       <c r="C26" t="n">
-        <v>-172857.3146700459</v>
+        <v>-120508.6760494981</v>
       </c>
       <c r="D26" t="n">
-        <v>-52235.96765179739</v>
+        <v>-64930.38923402814</v>
       </c>
       <c r="E26" t="n">
-        <v>227171.9676781567</v>
+        <v>-76005.06528352632</v>
       </c>
     </row>
     <row r="27">
@@ -5788,16 +6277,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>504550.2499999999</v>
+        <v>123464</v>
       </c>
       <c r="C27" t="n">
-        <v>-193133.8328028176</v>
+        <v>-135665.5441099937</v>
       </c>
       <c r="D27" t="n">
-        <v>-53030.27367791771</v>
+        <v>-68699.52020949435</v>
       </c>
       <c r="E27" t="n">
-        <v>258386.1435192646</v>
+        <v>-80901.06431948813</v>
       </c>
     </row>
   </sheetData>
@@ -5851,16 +6340,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-802574.7500000001</v>
+        <v>-227286</v>
       </c>
       <c r="C2" t="n">
-        <v>314663.4399631617</v>
+        <v>244266.6093444639</v>
       </c>
       <c r="D2" t="n">
-        <v>1462336.637329195</v>
+        <v>994070.4838800615</v>
       </c>
       <c r="E2" t="n">
-        <v>974425.3272923568</v>
+        <v>1011051.093224525</v>
       </c>
     </row>
     <row r="3">
@@ -5868,16 +6357,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-750289.7500000001</v>
+        <v>-213256</v>
       </c>
       <c r="C3" t="n">
-        <v>294430.7000208199</v>
+        <v>229159.7620065659</v>
       </c>
       <c r="D3" t="n">
-        <v>1339467.292693569</v>
+        <v>897212.1679142336</v>
       </c>
       <c r="E3" t="n">
-        <v>883608.2427143889</v>
+        <v>913115.9299207994</v>
       </c>
     </row>
     <row r="4">
@@ -5885,16 +6374,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-698004.7500000001</v>
+        <v>-199226</v>
       </c>
       <c r="C4" t="n">
-        <v>274197.9600784781</v>
+        <v>214052.9146686678</v>
       </c>
       <c r="D4" t="n">
-        <v>1217944.743167784</v>
+        <v>802406.5489572564</v>
       </c>
       <c r="E4" t="n">
-        <v>794137.9532462623</v>
+        <v>817233.4636259242</v>
       </c>
     </row>
     <row r="5">
@@ -5902,16 +6391,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-645719.7500000001</v>
+        <v>-185196</v>
       </c>
       <c r="C5" t="n">
-        <v>253965.2201361363</v>
+        <v>198946.0673307698</v>
       </c>
       <c r="D5" t="n">
-        <v>1098244.981044112</v>
+        <v>710434.2595873401</v>
       </c>
       <c r="E5" t="n">
-        <v>706490.4511802479</v>
+        <v>724184.3269181099</v>
       </c>
     </row>
     <row r="6">
@@ -5919,16 +6408,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-593434.7500000001</v>
+        <v>-171166</v>
       </c>
       <c r="C6" t="n">
-        <v>233732.4801937944</v>
+        <v>183839.2199928718</v>
       </c>
       <c r="D6" t="n">
-        <v>980856.5571599116</v>
+        <v>622132.1949434467</v>
       </c>
       <c r="E6" t="n">
-        <v>621154.2873537058</v>
+        <v>634805.4149363184</v>
       </c>
     </row>
     <row r="7">
@@ -5936,16 +6425,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-541149.7500000001</v>
+        <v>-157136</v>
       </c>
       <c r="C7" t="n">
-        <v>213499.7402514525</v>
+        <v>168732.3726549738</v>
       </c>
       <c r="D7" t="n">
-        <v>866234.8588497801</v>
+        <v>538325.6868494104</v>
       </c>
       <c r="E7" t="n">
-        <v>538584.8491012325</v>
+        <v>549922.0595043842</v>
       </c>
     </row>
     <row r="8">
@@ -5953,16 +6442,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-488864.7500000001</v>
+        <v>-143106</v>
       </c>
       <c r="C8" t="n">
-        <v>193267.0003091107</v>
+        <v>153625.5253170758</v>
       </c>
       <c r="D8" t="n">
-        <v>754759.9268957635</v>
+        <v>459759.9076731173</v>
       </c>
       <c r="E8" t="n">
-        <v>459162.1772048742</v>
+        <v>470279.4329901931</v>
       </c>
     </row>
     <row r="9">
@@ -5970,16 +6459,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-436579.7500000001</v>
+        <v>-129076</v>
       </c>
       <c r="C9" t="n">
-        <v>173034.2603667689</v>
+        <v>138518.6779791778</v>
       </c>
       <c r="D9" t="n">
-        <v>646704.7540231929</v>
+        <v>387041.5308566949</v>
       </c>
       <c r="E9" t="n">
-        <v>383159.2643899618</v>
+        <v>396484.2088358727</v>
       </c>
     </row>
     <row r="10">
@@ -5987,16 +6476,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-384294.7500000001</v>
+        <v>-115046</v>
       </c>
       <c r="C10" t="n">
-        <v>152801.5204244271</v>
+        <v>123411.8306412799</v>
       </c>
       <c r="D10" t="n">
-        <v>542217.9875934205</v>
+        <v>320598.3276877424</v>
       </c>
       <c r="E10" t="n">
-        <v>310724.7580178476</v>
+        <v>328964.1583290222</v>
       </c>
     </row>
     <row r="11">
@@ -6004,16 +6493,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-332009.7500000001</v>
+        <v>-101016</v>
       </c>
       <c r="C11" t="n">
-        <v>132568.7804820853</v>
+        <v>108304.9833033818</v>
       </c>
       <c r="D11" t="n">
-        <v>441321.6407195955</v>
+        <v>260660.009943597</v>
       </c>
       <c r="E11" t="n">
-        <v>241880.6712016807</v>
+        <v>267948.9932469787</v>
       </c>
     </row>
     <row r="12">
@@ -6021,16 +6510,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-279724.7500000001</v>
+        <v>-86986.00000000004</v>
       </c>
       <c r="C12" t="n">
-        <v>112336.0405397435</v>
+        <v>93198.13596548379</v>
       </c>
       <c r="D12" t="n">
-        <v>343921.709045261</v>
+        <v>207259.5469068666</v>
       </c>
       <c r="E12" t="n">
-        <v>176532.9995850045</v>
+        <v>213471.6828723503</v>
       </c>
     </row>
     <row r="13">
@@ -6038,16 +6527,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-227439.7500000001</v>
+        <v>-72956.00000000004</v>
       </c>
       <c r="C13" t="n">
-        <v>92103.30059740169</v>
+        <v>78091.28862758583</v>
       </c>
       <c r="D13" t="n">
-        <v>249827.962535854</v>
+        <v>160251.232651651</v>
       </c>
       <c r="E13" t="n">
-        <v>114491.5131332556</v>
+        <v>165386.5212792368</v>
       </c>
     </row>
     <row r="14">
@@ -6055,16 +6544,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-175154.7500000001</v>
+        <v>-58926.00000000004</v>
       </c>
       <c r="C14" t="n">
-        <v>71870.56065505987</v>
+        <v>62984.44128968785</v>
       </c>
       <c r="D14" t="n">
-        <v>158778.6743540684</v>
+        <v>119340.2482624603</v>
       </c>
       <c r="E14" t="n">
-        <v>55494.48500912823</v>
+        <v>123398.6895521481</v>
       </c>
     </row>
     <row r="15">
@@ -6072,16 +6561,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-122869.7500000001</v>
+        <v>-44896.00000000004</v>
       </c>
       <c r="C15" t="n">
-        <v>51637.82071271806</v>
+        <v>47877.59395178978</v>
       </c>
       <c r="D15" t="n">
-        <v>70466.42045520589</v>
+        <v>84118.21981767096</v>
       </c>
       <c r="E15" t="n">
-        <v>-765.5088320761133</v>
+        <v>87099.81376946071</v>
       </c>
     </row>
     <row r="16">
@@ -6089,16 +6578,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-70584.75000000007</v>
+        <v>-30866.00000000004</v>
       </c>
       <c r="C16" t="n">
-        <v>31405.08077037625</v>
+        <v>32770.7466138918</v>
       </c>
       <c r="D16" t="n">
-        <v>-15438.02220982444</v>
+        <v>54099.94956269633</v>
       </c>
       <c r="E16" t="n">
-        <v>-54617.69143944826</v>
+        <v>56004.69617658808</v>
       </c>
     </row>
     <row r="17">
@@ -6106,16 +6595,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-18299.75000000007</v>
+        <v>-16836.00000000004</v>
       </c>
       <c r="C17" t="n">
-        <v>11172.34082803444</v>
+        <v>17663.89927599381</v>
       </c>
       <c r="D17" t="n">
-        <v>-24265.57334520747</v>
+        <v>28757.67134195315</v>
       </c>
       <c r="E17" t="n">
-        <v>-31392.9825171731</v>
+        <v>29585.57061794692</v>
       </c>
     </row>
     <row r="18">
@@ -6123,16 +6612,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>33985.24999999993</v>
+        <v>-2806.00000000004</v>
       </c>
       <c r="C18" t="n">
-        <v>-9060.399114307365</v>
+        <v>2557.051938095741</v>
       </c>
       <c r="D18" t="n">
-        <v>-31333.42681401672</v>
+        <v>7550.488957113322</v>
       </c>
       <c r="E18" t="n">
-        <v>-6408.575928324157</v>
+        <v>7301.540895209023</v>
       </c>
     </row>
     <row r="19">
@@ -6140,16 +6629,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>86270.24999999993</v>
+        <v>11223.99999999996</v>
       </c>
       <c r="C19" t="n">
-        <v>-29293.13905664918</v>
+        <v>-12549.79539980224</v>
       </c>
       <c r="D19" t="n">
-        <v>-36934.39142648922</v>
+        <v>-10052.15289323569</v>
       </c>
       <c r="E19" t="n">
-        <v>20042.71951686153</v>
+        <v>-11377.94829303797</v>
       </c>
     </row>
     <row r="20">
@@ -6157,16 +6646,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>138555.2499999999</v>
+        <v>25253.99999999996</v>
       </c>
       <c r="C20" t="n">
-        <v>-49525.87899899099</v>
+        <v>-27656.64273770023</v>
       </c>
       <c r="D20" t="n">
-        <v>-41330.53711295225</v>
+        <v>-24553.17514659692</v>
       </c>
       <c r="E20" t="n">
-        <v>47698.83388805668</v>
+        <v>-26955.81788429718</v>
       </c>
     </row>
     <row r="21">
@@ -6174,16 +6663,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>190840.2499999999</v>
+        <v>39283.99999999996</v>
       </c>
       <c r="C21" t="n">
-        <v>-69758.6189413328</v>
+        <v>-42763.4900755983</v>
       </c>
       <c r="D21" t="n">
-        <v>-44750.39152653735</v>
+        <v>-36416.30940371439</v>
       </c>
       <c r="E21" t="n">
-        <v>76331.23953212977</v>
+        <v>-39895.79947931272</v>
       </c>
     </row>
     <row r="22">
@@ -6191,16 +6680,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>243125.2499999999</v>
+        <v>53313.99999999996</v>
       </c>
       <c r="C22" t="n">
-        <v>-89991.35888367461</v>
+        <v>-57870.33741349616</v>
       </c>
       <c r="D22" t="n">
-        <v>-47388.82997870402</v>
+        <v>-46059.46371004745</v>
       </c>
       <c r="E22" t="n">
-        <v>105745.0611376213</v>
+        <v>-50615.80112354365</v>
       </c>
     </row>
     <row r="23">
@@ -6208,16 +6697,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>295410.2499999999</v>
+        <v>67343.99999999996</v>
       </c>
       <c r="C23" t="n">
-        <v>-110224.0988260164</v>
+        <v>-72977.18475139415</v>
       </c>
       <c r="D23" t="n">
-        <v>-49408.83415344432</v>
+        <v>-53852.03003047447</v>
       </c>
       <c r="E23" t="n">
-        <v>135777.3170205392</v>
+        <v>-59485.21478186866</v>
       </c>
     </row>
     <row r="24">
@@ -6225,16 +6714,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>347695.2499999999</v>
+        <v>81373.99999999996</v>
       </c>
       <c r="C24" t="n">
-        <v>-130456.8387683582</v>
+        <v>-88084.03208929222</v>
       </c>
       <c r="D24" t="n">
-        <v>-50944.40623274509</v>
+        <v>-60115.1480578952</v>
       </c>
       <c r="E24" t="n">
-        <v>166294.0049988966</v>
+        <v>-66825.18014718746</v>
       </c>
     </row>
     <row r="25">
@@ -6242,16 +6731,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>399980.2499999999</v>
+        <v>95403.99999999996</v>
       </c>
       <c r="C25" t="n">
-        <v>-150689.5787107</v>
+        <v>-103190.8794271902</v>
       </c>
       <c r="D25" t="n">
-        <v>-52104.07049170119</v>
+        <v>-65124.03060145465</v>
       </c>
       <c r="E25" t="n">
-        <v>197186.6007975987</v>
+        <v>-72910.9100286449</v>
       </c>
     </row>
     <row r="26">
@@ -6259,16 +6748,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>452265.2499999999</v>
+        <v>109434</v>
       </c>
       <c r="C26" t="n">
-        <v>-170922.3186530418</v>
+        <v>-118297.7267650882</v>
       </c>
       <c r="D26" t="n">
-        <v>-52974.54329548852</v>
+        <v>-69111.59632063955</v>
       </c>
       <c r="E26" t="n">
-        <v>228368.3880514696</v>
+        <v>-77975.32308572775</v>
       </c>
     </row>
     <row r="27">
@@ -6276,16 +6765,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>504550.2499999999</v>
+        <v>123464</v>
       </c>
       <c r="C27" t="n">
-        <v>-191155.0585953837</v>
+        <v>-133404.5741029863</v>
       </c>
       <c r="D27" t="n">
-        <v>-53624.28631109592</v>
+        <v>-72272.81205333618</v>
       </c>
       <c r="E27" t="n">
-        <v>259770.9050935204</v>
+        <v>-82213.38615632248</v>
       </c>
     </row>
   </sheetData>

--- a/ACCU PnL Output.xlsx
+++ b/ACCU PnL Output.xlsx
@@ -484,16 +484,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-227286</v>
+        <v>-682301.4999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>244460.5443793969</v>
+        <v>-326390.2452656834</v>
       </c>
       <c r="D2" t="n">
-        <v>995746.9542483415</v>
+        <v>1054152.611914811</v>
       </c>
       <c r="E2" t="n">
-        <v>1012921.498627738</v>
+        <v>45460.86664912768</v>
       </c>
     </row>
     <row r="3">
@@ -501,16 +501,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-213256</v>
+        <v>-648271.4999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>229363.2974689715</v>
+        <v>-310607.2575289676</v>
       </c>
       <c r="D3" t="n">
-        <v>898671.9371381556</v>
+        <v>957077.594804625</v>
       </c>
       <c r="E3" t="n">
-        <v>914779.234607127</v>
+        <v>-1801.16272434243</v>
       </c>
     </row>
     <row r="4">
@@ -518,16 +518,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-199226</v>
+        <v>-614241.4999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>214266.050558546</v>
+        <v>-294824.2697922518</v>
       </c>
       <c r="D4" t="n">
-        <v>803573.0020401387</v>
+        <v>861978.6597066082</v>
       </c>
       <c r="E4" t="n">
-        <v>818613.0525986847</v>
+        <v>-47087.11008564348</v>
       </c>
     </row>
     <row r="5">
@@ -535,16 +535,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-185196</v>
+        <v>-580211.4999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>199168.8036481207</v>
+        <v>-279041.2820555359</v>
       </c>
       <c r="D5" t="n">
-        <v>711233.739323378</v>
+        <v>769639.3969898473</v>
       </c>
       <c r="E5" t="n">
-        <v>725206.5429714986</v>
+        <v>-89613.38506568852</v>
       </c>
     </row>
     <row r="6">
@@ -552,16 +552,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-171166</v>
+        <v>-546181.4999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>184071.5567376953</v>
+        <v>-263258.2943188201</v>
       </c>
       <c r="D6" t="n">
-        <v>622504.3287314479</v>
+        <v>680909.9863979173</v>
       </c>
       <c r="E6" t="n">
-        <v>635409.8854691432</v>
+        <v>-128529.8079209027</v>
       </c>
     </row>
     <row r="7">
@@ -569,16 +569,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-157136</v>
+        <v>-512151.4999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>168974.3098272699</v>
+        <v>-247475.3065821043</v>
       </c>
       <c r="D7" t="n">
-        <v>538232.1958625272</v>
+        <v>596637.8535289966</v>
       </c>
       <c r="E7" t="n">
-        <v>550070.5056897971</v>
+        <v>-162988.9530531076</v>
       </c>
     </row>
     <row r="8">
@@ -586,16 +586,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-143106</v>
+        <v>-478121.4999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>153877.0629168444</v>
+        <v>-231692.3188453885</v>
       </c>
       <c r="D8" t="n">
-        <v>459190.1176124725</v>
+        <v>517595.7752789418</v>
       </c>
       <c r="E8" t="n">
-        <v>469961.1805293169</v>
+        <v>-192218.0435664465</v>
       </c>
     </row>
     <row r="9">
@@ -603,16 +603,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-129076</v>
+        <v>-444091.4999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>138779.816006419</v>
+        <v>-215909.3311086727</v>
       </c>
       <c r="D9" t="n">
-        <v>386013.7465868891</v>
+        <v>444419.4042533585</v>
       </c>
       <c r="E9" t="n">
-        <v>395717.5625933081</v>
+        <v>-215581.4268553141</v>
       </c>
     </row>
     <row r="10">
@@ -620,16 +620,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-115046</v>
+        <v>-410061.4999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>123682.5690959936</v>
+        <v>-200126.3433719568</v>
       </c>
       <c r="D10" t="n">
-        <v>319157.2397499189</v>
+        <v>377562.8974163882</v>
       </c>
       <c r="E10" t="n">
-        <v>327793.8088459124</v>
+        <v>-232624.9459555685</v>
       </c>
     </row>
     <row r="11">
@@ -637,16 +637,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-101016</v>
+        <v>-376031.4999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>108585.3221855682</v>
+        <v>-184343.355635241</v>
       </c>
       <c r="D11" t="n">
-        <v>258871.0691619226</v>
+        <v>317276.726828392</v>
       </c>
       <c r="E11" t="n">
-        <v>266440.3913474908</v>
+        <v>-243098.1288068489</v>
       </c>
     </row>
     <row r="12">
@@ -654,16 +654,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-86986.00000000004</v>
+        <v>-342001.4999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>93488.07527514288</v>
+        <v>-168560.3678985251</v>
       </c>
       <c r="D12" t="n">
-        <v>205201.6308269705</v>
+        <v>263607.2884934399</v>
       </c>
       <c r="E12" t="n">
-        <v>211703.7061021134</v>
+        <v>-246954.5794050851</v>
       </c>
     </row>
     <row r="13">
@@ -671,16 +671,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-72956.00000000004</v>
+        <v>-307971.4999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>78390.82836471728</v>
+        <v>-152777.3801618093</v>
       </c>
       <c r="D13" t="n">
-        <v>158008.9430307159</v>
+        <v>216414.6006971853</v>
       </c>
       <c r="E13" t="n">
-        <v>163443.7713954332</v>
+        <v>-244334.2794646238</v>
       </c>
     </row>
     <row r="14">
@@ -688,16 +688,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-58926.00000000004</v>
+        <v>-273941.4999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>63293.58145429206</v>
+        <v>-136994.3924250935</v>
       </c>
       <c r="D14" t="n">
-        <v>116996.9274710647</v>
+        <v>175402.585137534</v>
       </c>
       <c r="E14" t="n">
-        <v>121364.5089253567</v>
+        <v>-235533.3072875593</v>
       </c>
     </row>
     <row r="15">
@@ -705,16 +705,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-44896.00000000004</v>
+        <v>-239911.4999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>48196.3345438666</v>
+        <v>-121211.4046883777</v>
       </c>
       <c r="D15" t="n">
-        <v>81750.3925347896</v>
+        <v>140156.050201259</v>
       </c>
       <c r="E15" t="n">
-        <v>85050.72707865617</v>
+        <v>-220966.8544871186</v>
       </c>
     </row>
     <row r="16">
@@ -722,16 +722,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-30866.00000000004</v>
+        <v>-205881.4999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>33099.08763344114</v>
+        <v>-105428.4169516618</v>
       </c>
       <c r="D16" t="n">
-        <v>51773.50421014686</v>
+        <v>110179.1618766162</v>
       </c>
       <c r="E16" t="n">
-        <v>54006.59184358796</v>
+        <v>-201130.7550750455</v>
       </c>
     </row>
     <row r="17">
@@ -739,16 +739,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-16836.00000000004</v>
+        <v>-171851.4999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>18001.84072301578</v>
+        <v>-89645.42921494605</v>
       </c>
       <c r="D17" t="n">
-        <v>26525.77216254635</v>
+        <v>84931.42982901572</v>
       </c>
       <c r="E17" t="n">
-        <v>27691.61288556208</v>
+        <v>-176565.4993859302</v>
       </c>
     </row>
     <row r="18">
@@ -756,16 +756,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-2806.00000000004</v>
+        <v>-137821.4999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>2904.593812590319</v>
+        <v>-73862.44147823015</v>
       </c>
       <c r="D18" t="n">
-        <v>5452.989775602291</v>
+        <v>63858.64744207166</v>
       </c>
       <c r="E18" t="n">
-        <v>5551.58358819257</v>
+        <v>-147825.2940361584</v>
       </c>
     </row>
     <row r="19">
@@ -773,16 +773,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>11223.99999999996</v>
+        <v>-103791.4999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>-12192.65309783502</v>
+        <v>-58079.45374151436</v>
       </c>
       <c r="D19" t="n">
-        <v>-11988.13708146731</v>
+        <v>46417.52058500206</v>
       </c>
       <c r="E19" t="n">
-        <v>-12956.79017930237</v>
+        <v>-115453.4331565122</v>
       </c>
     </row>
     <row r="20">
@@ -790,16 +790,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>25253.99999999996</v>
+        <v>-69761.4999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-27289.90000826048</v>
+        <v>-42296.46600479851</v>
       </c>
       <c r="D20" t="n">
-        <v>-26311.91155838279</v>
+        <v>32093.74610808658</v>
       </c>
       <c r="E20" t="n">
-        <v>-28347.81156664331</v>
+        <v>-79964.21989671183</v>
       </c>
     </row>
     <row r="21">
@@ -807,16 +807,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>39283.99999999996</v>
+        <v>-35731.49999999991</v>
       </c>
       <c r="C21" t="n">
-        <v>-42387.14691868596</v>
+        <v>-26513.47826808269</v>
       </c>
       <c r="D21" t="n">
-        <v>-37991.64860080257</v>
+        <v>20414.0090656668</v>
       </c>
       <c r="E21" t="n">
-        <v>-41094.79551948857</v>
+        <v>-41830.9692024158</v>
       </c>
     </row>
     <row r="22">
@@ -824,16 +824,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>53313.99999999996</v>
+        <v>-1701.499999999903</v>
       </c>
       <c r="C22" t="n">
-        <v>-57484.3938291113</v>
+        <v>-10730.49053136684</v>
       </c>
       <c r="D22" t="n">
-        <v>-47452.87861050946</v>
+        <v>10952.77905595991</v>
       </c>
       <c r="E22" t="n">
-        <v>-51623.2724396208</v>
+        <v>-1479.211475406841</v>
       </c>
     </row>
     <row r="23">
@@ -841,16 +841,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>67343.99999999996</v>
+        <v>32328.5000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>-72581.64073953676</v>
+        <v>5052.497205348947</v>
       </c>
       <c r="D23" t="n">
-        <v>-55070.69872387858</v>
+        <v>3334.958942590782</v>
       </c>
       <c r="E23" t="n">
-        <v>-60308.33946341538</v>
+        <v>40715.95614793983</v>
       </c>
     </row>
     <row r="24">
@@ -858,16 +858,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>81373.99999999996</v>
+        <v>66358.5000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>-87678.8876499621</v>
+        <v>20835.48494206485</v>
       </c>
       <c r="D24" t="n">
-        <v>-61170.21492560385</v>
+        <v>-2764.557259134481</v>
       </c>
       <c r="E24" t="n">
-        <v>-67475.10257556599</v>
+        <v>84429.42768293047</v>
       </c>
     </row>
     <row r="25">
@@ -875,16 +875,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>95403.99999999996</v>
+        <v>100388.5000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>-102776.1345603876</v>
+        <v>36618.47267878064</v>
       </c>
       <c r="D25" t="n">
-        <v>-66029.11967676695</v>
+        <v>-7623.462010297571</v>
       </c>
       <c r="E25" t="n">
-        <v>-73401.25423715454</v>
+        <v>129383.5106684832</v>
       </c>
     </row>
     <row r="26">
@@ -892,16 +892,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>109434</v>
+        <v>134418.5000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>-117873.381470813</v>
+        <v>52401.46041549646</v>
       </c>
       <c r="D26" t="n">
-        <v>-69881.60434061805</v>
+        <v>-11475.94667414868</v>
       </c>
       <c r="E26" t="n">
-        <v>-78320.98581143114</v>
+        <v>175344.0137413479</v>
       </c>
     </row>
     <row r="27">
@@ -909,16 +909,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>123464</v>
+        <v>168448.5000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>-132970.6283812384</v>
+        <v>68184.44815221231</v>
       </c>
       <c r="D27" t="n">
-        <v>-72922.97624334099</v>
+        <v>-14517.31857687163</v>
       </c>
       <c r="E27" t="n">
-        <v>-82429.60462457941</v>
+        <v>222115.6295753408</v>
       </c>
     </row>
   </sheetData>
@@ -972,16 +972,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-227286</v>
+        <v>-682301.4999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>245660.1937723249</v>
+        <v>-327631.9264318075</v>
       </c>
       <c r="D2" t="n">
-        <v>1006571.4152792</v>
+        <v>1064977.072945669</v>
       </c>
       <c r="E2" t="n">
-        <v>1024945.609051525</v>
+        <v>55043.64651386137</v>
       </c>
     </row>
     <row r="3">
@@ -989,16 +989,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-213256</v>
+        <v>-648271.4999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>230622.3334858446</v>
+        <v>-311911.0227533979</v>
       </c>
       <c r="D3" t="n">
-        <v>908268.8588069126</v>
+        <v>966674.516473382</v>
       </c>
       <c r="E3" t="n">
-        <v>925635.1922927571</v>
+        <v>6491.993719984195</v>
       </c>
     </row>
     <row r="4">
@@ -1006,16 +1006,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-199226</v>
+        <v>-614241.4999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>215584.4731993643</v>
+        <v>-296190.1190749883</v>
       </c>
       <c r="D4" t="n">
-        <v>811422.040793845</v>
+        <v>869827.6984603144</v>
       </c>
       <c r="E4" t="n">
-        <v>827780.5139932092</v>
+        <v>-40603.92061467376</v>
       </c>
     </row>
     <row r="5">
@@ -1023,16 +1023,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-185196</v>
+        <v>-580211.4999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>200546.6129128839</v>
+        <v>-280469.2153965787</v>
       </c>
       <c r="D5" t="n">
-        <v>716801.3755348432</v>
+        <v>775207.0332013126</v>
       </c>
       <c r="E5" t="n">
-        <v>732151.9884477271</v>
+        <v>-85473.68219526589</v>
       </c>
     </row>
     <row r="6">
@@ -1040,16 +1040,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-171166</v>
+        <v>-546181.4999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>185508.7526264035</v>
+        <v>-264748.3117181691</v>
       </c>
       <c r="D6" t="n">
-        <v>625321.5607429284</v>
+        <v>683727.2184093979</v>
       </c>
       <c r="E6" t="n">
-        <v>639664.3133693319</v>
+        <v>-127202.593308771</v>
       </c>
     </row>
     <row r="7">
@@ -1057,16 +1057,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-157136</v>
+        <v>-512151.4999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>170470.8923399233</v>
+        <v>-249027.4080397594</v>
       </c>
       <c r="D7" t="n">
-        <v>537969.0593595754</v>
+        <v>596374.7170260447</v>
       </c>
       <c r="E7" t="n">
-        <v>551303.9516994987</v>
+        <v>-164804.1910137146</v>
       </c>
     </row>
     <row r="8">
@@ -1074,16 +1074,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-143106</v>
+        <v>-478121.4999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>155433.032053443</v>
+        <v>-233306.5043613498</v>
       </c>
       <c r="D8" t="n">
-        <v>455709.6520532935</v>
+        <v>514115.3097197629</v>
       </c>
       <c r="E8" t="n">
-        <v>468036.6841067364</v>
+        <v>-197312.6946415867</v>
       </c>
     </row>
     <row r="9">
@@ -1091,16 +1091,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-129076</v>
+        <v>-444091.4999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>140395.1717669625</v>
+        <v>-217585.6006829402</v>
       </c>
       <c r="D9" t="n">
-        <v>379394.5266192176</v>
+        <v>437800.184285687</v>
       </c>
       <c r="E9" t="n">
-        <v>390713.69838618</v>
+        <v>-223876.9163972531</v>
       </c>
     </row>
     <row r="10">
@@ -1108,16 +1108,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-115046</v>
+        <v>-410061.4999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>125357.3114804822</v>
+        <v>-201864.6970045306</v>
       </c>
       <c r="D10" t="n">
-        <v>309682.4146104075</v>
+        <v>368088.0722768769</v>
       </c>
       <c r="E10" t="n">
-        <v>319993.7260908897</v>
+        <v>-243838.1247276536</v>
       </c>
     </row>
     <row r="11">
@@ -1125,16 +1125,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-101016</v>
+        <v>-376031.4999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>110319.4511940019</v>
+        <v>-186143.793326121</v>
       </c>
       <c r="D11" t="n">
-        <v>246989.7139295063</v>
+        <v>305395.3715959756</v>
       </c>
       <c r="E11" t="n">
-        <v>256293.1651235081</v>
+        <v>-256779.9217301452</v>
       </c>
     </row>
     <row r="12">
@@ -1142,16 +1142,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-86986.00000000004</v>
+        <v>-342001.4999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>95281.59090752155</v>
+        <v>-170422.8896477113</v>
       </c>
       <c r="D12" t="n">
-        <v>191472.9949746466</v>
+        <v>249878.652641116</v>
       </c>
       <c r="E12" t="n">
-        <v>199768.5858821681</v>
+        <v>-262545.7370065952</v>
       </c>
     </row>
     <row r="13">
@@ -1159,16 +1159,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-72956.00000000004</v>
+        <v>-307971.4999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>80243.73062104121</v>
+        <v>-154701.9859693017</v>
       </c>
       <c r="D13" t="n">
-        <v>143041.3580272408</v>
+        <v>201447.0156937102</v>
       </c>
       <c r="E13" t="n">
-        <v>150329.0886482819</v>
+        <v>-261226.4702755914</v>
       </c>
     </row>
     <row r="14">
@@ -1176,16 +1176,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-58926.00000000004</v>
+        <v>-273941.4999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>65205.87033456075</v>
+        <v>-138981.0822908921</v>
       </c>
       <c r="D14" t="n">
-        <v>101391.4225297711</v>
+        <v>159797.0801962404</v>
       </c>
       <c r="E14" t="n">
-        <v>107671.2928643318</v>
+        <v>-253125.5020946515</v>
       </c>
     </row>
     <row r="15">
@@ -1193,16 +1193,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-44896.00000000004</v>
+        <v>-239911.4999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>50168.01004808053</v>
+        <v>-123260.1786124824</v>
       </c>
       <c r="D15" t="n">
-        <v>66055.7583750987</v>
+        <v>124461.4160415681</v>
       </c>
       <c r="E15" t="n">
-        <v>71327.76842317919</v>
+        <v>-238710.2625709143</v>
       </c>
     </row>
     <row r="16">
@@ -1210,16 +1210,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-30866.00000000004</v>
+        <v>-205881.4999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>35130.14976160022</v>
+        <v>-107539.2749340728</v>
       </c>
       <c r="D16" t="n">
-        <v>36455.90584223037</v>
+        <v>94861.56350869974</v>
       </c>
       <c r="E16" t="n">
-        <v>40720.05560383055</v>
+        <v>-218559.211425373</v>
       </c>
     </row>
     <row r="17">
@@ -1227,16 +1227,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-16836.00000000004</v>
+        <v>-171851.4999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>20092.28947511976</v>
+        <v>-91818.37125566325</v>
       </c>
       <c r="D17" t="n">
-        <v>11952.93524839802</v>
+        <v>70358.59291486739</v>
       </c>
       <c r="E17" t="n">
-        <v>15209.22472351774</v>
+        <v>-193311.2783407958</v>
       </c>
     </row>
     <row r="18">
@@ -1244,16 +1244,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-2806.00000000004</v>
+        <v>-137821.4999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>5054.42918863942</v>
+        <v>-76097.46757725361</v>
       </c>
       <c r="D18" t="n">
-        <v>-8109.101989939814</v>
+        <v>50296.55567652956</v>
       </c>
       <c r="E18" t="n">
-        <v>-5860.672801300434</v>
+        <v>-163622.411900724</v>
       </c>
     </row>
     <row r="19">
@@ -1261,16 +1261,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>11223.99999999996</v>
+        <v>-103791.4999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>-9983.431097840803</v>
+        <v>-60376.56389884403</v>
       </c>
       <c r="D19" t="n">
-        <v>-24369.15059202896</v>
+        <v>34036.50707444041</v>
       </c>
       <c r="E19" t="n">
-        <v>-23128.5816898698</v>
+        <v>-130131.5568244035</v>
       </c>
     </row>
     <row r="20">
@@ -1278,16 +1278,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>25253.99999999996</v>
+        <v>-69761.4999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-25021.2913843212</v>
+        <v>-44655.66022043434</v>
       </c>
       <c r="D20" t="n">
-        <v>-37425.00849653627</v>
+        <v>20980.6491699331</v>
       </c>
       <c r="E20" t="n">
-        <v>-37192.29988085751</v>
+        <v>-93436.51105050114</v>
       </c>
     </row>
     <row r="21">
@@ -1295,16 +1295,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>39283.99999999996</v>
+        <v>-35731.49999999991</v>
       </c>
       <c r="C21" t="n">
-        <v>-40059.15167080154</v>
+        <v>-28934.7565420247</v>
       </c>
       <c r="D21" t="n">
-        <v>-47818.24722146868</v>
+        <v>10587.41044500069</v>
       </c>
       <c r="E21" t="n">
-        <v>-48593.39889227026</v>
+        <v>-54078.84609702391</v>
       </c>
     </row>
     <row r="22">
@@ -1312,16 +1312,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>53313.99999999996</v>
+        <v>-1701.499999999903</v>
       </c>
       <c r="C22" t="n">
-        <v>-55097.01195728188</v>
+        <v>-13213.85286361506</v>
       </c>
       <c r="D22" t="n">
-        <v>-56026.67986491055</v>
+        <v>2378.977801558824</v>
       </c>
       <c r="E22" t="n">
-        <v>-57809.69182219246</v>
+        <v>-12536.37506205614</v>
       </c>
     </row>
     <row r="23">
@@ -1329,16 +1329,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>67343.99999999996</v>
+        <v>32328.5000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>-70134.87224376219</v>
+        <v>2507.050814794493</v>
       </c>
       <c r="D23" t="n">
-        <v>-62462.6116262701</v>
+        <v>-4056.953959800735</v>
       </c>
       <c r="E23" t="n">
-        <v>-65253.48387003234</v>
+        <v>30778.59685499386</v>
       </c>
     </row>
     <row r="24">
@@ -1346,16 +1346,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>81373.99999999996</v>
+        <v>66358.5000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>-85172.73253024253</v>
+        <v>18227.95449320413</v>
       </c>
       <c r="D24" t="n">
-        <v>-67475.16304705206</v>
+        <v>-9069.505380582692</v>
       </c>
       <c r="E24" t="n">
-        <v>-71273.89557729464</v>
+        <v>75516.94911262154</v>
       </c>
     </row>
     <row r="25">
@@ -1363,16 +1363,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>95403.99999999996</v>
+        <v>100388.5000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>-100210.5928167229</v>
+        <v>33948.85817161377</v>
       </c>
       <c r="D25" t="n">
-        <v>-71355.18478089471</v>
+        <v>-12949.52711442534</v>
       </c>
       <c r="E25" t="n">
-        <v>-76161.77759761762</v>
+        <v>121387.8310571885</v>
       </c>
     </row>
     <row r="26">
@@ -1380,16 +1380,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>109434</v>
+        <v>134418.5000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>-115248.4531032033</v>
+        <v>49669.76185002335</v>
       </c>
       <c r="D26" t="n">
-        <v>-74341.58370517268</v>
+        <v>-15935.92603870332</v>
       </c>
       <c r="E26" t="n">
-        <v>-80156.03680837605</v>
+        <v>168152.3358113201</v>
       </c>
     </row>
     <row r="27">
@@ -1397,16 +1397,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>123464</v>
+        <v>168448.5000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>-130286.3133896835</v>
+        <v>65390.66552843302</v>
       </c>
       <c r="D27" t="n">
-        <v>-76628.18630993746</v>
+        <v>-18222.52864346809</v>
       </c>
       <c r="E27" t="n">
-        <v>-83450.49969962102</v>
+        <v>215616.636884965</v>
       </c>
     </row>
   </sheetData>
@@ -1460,16 +1460,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-227286</v>
+        <v>-682301.4999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>246816.651540201</v>
+        <v>-328828.902680247</v>
       </c>
       <c r="D2" t="n">
-        <v>1017736.143391909</v>
+        <v>1076141.801058378</v>
       </c>
       <c r="E2" t="n">
-        <v>1037266.79493211</v>
+        <v>65011.39837813145</v>
       </c>
     </row>
     <row r="3">
@@ -1477,16 +1477,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-213256</v>
+        <v>-648271.4999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>231836.0397489677</v>
+        <v>-313167.8478142594</v>
       </c>
       <c r="D3" t="n">
-        <v>918510.0863406502</v>
+        <v>976915.7440071194</v>
       </c>
       <c r="E3" t="n">
-        <v>937090.1260896178</v>
+        <v>15476.39619286021</v>
       </c>
     </row>
     <row r="4">
@@ -1494,16 +1494,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-199226</v>
+        <v>-614241.4999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>216855.4279577346</v>
+        <v>-297506.7929482717</v>
       </c>
       <c r="D4" t="n">
-        <v>820184.2869482456</v>
+        <v>878589.9446147149</v>
       </c>
       <c r="E4" t="n">
-        <v>837813.7149059802</v>
+        <v>-33158.34833355667</v>
       </c>
     </row>
     <row r="5">
@@ -1511,16 +1511,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-185196</v>
+        <v>-580211.4999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>201874.8161665013</v>
+        <v>-281845.738082284</v>
       </c>
       <c r="D5" t="n">
-        <v>723434.6868367125</v>
+        <v>781840.344503182</v>
       </c>
       <c r="E5" t="n">
-        <v>740113.5030032138</v>
+        <v>-80216.89357910189</v>
       </c>
     </row>
     <row r="6">
@@ -1528,16 +1528,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-171166</v>
+        <v>-546181.4999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>186894.2043752681</v>
+        <v>-266184.6832162964</v>
       </c>
       <c r="D6" t="n">
-        <v>629174.8169644296</v>
+        <v>687580.474630899</v>
       </c>
       <c r="E6" t="n">
-        <v>644903.0213396976</v>
+        <v>-124785.7085853972</v>
       </c>
     </row>
     <row r="7">
@@ -1545,16 +1545,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-157136</v>
+        <v>-512151.4999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>171913.5925840348</v>
+        <v>-250523.6283503087</v>
       </c>
       <c r="D7" t="n">
-        <v>538505.0235912412</v>
+        <v>596910.6812577106</v>
       </c>
       <c r="E7" t="n">
-        <v>553282.616175276</v>
+        <v>-165764.4470925981</v>
       </c>
     </row>
     <row r="8">
@@ -1562,16 +1562,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-143106</v>
+        <v>-478121.4999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>156932.9807928015</v>
+        <v>-234862.5734843211</v>
       </c>
       <c r="D8" t="n">
-        <v>452610.109662016</v>
+        <v>511015.7673284855</v>
       </c>
       <c r="E8" t="n">
-        <v>466437.0904548175</v>
+        <v>-201968.3061558355</v>
       </c>
     </row>
     <row r="9">
@@ -1579,16 +1579,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-129076</v>
+        <v>-444091.4999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>141952.3690015683</v>
+        <v>-219201.5186183334</v>
       </c>
       <c r="D9" t="n">
-        <v>372626.6607732512</v>
+        <v>431032.3184397205</v>
       </c>
       <c r="E9" t="n">
-        <v>385503.0297748194</v>
+        <v>-232260.7001786127</v>
       </c>
     </row>
     <row r="10">
@@ -1596,16 +1596,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-115046</v>
+        <v>-410061.4999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>126971.757210335</v>
+        <v>-203540.4637523457</v>
       </c>
       <c r="D10" t="n">
-        <v>299510.9159364512</v>
+        <v>357916.5736029205</v>
       </c>
       <c r="E10" t="n">
-        <v>311436.6731467861</v>
+        <v>-255685.3901494251</v>
       </c>
     </row>
     <row r="11">
@@ -1613,16 +1613,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-101016</v>
+        <v>-376031.4999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>111991.1454191018</v>
+        <v>-187879.4088863581</v>
       </c>
       <c r="D11" t="n">
-        <v>233936.126017454</v>
+        <v>292341.7836839233</v>
       </c>
       <c r="E11" t="n">
-        <v>244911.2714365557</v>
+        <v>-271569.1252024346</v>
       </c>
     </row>
     <row r="12">
@@ -1630,16 +1630,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-86986.00000000004</v>
+        <v>-342001.4999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>97010.53362786851</v>
+        <v>-172218.3540203705</v>
       </c>
       <c r="D12" t="n">
-        <v>176237.4226862635</v>
+        <v>234643.0803527329</v>
       </c>
       <c r="E12" t="n">
-        <v>186261.956314132</v>
+        <v>-279576.7736676374</v>
       </c>
     </row>
     <row r="13">
@@ -1647,16 +1647,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-72956.00000000004</v>
+        <v>-307971.4999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>82029.92183663519</v>
+        <v>-156557.2991543828</v>
       </c>
       <c r="D13" t="n">
-        <v>126407.982424351</v>
+        <v>184813.6400908204</v>
       </c>
       <c r="E13" t="n">
-        <v>135481.9042609861</v>
+        <v>-279715.1590635623</v>
       </c>
     </row>
     <row r="14">
@@ -1664,16 +1664,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-58926.00000000004</v>
+        <v>-273941.4999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>67049.31004540197</v>
+        <v>-140896.2442883952</v>
       </c>
       <c r="D14" t="n">
-        <v>84138.1820725275</v>
+        <v>142543.8397389969</v>
       </c>
       <c r="E14" t="n">
-        <v>92261.49211792945</v>
+        <v>-272293.9045493982</v>
       </c>
     </row>
     <row r="15">
@@ -1681,16 +1681,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-44896.00000000004</v>
+        <v>-239911.4999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>52068.69825416862</v>
+        <v>-125235.1894224075</v>
       </c>
       <c r="D15" t="n">
-        <v>48882.57990925653</v>
+        <v>107288.2375757259</v>
       </c>
       <c r="E15" t="n">
-        <v>56055.27816342511</v>
+        <v>-257858.4518466815</v>
       </c>
     </row>
     <row r="16">
@@ -1698,16 +1698,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-30866.00000000004</v>
+        <v>-205881.4999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>37088.08646293543</v>
+        <v>-109574.1345564198</v>
       </c>
       <c r="D16" t="n">
-        <v>19938.24954188623</v>
+        <v>78343.90720835559</v>
       </c>
       <c r="E16" t="n">
-        <v>26160.33600482162</v>
+        <v>-237111.7273480641</v>
       </c>
     </row>
     <row r="17">
@@ -1715,16 +1715,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-16836.00000000004</v>
+        <v>-171851.4999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>22107.47467170219</v>
+        <v>-93913.07969043223</v>
       </c>
       <c r="D17" t="n">
-        <v>-3479.270802291934</v>
+        <v>54926.38686417744</v>
       </c>
       <c r="E17" t="n">
-        <v>1792.203869410218</v>
+        <v>-210838.1928262547</v>
       </c>
     </row>
     <row r="18">
@@ -1732,16 +1732,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-2806.00000000004</v>
+        <v>-137821.4999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>7126.862880469009</v>
+        <v>-78252.02482444455</v>
       </c>
       <c r="D18" t="n">
-        <v>-22171.49581451991</v>
+        <v>36234.16185194945</v>
       </c>
       <c r="E18" t="n">
-        <v>-17850.63293405094</v>
+        <v>-179839.362972495</v>
       </c>
     </row>
     <row r="19">
@@ -1749,16 +1749,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>11223.99999999996</v>
+        <v>-103791.4999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>-7853.748910764349</v>
+        <v>-62590.96995845687</v>
       </c>
       <c r="D19" t="n">
-        <v>-36908.29233475641</v>
+        <v>21497.36533171296</v>
       </c>
       <c r="E19" t="n">
-        <v>-33538.0412455208</v>
+        <v>-144885.1046267438</v>
       </c>
     </row>
     <row r="20">
@@ -1766,16 +1766,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>25253.99999999996</v>
+        <v>-69761.4999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-22834.36070199756</v>
+        <v>-46929.91509246922</v>
       </c>
       <c r="D20" t="n">
-        <v>-48395.48550451356</v>
+        <v>10010.17216195581</v>
       </c>
       <c r="E20" t="n">
-        <v>-45975.84620651117</v>
+        <v>-106681.2429305133</v>
       </c>
     </row>
     <row r="21">
@@ -1783,16 +1783,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>39283.99999999996</v>
+        <v>-35731.49999999991</v>
       </c>
       <c r="C21" t="n">
-        <v>-37814.97249323077</v>
+        <v>-31268.86022648157</v>
       </c>
       <c r="D21" t="n">
-        <v>-57256.87055982157</v>
+        <v>1148.787106647797</v>
       </c>
       <c r="E21" t="n">
-        <v>-55787.84305305238</v>
+        <v>-65851.57311983369</v>
       </c>
     </row>
     <row r="22">
@@ -1800,16 +1800,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>53313.99999999996</v>
+        <v>-1701.499999999903</v>
       </c>
       <c r="C22" t="n">
-        <v>-52795.58428446413</v>
+        <v>-15607.80536049401</v>
       </c>
       <c r="D22" t="n">
-        <v>-64027.56723877395</v>
+        <v>-5621.909572304578</v>
       </c>
       <c r="E22" t="n">
-        <v>-63509.15152323811</v>
+        <v>-22931.21493279849</v>
       </c>
     </row>
     <row r="23">
@@ -1817,16 +1817,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>67343.99999999996</v>
+        <v>32328.5000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>-67776.19607569734</v>
+        <v>53.2495054937026</v>
       </c>
       <c r="D23" t="n">
-        <v>-69155.42724770385</v>
+        <v>-10749.76958123448</v>
       </c>
       <c r="E23" t="n">
-        <v>-69587.62332340123</v>
+        <v>21631.97992425932</v>
       </c>
     </row>
     <row r="24">
@@ -1834,16 +1834,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>81373.99999999996</v>
+        <v>66358.5000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>-82756.80786693055</v>
+        <v>15714.30437148135</v>
       </c>
       <c r="D24" t="n">
-        <v>-73007.54328679935</v>
+        <v>-14601.88562032998</v>
       </c>
       <c r="E24" t="n">
-        <v>-74390.35115372995</v>
+        <v>67470.91875115148</v>
       </c>
     </row>
     <row r="25">
@@ -1851,16 +1851,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>95403.99999999996</v>
+        <v>100388.5000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>-97737.41965816388</v>
+        <v>31375.35923746901</v>
       </c>
       <c r="D25" t="n">
-        <v>-75879.503588826</v>
+        <v>-17473.84592235662</v>
       </c>
       <c r="E25" t="n">
-        <v>-78212.92324698993</v>
+        <v>114290.0133151125</v>
       </c>
     </row>
     <row r="26">
@@ -1868,16 +1868,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>109434</v>
+        <v>134418.5000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>-112718.0314493971</v>
+        <v>47036.41410345669</v>
       </c>
       <c r="D26" t="n">
-        <v>-78005.68000683089</v>
+        <v>-19600.02234036152</v>
       </c>
       <c r="E26" t="n">
-        <v>-81289.71145622806</v>
+        <v>161854.8917630952</v>
       </c>
     </row>
     <row r="27">
@@ -1885,16 +1885,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>123464</v>
+        <v>168448.5000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>-127698.6432406303</v>
+        <v>62697.46896944431</v>
       </c>
       <c r="D27" t="n">
-        <v>-79569.41351937193</v>
+        <v>-21163.75585290256</v>
       </c>
       <c r="E27" t="n">
-        <v>-83804.05676000228</v>
+        <v>209982.2131165419</v>
       </c>
     </row>
   </sheetData>
@@ -1948,16 +1948,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-227286</v>
+        <v>-682301.4999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>247431.6277805321</v>
+        <v>-329465.4256674917</v>
       </c>
       <c r="D2" t="n">
-        <v>1023937.900163858</v>
+        <v>1082343.557830328</v>
       </c>
       <c r="E2" t="n">
-        <v>1044083.52794439</v>
+        <v>70576.63216283603</v>
       </c>
     </row>
     <row r="3">
@@ -1965,16 +1965,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-213256</v>
+        <v>-648271.4999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>232481.4593529475</v>
+        <v>-313836.1969508663</v>
       </c>
       <c r="D3" t="n">
-        <v>924361.7880766457</v>
+        <v>982767.4457431152</v>
       </c>
       <c r="E3" t="n">
-        <v>943587.2474295931</v>
+        <v>20659.74879224901</v>
       </c>
     </row>
     <row r="4">
@@ -1982,16 +1982,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-199226</v>
+        <v>-614241.4999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>217531.2909253628</v>
+        <v>-298206.9682342409</v>
       </c>
       <c r="D4" t="n">
-        <v>825393.6889357831</v>
+        <v>883799.3466022525</v>
       </c>
       <c r="E4" t="n">
-        <v>843698.9798611458</v>
+        <v>-28649.12163198832</v>
       </c>
     </row>
     <row r="5">
@@ -1999,16 +1999,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-185196</v>
+        <v>-580211.4999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>202581.1224977781</v>
+        <v>-282577.7395176155</v>
       </c>
       <c r="D5" t="n">
-        <v>727609.4699431146</v>
+        <v>786015.127609584</v>
       </c>
       <c r="E5" t="n">
-        <v>744994.5924408926</v>
+        <v>-76774.11190803139</v>
       </c>
     </row>
     <row r="6">
@@ -2016,16 +2016,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-171166</v>
+        <v>-546181.4999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>187630.9540701934</v>
+        <v>-266948.5108009901</v>
       </c>
       <c r="D6" t="n">
-        <v>631869.4830555182</v>
+        <v>690275.1407219876</v>
       </c>
       <c r="E6" t="n">
-        <v>648334.4371257116</v>
+        <v>-122854.8700790025</v>
       </c>
     </row>
     <row r="7">
@@ -2033,16 +2033,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-157136</v>
+        <v>-512151.4999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>172680.7856426087</v>
+        <v>-251319.2820843646</v>
       </c>
       <c r="D7" t="n">
-        <v>539301.5731746831</v>
+        <v>597707.2308411525</v>
       </c>
       <c r="E7" t="n">
-        <v>554846.3588172919</v>
+        <v>-165763.5512432121</v>
       </c>
     </row>
     <row r="8">
@@ -2050,16 +2050,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-143106</v>
+        <v>-478121.4999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>157730.617215024</v>
+        <v>-235690.0533677392</v>
       </c>
       <c r="D8" t="n">
-        <v>451209.7052153799</v>
+        <v>509615.3628818494</v>
       </c>
       <c r="E8" t="n">
-        <v>465834.322430404</v>
+        <v>-204196.1904858897</v>
       </c>
     </row>
     <row r="9">
@@ -2067,16 +2067,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-129076</v>
+        <v>-444091.4999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>142780.4487874394</v>
+        <v>-220060.8246511138</v>
       </c>
       <c r="D9" t="n">
-        <v>368922.5259457057</v>
+        <v>427328.1836121751</v>
       </c>
       <c r="E9" t="n">
-        <v>382626.974733145</v>
+        <v>-236824.1410389387</v>
       </c>
     </row>
     <row r="10">
@@ -2084,16 +2084,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-115046</v>
+        <v>-410061.4999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>127830.2803598547</v>
+        <v>-204431.5959344884</v>
       </c>
       <c r="D10" t="n">
-        <v>293619.483976496</v>
+        <v>352025.1416429654</v>
       </c>
       <c r="E10" t="n">
-        <v>306403.7643363506</v>
+        <v>-262467.954291523</v>
       </c>
     </row>
     <row r="11">
@@ -2101,16 +2101,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-101016</v>
+        <v>-376031.4999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>112880.11193227</v>
+        <v>-188802.3672178629</v>
       </c>
       <c r="D11" t="n">
-        <v>226179.4095667831</v>
+        <v>284585.0672332525</v>
       </c>
       <c r="E11" t="n">
-        <v>238043.5214990531</v>
+        <v>-280248.7999846104</v>
       </c>
     </row>
     <row r="12">
@@ -2118,16 +2118,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-86986.00000000004</v>
+        <v>-342001.4999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>97929.94350468533</v>
+        <v>-173173.1385012376</v>
       </c>
       <c r="D12" t="n">
-        <v>167086.0921361019</v>
+        <v>225491.7498025713</v>
       </c>
       <c r="E12" t="n">
-        <v>178030.0356407872</v>
+        <v>-289682.8886986662</v>
       </c>
     </row>
     <row r="13">
@@ -2135,16 +2135,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-72956.00000000004</v>
+        <v>-307971.4999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>82979.77507710064</v>
+        <v>-157543.9097846122</v>
       </c>
       <c r="D13" t="n">
-        <v>116404.6566319363</v>
+        <v>174810.3142984057</v>
       </c>
       <c r="E13" t="n">
-        <v>126428.4317090369</v>
+        <v>-290705.0954862064</v>
       </c>
     </row>
     <row r="14">
@@ -2152,16 +2152,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-58926.00000000004</v>
+        <v>-273941.4999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>68029.60664951598</v>
+        <v>-141914.6810679868</v>
       </c>
       <c r="D14" t="n">
-        <v>73821.66478523496</v>
+        <v>132227.3224517043</v>
       </c>
       <c r="E14" t="n">
-        <v>82925.2714347509</v>
+        <v>-283628.8586162823</v>
       </c>
     </row>
     <row r="15">
@@ -2169,16 +2169,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-44896.00000000004</v>
+        <v>-239911.4999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>53079.43822193131</v>
+        <v>-126285.4523513613</v>
       </c>
       <c r="D15" t="n">
-        <v>38728.29488613174</v>
+        <v>97133.95255260111</v>
       </c>
       <c r="E15" t="n">
-        <v>46911.73310806302</v>
+        <v>-269062.9997987601</v>
       </c>
     </row>
     <row r="16">
@@ -2186,16 +2186,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-30866.00000000004</v>
+        <v>-205881.4999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>38129.26979434662</v>
+        <v>-110656.2236347359</v>
       </c>
       <c r="D16" t="n">
-        <v>10321.94021063506</v>
+        <v>68727.59787710443</v>
       </c>
       <c r="E16" t="n">
-        <v>17585.21000498164</v>
+        <v>-247810.1257576314</v>
       </c>
     </row>
     <row r="17">
@@ -2203,16 +2203,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-16836.00000000004</v>
+        <v>-171851.4999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>23179.10136676193</v>
+        <v>-95026.99491811046</v>
       </c>
       <c r="D17" t="n">
-        <v>-12294.8696775274</v>
+        <v>46110.78798894197</v>
       </c>
       <c r="E17" t="n">
-        <v>-5951.76831076551</v>
+        <v>-220767.7069291684</v>
       </c>
     </row>
     <row r="18">
@@ -2220,16 +2220,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-2806.00000000004</v>
+        <v>-137821.4999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>8228.932939177263</v>
+        <v>-79397.76620148512</v>
       </c>
       <c r="D18" t="n">
-        <v>-30031.96360810148</v>
+        <v>28373.69405836789</v>
       </c>
       <c r="E18" t="n">
-        <v>-24609.03066892425</v>
+        <v>-188845.5721431171</v>
       </c>
     </row>
     <row r="19">
@@ -2237,16 +2237,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>11223.99999999996</v>
+        <v>-103791.4999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>-6721.23548840743</v>
+        <v>-63768.5374848597</v>
       </c>
       <c r="D19" t="n">
-        <v>-43751.48193994788</v>
+        <v>14654.17572652149</v>
       </c>
       <c r="E19" t="n">
-        <v>-39248.71742835535</v>
+        <v>-152905.8617583381</v>
       </c>
     </row>
     <row r="20">
@@ -2254,16 +2254,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>25253.99999999996</v>
+        <v>-69761.4999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-21671.40391599212</v>
+        <v>-48139.30876823427</v>
       </c>
       <c r="D20" t="n">
-        <v>-54230.37663230136</v>
+        <v>4175.281034168022</v>
       </c>
       <c r="E20" t="n">
-        <v>-50647.78054829352</v>
+        <v>-113725.5277340662</v>
       </c>
     </row>
     <row r="21">
@@ -2271,16 +2271,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>39283.99999999996</v>
+        <v>-35731.49999999991</v>
       </c>
       <c r="C21" t="n">
-        <v>-36621.57234357679</v>
+        <v>-32510.08005160882</v>
       </c>
       <c r="D21" t="n">
-        <v>-62142.00136486094</v>
+        <v>-3736.34369839157</v>
       </c>
       <c r="E21" t="n">
-        <v>-59479.57370843776</v>
+        <v>-71977.92375000031</v>
       </c>
     </row>
     <row r="22">
@@ -2288,16 +2288,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>53313.99999999996</v>
+        <v>-1701.499999999903</v>
       </c>
       <c r="C22" t="n">
-        <v>-51571.74077116148</v>
+        <v>-16880.85133498345</v>
       </c>
       <c r="D22" t="n">
-        <v>-68051.91948684736</v>
+        <v>-9646.261820377993</v>
       </c>
       <c r="E22" t="n">
-        <v>-66309.66025800887</v>
+        <v>-28228.61315536135</v>
       </c>
     </row>
     <row r="23">
@@ -2305,16 +2305,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>67343.99999999996</v>
+        <v>32328.5000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>-66521.90919874614</v>
+        <v>-1251.622618358</v>
       </c>
       <c r="D23" t="n">
-        <v>-72423.09440170767</v>
+        <v>-14017.43673523831</v>
       </c>
       <c r="E23" t="n">
-        <v>-71601.00360045386</v>
+        <v>17059.44064640379</v>
       </c>
     </row>
     <row r="24">
@@ -2322,16 +2322,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>81373.99999999996</v>
+        <v>66358.5000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>-81472.07762633081</v>
+        <v>14377.6060982674</v>
       </c>
       <c r="D24" t="n">
-        <v>-75626.42700382293</v>
+        <v>-17220.76933735355</v>
       </c>
       <c r="E24" t="n">
-        <v>-75724.50463015378</v>
+        <v>63515.33676091394</v>
       </c>
     </row>
     <row r="25">
@@ -2339,16 +2339,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>95403.99999999996</v>
+        <v>100388.5000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>-96422.24605391553</v>
+        <v>30006.83481489279</v>
       </c>
       <c r="D25" t="n">
-        <v>-77953.65348156281</v>
+        <v>-19547.99581509344</v>
       </c>
       <c r="E25" t="n">
-        <v>-78971.89953547838</v>
+        <v>110847.3389997995</v>
       </c>
     </row>
     <row r="26">
@@ -2356,16 +2356,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>109434</v>
+        <v>134418.5000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>-111372.4144815002</v>
+        <v>45636.06353151819</v>
       </c>
       <c r="D26" t="n">
-        <v>-79630.60961265847</v>
+        <v>-21224.9519461891</v>
       </c>
       <c r="E26" t="n">
-        <v>-81569.02409415871</v>
+        <v>158829.6115853292</v>
       </c>
     </row>
     <row r="27">
@@ -2373,16 +2373,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>123464</v>
+        <v>168448.5000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>-126322.5829090849</v>
+        <v>61265.29224814364</v>
       </c>
       <c r="D27" t="n">
-        <v>-80829.66888743833</v>
+        <v>-22424.01122096897</v>
       </c>
       <c r="E27" t="n">
-        <v>-83688.25179652323</v>
+        <v>207289.7810271748</v>
       </c>
     </row>
   </sheetData>
@@ -2436,16 +2436,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-227286</v>
+        <v>-682301.4999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>247393.2284055154</v>
+        <v>-329425.6809045382</v>
       </c>
       <c r="D2" t="n">
-        <v>1023545.930135934</v>
+        <v>1081951.587802404</v>
       </c>
       <c r="E2" t="n">
-        <v>1043653.158541449</v>
+        <v>70224.40689786547</v>
       </c>
     </row>
     <row r="3">
@@ -2453,16 +2453,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-213256</v>
+        <v>-648271.4999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>232441.1590815043</v>
+        <v>-313794.4649497651</v>
       </c>
       <c r="D3" t="n">
-        <v>923988.4376951717</v>
+        <v>982394.0953616411</v>
       </c>
       <c r="E3" t="n">
-        <v>943173.5967766759</v>
+        <v>20328.13041187613</v>
       </c>
     </row>
     <row r="4">
@@ -2470,16 +2470,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-199226</v>
+        <v>-614241.4999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>217489.0897574933</v>
+        <v>-298163.2489949921</v>
       </c>
       <c r="D4" t="n">
-        <v>825056.6113647457</v>
+        <v>883462.269031215</v>
       </c>
       <c r="E4" t="n">
-        <v>843319.701122239</v>
+        <v>-28942.47996377689</v>
       </c>
     </row>
     <row r="5">
@@ -2487,16 +2487,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-185196</v>
+        <v>-580211.4999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>202537.0204334823</v>
+        <v>-282532.033040219</v>
       </c>
       <c r="D5" t="n">
-        <v>727333.7618672037</v>
+        <v>785739.4195336731</v>
       </c>
       <c r="E5" t="n">
-        <v>744674.782300686</v>
+        <v>-77004.11350654578</v>
       </c>
     </row>
     <row r="6">
@@ -2504,16 +2504,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-171166</v>
+        <v>-546181.4999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>187584.9511094713</v>
+        <v>-266900.8170854459</v>
       </c>
       <c r="D6" t="n">
-        <v>631685.1110394243</v>
+        <v>690090.7687058938</v>
       </c>
       <c r="E6" t="n">
-        <v>648104.0621488956</v>
+        <v>-122991.548379552</v>
       </c>
     </row>
     <row r="7">
@@ -2521,16 +2521,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-157136</v>
+        <v>-512151.4999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>172632.8817854604</v>
+        <v>-251269.6011306728</v>
       </c>
       <c r="D7" t="n">
-        <v>539238.0238367026</v>
+        <v>597643.681503172</v>
       </c>
       <c r="E7" t="n">
-        <v>554734.9056221629</v>
+        <v>-165777.4196275006</v>
       </c>
     </row>
     <row r="8">
@@ -2538,16 +2538,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-143106</v>
+        <v>-478121.4999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>157680.8124614494</v>
+        <v>-235638.3851758997</v>
       </c>
       <c r="D8" t="n">
-        <v>451289.3140874085</v>
+        <v>509694.9717538779</v>
       </c>
       <c r="E8" t="n">
-        <v>465864.1265488578</v>
+        <v>-204064.9134220217</v>
       </c>
     </row>
     <row r="9">
@@ -2555,16 +2555,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-129076</v>
+        <v>-444091.4999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>142728.7431374385</v>
+        <v>-220007.1692211266</v>
       </c>
       <c r="D9" t="n">
-        <v>369154.7453148118</v>
+        <v>427560.4029812812</v>
       </c>
       <c r="E9" t="n">
-        <v>382807.4884522502</v>
+        <v>-236538.2662398453</v>
       </c>
     </row>
     <row r="10">
@@ -2572,16 +2572,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-115046</v>
+        <v>-410061.4999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>127776.6738134273</v>
+        <v>-204375.9532663535</v>
       </c>
       <c r="D10" t="n">
-        <v>293998.0499332877</v>
+        <v>352403.7075997571</v>
       </c>
       <c r="E10" t="n">
-        <v>306728.723746715</v>
+        <v>-262033.7456665962</v>
       </c>
     </row>
     <row r="11">
@@ -2589,16 +2589,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-101016</v>
+        <v>-376031.4999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>112824.6044894164</v>
+        <v>-188744.7373115804</v>
       </c>
       <c r="D11" t="n">
-        <v>226683.1923494376</v>
+        <v>285088.850015907</v>
       </c>
       <c r="E11" t="n">
-        <v>238491.796838854</v>
+        <v>-279687.3872956734</v>
       </c>
     </row>
     <row r="12">
@@ -2606,16 +2606,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-86986.00000000004</v>
+        <v>-342001.4999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>97872.53516540537</v>
+        <v>-173113.5213568074</v>
       </c>
       <c r="D12" t="n">
-        <v>167683.0543518554</v>
+        <v>226088.7120183248</v>
       </c>
       <c r="E12" t="n">
-        <v>178569.5895172607</v>
+        <v>-289026.3093384825</v>
       </c>
     </row>
     <row r="13">
@@ -2623,16 +2623,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-72956.00000000004</v>
+        <v>-307971.4999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>82920.46584139438</v>
+        <v>-157482.3054020343</v>
       </c>
       <c r="D13" t="n">
-        <v>117057.44940583</v>
+        <v>175463.1070722993</v>
       </c>
       <c r="E13" t="n">
-        <v>127021.9152472243</v>
+        <v>-289990.6983297348</v>
       </c>
     </row>
     <row r="14">
@@ -2640,16 +2640,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-58926.00000000004</v>
+        <v>-273941.4999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>67968.3965173834</v>
+        <v>-141851.0894472612</v>
       </c>
       <c r="D14" t="n">
-        <v>74493.22303555923</v>
+        <v>132898.8807020286</v>
       </c>
       <c r="E14" t="n">
-        <v>83535.6195529426</v>
+        <v>-282893.7087452324</v>
       </c>
     </row>
     <row r="15">
@@ -2657,16 +2657,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-44896.00000000004</v>
+        <v>-239911.4999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>53016.32719337242</v>
+        <v>-126219.8734924881</v>
       </c>
       <c r="D15" t="n">
-        <v>39386.20899022376</v>
+        <v>97791.86665669312</v>
       </c>
       <c r="E15" t="n">
-        <v>47506.53618359614</v>
+        <v>-268339.5068357948</v>
       </c>
     </row>
     <row r="16">
@@ -2674,16 +2674,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-30866.00000000004</v>
+        <v>-205881.4999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>38064.25786936141</v>
+        <v>-110588.657537715</v>
       </c>
       <c r="D16" t="n">
-        <v>10941.0446954727</v>
+        <v>69346.70236194207</v>
       </c>
       <c r="E16" t="n">
-        <v>18139.30256483407</v>
+        <v>-247123.4551757728</v>
       </c>
     </row>
     <row r="17">
@@ -2691,16 +2691,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-16836.00000000004</v>
+        <v>-171851.4999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>23112.18854535045</v>
+        <v>-94957.44158294186</v>
       </c>
       <c r="D17" t="n">
-        <v>-11731.64996000349</v>
+        <v>46674.00770646588</v>
       </c>
       <c r="E17" t="n">
-        <v>-5455.461414653077</v>
+        <v>-220134.9338764759</v>
       </c>
     </row>
     <row r="18">
@@ -2708,16 +2708,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-2806.00000000004</v>
+        <v>-137821.4999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>8160.119221339468</v>
+        <v>-79326.22562816873</v>
       </c>
       <c r="D18" t="n">
-        <v>-29534.0986876844</v>
+        <v>28871.55897878497</v>
       </c>
       <c r="E18" t="n">
-        <v>-24179.97946634497</v>
+        <v>-188276.1666493837</v>
       </c>
     </row>
     <row r="19">
@@ -2725,16 +2725,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>11223.99999999996</v>
+        <v>-103791.4999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>-6791.950102671544</v>
+        <v>-63695.00967339575</v>
       </c>
       <c r="D19" t="n">
-        <v>-43322.11838447956</v>
+        <v>15083.53928198981</v>
       </c>
       <c r="E19" t="n">
-        <v>-38890.06848715115</v>
+        <v>-152402.9703914059</v>
       </c>
     </row>
     <row r="20">
@@ -2742,16 +2742,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>25253.99999999996</v>
+        <v>-69761.4999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-21744.01942668264</v>
+        <v>-48063.79371862262</v>
       </c>
       <c r="D20" t="n">
-        <v>-53867.93360639428</v>
+        <v>4537.724060075087</v>
       </c>
       <c r="E20" t="n">
-        <v>-50357.95303307696</v>
+        <v>-113287.5696585474</v>
       </c>
     </row>
     <row r="21">
@@ -2759,16 +2759,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>39283.99999999996</v>
+        <v>-35731.49999999991</v>
       </c>
       <c r="C21" t="n">
-        <v>-36696.08875069348</v>
+        <v>-32432.57776384952</v>
       </c>
       <c r="D21" t="n">
-        <v>-61841.73629725033</v>
+        <v>-3436.078630780969</v>
       </c>
       <c r="E21" t="n">
-        <v>-59253.82504794385</v>
+        <v>-71600.15639463041</v>
       </c>
     </row>
     <row r="22">
@@ -2776,16 +2776,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>53313.99999999996</v>
+        <v>-1701.499999999903</v>
       </c>
       <c r="C22" t="n">
-        <v>-51648.15807470461</v>
+        <v>-16801.36180907642</v>
       </c>
       <c r="D22" t="n">
-        <v>-67807.26712931755</v>
+        <v>-9401.609462848177</v>
       </c>
       <c r="E22" t="n">
-        <v>-66141.42520402221</v>
+        <v>-27904.4712719245</v>
       </c>
     </row>
     <row r="23">
@@ -2793,16 +2793,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>67343.99999999996</v>
+        <v>32328.5000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>-66600.22739871548</v>
+        <v>-1170.145854303351</v>
       </c>
       <c r="D23" t="n">
-        <v>-72226.70257312102</v>
+        <v>-13821.04490665165</v>
       </c>
       <c r="E23" t="n">
-        <v>-71482.92997183654</v>
+        <v>17337.3092390451</v>
       </c>
     </row>
     <row r="24">
@@ -2810,16 +2810,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>81373.99999999996</v>
+        <v>66358.5000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>-81552.29672272661</v>
+        <v>14461.07010046975</v>
       </c>
       <c r="D24" t="n">
-        <v>-75470.89032520073</v>
+        <v>-17065.23265873137</v>
       </c>
       <c r="E24" t="n">
-        <v>-75649.18704792738</v>
+        <v>63754.33744173848</v>
       </c>
     </row>
     <row r="25">
@@ -2827,16 +2827,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>95403.99999999996</v>
+        <v>100388.5000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>-96504.36604673759</v>
+        <v>30092.28605524282</v>
       </c>
       <c r="D25" t="n">
-        <v>-77831.9872362068</v>
+        <v>-19426.32956973743</v>
       </c>
       <c r="E25" t="n">
-        <v>-78932.35328294443</v>
+        <v>111054.4564855055</v>
       </c>
     </row>
     <row r="26">
@@ -2844,16 +2844,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>109434</v>
+        <v>134418.5000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>-111456.4353707485</v>
+        <v>45723.50201001592</v>
       </c>
       <c r="D26" t="n">
-        <v>-79536.5203365676</v>
+        <v>-21130.86267009823</v>
       </c>
       <c r="E26" t="n">
-        <v>-81558.95570731618</v>
+        <v>159011.1393399178</v>
       </c>
     </row>
     <row r="27">
@@ -2861,16 +2861,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>123464</v>
+        <v>168448.5000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>-126408.5046947595</v>
+        <v>61354.71796478899</v>
       </c>
       <c r="D27" t="n">
-        <v>-80757.67732388765</v>
+        <v>-22352.01965741828</v>
       </c>
       <c r="E27" t="n">
-        <v>-83702.18201864722</v>
+        <v>207451.1983073708</v>
       </c>
     </row>
   </sheetData>
@@ -2924,16 +2924,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-227286</v>
+        <v>-682301.4999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>244770.5841160937</v>
+        <v>-327911.6293897605</v>
       </c>
       <c r="D2" t="n">
-        <v>998469.2763593215</v>
+        <v>1067523.42368369</v>
       </c>
       <c r="E2" t="n">
-        <v>1015953.860475415</v>
+        <v>57310.29429392959</v>
       </c>
     </row>
     <row r="3">
@@ -2941,16 +2941,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-213256</v>
+        <v>-648271.4999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>229688.6852009741</v>
+        <v>-312204.7108592485</v>
       </c>
       <c r="D3" t="n">
-        <v>901057.0145318033</v>
+        <v>968978.1317343074</v>
       </c>
       <c r="E3" t="n">
-        <v>917489.6997327773</v>
+        <v>8501.920875058975</v>
       </c>
     </row>
     <row r="4">
@@ -2958,16 +2958,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-199226</v>
+        <v>-614241.4999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>214606.7862858544</v>
+        <v>-296497.7923287366</v>
       </c>
       <c r="D4" t="n">
-        <v>805493.8397147325</v>
+        <v>871761.7591214657</v>
       </c>
       <c r="E4" t="n">
-        <v>820874.6260005869</v>
+        <v>-38977.53320727078</v>
       </c>
     </row>
     <row r="5">
@@ -2975,16 +2975,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-185196</v>
+        <v>-580211.4999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>199524.8873707348</v>
+        <v>-280790.8737982246</v>
       </c>
       <c r="D5" t="n">
-        <v>712565.6214291778</v>
+        <v>776631.6124308882</v>
       </c>
       <c r="E5" t="n">
-        <v>726894.5087999126</v>
+        <v>-84370.76136733626</v>
       </c>
     </row>
     <row r="6">
@@ -2992,16 +2992,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-171166</v>
+        <v>-546181.4999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>184442.9884556152</v>
+        <v>-265083.9552677126</v>
       </c>
       <c r="D6" t="n">
-        <v>623142.5951739177</v>
+        <v>684509.9705545143</v>
       </c>
       <c r="E6" t="n">
-        <v>636419.5836295329</v>
+        <v>-126755.4847131982</v>
       </c>
     </row>
     <row r="7">
@@ -3009,16 +3009,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-157136</v>
+        <v>-512151.4999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>169361.0895404955</v>
+        <v>-249377.0367372006</v>
       </c>
       <c r="D7" t="n">
-        <v>538107.9894407394</v>
+        <v>596413.4582953177</v>
       </c>
       <c r="E7" t="n">
-        <v>550333.0789812349</v>
+        <v>-165115.0784418829</v>
       </c>
     </row>
     <row r="8">
@@ -3026,16 +3026,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-143106</v>
+        <v>-478121.4999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>154279.1906253759</v>
+        <v>-233670.1182066887</v>
       </c>
       <c r="D8" t="n">
-        <v>458280.749440097</v>
+        <v>513356.6098638058</v>
       </c>
       <c r="E8" t="n">
-        <v>469453.9400654729</v>
+        <v>-198435.0083428827</v>
       </c>
     </row>
     <row r="9">
@@ -3043,16 +3043,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-129076</v>
+        <v>-444091.4999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>139197.2917102564</v>
+        <v>-217963.1996761767</v>
       </c>
       <c r="D9" t="n">
-        <v>384345.9272487939</v>
+        <v>436249.4485470329</v>
       </c>
       <c r="E9" t="n">
-        <v>394467.2189590502</v>
+        <v>-225805.2511291436</v>
       </c>
     </row>
     <row r="10">
@@ -3060,16 +3060,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-115046</v>
+        <v>-410061.4999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>124115.3927951367</v>
+        <v>-202256.2811456647</v>
       </c>
       <c r="D10" t="n">
-        <v>316803.247121776</v>
+        <v>365809.3142659544</v>
       </c>
       <c r="E10" t="n">
-        <v>325872.6399169127</v>
+        <v>-246508.4668797103</v>
       </c>
     </row>
     <row r="11">
@@ -3077,16 +3077,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-101016</v>
+        <v>-376031.4999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>109033.493880017</v>
+        <v>-186549.3626151527</v>
       </c>
       <c r="D11" t="n">
-        <v>255939.3836694536</v>
+        <v>302501.7356546493</v>
       </c>
       <c r="E11" t="n">
-        <v>263956.8775494706</v>
+        <v>-260079.1269605032</v>
       </c>
     </row>
     <row r="12">
@@ -3094,16 +3094,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-86986.00000000004</v>
+        <v>-342001.4999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>93951.59496489746</v>
+        <v>-170842.4440846408</v>
       </c>
       <c r="D12" t="n">
-        <v>201824.3545185986</v>
+        <v>246516.7538965816</v>
       </c>
       <c r="E12" t="n">
-        <v>208789.949483496</v>
+        <v>-266327.190188059</v>
       </c>
     </row>
     <row r="13">
@@ -3111,16 +3111,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-72956.00000000004</v>
+        <v>-307971.4999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>78869.69604977779</v>
+        <v>-155135.5255541288</v>
       </c>
       <c r="D13" t="n">
-        <v>154328.4114669061</v>
+        <v>197778.9147663498</v>
       </c>
       <c r="E13" t="n">
-        <v>160242.1075166839</v>
+        <v>-265328.1107877789</v>
       </c>
     </row>
     <row r="14">
@@ -3128,16 +3128,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-58926.00000000004</v>
+        <v>-273941.4999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>63787.79713465823</v>
+        <v>-139428.6070236168</v>
       </c>
       <c r="D14" t="n">
-        <v>113153.5019892972</v>
+        <v>155983.3301683438</v>
       </c>
       <c r="E14" t="n">
-        <v>118015.2991239554</v>
+        <v>-257386.7768552729</v>
       </c>
     </row>
     <row r="15">
@@ -3145,16 +3145,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-44896.00000000004</v>
+        <v>-239911.4999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>48705.89821953856</v>
+        <v>-123721.6884931048</v>
       </c>
       <c r="D15" t="n">
-        <v>77872.73742366181</v>
+        <v>120647.5542330706</v>
       </c>
       <c r="E15" t="n">
-        <v>81682.63564320034</v>
+        <v>-242985.6342600341</v>
       </c>
     </row>
     <row r="16">
@@ -3162,16 +3162,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-30866.00000000004</v>
+        <v>-205881.4999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>33623.99930441889</v>
+        <v>-108014.7699625928</v>
       </c>
       <c r="D16" t="n">
-        <v>47971.93705466021</v>
+        <v>91169.16075707473</v>
       </c>
       <c r="E16" t="n">
-        <v>50729.93635907906</v>
+        <v>-222727.109205518</v>
       </c>
     </row>
     <row r="17">
@@ -3179,16 +3179,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-16836.00000000004</v>
+        <v>-171851.4999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>18542.10038929933</v>
+        <v>-92307.85143208088</v>
       </c>
       <c r="D17" t="n">
-        <v>22888.67971402984</v>
+        <v>66880.88501590741</v>
       </c>
       <c r="E17" t="n">
-        <v>24594.78010332913</v>
+        <v>-197278.4664161734</v>
       </c>
     </row>
     <row r="18">
@@ -3196,16 +3196,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-2806.00000000004</v>
+        <v>-137821.4999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>3460.201474179659</v>
+        <v>-76600.93290156889</v>
       </c>
       <c r="D18" t="n">
-        <v>2045.89656883245</v>
+        <v>47097.94877175237</v>
       </c>
       <c r="E18" t="n">
-        <v>2700.098043012069</v>
+        <v>-167324.4841298164</v>
       </c>
     </row>
     <row r="19">
@@ -3213,16 +3213,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>11223.99999999996</v>
+        <v>-103791.4999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>-11621.69744094001</v>
+        <v>-60894.0143710569</v>
       </c>
       <c r="D19" t="n">
-        <v>-15121.47010750133</v>
+        <v>31154.89550223362</v>
       </c>
       <c r="E19" t="n">
-        <v>-15519.16754844139</v>
+        <v>-133530.6188688232</v>
       </c>
     </row>
     <row r="20">
@@ -3230,16 +3230,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>25253.99999999996</v>
+        <v>-69761.4999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-26703.59635605957</v>
+        <v>-45187.09584054496</v>
       </c>
       <c r="D20" t="n">
-        <v>-29147.03136345016</v>
+        <v>18431.43708675175</v>
       </c>
       <c r="E20" t="n">
-        <v>-30596.62771950977</v>
+        <v>-96517.15875379312</v>
       </c>
     </row>
     <row r="21">
@@ -3247,16 +3247,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>39283.99999999996</v>
+        <v>-35731.49999999991</v>
       </c>
       <c r="C21" t="n">
-        <v>-41785.49527117924</v>
+        <v>-29480.17731003297</v>
       </c>
       <c r="D21" t="n">
-        <v>-40520.21161109416</v>
+        <v>8368.276874964942</v>
       </c>
       <c r="E21" t="n">
-        <v>-43021.70688227344</v>
+        <v>-56843.40043506794</v>
       </c>
     </row>
     <row r="22">
@@ -3264,16 +3264,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>53313.99999999996</v>
+        <v>-1701.499999999903</v>
       </c>
       <c r="C22" t="n">
-        <v>-56867.39418629892</v>
+        <v>-13773.25877952098</v>
       </c>
       <c r="D22" t="n">
-        <v>-49679.2062829635</v>
+        <v>474.663978165113</v>
       </c>
       <c r="E22" t="n">
-        <v>-53232.60046926245</v>
+        <v>-15000.09480135577</v>
       </c>
     </row>
     <row r="23">
@@ -3281,16 +3281,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>67343.99999999996</v>
+        <v>32328.5000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>-71949.29310141847</v>
+        <v>1933.659750991006</v>
       </c>
       <c r="D23" t="n">
-        <v>-57008.44669962543</v>
+        <v>-5670.303806609889</v>
       </c>
       <c r="E23" t="n">
-        <v>-61613.73980104394</v>
+        <v>28591.85594438122</v>
       </c>
     </row>
     <row r="24">
@@ -3298,16 +3298,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>81373.99999999996</v>
+        <v>66358.5000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>-87031.19201653815</v>
+        <v>17640.57828150294</v>
       </c>
       <c r="D24" t="n">
-        <v>-62839.38515099733</v>
+        <v>-10420.69960708027</v>
       </c>
       <c r="E24" t="n">
-        <v>-68496.57716753552</v>
+        <v>73578.37867442277</v>
       </c>
     </row>
     <row r="25">
@@ -3315,16 +3315,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>95403.99999999996</v>
+        <v>100388.5000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>-102113.0909316578</v>
+        <v>33347.49681201493</v>
       </c>
       <c r="D25" t="n">
-        <v>-67453.5360674187</v>
+        <v>-14069.46257426509</v>
       </c>
       <c r="E25" t="n">
-        <v>-74162.62699907656</v>
+        <v>119666.5342377499</v>
       </c>
     </row>
     <row r="26">
@@ -3332,16 +3332,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>109434</v>
+        <v>134418.5000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>-117194.9898467774</v>
+        <v>49054.41534252686</v>
       </c>
       <c r="D26" t="n">
-        <v>-71086.89051910304</v>
+        <v>-16855.47753872288</v>
       </c>
       <c r="E26" t="n">
-        <v>-78847.88036588045</v>
+        <v>166617.4378038041</v>
       </c>
     </row>
     <row r="27">
@@ -3349,16 +3349,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>123464</v>
+        <v>168448.5000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>-132276.888761897</v>
+        <v>64761.33387303891</v>
       </c>
       <c r="D27" t="n">
-        <v>-73935.01797634827</v>
+        <v>-18971.10160802869</v>
       </c>
       <c r="E27" t="n">
-        <v>-82747.90673824536</v>
+        <v>214238.7322650103</v>
       </c>
     </row>
   </sheetData>
@@ -3412,16 +3412,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-227286</v>
+        <v>-682301.4999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>245660.1937723249</v>
+        <v>-328828.902680247</v>
       </c>
       <c r="D2" t="n">
-        <v>1006571.4152792</v>
+        <v>1076141.801058378</v>
       </c>
       <c r="E2" t="n">
-        <v>1024945.609051525</v>
+        <v>65011.39837813145</v>
       </c>
     </row>
     <row r="3">
@@ -3429,16 +3429,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-213256</v>
+        <v>-648271.4999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>230622.3334858446</v>
+        <v>-313167.8478142594</v>
       </c>
       <c r="D3" t="n">
-        <v>908268.8588069126</v>
+        <v>976915.7440071194</v>
       </c>
       <c r="E3" t="n">
-        <v>925635.1922927571</v>
+        <v>15476.39619286021</v>
       </c>
     </row>
     <row r="4">
@@ -3446,16 +3446,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-199226</v>
+        <v>-614241.4999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>215584.4731993643</v>
+        <v>-297506.7929482717</v>
       </c>
       <c r="D4" t="n">
-        <v>811422.040793845</v>
+        <v>878589.9446147149</v>
       </c>
       <c r="E4" t="n">
-        <v>827780.5139932092</v>
+        <v>-33158.34833355667</v>
       </c>
     </row>
     <row r="5">
@@ -3463,16 +3463,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-185196</v>
+        <v>-580211.4999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>200546.6129128839</v>
+        <v>-281845.738082284</v>
       </c>
       <c r="D5" t="n">
-        <v>716801.3755348432</v>
+        <v>781840.344503182</v>
       </c>
       <c r="E5" t="n">
-        <v>732151.9884477271</v>
+        <v>-80216.89357910189</v>
       </c>
     </row>
     <row r="6">
@@ -3480,16 +3480,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-171166</v>
+        <v>-546181.4999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>185508.7526264035</v>
+        <v>-266184.6832162964</v>
       </c>
       <c r="D6" t="n">
-        <v>625321.5607429284</v>
+        <v>687580.474630899</v>
       </c>
       <c r="E6" t="n">
-        <v>639664.3133693319</v>
+        <v>-124785.7085853972</v>
       </c>
     </row>
     <row r="7">
@@ -3497,16 +3497,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-157136</v>
+        <v>-512151.4999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>170470.8923399233</v>
+        <v>-250523.6283503087</v>
       </c>
       <c r="D7" t="n">
-        <v>537969.0593595754</v>
+        <v>596910.6812577106</v>
       </c>
       <c r="E7" t="n">
-        <v>551303.9516994987</v>
+        <v>-165764.4470925981</v>
       </c>
     </row>
     <row r="8">
@@ -3514,16 +3514,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-143106</v>
+        <v>-478121.4999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>155433.032053443</v>
+        <v>-234862.5734843211</v>
       </c>
       <c r="D8" t="n">
-        <v>455709.6520532935</v>
+        <v>511015.7673284855</v>
       </c>
       <c r="E8" t="n">
-        <v>468036.6841067364</v>
+        <v>-201968.3061558355</v>
       </c>
     </row>
     <row r="9">
@@ -3531,16 +3531,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-129076</v>
+        <v>-444091.4999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>140395.1717669625</v>
+        <v>-219201.5186183334</v>
       </c>
       <c r="D9" t="n">
-        <v>379394.5266192176</v>
+        <v>431032.3184397205</v>
       </c>
       <c r="E9" t="n">
-        <v>390713.69838618</v>
+        <v>-232260.7001786127</v>
       </c>
     </row>
     <row r="10">
@@ -3548,16 +3548,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-115046</v>
+        <v>-410061.4999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>125357.3114804822</v>
+        <v>-203540.4637523457</v>
       </c>
       <c r="D10" t="n">
-        <v>309682.4146104075</v>
+        <v>357916.5736029205</v>
       </c>
       <c r="E10" t="n">
-        <v>319993.7260908897</v>
+        <v>-255685.3901494251</v>
       </c>
     </row>
     <row r="11">
@@ -3565,16 +3565,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-101016</v>
+        <v>-376031.4999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>110319.4511940019</v>
+        <v>-187879.4088863581</v>
       </c>
       <c r="D11" t="n">
-        <v>246989.7139295063</v>
+        <v>292341.7836839233</v>
       </c>
       <c r="E11" t="n">
-        <v>256293.1651235081</v>
+        <v>-271569.1252024346</v>
       </c>
     </row>
     <row r="12">
@@ -3582,16 +3582,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-86986.00000000004</v>
+        <v>-342001.4999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>95281.59090752155</v>
+        <v>-172218.3540203705</v>
       </c>
       <c r="D12" t="n">
-        <v>191472.9949746466</v>
+        <v>234643.0803527329</v>
       </c>
       <c r="E12" t="n">
-        <v>199768.5858821681</v>
+        <v>-279576.7736676374</v>
       </c>
     </row>
     <row r="13">
@@ -3599,16 +3599,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-72956.00000000004</v>
+        <v>-307971.4999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>80243.73062104121</v>
+        <v>-156557.2991543828</v>
       </c>
       <c r="D13" t="n">
-        <v>143041.3580272408</v>
+        <v>184813.6400908204</v>
       </c>
       <c r="E13" t="n">
-        <v>150329.0886482819</v>
+        <v>-279715.1590635623</v>
       </c>
     </row>
     <row r="14">
@@ -3616,16 +3616,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-58926.00000000004</v>
+        <v>-273941.4999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>65205.87033456075</v>
+        <v>-140896.2442883952</v>
       </c>
       <c r="D14" t="n">
-        <v>101391.4225297711</v>
+        <v>142543.8397389969</v>
       </c>
       <c r="E14" t="n">
-        <v>107671.2928643318</v>
+        <v>-272293.9045493982</v>
       </c>
     </row>
     <row r="15">
@@ -3633,16 +3633,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-44896.00000000004</v>
+        <v>-239911.4999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>50168.01004808053</v>
+        <v>-125235.1894224075</v>
       </c>
       <c r="D15" t="n">
-        <v>66055.7583750987</v>
+        <v>107288.2375757259</v>
       </c>
       <c r="E15" t="n">
-        <v>71327.76842317919</v>
+        <v>-257858.4518466815</v>
       </c>
     </row>
     <row r="16">
@@ -3650,16 +3650,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-30866.00000000004</v>
+        <v>-205881.4999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>35130.14976160022</v>
+        <v>-109574.1345564198</v>
       </c>
       <c r="D16" t="n">
-        <v>36455.90584223037</v>
+        <v>78343.90720835559</v>
       </c>
       <c r="E16" t="n">
-        <v>40720.05560383055</v>
+        <v>-237111.7273480641</v>
       </c>
     </row>
     <row r="17">
@@ -3667,16 +3667,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-16836.00000000004</v>
+        <v>-171851.4999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>20092.28947511976</v>
+        <v>-93913.07969043223</v>
       </c>
       <c r="D17" t="n">
-        <v>11952.93524839802</v>
+        <v>54926.38686417744</v>
       </c>
       <c r="E17" t="n">
-        <v>15209.22472351774</v>
+        <v>-210838.1928262547</v>
       </c>
     </row>
     <row r="18">
@@ -3684,16 +3684,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-2806.00000000004</v>
+        <v>-137821.4999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>5054.42918863942</v>
+        <v>-78252.02482444455</v>
       </c>
       <c r="D18" t="n">
-        <v>-8109.101989939814</v>
+        <v>36234.16185194945</v>
       </c>
       <c r="E18" t="n">
-        <v>-5860.672801300434</v>
+        <v>-179839.362972495</v>
       </c>
     </row>
     <row r="19">
@@ -3701,16 +3701,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>11223.99999999996</v>
+        <v>-103791.4999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>-9983.431097840803</v>
+        <v>-62590.96995845687</v>
       </c>
       <c r="D19" t="n">
-        <v>-24369.15059202896</v>
+        <v>21497.36533171296</v>
       </c>
       <c r="E19" t="n">
-        <v>-23128.5816898698</v>
+        <v>-144885.1046267438</v>
       </c>
     </row>
     <row r="20">
@@ -3718,16 +3718,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>25253.99999999996</v>
+        <v>-69761.4999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-25021.2913843212</v>
+        <v>-46929.91509246922</v>
       </c>
       <c r="D20" t="n">
-        <v>-37425.00849653627</v>
+        <v>10010.17216195581</v>
       </c>
       <c r="E20" t="n">
-        <v>-37192.29988085751</v>
+        <v>-106681.2429305133</v>
       </c>
     </row>
     <row r="21">
@@ -3735,16 +3735,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>39283.99999999996</v>
+        <v>-35731.49999999991</v>
       </c>
       <c r="C21" t="n">
-        <v>-40059.15167080154</v>
+        <v>-31268.86022648157</v>
       </c>
       <c r="D21" t="n">
-        <v>-47818.24722146868</v>
+        <v>1148.787106647797</v>
       </c>
       <c r="E21" t="n">
-        <v>-48593.39889227026</v>
+        <v>-65851.57311983369</v>
       </c>
     </row>
     <row r="22">
@@ -3752,16 +3752,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>53313.99999999996</v>
+        <v>-1701.499999999903</v>
       </c>
       <c r="C22" t="n">
-        <v>-55097.01195728188</v>
+        <v>-15607.80536049401</v>
       </c>
       <c r="D22" t="n">
-        <v>-56026.67986491055</v>
+        <v>-5621.909572304578</v>
       </c>
       <c r="E22" t="n">
-        <v>-57809.69182219246</v>
+        <v>-22931.21493279849</v>
       </c>
     </row>
     <row r="23">
@@ -3769,16 +3769,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>67343.99999999996</v>
+        <v>32328.5000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>-70134.87224376219</v>
+        <v>53.2495054937026</v>
       </c>
       <c r="D23" t="n">
-        <v>-62462.6116262701</v>
+        <v>-10749.76958123448</v>
       </c>
       <c r="E23" t="n">
-        <v>-65253.48387003234</v>
+        <v>21631.97992425932</v>
       </c>
     </row>
     <row r="24">
@@ -3786,16 +3786,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>81373.99999999996</v>
+        <v>66358.5000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>-85172.73253024253</v>
+        <v>15714.30437148135</v>
       </c>
       <c r="D24" t="n">
-        <v>-67475.16304705206</v>
+        <v>-14601.88562032998</v>
       </c>
       <c r="E24" t="n">
-        <v>-71273.89557729464</v>
+        <v>67470.91875115148</v>
       </c>
     </row>
     <row r="25">
@@ -3803,16 +3803,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>95403.99999999996</v>
+        <v>100388.5000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>-100210.5928167229</v>
+        <v>31375.35923746901</v>
       </c>
       <c r="D25" t="n">
-        <v>-71355.18478089471</v>
+        <v>-17473.84592235662</v>
       </c>
       <c r="E25" t="n">
-        <v>-76161.77759761762</v>
+        <v>114290.0133151125</v>
       </c>
     </row>
     <row r="26">
@@ -3820,16 +3820,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>109434</v>
+        <v>134418.5000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>-115248.4531032033</v>
+        <v>47036.41410345669</v>
       </c>
       <c r="D26" t="n">
-        <v>-74341.58370517268</v>
+        <v>-19600.02234036152</v>
       </c>
       <c r="E26" t="n">
-        <v>-80156.03680837605</v>
+        <v>161854.8917630952</v>
       </c>
     </row>
     <row r="27">
@@ -3837,16 +3837,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>123464</v>
+        <v>168448.5000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>-130286.3133896835</v>
+        <v>62697.46896944431</v>
       </c>
       <c r="D27" t="n">
-        <v>-76628.18630993746</v>
+        <v>-21163.75585290256</v>
       </c>
       <c r="E27" t="n">
-        <v>-83450.49969962102</v>
+        <v>209982.2131165419</v>
       </c>
     </row>
   </sheetData>
@@ -3900,16 +3900,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-227286</v>
+        <v>-682301.4999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>239693.1551364566</v>
+        <v>-321455.8223672621</v>
       </c>
       <c r="D2" t="n">
-        <v>959799.3020544734</v>
+        <v>1018204.959720943</v>
       </c>
       <c r="E2" t="n">
-        <v>972206.45719093</v>
+        <v>14447.63735368091</v>
       </c>
     </row>
     <row r="3">
@@ -3917,16 +3917,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-213256</v>
+        <v>-648271.4999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>224359.9066460368</v>
+        <v>-305426.1134856252</v>
       </c>
       <c r="D3" t="n">
-        <v>868622.7375714228</v>
+        <v>927028.3952378922</v>
       </c>
       <c r="E3" t="n">
-        <v>879726.6442174596</v>
+        <v>-26669.21824773285</v>
       </c>
     </row>
     <row r="4">
@@ -3934,16 +3934,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-199226</v>
+        <v>-614241.4999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>209026.6581556171</v>
+        <v>-289396.4046039883</v>
       </c>
       <c r="D4" t="n">
-        <v>780736.6347314154</v>
+        <v>839142.2923978848</v>
       </c>
       <c r="E4" t="n">
-        <v>790537.2928870325</v>
+        <v>-64495.6122061034</v>
       </c>
     </row>
     <row r="5">
@@ -3951,16 +3951,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-185196</v>
+        <v>-580211.4999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>193693.4096651973</v>
+        <v>-273366.6957223514</v>
       </c>
       <c r="D5" t="n">
-        <v>696714.7694045779</v>
+        <v>755120.4270710472</v>
       </c>
       <c r="E5" t="n">
-        <v>705212.1790697752</v>
+        <v>-98457.76865130407</v>
       </c>
     </row>
     <row r="6">
@@ -3968,16 +3968,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-171166</v>
+        <v>-546181.4999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>178360.1611747776</v>
+        <v>-257336.9868407145</v>
       </c>
       <c r="D6" t="n">
-        <v>617066.6153486022</v>
+        <v>675472.2730150716</v>
       </c>
       <c r="E6" t="n">
-        <v>624260.7765233798</v>
+        <v>-128046.2138256427</v>
       </c>
     </row>
     <row r="7">
@@ -3985,16 +3985,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-157136</v>
+        <v>-512151.4999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>163026.9126843578</v>
+        <v>-241307.2779590776</v>
       </c>
       <c r="D7" t="n">
-        <v>542210.6629425323</v>
+        <v>600616.3206090017</v>
       </c>
       <c r="E7" t="n">
-        <v>548101.5756268902</v>
+        <v>-152842.4573500758</v>
       </c>
     </row>
     <row r="8">
@@ -4002,16 +4002,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-143106</v>
+        <v>-478121.4999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>147693.6641939381</v>
+        <v>-225277.5690774407</v>
       </c>
       <c r="D8" t="n">
-        <v>472456.9791811703</v>
+        <v>530862.6368476397</v>
       </c>
       <c r="E8" t="n">
-        <v>477044.6433751085</v>
+        <v>-172536.4322298008</v>
       </c>
     </row>
     <row r="9">
@@ -4019,16 +4019,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-129076</v>
+        <v>-444091.4999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>132360.4157035183</v>
+        <v>-209247.8601958038</v>
       </c>
       <c r="D9" t="n">
-        <v>407999.3380378209</v>
+        <v>466404.9957042903</v>
       </c>
       <c r="E9" t="n">
-        <v>411283.7537413392</v>
+        <v>-186934.3644915133</v>
       </c>
     </row>
     <row r="10">
@@ -4036,16 +4036,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-115046</v>
+        <v>-410061.4999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>117027.1672130986</v>
+        <v>-193218.1513141669</v>
       </c>
       <c r="D10" t="n">
-        <v>348916.0455593079</v>
+        <v>407321.7032257773</v>
       </c>
       <c r="E10" t="n">
-        <v>350897.2127724065</v>
+        <v>-195957.9480883896</v>
       </c>
     </row>
     <row r="11">
@@ -4053,16 +4053,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-101016</v>
+        <v>-376031.4999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>101693.9187226788</v>
+        <v>-177188.44243253</v>
       </c>
       <c r="D11" t="n">
-        <v>295177.8154913618</v>
+        <v>353583.4731578311</v>
       </c>
       <c r="E11" t="n">
-        <v>295855.7342140406</v>
+        <v>-199636.4692746989</v>
       </c>
     </row>
     <row r="12">
@@ -4070,16 +4070,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-86986.00000000004</v>
+        <v>-342001.4999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>86360.67023225912</v>
+        <v>-161158.7335508931</v>
       </c>
       <c r="D12" t="n">
-        <v>246660.7030431183</v>
+        <v>305066.3607095877</v>
       </c>
       <c r="E12" t="n">
-        <v>246035.3732753774</v>
+        <v>-198093.8728413053</v>
       </c>
     </row>
     <row r="13">
@@ -4087,16 +4087,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-72956.00000000004</v>
+        <v>-307971.4999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>71027.42174183929</v>
+        <v>-145129.0246692563</v>
       </c>
       <c r="D13" t="n">
-        <v>203162.0941874739</v>
+        <v>261567.7518539433</v>
       </c>
       <c r="E13" t="n">
-        <v>201233.5159293131</v>
+        <v>-191532.7728153129</v>
       </c>
     </row>
     <row r="14">
@@ -4104,16 +4104,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-58926.00000000004</v>
+        <v>-273941.4999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>55694.17325141959</v>
+        <v>-129099.3157876193</v>
       </c>
       <c r="D14" t="n">
-        <v>164417.9681261971</v>
+        <v>222823.6257926665</v>
       </c>
       <c r="E14" t="n">
-        <v>161186.1413776167</v>
+        <v>-180217.1899949528</v>
       </c>
     </row>
     <row r="15">
@@ -4121,16 +4121,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-44896.00000000004</v>
+        <v>-239911.4999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>40360.92476099986</v>
+        <v>-113069.6069059824</v>
       </c>
       <c r="D15" t="n">
-        <v>130119.9974412057</v>
+        <v>188525.6551076751</v>
       </c>
       <c r="E15" t="n">
-        <v>125584.9222022055</v>
+        <v>-164455.4517983073</v>
       </c>
     </row>
     <row r="16">
@@ -4138,16 +4138,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-30866.00000000004</v>
+        <v>-205881.4999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>25027.67627058004</v>
+        <v>-97039.89802434552</v>
       </c>
       <c r="D16" t="n">
-        <v>99931.43979024692</v>
+        <v>158337.0974567163</v>
       </c>
       <c r="E16" t="n">
-        <v>94093.11606082691</v>
+        <v>-144584.3005676291</v>
       </c>
     </row>
     <row r="17">
@@ -4155,16 +4155,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-16836.00000000004</v>
+        <v>-171851.4999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>9694.427780160448</v>
+        <v>-81010.18914270861</v>
       </c>
       <c r="D17" t="n">
-        <v>73501.14764341514</v>
+        <v>131906.8053098845</v>
       </c>
       <c r="E17" t="n">
-        <v>66359.57542357554</v>
+        <v>-120954.883832824</v>
       </c>
     </row>
     <row r="18">
@@ -4172,16 +4172,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-2806.00000000004</v>
+        <v>-137821.4999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>-5638.820710259402</v>
+        <v>-64980.48026107179</v>
       </c>
       <c r="D18" t="n">
-        <v>50475.34327662291</v>
+        <v>108881.0009430923</v>
       </c>
       <c r="E18" t="n">
-        <v>42030.52256636346</v>
+        <v>-93920.97931797942</v>
       </c>
     </row>
     <row r="19">
@@ -4189,16 +4189,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>11223.99999999996</v>
+        <v>-103791.4999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>-20972.06920067922</v>
+        <v>-48950.77137943482</v>
       </c>
       <c r="D19" t="n">
-        <v>30507.05919418651</v>
+        <v>88912.71686065587</v>
       </c>
       <c r="E19" t="n">
-        <v>20758.98999350724</v>
+        <v>-63829.55451877887</v>
       </c>
     </row>
     <row r="20">
@@ -4206,16 +4206,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>25253.99999999996</v>
+        <v>-69761.4999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-36305.31769109899</v>
+        <v>-32921.06249779798</v>
       </c>
       <c r="D20" t="n">
-        <v>13263.32727648189</v>
+        <v>71668.98494295127</v>
       </c>
       <c r="E20" t="n">
-        <v>2212.009585382868</v>
+        <v>-31013.5775548466</v>
       </c>
     </row>
     <row r="21">
@@ -4223,16 +4223,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>39283.99999999996</v>
+        <v>-35731.49999999991</v>
       </c>
       <c r="C21" t="n">
-        <v>-51638.56618151869</v>
+        <v>-16891.35361616107</v>
       </c>
       <c r="D21" t="n">
-        <v>-1569.680287400633</v>
+        <v>56835.97737906873</v>
       </c>
       <c r="E21" t="n">
-        <v>-13924.24646891936</v>
+        <v>4213.123762907759</v>
       </c>
     </row>
     <row r="22">
@@ -4240,16 +4240,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>53313.99999999996</v>
+        <v>-1701.499999999903</v>
       </c>
       <c r="C22" t="n">
-        <v>-66971.81467193839</v>
+        <v>-861.6447345241613</v>
       </c>
       <c r="D22" t="n">
-        <v>-14283.28800841228</v>
+        <v>44122.36965805709</v>
       </c>
       <c r="E22" t="n">
-        <v>-27941.1026803507</v>
+        <v>41559.22492353302</v>
       </c>
     </row>
     <row r="23">
@@ -4257,16 +4257,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>67343.99999999996</v>
+        <v>32328.5000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>-82305.06316235824</v>
+        <v>15168.06414711272</v>
       </c>
       <c r="D23" t="n">
-        <v>-25144.43496280723</v>
+        <v>33261.22270366214</v>
       </c>
       <c r="E23" t="n">
-        <v>-40105.49812516551</v>
+        <v>80757.78685077495</v>
       </c>
     </row>
     <row r="24">
@@ -4274,16 +4274,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>81373.99999999996</v>
+        <v>66358.5000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>-97638.31165277795</v>
+        <v>31197.77302874962</v>
       </c>
       <c r="D24" t="n">
-        <v>-34394.97843340238</v>
+        <v>24010.67923306699</v>
       </c>
       <c r="E24" t="n">
-        <v>-50659.29008618037</v>
+        <v>121566.9522618167</v>
       </c>
     </row>
     <row r="25">
@@ -4291,16 +4291,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>95403.99999999996</v>
+        <v>100388.5000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>-112971.5601431977</v>
+        <v>47227.48191038659</v>
       </c>
       <c r="D25" t="n">
-        <v>-42251.90906914147</v>
+        <v>16153.7485973279</v>
       </c>
       <c r="E25" t="n">
-        <v>-59819.46921233917</v>
+        <v>163769.7305077146</v>
       </c>
     </row>
     <row r="26">
@@ -4308,16 +4308,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>109434</v>
+        <v>134418.5000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>-128304.8086336174</v>
+        <v>63257.19079202341</v>
       </c>
       <c r="D26" t="n">
-        <v>-48908.23494638954</v>
+        <v>9497.42272007983</v>
       </c>
       <c r="E26" t="n">
-        <v>-67779.04358000697</v>
+        <v>207173.1135121033</v>
       </c>
     </row>
     <row r="27">
@@ -4325,16 +4325,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>123464</v>
+        <v>168448.5000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>-143638.0571240372</v>
+        <v>79286.89967366037</v>
       </c>
       <c r="D27" t="n">
-        <v>-54534.32838190992</v>
+        <v>3871.329284559444</v>
       </c>
       <c r="E27" t="n">
-        <v>-74708.38550594717</v>
+        <v>251606.7289582199</v>
       </c>
     </row>
   </sheetData>
@@ -4388,16 +4388,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-227286</v>
+        <v>-682301.4999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>240283.3043555203</v>
+        <v>-322066.6484759851</v>
       </c>
       <c r="D2" t="n">
-        <v>963719.172429496</v>
+        <v>1022124.830095965</v>
       </c>
       <c r="E2" t="n">
-        <v>976716.4767850162</v>
+        <v>17756.68161998037</v>
       </c>
     </row>
     <row r="3">
@@ -4405,16 +4405,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-213256</v>
+        <v>-648271.4999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>224979.2702088501</v>
+        <v>-306067.4808997844</v>
       </c>
       <c r="D3" t="n">
-        <v>871791.0622676129</v>
+        <v>930196.7199340822</v>
       </c>
       <c r="E3" t="n">
-        <v>883514.3324764629</v>
+        <v>-24142.26096570201</v>
       </c>
     </row>
     <row r="4">
@@ -4422,16 +4422,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-199226</v>
+        <v>-614241.4999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>209675.23606218</v>
+        <v>-290068.3133235836</v>
       </c>
       <c r="D4" t="n">
-        <v>783045.3260989164</v>
+        <v>841450.9837653858</v>
       </c>
       <c r="E4" t="n">
-        <v>793494.5621610964</v>
+        <v>-62858.82955819764</v>
       </c>
     </row>
     <row r="5">
@@ -4439,16 +4439,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-185196</v>
+        <v>-580211.4999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>194371.2019155098</v>
+        <v>-274069.1457473829</v>
       </c>
       <c r="D5" t="n">
-        <v>698086.855213401</v>
+        <v>756492.5128798704</v>
       </c>
       <c r="E5" t="n">
-        <v>707262.0571289108</v>
+        <v>-97788.13286751241</v>
       </c>
     </row>
     <row r="6">
@@ -4456,16 +4456,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-171166</v>
+        <v>-546181.4999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>179067.1677688397</v>
+        <v>-258069.9781711821</v>
       </c>
       <c r="D6" t="n">
-        <v>617462.8846574606</v>
+        <v>675868.54232393</v>
       </c>
       <c r="E6" t="n">
-        <v>625364.0524263002</v>
+        <v>-128382.935847252</v>
       </c>
     </row>
     <row r="7">
@@ -4473,16 +4473,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-157136</v>
+        <v>-512151.4999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>163763.1336221695</v>
+        <v>-242070.8105949814</v>
       </c>
       <c r="D7" t="n">
-        <v>541632.065746975</v>
+        <v>600037.7234134444</v>
       </c>
       <c r="E7" t="n">
-        <v>548259.1993691445</v>
+        <v>-154184.5871815369</v>
       </c>
     </row>
     <row r="8">
@@ -4490,16 +4490,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-143106</v>
+        <v>-478121.4999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>148459.0994754994</v>
+        <v>-226071.6430187806</v>
       </c>
       <c r="D8" t="n">
-        <v>470943.011859034</v>
+        <v>529348.6695255034</v>
       </c>
       <c r="E8" t="n">
-        <v>476296.1113345334</v>
+        <v>-174844.4734932771</v>
       </c>
     </row>
     <row r="9">
@@ -4507,16 +4507,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-129076</v>
+        <v>-444091.4999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>133155.0653288292</v>
+        <v>-210072.4754425799</v>
       </c>
       <c r="D9" t="n">
-        <v>405623.1840051906</v>
+        <v>464028.84167166</v>
       </c>
       <c r="E9" t="n">
-        <v>409702.2493340198</v>
+        <v>-190135.1337709198</v>
       </c>
     </row>
     <row r="10">
@@ -4524,16 +4524,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-115046</v>
+        <v>-410061.4999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>117851.0311821591</v>
+        <v>-194073.3078663791</v>
       </c>
       <c r="D10" t="n">
-        <v>345777.5222025848</v>
+        <v>404183.1798690541</v>
       </c>
       <c r="E10" t="n">
-        <v>348582.5533847438</v>
+        <v>-199951.6279973248</v>
       </c>
     </row>
     <row r="11">
@@ -4541,16 +4541,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-101016</v>
+        <v>-376031.4999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>102546.997035489</v>
+        <v>-178074.1402901784</v>
       </c>
       <c r="D11" t="n">
-        <v>291395.2281260094</v>
+        <v>349800.8857924788</v>
       </c>
       <c r="E11" t="n">
-        <v>292926.2251614983</v>
+        <v>-204304.7544976994</v>
       </c>
     </row>
     <row r="12">
@@ -4558,16 +4558,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-86986.00000000004</v>
+        <v>-342001.4999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>87242.96288881882</v>
+        <v>-162074.9727139776</v>
       </c>
       <c r="D12" t="n">
-        <v>242362.5857873503</v>
+        <v>300768.2434538197</v>
       </c>
       <c r="E12" t="n">
-        <v>242619.5486761691</v>
+        <v>-203308.2292601579</v>
       </c>
     </row>
     <row r="13">
@@ -4575,16 +4575,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-72956.00000000004</v>
+        <v>-307971.4999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>71938.92874214868</v>
+        <v>-146075.8051377769</v>
       </c>
       <c r="D13" t="n">
-        <v>198479.598079271</v>
+        <v>256885.2557457404</v>
       </c>
       <c r="E13" t="n">
-        <v>197462.5268214196</v>
+        <v>-197162.0493920364</v>
       </c>
     </row>
     <row r="14">
@@ -4592,16 +4592,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-58926.00000000004</v>
+        <v>-273941.4999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>56634.89459547846</v>
+        <v>-130076.6375615761</v>
       </c>
       <c r="D14" t="n">
-        <v>159478.4025147723</v>
+        <v>217884.0601812417</v>
       </c>
       <c r="E14" t="n">
-        <v>157187.2971102507</v>
+        <v>-186134.0773803343</v>
       </c>
     </row>
     <row r="15">
@@ -4609,16 +4609,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-44896.00000000004</v>
+        <v>-239911.4999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>41330.86044880835</v>
+        <v>-114077.4699853754</v>
       </c>
       <c r="D15" t="n">
-        <v>125041.7887185417</v>
+        <v>183447.446385011</v>
       </c>
       <c r="E15" t="n">
-        <v>121476.64916735</v>
+        <v>-170541.5236003642</v>
       </c>
     </row>
     <row r="16">
@@ -4626,16 +4626,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-30866.00000000004</v>
+        <v>-205881.4999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>26026.82630213836</v>
+        <v>-98078.30240917459</v>
       </c>
       <c r="D16" t="n">
-        <v>94820.57025149034</v>
+        <v>153226.2279179597</v>
       </c>
       <c r="E16" t="n">
-        <v>89981.39655362866</v>
+        <v>-150733.5744912148</v>
       </c>
     </row>
     <row r="17">
@@ -4643,16 +4643,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-16836.00000000004</v>
+        <v>-171851.4999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>10722.7921554682</v>
+        <v>-82079.13483297394</v>
       </c>
       <c r="D17" t="n">
-        <v>68448.98884387934</v>
+        <v>126854.6465103487</v>
       </c>
       <c r="E17" t="n">
-        <v>62335.78099934749</v>
+        <v>-127075.9883226251</v>
       </c>
     </row>
     <row r="18">
@@ -4660,16 +4660,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-2806.00000000004</v>
+        <v>-137821.4999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>-4581.241991202027</v>
+        <v>-66079.96725677318</v>
       </c>
       <c r="D18" t="n">
-        <v>45557.70306297165</v>
+        <v>103963.360729441</v>
       </c>
       <c r="E18" t="n">
-        <v>38170.46107176958</v>
+        <v>-99938.10652733207</v>
       </c>
     </row>
     <row r="19">
@@ -4677,16 +4677,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>11223.99999999996</v>
+        <v>-103791.4999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>-19885.27613787213</v>
+        <v>-50080.79968057241</v>
       </c>
       <c r="D19" t="n">
-        <v>25784.21278845897</v>
+        <v>84189.87045492834</v>
       </c>
       <c r="E19" t="n">
-        <v>17122.9366505868</v>
+        <v>-69682.42922564395</v>
       </c>
     </row>
     <row r="20">
@@ -4694,16 +4694,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>25253.99999999996</v>
+        <v>-69761.4999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-35189.3102845423</v>
+        <v>-34081.6321043717</v>
       </c>
       <c r="D20" t="n">
-        <v>8780.790161612018</v>
+        <v>67186.44782808139</v>
       </c>
       <c r="E20" t="n">
-        <v>-1154.52012293032</v>
+        <v>-36656.68427629021</v>
       </c>
     </row>
     <row r="21">
@@ -4711,16 +4711,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>39283.99999999996</v>
+        <v>-35731.49999999991</v>
       </c>
       <c r="C21" t="n">
-        <v>-50493.3444312124</v>
+        <v>-18082.46452817094</v>
       </c>
       <c r="D21" t="n">
-        <v>-5779.867251376247</v>
+        <v>52625.79041509313</v>
       </c>
       <c r="E21" t="n">
-        <v>-16989.21168258869</v>
+        <v>-1188.174113077715</v>
       </c>
     </row>
     <row r="22">
@@ -4728,16 +4728,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>53313.99999999996</v>
+        <v>-1701.499999999903</v>
       </c>
       <c r="C22" t="n">
-        <v>-65797.37857788266</v>
+        <v>-2083.296951970202</v>
       </c>
       <c r="D22" t="n">
-        <v>-18200.96262569864</v>
+        <v>40204.69504077073</v>
       </c>
       <c r="E22" t="n">
-        <v>-30684.34120358133</v>
+        <v>36419.89808880063</v>
       </c>
     </row>
     <row r="23">
@@ -4745,16 +4745,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>67343.99999999996</v>
+        <v>32328.5000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>-81101.41272455276</v>
+        <v>13915.87062423056</v>
       </c>
       <c r="D23" t="n">
-        <v>-28759.57253580555</v>
+        <v>29646.08513066383</v>
       </c>
       <c r="E23" t="n">
-        <v>-42516.98526035836</v>
+        <v>75890.45575489449</v>
       </c>
     </row>
     <row r="24">
@@ -4762,16 +4762,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>81373.99999999996</v>
+        <v>66358.5000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>-96405.44687122287</v>
+        <v>29915.03820043133</v>
       </c>
       <c r="D24" t="n">
-        <v>-37705.93353123975</v>
+        <v>20699.72413522963</v>
       </c>
       <c r="E24" t="n">
-        <v>-52737.38040246266</v>
+        <v>116973.2623356611</v>
       </c>
     </row>
     <row r="25">
@@ -4779,16 +4779,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>95403.99999999996</v>
+        <v>100388.5000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>-111709.481017893</v>
+        <v>45914.20577663204</v>
       </c>
       <c r="D25" t="n">
-        <v>-45263.7330159417</v>
+        <v>13141.92465052767</v>
       </c>
       <c r="E25" t="n">
-        <v>-61569.21403383477</v>
+        <v>159444.6304271598</v>
       </c>
     </row>
     <row r="26">
@@ -4796,16 +4796,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>109434</v>
+        <v>134418.5000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>-127013.5151645633</v>
+        <v>61913.3733528328</v>
       </c>
       <c r="D26" t="n">
-        <v>-51631.13084721579</v>
+        <v>6774.526819253579</v>
       </c>
       <c r="E26" t="n">
-        <v>-69210.64601177908</v>
+        <v>203106.4001720865</v>
       </c>
     </row>
     <row r="27">
@@ -4813,16 +4813,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>123464</v>
+        <v>168448.5000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>-142317.5493112334</v>
+        <v>77912.54092903357</v>
       </c>
       <c r="D27" t="n">
-        <v>-56982.27994806856</v>
+        <v>1423.377718400809</v>
       </c>
       <c r="E27" t="n">
-        <v>-75835.82925930197</v>
+        <v>247784.4186474345</v>
       </c>
     </row>
   </sheetData>
@@ -4876,16 +4876,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-227286</v>
+        <v>-682301.4999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>240793.8574141148</v>
+        <v>-322595.0896362949</v>
       </c>
       <c r="D2" t="n">
-        <v>967217.1879695053</v>
+        <v>1025622.845635975</v>
       </c>
       <c r="E2" t="n">
-        <v>980725.0453836201</v>
+        <v>20726.25599967991</v>
       </c>
     </row>
     <row r="3">
@@ -4893,16 +4893,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-213256</v>
+        <v>-648271.4999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>225515.0973372466</v>
+        <v>-306622.3441181097</v>
       </c>
       <c r="D3" t="n">
-        <v>874637.2447028033</v>
+        <v>933042.9023692727</v>
       </c>
       <c r="E3" t="n">
-        <v>886896.3420400498</v>
+        <v>-21850.94174883689</v>
       </c>
     </row>
     <row r="4">
@@ -4910,16 +4910,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-199226</v>
+        <v>-614241.4999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>210236.3372603784</v>
+        <v>-290649.5985999244</v>
       </c>
       <c r="D4" t="n">
-        <v>785135.9254037588</v>
+        <v>843541.5830702281</v>
       </c>
       <c r="E4" t="n">
-        <v>796146.2626641372</v>
+        <v>-61349.51552969613</v>
       </c>
     </row>
     <row r="5">
@@ -4927,16 +4927,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-185196</v>
+        <v>-580211.4999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>194957.5771835102</v>
+        <v>-274676.8530817392</v>
       </c>
       <c r="D5" t="n">
-        <v>699345.193110185</v>
+        <v>757750.8507766543</v>
       </c>
       <c r="E5" t="n">
-        <v>709106.7702936952</v>
+        <v>-97137.50230508472</v>
       </c>
     </row>
     <row r="6">
@@ -4944,16 +4944,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-171166</v>
+        <v>-546181.4999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>179678.817106642</v>
+        <v>-258704.1075635539</v>
       </c>
       <c r="D6" t="n">
-        <v>617846.5310156099</v>
+        <v>676252.1886820792</v>
       </c>
       <c r="E6" t="n">
-        <v>626359.3481222519</v>
+        <v>-128633.4188814746</v>
       </c>
     </row>
     <row r="7">
@@ -4961,16 +4961,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-157136</v>
+        <v>-512151.4999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>164400.0570297739</v>
+        <v>-242731.3620453686</v>
       </c>
       <c r="D7" t="n">
-        <v>541135.9912415292</v>
+        <v>599541.6489079986</v>
       </c>
       <c r="E7" t="n">
-        <v>548400.0482713031</v>
+        <v>-155341.2131373698</v>
       </c>
     </row>
     <row r="8">
@@ -4978,16 +4978,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-143106</v>
+        <v>-478121.4999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>149121.2969529057</v>
+        <v>-226758.6165271834</v>
       </c>
       <c r="D8" t="n">
-        <v>469598.7744194079</v>
+        <v>528004.4320858773</v>
       </c>
       <c r="E8" t="n">
-        <v>475614.0713723137</v>
+        <v>-176875.6844413059</v>
       </c>
     </row>
     <row r="9">
@@ -4995,16 +4995,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-129076</v>
+        <v>-444091.4999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>133842.5368760375</v>
+        <v>-210785.8710089981</v>
       </c>
       <c r="D9" t="n">
-        <v>403494.7972162119</v>
+        <v>461900.4548826813</v>
       </c>
       <c r="E9" t="n">
-        <v>408261.3340922494</v>
+        <v>-192976.9161263168</v>
       </c>
     </row>
     <row r="10">
@@ -5012,16 +5012,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-115046</v>
+        <v>-410061.4999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>118563.7767991694</v>
+        <v>-194813.1254908129</v>
       </c>
       <c r="D10" t="n">
-        <v>342954.9943209422</v>
+        <v>401360.6519874115</v>
       </c>
       <c r="E10" t="n">
-        <v>346472.7711201116</v>
+        <v>-203513.9735034013</v>
       </c>
     </row>
     <row r="11">
@@ -5029,16 +5029,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-101016</v>
+        <v>-376031.4999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>103285.0167223012</v>
+        <v>-178840.3799726276</v>
       </c>
       <c r="D11" t="n">
-        <v>287986.8582575965</v>
+        <v>346392.5159240658</v>
       </c>
       <c r="E11" t="n">
-        <v>290255.8749798976</v>
+        <v>-208479.3640485615</v>
       </c>
     </row>
     <row r="12">
@@ -5046,16 +5046,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-86986.00000000004</v>
+        <v>-342001.4999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>88006.25664543296</v>
+        <v>-162867.6344544424</v>
       </c>
       <c r="D12" t="n">
-        <v>238487.0138340266</v>
+        <v>296892.671500496</v>
       </c>
       <c r="E12" t="n">
-        <v>239507.2704794595</v>
+        <v>-207976.4629539463</v>
       </c>
     </row>
     <row r="13">
@@ -5063,16 +5063,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-72956.00000000004</v>
+        <v>-307971.4999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>72727.49656856485</v>
+        <v>-146894.888936257</v>
       </c>
       <c r="D13" t="n">
-        <v>194258.3996471752</v>
+        <v>252664.0573136446</v>
       </c>
       <c r="E13" t="n">
-        <v>194029.89621574</v>
+        <v>-202202.3316226124</v>
       </c>
     </row>
     <row r="14">
@@ -5080,16 +5080,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-58926.00000000004</v>
+        <v>-273941.4999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>57448.73649169673</v>
+        <v>-130922.1434180718</v>
       </c>
       <c r="D14" t="n">
-        <v>155029.767289055</v>
+        <v>213435.4249555244</v>
       </c>
       <c r="E14" t="n">
-        <v>153552.5037807518</v>
+        <v>-191428.2184625473</v>
       </c>
     </row>
     <row r="15">
@@ -5097,16 +5097,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-44896.00000000004</v>
+        <v>-239911.4999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>42169.9764148285</v>
+        <v>-114949.3978998866</v>
       </c>
       <c r="D15" t="n">
-        <v>120475.573151604</v>
+        <v>178881.2308180733</v>
       </c>
       <c r="E15" t="n">
-        <v>117749.5495664325</v>
+        <v>-175979.6670818132</v>
       </c>
     </row>
     <row r="16">
@@ -5114,16 +5114,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-30866.00000000004</v>
+        <v>-205881.4999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>26891.21633796039</v>
+        <v>-98976.65238170134</v>
       </c>
       <c r="D16" t="n">
-        <v>90234.80564984521</v>
+        <v>148640.4633163146</v>
       </c>
       <c r="E16" t="n">
-        <v>86260.02198780555</v>
+        <v>-156217.6890653867</v>
       </c>
     </row>
     <row r="17">
@@ -5131,16 +5131,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-16836.00000000004</v>
+        <v>-171851.4999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>11612.45626109219</v>
+        <v>-83003.90686351605</v>
       </c>
       <c r="D17" t="n">
-        <v>63927.76931851164</v>
+        <v>122333.426984981</v>
       </c>
       <c r="E17" t="n">
-        <v>58704.22557960378</v>
+        <v>-132521.979878535</v>
       </c>
     </row>
     <row r="18">
@@ -5148,16 +5148,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-2806.00000000004</v>
+        <v>-137821.4999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>-3666.303815775958</v>
+        <v>-67031.16134533077</v>
       </c>
       <c r="D18" t="n">
-        <v>41170.27632595546</v>
+        <v>99575.93399242483</v>
       </c>
       <c r="E18" t="n">
-        <v>34697.97251017946</v>
+        <v>-105276.7273529058</v>
       </c>
     </row>
     <row r="19">
@@ -5165,16 +5165,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>11223.99999999996</v>
+        <v>-103791.4999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>-18945.06389264419</v>
+        <v>-51058.41582714557</v>
       </c>
       <c r="D19" t="n">
-        <v>21585.0440809362</v>
+        <v>79990.70174740558</v>
       </c>
       <c r="E19" t="n">
-        <v>13863.98018829197</v>
+        <v>-74859.21407973988</v>
       </c>
     </row>
     <row r="20">
@@ -5182,16 +5182,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>25253.99999999996</v>
+        <v>-69761.4999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-34223.8239695123</v>
+        <v>-35085.67030896031</v>
       </c>
       <c r="D20" t="n">
-        <v>4810.355234341035</v>
+        <v>63216.0129008104</v>
       </c>
       <c r="E20" t="n">
-        <v>-4159.46873517131</v>
+        <v>-41631.15740814981</v>
       </c>
     </row>
     <row r="21">
@@ -5199,16 +5199,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>39283.99999999996</v>
+        <v>-35731.49999999991</v>
       </c>
       <c r="C21" t="n">
-        <v>-49502.58404638039</v>
+        <v>-19112.92479077503</v>
       </c>
       <c r="D21" t="n">
-        <v>-9493.791640319227</v>
+        <v>48911.86602615014</v>
       </c>
       <c r="E21" t="n">
-        <v>-19712.37568669966</v>
+        <v>-5932.558764624788</v>
       </c>
     </row>
     <row r="22">
@@ -5216,16 +5216,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>53313.99999999996</v>
+        <v>-1701.499999999903</v>
       </c>
       <c r="C22" t="n">
-        <v>-64781.34412324874</v>
+        <v>-3140.179272589769</v>
       </c>
       <c r="D22" t="n">
-        <v>-21641.71322917779</v>
+        <v>36763.94443729159</v>
       </c>
       <c r="E22" t="n">
-        <v>-33109.05735242656</v>
+        <v>31922.26516470192</v>
       </c>
     </row>
     <row r="23">
@@ -5233,16 +5233,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>67343.99999999996</v>
+        <v>32328.5000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>-80060.10420011685</v>
+        <v>12832.56624559543</v>
       </c>
       <c r="D23" t="n">
-        <v>-31919.88470978679</v>
+        <v>26485.77295668257</v>
       </c>
       <c r="E23" t="n">
-        <v>-44635.9889099037</v>
+        <v>71646.8392022781</v>
       </c>
     </row>
     <row r="24">
@@ -5250,16 +5250,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>81373.99999999996</v>
+        <v>66358.5000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>-95338.864276985</v>
+        <v>28805.31176378072</v>
       </c>
       <c r="D24" t="n">
-        <v>-40586.22374409197</v>
+        <v>17819.43392237739</v>
       </c>
       <c r="E24" t="n">
-        <v>-54551.08802107701</v>
+        <v>112983.2456861582</v>
       </c>
     </row>
     <row r="25">
@@ -5267,16 +5267,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>95403.99999999996</v>
+        <v>100388.5000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>-110617.6243538531</v>
+        <v>44778.05728196591</v>
       </c>
       <c r="D25" t="n">
-        <v>-47870.46928271835</v>
+        <v>10535.18838375102</v>
       </c>
       <c r="E25" t="n">
-        <v>-63084.0936365715</v>
+        <v>155701.7456657171</v>
       </c>
     </row>
     <row r="26">
@@ -5284,16 +5284,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>109434</v>
+        <v>134418.5000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>-125896.3844307214</v>
+        <v>60750.8028001512</v>
       </c>
       <c r="D26" t="n">
-        <v>-53975.350002084</v>
+        <v>4430.307664385369</v>
       </c>
       <c r="E26" t="n">
-        <v>-70437.73443280548</v>
+        <v>199599.6104645366</v>
       </c>
     </row>
     <row r="27">
@@ -5301,16 +5301,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>123464</v>
+        <v>168448.5000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>-141175.1445075895</v>
+        <v>76723.54831833651</v>
       </c>
       <c r="D27" t="n">
-        <v>-59078.28484636718</v>
+        <v>-672.6271798978109</v>
       </c>
       <c r="E27" t="n">
-        <v>-76789.42935395677</v>
+        <v>244499.4211384388</v>
       </c>
     </row>
   </sheetData>
@@ -5364,16 +5364,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-227286</v>
+        <v>-682301.4999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>242086.0931854277</v>
+        <v>-323932.6011033034</v>
       </c>
       <c r="D2" t="n">
-        <v>976551.25835803</v>
+        <v>1034956.916024499</v>
       </c>
       <c r="E2" t="n">
-        <v>991351.3515434577</v>
+        <v>28722.8149211962</v>
       </c>
     </row>
     <row r="3">
@@ -5381,16 +5381,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-213256</v>
+        <v>-648271.4999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>226871.303065325</v>
+        <v>-308026.7311584686</v>
       </c>
       <c r="D3" t="n">
-        <v>882328.2455820671</v>
+        <v>940733.9032485364</v>
       </c>
       <c r="E3" t="n">
-        <v>895943.5486473921</v>
+        <v>-15564.32790993201</v>
       </c>
     </row>
     <row r="4">
@@ -5398,16 +5398,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-199226</v>
+        <v>-614241.4999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>211656.5129452223</v>
+        <v>-292120.8612136338</v>
       </c>
       <c r="D4" t="n">
-        <v>790872.8574108025</v>
+        <v>849278.5150772717</v>
       </c>
       <c r="E4" t="n">
-        <v>803303.3703560248</v>
+        <v>-57083.84613636194</v>
       </c>
     </row>
     <row r="5">
@@ -5415,16 +5415,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-185196</v>
+        <v>-580211.4999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>196441.7228251197</v>
+        <v>-276214.9912687989</v>
       </c>
       <c r="D5" t="n">
-        <v>702883.8532697321</v>
+        <v>761289.5109362014</v>
       </c>
       <c r="E5" t="n">
-        <v>714129.5760948517</v>
+        <v>-95136.98033259739</v>
       </c>
     </row>
     <row r="6">
@@ -5432,16 +5432,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-171166</v>
+        <v>-546181.4999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>181226.9327050169</v>
+        <v>-260309.1213239641</v>
       </c>
       <c r="D6" t="n">
-        <v>619035.3033471083</v>
+        <v>677440.9610135776</v>
       </c>
       <c r="E6" t="n">
-        <v>629096.2360521252</v>
+        <v>-129049.6603103863</v>
       </c>
     </row>
     <row r="7">
@@ -5449,16 +5449,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-157136</v>
+        <v>-512151.4999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>166012.1425849142</v>
+        <v>-244403.2513791292</v>
       </c>
       <c r="D7" t="n">
-        <v>539930.0362594305</v>
+        <v>598335.6939258998</v>
       </c>
       <c r="E7" t="n">
-        <v>548806.1788443447</v>
+        <v>-158219.0574532293</v>
       </c>
     </row>
     <row r="8">
@@ -5466,16 +5466,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-143106</v>
+        <v>-478121.4999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>150797.3524648115</v>
+        <v>-228497.3814342944</v>
       </c>
       <c r="D8" t="n">
-        <v>466061.7429477131</v>
+        <v>524467.4006141825</v>
       </c>
       <c r="E8" t="n">
-        <v>473753.0954125246</v>
+        <v>-182151.4808201118</v>
       </c>
     </row>
     <row r="9">
@@ -5483,16 +5483,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-129076</v>
+        <v>-444091.4999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>135582.5623447088</v>
+        <v>-212591.5114894596</v>
       </c>
       <c r="D9" t="n">
-        <v>397789.3983357708</v>
+        <v>456195.0560022402</v>
       </c>
       <c r="E9" t="n">
-        <v>404295.9606804795</v>
+        <v>-200487.9554872194</v>
       </c>
     </row>
     <row r="10">
@@ -5500,16 +5500,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-115046</v>
+        <v>-410061.4999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>120367.7722246062</v>
+        <v>-196685.6415446248</v>
       </c>
       <c r="D10" t="n">
-        <v>335325.2130505345</v>
+        <v>393730.8707170038</v>
       </c>
       <c r="E10" t="n">
-        <v>340646.9852751406</v>
+        <v>-213016.2708276209</v>
       </c>
     </row>
     <row r="11">
@@ -5517,16 +5517,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-101016</v>
+        <v>-376031.4999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>105152.9821045034</v>
+        <v>-180779.77159979</v>
       </c>
       <c r="D11" t="n">
-        <v>278735.2491643317</v>
+        <v>337140.906830801</v>
       </c>
       <c r="E11" t="n">
-        <v>282872.2312688351</v>
+        <v>-219670.3647689888</v>
       </c>
     </row>
     <row r="12">
@@ -5534,16 +5534,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-86986.00000000004</v>
+        <v>-342001.4999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>89938.19198440071</v>
+        <v>-164873.9016549551</v>
       </c>
       <c r="D12" t="n">
-        <v>227950.4122858565</v>
+        <v>286356.0699523258</v>
       </c>
       <c r="E12" t="n">
-        <v>230902.6042702572</v>
+        <v>-220519.3317026292</v>
       </c>
     </row>
     <row r="13">
@@ -5551,16 +5551,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-72956.00000000004</v>
+        <v>-307971.4999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>74723.4018642981</v>
+        <v>-148968.0317101203</v>
       </c>
       <c r="D13" t="n">
-        <v>182784.822055075</v>
+        <v>241190.4797215444</v>
       </c>
       <c r="E13" t="n">
-        <v>184552.2239193731</v>
+        <v>-215749.0519885758</v>
       </c>
     </row>
     <row r="14">
@@ -5568,16 +5568,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-58926.00000000004</v>
+        <v>-273941.4999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>59508.61174419525</v>
+        <v>-133062.1617652854</v>
       </c>
       <c r="D14" t="n">
-        <v>142958.4617056221</v>
+        <v>201364.1193720915</v>
       </c>
       <c r="E14" t="n">
-        <v>143541.0734498173</v>
+        <v>-205639.5423931938</v>
       </c>
     </row>
     <row r="15">
@@ -5585,16 +5585,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-44896.00000000004</v>
+        <v>-239911.4999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>44293.82162409252</v>
+        <v>-117156.2918204506</v>
       </c>
       <c r="D15" t="n">
-        <v>108121.3368102933</v>
+        <v>166526.9944767627</v>
       </c>
       <c r="E15" t="n">
-        <v>107519.1584343858</v>
+        <v>-190540.7973436879</v>
       </c>
     </row>
     <row r="16">
@@ -5602,16 +5602,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-30866.00000000004</v>
+        <v>-205881.4999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>29079.03150398991</v>
+        <v>-101250.4218756157</v>
       </c>
       <c r="D16" t="n">
-        <v>77876.94482805816</v>
+        <v>136282.6024945275</v>
       </c>
       <c r="E16" t="n">
-        <v>76089.97633204803</v>
+        <v>-170849.3193810881</v>
       </c>
     </row>
     <row r="17">
@@ -5619,16 +5619,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-16836.00000000004</v>
+        <v>-171851.4999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>13864.24138388719</v>
+        <v>-85344.55193078099</v>
       </c>
       <c r="D17" t="n">
-        <v>51803.510886185</v>
+        <v>110209.1685526544</v>
       </c>
       <c r="E17" t="n">
-        <v>48831.75227007215</v>
+        <v>-146986.8833781265</v>
       </c>
     </row>
     <row r="18">
@@ -5636,16 +5636,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-2806.00000000004</v>
+        <v>-137821.4999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>-1350.54873621554</v>
+        <v>-69438.68198594617</v>
       </c>
       <c r="D18" t="n">
-        <v>29472.06765082169</v>
+        <v>87877.72531729106</v>
       </c>
       <c r="E18" t="n">
-        <v>25315.51891460611</v>
+        <v>-119382.456668655</v>
       </c>
     </row>
     <row r="19">
@@ -5653,16 +5653,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>11223.99999999996</v>
+        <v>-103791.4999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>-16565.33885631812</v>
+        <v>-53532.81204111132</v>
       </c>
       <c r="D19" t="n">
-        <v>10460.98131121029</v>
+        <v>68866.63897767966</v>
       </c>
       <c r="E19" t="n">
-        <v>5119.642454892131</v>
+        <v>-88457.67306343158</v>
       </c>
     </row>
     <row r="20">
@@ -5670,16 +5670,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>25253.99999999996</v>
+        <v>-69761.4999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-31780.12897642085</v>
+        <v>-37626.94209627644</v>
       </c>
       <c r="D20" t="n">
-        <v>-5633.076496060574</v>
+        <v>52772.5811704088</v>
       </c>
       <c r="E20" t="n">
-        <v>-12159.20547248146</v>
+        <v>-54615.86092586754</v>
       </c>
     </row>
     <row r="21">
@@ -5687,16 +5687,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>39283.99999999996</v>
+        <v>-35731.49999999991</v>
       </c>
       <c r="C21" t="n">
-        <v>-46994.91909652358</v>
+        <v>-21721.07215144162</v>
       </c>
       <c r="D21" t="n">
-        <v>-19187.44033717788</v>
+        <v>39218.2173292915</v>
       </c>
       <c r="E21" t="n">
-        <v>-26898.35943370149</v>
+        <v>-18234.35482215003</v>
       </c>
     </row>
     <row r="22">
@@ -5704,16 +5704,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>53313.99999999996</v>
+        <v>-1701.499999999903</v>
       </c>
       <c r="C22" t="n">
-        <v>-62209.70921662622</v>
+        <v>-5815.202206606831</v>
       </c>
       <c r="D22" t="n">
-        <v>-30548.61662769186</v>
+        <v>27857.04103877751</v>
       </c>
       <c r="E22" t="n">
-        <v>-39444.32584431811</v>
+        <v>20340.33883217078</v>
       </c>
     </row>
     <row r="23">
@@ -5721,16 +5721,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>67343.99999999996</v>
+        <v>32328.5000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>-77424.49933672894</v>
+        <v>10090.66773822805</v>
       </c>
       <c r="D23" t="n">
-        <v>-40029.8030808597</v>
+        <v>18375.85458560966</v>
       </c>
       <c r="E23" t="n">
-        <v>-50110.30241758869</v>
+        <v>60795.02232383781</v>
       </c>
     </row>
     <row r="24">
@@ -5738,16 +5738,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>81373.99999999996</v>
+        <v>66358.5000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>-92639.28945683167</v>
+        <v>25996.53768306287</v>
       </c>
       <c r="D24" t="n">
-        <v>-47910.25515558743</v>
+        <v>10495.40251088194</v>
       </c>
       <c r="E24" t="n">
-        <v>-59175.54461241914</v>
+        <v>102850.4401939449</v>
       </c>
     </row>
     <row r="25">
@@ -5755,16 +5755,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>95403.99999999996</v>
+        <v>100388.5000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>-107854.0795769343</v>
+        <v>41902.40762789763</v>
       </c>
       <c r="D25" t="n">
-        <v>-54436.02794036908</v>
+        <v>3969.629726100288</v>
       </c>
       <c r="E25" t="n">
-        <v>-66886.1075173034</v>
+        <v>146260.537353998</v>
       </c>
     </row>
     <row r="26">
@@ -5772,16 +5772,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>109434</v>
+        <v>134418.5000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>-123068.869697037</v>
+        <v>57808.27757273248</v>
       </c>
       <c r="D26" t="n">
-        <v>-59821.68089753369</v>
+        <v>-1416.023231064323</v>
       </c>
       <c r="E26" t="n">
-        <v>-73456.55059457071</v>
+        <v>190810.7543416682</v>
       </c>
     </row>
     <row r="27">
@@ -5789,16 +5789,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>123464</v>
+        <v>168448.5000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>-138283.6598171398</v>
+        <v>73714.14751756735</v>
       </c>
       <c r="D27" t="n">
-        <v>-64252.60205744165</v>
+        <v>-5846.944390972275</v>
       </c>
       <c r="E27" t="n">
-        <v>-79072.26187458151</v>
+        <v>236315.7031265952</v>
       </c>
     </row>
   </sheetData>
@@ -5852,16 +5852,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-227286</v>
+        <v>-682301.4999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>243256.1574023972</v>
+        <v>-325143.6605261075</v>
       </c>
       <c r="D2" t="n">
-        <v>985656.4428008638</v>
+        <v>1044062.100467333</v>
       </c>
       <c r="E2" t="n">
-        <v>1001626.600203261</v>
+        <v>36616.93994122569</v>
       </c>
     </row>
     <row r="3">
@@ -5869,16 +5869,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-213256</v>
+        <v>-648271.4999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>228099.2893419016</v>
+        <v>-309298.3435524129</v>
       </c>
       <c r="D3" t="n">
-        <v>889983.4997005092</v>
+        <v>948389.1573669787</v>
       </c>
       <c r="E3" t="n">
-        <v>904826.7890424108</v>
+        <v>-9180.686185434111</v>
       </c>
     </row>
     <row r="4">
@@ -5886,16 +5886,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-199226</v>
+        <v>-614241.4999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>212942.421281406</v>
+        <v>-293453.0265787183</v>
       </c>
       <c r="D4" t="n">
-        <v>796727.1529746603</v>
+        <v>855132.8106411295</v>
       </c>
       <c r="E4" t="n">
-        <v>810443.5742560662</v>
+        <v>-52561.7159375886</v>
       </c>
     </row>
     <row r="5">
@@ -5903,16 +5903,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-185196</v>
+        <v>-580211.4999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>197785.5532209103</v>
+        <v>-277607.7096050237</v>
       </c>
       <c r="D5" t="n">
-        <v>706638.4562762813</v>
+        <v>765044.1139427507</v>
       </c>
       <c r="E5" t="n">
-        <v>719228.0094971915</v>
+        <v>-92775.09566227277</v>
       </c>
     </row>
     <row r="6">
@@ -5920,16 +5920,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-171166</v>
+        <v>-546181.4999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>182628.6851604147</v>
+        <v>-261762.3926313291</v>
       </c>
       <c r="D6" t="n">
-        <v>620479.9412954117</v>
+        <v>678885.598961881</v>
       </c>
       <c r="E6" t="n">
-        <v>631942.6264558263</v>
+        <v>-129058.2936694479</v>
       </c>
     </row>
     <row r="7">
@@ -5937,16 +5937,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-157136</v>
+        <v>-512151.4999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>167471.8170999191</v>
+        <v>-245917.0756576344</v>
       </c>
       <c r="D7" t="n">
-        <v>538967.3323793955</v>
+        <v>597372.9900458648</v>
       </c>
       <c r="E7" t="n">
-        <v>549303.1494793146</v>
+        <v>-160695.5856117695</v>
       </c>
     </row>
     <row r="8">
@@ -5954,16 +5954,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-143106</v>
+        <v>-478121.4999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>152314.9490394233</v>
+        <v>-230071.7586839398</v>
       </c>
       <c r="D8" t="n">
-        <v>462716.7605035704</v>
+        <v>521122.4181700398</v>
       </c>
       <c r="E8" t="n">
-        <v>471925.7095429937</v>
+        <v>-187070.8405138999</v>
       </c>
     </row>
     <row r="9">
@@ -5971,16 +5971,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-129076</v>
+        <v>-444091.4999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>137158.0809789278</v>
+        <v>-214226.4417102452</v>
       </c>
       <c r="D9" t="n">
-        <v>392204.3850658401</v>
+        <v>450610.0427323094</v>
       </c>
       <c r="E9" t="n">
-        <v>400286.4660447678</v>
+        <v>-207707.8989779357</v>
       </c>
     </row>
     <row r="10">
@@ -5988,16 +5988,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-115046</v>
+        <v>-410061.4999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>122001.2129184321</v>
+        <v>-198381.1247365506</v>
       </c>
       <c r="D10" t="n">
-        <v>327742.2048649169</v>
+        <v>386147.8625313863</v>
       </c>
       <c r="E10" t="n">
-        <v>334697.4177833489</v>
+        <v>-222294.7622051642</v>
       </c>
     </row>
     <row r="11">
@@ -6005,16 +6005,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-101016</v>
+        <v>-376031.4999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>106844.3448579365</v>
+        <v>-182535.8077628559</v>
       </c>
       <c r="D11" t="n">
-        <v>269470.6639206117</v>
+        <v>327876.3215870811</v>
       </c>
       <c r="E11" t="n">
-        <v>275299.0087785482</v>
+        <v>-230690.9861757747</v>
       </c>
     </row>
     <row r="12">
@@ -6022,16 +6022,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-86986.00000000004</v>
+        <v>-342001.4999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>91687.47679744088</v>
+        <v>-166690.4907891613</v>
       </c>
       <c r="D12" t="n">
-        <v>217366.1230809342</v>
+        <v>275771.7807474036</v>
       </c>
       <c r="E12" t="n">
-        <v>222067.599878375</v>
+        <v>-232920.2100417576</v>
       </c>
     </row>
     <row r="13">
@@ -6039,16 +6039,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-72956.00000000004</v>
+        <v>-307971.4999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>76530.60873694517</v>
+        <v>-150845.1738154667</v>
       </c>
       <c r="D13" t="n">
-        <v>171259.6952971307</v>
+        <v>229665.3529636001</v>
       </c>
       <c r="E13" t="n">
-        <v>174834.3040340759</v>
+        <v>-229151.3208518665</v>
       </c>
     </row>
     <row r="14">
@@ -6056,16 +6056,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-58926.00000000004</v>
+        <v>-273941.4999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>61373.74067644947</v>
+        <v>-134999.8568417721</v>
       </c>
       <c r="D14" t="n">
-        <v>130863.3350414289</v>
+        <v>189268.9927078983</v>
       </c>
       <c r="E14" t="n">
-        <v>133311.0757178784</v>
+        <v>-219672.3641338737</v>
       </c>
     </row>
     <row r="15">
@@ -6073,16 +6073,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-44896.00000000004</v>
+        <v>-239911.4999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>46216.87261595388</v>
+        <v>-119154.5398680775</v>
       </c>
       <c r="D15" t="n">
-        <v>95799.23490635962</v>
+        <v>154204.892572829</v>
       </c>
       <c r="E15" t="n">
-        <v>97120.10752231345</v>
+        <v>-204861.1472952484</v>
       </c>
     </row>
     <row r="16">
@@ -6090,16 +6090,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-30866.00000000004</v>
+        <v>-205881.4999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>31060.00455545829</v>
+        <v>-103309.2228943829</v>
       </c>
       <c r="D16" t="n">
-        <v>65629.23948056425</v>
+        <v>124034.8971470336</v>
       </c>
       <c r="E16" t="n">
-        <v>65823.2440360225</v>
+        <v>-185155.8257473492</v>
       </c>
     </row>
     <row r="17">
@@ -6107,16 +6107,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-16836.00000000004</v>
+        <v>-171851.4999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>15903.13649496273</v>
+        <v>-87463.90592068818</v>
       </c>
       <c r="D17" t="n">
-        <v>39881.8719691365</v>
+        <v>98287.52963560587</v>
       </c>
       <c r="E17" t="n">
-        <v>38949.0084640992</v>
+        <v>-161027.8762850822</v>
       </c>
     </row>
     <row r="18">
@@ -6124,16 +6124,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-2806.00000000004</v>
+        <v>-137821.4999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>746.268434467027</v>
+        <v>-71618.58894699352</v>
       </c>
       <c r="D18" t="n">
-        <v>18075.47516363171</v>
+        <v>76481.13283010107</v>
       </c>
       <c r="E18" t="n">
-        <v>16015.74359809869</v>
+        <v>-132958.9561168924</v>
       </c>
     </row>
     <row r="19">
@@ -6141,16 +6141,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>11223.99999999996</v>
+        <v>-103791.4999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>-14410.59962602856</v>
+        <v>-55773.27197329892</v>
       </c>
       <c r="D19" t="n">
-        <v>-263.2380436820458</v>
+        <v>58142.41962278732</v>
       </c>
       <c r="E19" t="n">
-        <v>-3449.837669710647</v>
+        <v>-101422.3523505115</v>
       </c>
     </row>
     <row r="20">
@@ -6158,16 +6158,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>25253.99999999996</v>
+        <v>-69761.4999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-29567.46768652427</v>
+        <v>-39927.95499960432</v>
       </c>
       <c r="D20" t="n">
-        <v>-15585.31370504663</v>
+        <v>42820.34396142274</v>
       </c>
       <c r="E20" t="n">
-        <v>-19898.78139157094</v>
+        <v>-66869.11103818148</v>
       </c>
     </row>
     <row r="21">
@@ -6175,16 +6175,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>39283.99999999996</v>
+        <v>-35731.49999999991</v>
       </c>
       <c r="C21" t="n">
-        <v>-44724.33574701997</v>
+        <v>-24082.63802590966</v>
       </c>
       <c r="D21" t="n">
-        <v>-28310.03080176935</v>
+        <v>30095.62686470002</v>
       </c>
       <c r="E21" t="n">
-        <v>-33750.36654878936</v>
+        <v>-29718.51116120955</v>
       </c>
     </row>
     <row r="22">
@@ -6192,16 +6192,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>53313.99999999996</v>
+        <v>-1701.499999999903</v>
       </c>
       <c r="C22" t="n">
-        <v>-59881.20380751553</v>
+        <v>-8237.321052215033</v>
       </c>
       <c r="D22" t="n">
-        <v>-38819.1355040913</v>
+        <v>19586.52216237806</v>
       </c>
       <c r="E22" t="n">
-        <v>-45386.33931160687</v>
+        <v>9647.701110163123</v>
       </c>
     </row>
     <row r="23">
@@ -6209,16 +6209,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>67343.99999999996</v>
+        <v>32328.5000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>-75038.07186801112</v>
+        <v>7607.995921479567</v>
       </c>
       <c r="D23" t="n">
-        <v>-47454.14025890293</v>
+        <v>10951.51740756644</v>
       </c>
       <c r="E23" t="n">
-        <v>-55148.21212691409</v>
+        <v>50888.01332904611</v>
       </c>
     </row>
     <row r="24">
@@ -6226,16 +6226,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>81373.99999999996</v>
+        <v>66358.5000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>-90194.93992850673</v>
+        <v>23453.31289517414</v>
       </c>
       <c r="D24" t="n">
-        <v>-54515.98198997595</v>
+        <v>3889.67567649342</v>
       </c>
       <c r="E24" t="n">
-        <v>-63336.92191848272</v>
+        <v>93701.48857166767</v>
       </c>
     </row>
     <row r="25">
@@ -6243,16 +6243,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>95403.99999999996</v>
+        <v>100388.5000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>-105351.8079890026</v>
+        <v>39298.62986886874</v>
       </c>
       <c r="D25" t="n">
-        <v>-60266.38814481316</v>
+        <v>-1860.730478343797</v>
       </c>
       <c r="E25" t="n">
-        <v>-70214.19613381576</v>
+        <v>137826.3993905251</v>
       </c>
     </row>
     <row r="26">
@@ -6260,16 +6260,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>109434</v>
+        <v>134418.5000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>-120508.6760494981</v>
+        <v>55143.94684256345</v>
       </c>
       <c r="D26" t="n">
-        <v>-64930.38923402814</v>
+        <v>-6524.731567558772</v>
       </c>
       <c r="E26" t="n">
-        <v>-76005.06528352632</v>
+        <v>183037.7152750048</v>
       </c>
     </row>
     <row r="27">
@@ -6277,16 +6277,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>123464</v>
+        <v>168448.5000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>-135665.5441099937</v>
+        <v>70989.26381625806</v>
       </c>
       <c r="D27" t="n">
-        <v>-68699.52020949435</v>
+        <v>-10293.86254302498</v>
       </c>
       <c r="E27" t="n">
-        <v>-80901.06431948813</v>
+        <v>229143.9012732331</v>
       </c>
     </row>
   </sheetData>
@@ -6340,16 +6340,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-227286</v>
+        <v>-682301.4999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>244266.6093444639</v>
+        <v>-326189.5153843134</v>
       </c>
       <c r="D2" t="n">
-        <v>994070.4838800615</v>
+        <v>1052476.141546531</v>
       </c>
       <c r="E2" t="n">
-        <v>1011051.093224525</v>
+        <v>43985.12616221781</v>
       </c>
     </row>
     <row r="3">
@@ -6357,16 +6357,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-213256</v>
+        <v>-648271.4999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>229159.7620065659</v>
+        <v>-310396.4911535291</v>
       </c>
       <c r="D3" t="n">
-        <v>897212.1679142336</v>
+        <v>955617.8255807031</v>
       </c>
       <c r="E3" t="n">
-        <v>913115.9299207994</v>
+        <v>-3050.165572825819</v>
       </c>
     </row>
     <row r="4">
@@ -6374,16 +6374,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-199226</v>
+        <v>-614241.4999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>214052.9146686678</v>
+        <v>-294603.4669227448</v>
       </c>
       <c r="D4" t="n">
-        <v>802406.5489572564</v>
+        <v>860812.2066237257</v>
       </c>
       <c r="E4" t="n">
-        <v>817233.4636259242</v>
+        <v>-48032.76029901893</v>
       </c>
     </row>
     <row r="5">
@@ -6391,16 +6391,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-185196</v>
+        <v>-580211.4999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>198946.0673307698</v>
+        <v>-278810.4426919604</v>
       </c>
       <c r="D5" t="n">
-        <v>710434.2595873401</v>
+        <v>768839.9172538095</v>
       </c>
       <c r="E5" t="n">
-        <v>724184.3269181099</v>
+        <v>-90182.02543815086</v>
       </c>
     </row>
     <row r="6">
@@ -6408,16 +6408,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-171166</v>
+        <v>-546181.4999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>183839.2199928718</v>
+        <v>-263017.4184611761</v>
       </c>
       <c r="D6" t="n">
-        <v>622132.1949434467</v>
+        <v>680537.852609916</v>
       </c>
       <c r="E6" t="n">
-        <v>634805.4149363184</v>
+        <v>-128661.06585126</v>
       </c>
     </row>
     <row r="7">
@@ -6425,16 +6425,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-157136</v>
+        <v>-512151.4999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>168732.3726549738</v>
+        <v>-247224.3942303918</v>
       </c>
       <c r="D7" t="n">
-        <v>538325.6868494104</v>
+        <v>596731.3445158798</v>
       </c>
       <c r="E7" t="n">
-        <v>549922.0595043842</v>
+        <v>-162644.549714512</v>
       </c>
     </row>
     <row r="8">
@@ -6442,16 +6442,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-143106</v>
+        <v>-478121.4999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>153625.5253170758</v>
+        <v>-231431.3699996075</v>
       </c>
       <c r="D8" t="n">
-        <v>459759.9076731173</v>
+        <v>518165.5653395866</v>
       </c>
       <c r="E8" t="n">
-        <v>470279.4329901931</v>
+        <v>-191387.3046600207</v>
       </c>
     </row>
     <row r="9">
@@ -6459,16 +6459,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-129076</v>
+        <v>-444091.4999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>138518.6779791778</v>
+        <v>-215638.3457688231</v>
       </c>
       <c r="D9" t="n">
-        <v>387041.5308566949</v>
+        <v>445447.1885231643</v>
       </c>
       <c r="E9" t="n">
-        <v>396484.2088358727</v>
+        <v>-214282.6572456588</v>
       </c>
     </row>
     <row r="10">
@@ -6476,16 +6476,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-115046</v>
+        <v>-410061.4999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>123411.8306412799</v>
+        <v>-199845.3215380388</v>
       </c>
       <c r="D10" t="n">
-        <v>320598.3276877424</v>
+        <v>379003.9853542117</v>
       </c>
       <c r="E10" t="n">
-        <v>328964.1583290222</v>
+        <v>-230902.836183827</v>
       </c>
     </row>
     <row r="11">
@@ -6493,16 +6493,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-101016</v>
+        <v>-376031.4999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>108304.9833033818</v>
+        <v>-184052.2973072545</v>
       </c>
       <c r="D11" t="n">
-        <v>260660.009943597</v>
+        <v>319065.6676100664</v>
       </c>
       <c r="E11" t="n">
-        <v>267948.9932469787</v>
+        <v>-241018.1296971879</v>
       </c>
     </row>
     <row r="12">
@@ -6510,16 +6510,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-86986.00000000004</v>
+        <v>-342001.4999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>93198.13596548379</v>
+        <v>-168259.2730764702</v>
       </c>
       <c r="D12" t="n">
-        <v>207259.5469068666</v>
+        <v>265665.2045733359</v>
       </c>
       <c r="E12" t="n">
-        <v>213471.6828723503</v>
+        <v>-244595.5685031341</v>
       </c>
     </row>
     <row r="13">
@@ -6527,16 +6527,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-72956.00000000004</v>
+        <v>-307971.4999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>78091.28862758583</v>
+        <v>-152466.2488456858</v>
       </c>
       <c r="D13" t="n">
-        <v>160251.232651651</v>
+        <v>218656.8903181204</v>
       </c>
       <c r="E13" t="n">
-        <v>165386.5212792368</v>
+        <v>-241780.8585275653</v>
       </c>
     </row>
     <row r="14">
@@ -6544,16 +6544,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-58926.00000000004</v>
+        <v>-273941.4999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>62984.44128968785</v>
+        <v>-136673.2246149015</v>
       </c>
       <c r="D14" t="n">
-        <v>119340.2482624603</v>
+        <v>177745.9059289297</v>
       </c>
       <c r="E14" t="n">
-        <v>123398.6895521481</v>
+        <v>-232868.8186859717</v>
       </c>
     </row>
     <row r="15">
@@ -6561,16 +6561,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-44896.00000000004</v>
+        <v>-239911.4999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>47877.59395178978</v>
+        <v>-120880.2003841172</v>
       </c>
       <c r="D15" t="n">
-        <v>84118.21981767096</v>
+        <v>142523.8774841403</v>
       </c>
       <c r="E15" t="n">
-        <v>87099.81376946071</v>
+        <v>-218267.8228999767</v>
       </c>
     </row>
     <row r="16">
@@ -6578,16 +6578,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-30866.00000000004</v>
+        <v>-205881.4999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>32770.7466138918</v>
+        <v>-105087.1761533328</v>
       </c>
       <c r="D16" t="n">
-        <v>54099.94956269633</v>
+        <v>112505.6072291657</v>
       </c>
       <c r="E16" t="n">
-        <v>56004.69617658808</v>
+        <v>-198463.068924167</v>
       </c>
     </row>
     <row r="17">
@@ -6595,16 +6595,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-16836.00000000004</v>
+        <v>-171851.4999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>17663.89927599381</v>
+        <v>-89294.15192254854</v>
       </c>
       <c r="D17" t="n">
-        <v>28757.67134195315</v>
+        <v>87163.32900842252</v>
       </c>
       <c r="E17" t="n">
-        <v>29585.57061794692</v>
+        <v>-173982.3229141259</v>
       </c>
     </row>
     <row r="18">
@@ -6612,16 +6612,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-2806.00000000004</v>
+        <v>-137821.4999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>2557.051938095741</v>
+        <v>-73501.12769176412</v>
       </c>
       <c r="D18" t="n">
-        <v>7550.488957113322</v>
+        <v>65956.1466235827</v>
       </c>
       <c r="E18" t="n">
-        <v>7301.540895209023</v>
+        <v>-145366.4810681813</v>
       </c>
     </row>
     <row r="19">
@@ -6629,16 +6629,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>11223.99999999996</v>
+        <v>-103791.4999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>-12549.79539980224</v>
+        <v>-57708.10346097985</v>
       </c>
       <c r="D19" t="n">
-        <v>-10052.15289323569</v>
+        <v>48353.50477323368</v>
       </c>
       <c r="E19" t="n">
-        <v>-11377.94829303797</v>
+        <v>-113146.0986877461</v>
       </c>
     </row>
     <row r="20">
@@ -6646,16 +6646,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>25253.99999999996</v>
+        <v>-69761.4999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-27656.64273770023</v>
+        <v>-41915.07923019558</v>
       </c>
       <c r="D20" t="n">
-        <v>-24553.17514659692</v>
+        <v>33852.48251987245</v>
       </c>
       <c r="E20" t="n">
-        <v>-26955.81788429718</v>
+        <v>-77824.09671032304</v>
       </c>
     </row>
     <row r="21">
@@ -6663,16 +6663,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>39283.99999999996</v>
+        <v>-35731.49999999991</v>
       </c>
       <c r="C21" t="n">
-        <v>-42763.4900755983</v>
+        <v>-26122.05499941116</v>
       </c>
       <c r="D21" t="n">
-        <v>-36416.30940371439</v>
+        <v>21989.34826275498</v>
       </c>
       <c r="E21" t="n">
-        <v>-39895.79947931272</v>
+        <v>-39864.20673665609</v>
       </c>
     </row>
     <row r="22">
@@ -6680,16 +6680,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>53313.99999999996</v>
+        <v>-1701.499999999903</v>
       </c>
       <c r="C22" t="n">
-        <v>-57870.33741349616</v>
+        <v>-10329.03076862689</v>
       </c>
       <c r="D22" t="n">
-        <v>-46059.46371004745</v>
+        <v>12346.19395642191</v>
       </c>
       <c r="E22" t="n">
-        <v>-50615.80112354365</v>
+        <v>315.6631877951168</v>
       </c>
     </row>
     <row r="23">
@@ -6697,16 +6697,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>67343.99999999996</v>
+        <v>32328.5000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>-72977.18475139415</v>
+        <v>5463.993462157494</v>
       </c>
       <c r="D23" t="n">
-        <v>-53852.03003047447</v>
+        <v>4553.627635994895</v>
       </c>
       <c r="E23" t="n">
-        <v>-59485.21478186866</v>
+        <v>42346.12109815249</v>
       </c>
     </row>
     <row r="24">
@@ -6714,16 +6714,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>81373.99999999996</v>
+        <v>66358.5000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>-88084.03208929222</v>
+        <v>21257.01769294179</v>
       </c>
       <c r="D24" t="n">
-        <v>-60115.1480578952</v>
+        <v>-1709.490391425828</v>
       </c>
       <c r="E24" t="n">
-        <v>-66825.18014718746</v>
+        <v>85906.02730151606</v>
       </c>
     </row>
     <row r="25">
@@ -6731,16 +6731,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>95403.99999999996</v>
+        <v>100388.5000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>-103190.8794271902</v>
+        <v>37050.04192372606</v>
       </c>
       <c r="D25" t="n">
-        <v>-65124.03060145465</v>
+        <v>-6718.372934985278</v>
       </c>
       <c r="E25" t="n">
-        <v>-72910.9100286449</v>
+        <v>130720.1689887409</v>
       </c>
     </row>
     <row r="26">
@@ -6748,16 +6748,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>109434</v>
+        <v>134418.5000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>-118297.7267650882</v>
+        <v>52843.06615451048</v>
       </c>
       <c r="D26" t="n">
-        <v>-69111.59632063955</v>
+        <v>-10705.93865417019</v>
       </c>
       <c r="E26" t="n">
-        <v>-77975.32308572775</v>
+        <v>176555.6275003404</v>
       </c>
     </row>
     <row r="27">
@@ -6765,16 +6765,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>123464</v>
+        <v>168448.5000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>-133404.5741029863</v>
+        <v>68636.09038529475</v>
       </c>
       <c r="D27" t="n">
-        <v>-72272.81205333618</v>
+        <v>-13867.15438686681</v>
       </c>
       <c r="E27" t="n">
-        <v>-82213.38615632248</v>
+        <v>223217.435998428</v>
       </c>
     </row>
   </sheetData>

--- a/ACCU PnL Output.xlsx
+++ b/ACCU PnL Output.xlsx
@@ -479,16 +479,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-694212</v>
+        <v>-834512</v>
       </c>
       <c r="C2" t="n">
-        <v>-313891.0835269513</v>
+        <v>-563308.1341747127</v>
       </c>
       <c r="D2" t="n">
-        <v>1074150.927734752</v>
+        <v>1085569.534795035</v>
       </c>
       <c r="E2" t="n">
-        <v>66047.84420780092</v>
+        <v>-312250.5993796773</v>
       </c>
     </row>
     <row r="3">
@@ -496,16 +496,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-660182</v>
+        <v>-797257</v>
       </c>
       <c r="C3" t="n">
-        <v>-298198.1377032989</v>
+        <v>-537006.0408834483</v>
       </c>
       <c r="D3" t="n">
-        <v>975378.4422311699</v>
+        <v>986674.7354647927</v>
       </c>
       <c r="E3" t="n">
-        <v>16998.30452787108</v>
+        <v>-347588.3054186557</v>
       </c>
     </row>
     <row r="4">
@@ -513,16 +513,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-626152</v>
+        <v>-760002</v>
       </c>
       <c r="C4" t="n">
-        <v>-282505.1918796464</v>
+        <v>-510703.9475921839</v>
       </c>
       <c r="D4" t="n">
-        <v>877805.6755908101</v>
+        <v>888905.0619839121</v>
       </c>
       <c r="E4" t="n">
-        <v>-30851.51628883625</v>
+        <v>-381800.8856082718</v>
       </c>
     </row>
     <row r="5">
@@ -530,16 +530,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-592122</v>
+        <v>-722747</v>
       </c>
       <c r="C5" t="n">
-        <v>-266812.246055994</v>
+        <v>-484401.8543009196</v>
       </c>
       <c r="D5" t="n">
-        <v>782171.8844634427</v>
+        <v>792986.9898404942</v>
       </c>
       <c r="E5" t="n">
-        <v>-76762.36159255123</v>
+        <v>-414161.8644604255</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +547,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-558092</v>
+        <v>-685492</v>
       </c>
       <c r="C6" t="n">
-        <v>-251119.3002323415</v>
+        <v>-458099.7610096553</v>
       </c>
       <c r="D6" t="n">
-        <v>689402.899940727</v>
+        <v>699846.2195708972</v>
       </c>
       <c r="E6" t="n">
-        <v>-119808.4002916145</v>
+        <v>-443745.541438758</v>
       </c>
     </row>
     <row r="7">
@@ -564,16 +564,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-524061.9999999999</v>
+        <v>-648237</v>
       </c>
       <c r="C7" t="n">
-        <v>-235426.3544086891</v>
+        <v>-431797.6677183909</v>
       </c>
       <c r="D7" t="n">
-        <v>600543.9863173725</v>
+        <v>610543.4018159758</v>
       </c>
       <c r="E7" t="n">
-        <v>-158944.3680913165</v>
+        <v>-469491.2659024152</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +581,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-490031.9999999999</v>
+        <v>-610982</v>
       </c>
       <c r="C8" t="n">
-        <v>-219733.4085850367</v>
+        <v>-405495.5744271266</v>
       </c>
       <c r="D8" t="n">
-        <v>516660.1179171375</v>
+        <v>526172.9897789193</v>
       </c>
       <c r="E8" t="n">
-        <v>-193105.2906678991</v>
+        <v>-490304.5846482073</v>
       </c>
     </row>
     <row r="9">
@@ -598,16 +598,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-456001.9999999999</v>
+        <v>-573727</v>
       </c>
       <c r="C9" t="n">
-        <v>-204040.4627613843</v>
+        <v>-379193.4811358621</v>
       </c>
       <c r="D9" t="n">
-        <v>438724.6058236626</v>
+        <v>447746.5951715267</v>
       </c>
       <c r="E9" t="n">
-        <v>-221317.8569377216</v>
+        <v>-505173.8859643355</v>
       </c>
     </row>
     <row r="10">
@@ -615,16 +615,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-421971.9999999999</v>
+        <v>-536472</v>
       </c>
       <c r="C10" t="n">
-        <v>-188347.5169377318</v>
+        <v>-352891.3878445978</v>
       </c>
       <c r="D10" t="n">
-        <v>367519.3079894771</v>
+        <v>376085.9103500683</v>
       </c>
       <c r="E10" t="n">
-        <v>-242800.2089482547</v>
+        <v>-513277.4774945295</v>
       </c>
     </row>
     <row r="11">
@@ -632,16 +632,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-387941.9999999999</v>
+        <v>-499216.9999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>-172654.5711140794</v>
+        <v>-326589.2945533334</v>
       </c>
       <c r="D11" t="n">
-        <v>303564.6604244588</v>
+        <v>311745.7064900743</v>
       </c>
       <c r="E11" t="n">
-        <v>-257031.9106896205</v>
+        <v>-514060.5880632591</v>
       </c>
     </row>
     <row r="12">
@@ -649,16 +649,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-353911.9999999999</v>
+        <v>-461961.9999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>-156961.6252904269</v>
+        <v>-300287.2012620691</v>
       </c>
       <c r="D12" t="n">
-        <v>247088.5132743314</v>
+        <v>254977.6820881198</v>
       </c>
       <c r="E12" t="n">
-        <v>-263785.1120160954</v>
+        <v>-507271.5191739491</v>
       </c>
     </row>
     <row r="13">
@@ -666,16 +666,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-319881.9999999999</v>
+        <v>-424706.9999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>-141268.6794667745</v>
+        <v>-273985.1079708047</v>
       </c>
       <c r="D13" t="n">
-        <v>198033.0673683339</v>
+        <v>205735.2693566457</v>
       </c>
       <c r="E13" t="n">
-        <v>-263117.6120984405</v>
+        <v>-492956.838614159</v>
       </c>
     </row>
     <row r="14">
@@ -683,16 +683,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-285851.9999999999</v>
+        <v>-387451.9999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>-125575.7336431221</v>
+        <v>-247683.0146795403</v>
       </c>
       <c r="D14" t="n">
-        <v>156091.9745967096</v>
+        <v>163711.3015638065</v>
       </c>
       <c r="E14" t="n">
-        <v>-255335.7590464124</v>
+        <v>-471423.7131157338</v>
       </c>
     </row>
     <row r="15">
@@ -700,16 +700,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-251821.9999999999</v>
+        <v>-350196.9999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>-109882.7878194696</v>
+        <v>-221380.921388276</v>
       </c>
       <c r="D15" t="n">
-        <v>120766.1125026441</v>
+        <v>128396.2561726109</v>
       </c>
       <c r="E15" t="n">
-        <v>-240938.6753168255</v>
+        <v>-443181.665215665</v>
       </c>
     </row>
     <row r="16">
@@ -717,16 +717,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-217791.9999999999</v>
+        <v>-312941.9999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-94189.84199581717</v>
+        <v>-195078.8280970116</v>
       </c>
       <c r="D16" t="n">
-        <v>91426.40617033467</v>
+        <v>99144.44133079801</v>
       </c>
       <c r="E16" t="n">
-        <v>-220555.4358254825</v>
+        <v>-408876.3867662135</v>
       </c>
     </row>
     <row r="17">
@@ -734,16 +734,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-183761.9999999999</v>
+        <v>-275686.9999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>-78496.89617216476</v>
+        <v>-168776.7348057472</v>
       </c>
       <c r="D17" t="n">
-        <v>67374.24185788355</v>
+        <v>75237.78847215626</v>
       </c>
       <c r="E17" t="n">
-        <v>-194884.6543142812</v>
+        <v>-369225.9463335908</v>
       </c>
     </row>
     <row r="18">
@@ -751,16 +751,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-149731.9999999999</v>
+        <v>-238431.9999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>-62803.95034851233</v>
+        <v>-142474.6415144828</v>
       </c>
       <c r="D18" t="n">
-        <v>47893.2085016945</v>
+        <v>55940.40061255813</v>
       </c>
       <c r="E18" t="n">
-        <v>-164642.7418468178</v>
+        <v>-324966.2409019247</v>
       </c>
     </row>
     <row r="19">
@@ -768,16 +768,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-115702</v>
+        <v>-201176.9999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>-47111.00452485986</v>
+        <v>-116172.5482232185</v>
       </c>
       <c r="D19" t="n">
-        <v>32289.0808886994</v>
+        <v>40540.50302424414</v>
       </c>
       <c r="E19" t="n">
-        <v>-130523.9236361604</v>
+        <v>-276809.0451989743</v>
       </c>
     </row>
     <row r="20">
@@ -785,16 +785,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-81671.99999999996</v>
+        <v>-163921.9999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-31418.05870120745</v>
+        <v>-89870.4549319541</v>
       </c>
       <c r="D20" t="n">
-        <v>19917.507651767</v>
+        <v>28379.24532884999</v>
       </c>
       <c r="E20" t="n">
-        <v>-93172.5510494404</v>
+        <v>-225413.209603104</v>
       </c>
     </row>
     <row r="21">
@@ -802,16 +802,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-47641.99999999995</v>
+        <v>-126666.9999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>-15725.11287755502</v>
+        <v>-63568.36164068966</v>
       </c>
       <c r="D21" t="n">
-        <v>10200.56481716832</v>
+        <v>18867.65578032986</v>
       </c>
       <c r="E21" t="n">
-        <v>-53166.54806038665</v>
+        <v>-171367.7058603597</v>
       </c>
     </row>
     <row r="22">
@@ -819,16 +819,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-13611.99999999995</v>
+        <v>-89411.99999999994</v>
       </c>
       <c r="C22" t="n">
-        <v>-32.16705390260904</v>
+        <v>-37266.26834942534</v>
       </c>
       <c r="D22" t="n">
-        <v>2634.227576587983</v>
+        <v>11494.00368715843</v>
       </c>
       <c r="E22" t="n">
-        <v>-11009.93947731458</v>
+        <v>-115184.2646622669</v>
       </c>
     </row>
     <row r="23">
@@ -836,16 +836,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>20418.00000000005</v>
+        <v>-52156.99999999995</v>
       </c>
       <c r="C23" t="n">
-        <v>15660.77876974983</v>
+        <v>-10964.17505816105</v>
       </c>
       <c r="D23" t="n">
-        <v>-3210.917879820435</v>
+        <v>5824.094069828895</v>
       </c>
       <c r="E23" t="n">
-        <v>32867.86088992943</v>
+        <v>-57297.08098833211</v>
       </c>
     </row>
     <row r="24">
@@ -853,16 +853,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>54448.00000000005</v>
+        <v>-14901.99999999995</v>
       </c>
       <c r="C24" t="n">
-        <v>31353.72459340224</v>
+        <v>15337.91823310338</v>
       </c>
       <c r="D24" t="n">
-        <v>-7693.536970337405</v>
+        <v>1496.846231199273</v>
       </c>
       <c r="E24" t="n">
-        <v>78108.18762306489</v>
+        <v>1932.764464302706</v>
       </c>
     </row>
     <row r="25">
@@ -870,16 +870,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>88478.00000000004</v>
+        <v>22353.00000000005</v>
       </c>
       <c r="C25" t="n">
-        <v>47046.67041705467</v>
+        <v>41640.0115243677</v>
       </c>
       <c r="D25" t="n">
-        <v>-11108.14873614327</v>
+        <v>-1782.89062068315</v>
       </c>
       <c r="E25" t="n">
-        <v>124416.5216809115</v>
+        <v>62210.1209036846</v>
       </c>
     </row>
     <row r="26">
@@ -887,16 +887,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>122508</v>
+        <v>59608.00000000005</v>
       </c>
       <c r="C26" t="n">
-        <v>62739.6162407072</v>
+        <v>67942.10481563213</v>
       </c>
       <c r="D26" t="n">
-        <v>-13693.05615244248</v>
+        <v>-4252.80108535308</v>
       </c>
       <c r="E26" t="n">
-        <v>171554.5600882648</v>
+        <v>123297.3037302791</v>
       </c>
     </row>
     <row r="27">
@@ -904,16 +904,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>156538.0000000001</v>
+        <v>96863.00000000006</v>
       </c>
       <c r="C27" t="n">
-        <v>78432.5620643596</v>
+        <v>94244.19810689645</v>
       </c>
       <c r="D27" t="n">
-        <v>-15638.60273696359</v>
+        <v>-6101.808381462612</v>
       </c>
       <c r="E27" t="n">
-        <v>219331.9593273961</v>
+        <v>185005.3897254339</v>
       </c>
     </row>
   </sheetData>
@@ -967,16 +967,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-694212</v>
+        <v>-834512</v>
       </c>
       <c r="C2" t="n">
-        <v>-314528.902680247</v>
+        <v>-564110.0985171185</v>
       </c>
       <c r="D2" t="n">
-        <v>1080186.349496508</v>
+        <v>1090112.915852188</v>
       </c>
       <c r="E2" t="n">
-        <v>71445.44681626104</v>
+        <v>-308509.1826649306</v>
       </c>
     </row>
     <row r="3">
@@ -984,16 +984,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-660182</v>
+        <v>-797257</v>
       </c>
       <c r="C3" t="n">
-        <v>-298867.8478142594</v>
+        <v>-537848.1034429744</v>
       </c>
       <c r="D3" t="n">
-        <v>980960.2924452492</v>
+        <v>990886.858800929</v>
       </c>
       <c r="E3" t="n">
-        <v>21910.4446309898</v>
+        <v>-344218.2446420453</v>
       </c>
     </row>
     <row r="4">
@@ -1001,16 +1001,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-626152</v>
+        <v>-760002</v>
       </c>
       <c r="C4" t="n">
-        <v>-283206.7929482717</v>
+        <v>-511586.1083688303</v>
       </c>
       <c r="D4" t="n">
-        <v>882634.4930528447</v>
+        <v>892561.0594085245</v>
       </c>
       <c r="E4" t="n">
-        <v>-26724.29989542696</v>
+        <v>-379027.0489603058</v>
       </c>
     </row>
     <row r="5">
@@ -1018,16 +1018,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-592122</v>
+        <v>-722747</v>
       </c>
       <c r="C5" t="n">
-        <v>-267545.738082284</v>
+        <v>-485324.1132946863</v>
       </c>
       <c r="D5" t="n">
-        <v>785884.8929413116</v>
+        <v>795811.4592969915</v>
       </c>
       <c r="E5" t="n">
-        <v>-73782.84514097252</v>
+        <v>-412259.6539976947</v>
       </c>
     </row>
     <row r="6">
@@ -1035,16 +1035,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-558092</v>
+        <v>-685492</v>
       </c>
       <c r="C6" t="n">
-        <v>-251884.6832162964</v>
+        <v>-459062.1182205422</v>
       </c>
       <c r="D6" t="n">
-        <v>691625.0230690287</v>
+        <v>701551.5894247086</v>
       </c>
       <c r="E6" t="n">
-        <v>-118351.6601472676</v>
+        <v>-443002.5287958335</v>
       </c>
     </row>
     <row r="7">
@@ -1052,16 +1052,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-524061.9999999999</v>
+        <v>-648237</v>
       </c>
       <c r="C7" t="n">
-        <v>-236223.6283503087</v>
+        <v>-432800.1231463981</v>
       </c>
       <c r="D7" t="n">
-        <v>600955.2296958403</v>
+        <v>610881.7960515202</v>
       </c>
       <c r="E7" t="n">
-        <v>-159330.3986544684</v>
+        <v>-470155.3270948778</v>
       </c>
     </row>
     <row r="8">
@@ -1069,16 +1069,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-490031.9999999999</v>
+        <v>-610982</v>
       </c>
       <c r="C8" t="n">
-        <v>-220562.5734843211</v>
+        <v>-406538.1280722541</v>
       </c>
       <c r="D8" t="n">
-        <v>515060.3157666151</v>
+        <v>524986.882122295</v>
       </c>
       <c r="E8" t="n">
-        <v>-195534.2577177059</v>
+        <v>-492533.2459499591</v>
       </c>
     </row>
     <row r="9">
@@ -1086,16 +1086,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-456001.9999999999</v>
+        <v>-573727</v>
       </c>
       <c r="C9" t="n">
-        <v>-204901.5186183334</v>
+        <v>-380276.1329981099</v>
       </c>
       <c r="D9" t="n">
-        <v>435076.8668778502</v>
+        <v>445003.43323353</v>
       </c>
       <c r="E9" t="n">
-        <v>-225826.6517404832</v>
+        <v>-508999.6997645799</v>
       </c>
     </row>
     <row r="10">
@@ -1103,16 +1103,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-421971.9999999999</v>
+        <v>-536472</v>
       </c>
       <c r="C10" t="n">
-        <v>-189240.4637523457</v>
+        <v>-354014.1379239658</v>
       </c>
       <c r="D10" t="n">
-        <v>361961.1220410502</v>
+        <v>371887.6883967301</v>
       </c>
       <c r="E10" t="n">
-        <v>-249251.3417112955</v>
+        <v>-518598.4495272358</v>
       </c>
     </row>
     <row r="11">
@@ -1120,16 +1120,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-387941.9999999999</v>
+        <v>-499216.9999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>-173579.4088863581</v>
+        <v>-327752.1428498218</v>
       </c>
       <c r="D11" t="n">
-        <v>296386.332122053</v>
+        <v>306312.8984777328</v>
       </c>
       <c r="E11" t="n">
-        <v>-265135.0767643051</v>
+        <v>-520656.2443720889</v>
       </c>
     </row>
     <row r="12">
@@ -1137,16 +1137,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-353911.9999999999</v>
+        <v>-461961.9999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>-157918.3540203705</v>
+        <v>-301490.1477756777</v>
       </c>
       <c r="D12" t="n">
-        <v>238687.6287908625</v>
+        <v>248614.1951465424</v>
       </c>
       <c r="E12" t="n">
-        <v>-273142.7252295079</v>
+        <v>-514837.9526291353</v>
       </c>
     </row>
     <row r="13">
@@ -1154,16 +1154,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-319881.9999999999</v>
+        <v>-424706.9999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>-142257.2991543828</v>
+        <v>-275228.1527015336</v>
       </c>
       <c r="D13" t="n">
-        <v>188858.18852895</v>
+        <v>198784.7548846299</v>
       </c>
       <c r="E13" t="n">
-        <v>-273281.1106254327</v>
+        <v>-501150.3978169037</v>
       </c>
     </row>
     <row r="14">
@@ -1171,16 +1171,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-285851.9999999999</v>
+        <v>-387451.9999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>-126596.2442883952</v>
+        <v>-248966.1576273896</v>
       </c>
       <c r="D14" t="n">
-        <v>146588.3881771265</v>
+        <v>156514.9545328064</v>
       </c>
       <c r="E14" t="n">
-        <v>-265859.8561112686</v>
+        <v>-479903.2030945831</v>
       </c>
     </row>
     <row r="15">
@@ -1188,16 +1188,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-251821.9999999999</v>
+        <v>-350196.9999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>-110935.1894224075</v>
+        <v>-222704.1625532456</v>
       </c>
       <c r="D15" t="n">
-        <v>111332.7860138555</v>
+        <v>121259.3523695355</v>
       </c>
       <c r="E15" t="n">
-        <v>-251424.4034085519</v>
+        <v>-451641.81018371</v>
       </c>
     </row>
     <row r="16">
@@ -1205,16 +1205,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-217791.9999999999</v>
+        <v>-312941.9999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-95274.1345564198</v>
+        <v>-196442.1674791013</v>
       </c>
       <c r="D16" t="n">
-        <v>82388.45564648526</v>
+        <v>92315.02200216516</v>
       </c>
       <c r="E16" t="n">
-        <v>-230677.6789099345</v>
+        <v>-417069.1454769361</v>
       </c>
     </row>
     <row r="17">
@@ -1222,16 +1222,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-183761.9999999999</v>
+        <v>-275686.9999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>-79613.07969043223</v>
+        <v>-170180.1724049574</v>
       </c>
       <c r="D17" t="n">
-        <v>58970.93530230709</v>
+        <v>68897.50165798698</v>
       </c>
       <c r="E17" t="n">
-        <v>-204404.1443881251</v>
+        <v>-376969.6707469703</v>
       </c>
     </row>
     <row r="18">
@@ -1239,16 +1239,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-149731.9999999999</v>
+        <v>-238431.9999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>-63952.02482444455</v>
+        <v>-143918.1773308133</v>
       </c>
       <c r="D18" t="n">
-        <v>40278.71029007911</v>
+        <v>50205.276645759</v>
       </c>
       <c r="E18" t="n">
-        <v>-173405.3145343654</v>
+        <v>-332144.9006850543</v>
       </c>
     </row>
     <row r="19">
@@ -1256,16 +1256,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-115702</v>
+        <v>-201176.9999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>-48290.96995845687</v>
+        <v>-117656.1822566692</v>
       </c>
       <c r="D19" t="n">
-        <v>25541.91376984261</v>
+        <v>35468.48012552252</v>
       </c>
       <c r="E19" t="n">
-        <v>-138451.0561886142</v>
+        <v>-283364.7021311466</v>
       </c>
     </row>
     <row r="20">
@@ -1273,16 +1273,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-81671.99999999996</v>
+        <v>-163921.9999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-32629.91509246922</v>
+        <v>-91394.18718252509</v>
       </c>
       <c r="D20" t="n">
-        <v>14054.72060008546</v>
+        <v>23981.28695576537</v>
       </c>
       <c r="E20" t="n">
-        <v>-100247.1944923837</v>
+        <v>-231334.9002267597</v>
       </c>
     </row>
     <row r="21">
@@ -1290,16 +1290,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-47641.99999999995</v>
+        <v>-126666.9999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>-16968.86022648157</v>
+        <v>-65132.19210838102</v>
       </c>
       <c r="D21" t="n">
-        <v>5193.33554477745</v>
+        <v>15119.90190045736</v>
       </c>
       <c r="E21" t="n">
-        <v>-59417.52468170407</v>
+        <v>-176679.2902079236</v>
       </c>
     </row>
     <row r="22">
@@ -1307,16 +1307,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-13611.99999999995</v>
+        <v>-89411.99999999994</v>
       </c>
       <c r="C22" t="n">
-        <v>-1307.805360494007</v>
+        <v>-38870.19703423709</v>
       </c>
       <c r="D22" t="n">
-        <v>-1577.361134174926</v>
+        <v>8349.205221504979</v>
       </c>
       <c r="E22" t="n">
-        <v>-16497.16649466888</v>
+        <v>-119932.9918127321</v>
       </c>
     </row>
     <row r="23">
@@ -1324,16 +1324,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>20418.00000000005</v>
+        <v>-52156.99999999995</v>
       </c>
       <c r="C23" t="n">
-        <v>14353.2495054937</v>
+        <v>-12608.20196009291</v>
       </c>
       <c r="D23" t="n">
-        <v>-6705.221143104828</v>
+        <v>3221.345212575077</v>
       </c>
       <c r="E23" t="n">
-        <v>28066.02836238892</v>
+        <v>-61543.85674751778</v>
       </c>
     </row>
     <row r="24">
@@ -1341,16 +1341,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>54448.00000000005</v>
+        <v>-14901.99999999995</v>
       </c>
       <c r="C24" t="n">
-        <v>30014.30437148135</v>
+        <v>13653.79311405116</v>
       </c>
       <c r="D24" t="n">
-        <v>-10557.33718220033</v>
+        <v>-630.7708265204215</v>
       </c>
       <c r="E24" t="n">
-        <v>73904.96718928109</v>
+        <v>-1878.977712469204</v>
       </c>
     </row>
     <row r="25">
@@ -1358,16 +1358,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>88478.00000000004</v>
+        <v>22353.00000000005</v>
       </c>
       <c r="C25" t="n">
-        <v>45675.35923746901</v>
+        <v>39915.78818819523</v>
       </c>
       <c r="D25" t="n">
-        <v>-13429.29748422697</v>
+        <v>-3502.731128547068</v>
       </c>
       <c r="E25" t="n">
-        <v>120724.0617532421</v>
+        <v>58766.05705964823</v>
       </c>
     </row>
     <row r="26">
@@ -1375,16 +1375,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>122508</v>
+        <v>59608.00000000005</v>
       </c>
       <c r="C26" t="n">
-        <v>61336.41410345669</v>
+        <v>66177.78326233939</v>
       </c>
       <c r="D26" t="n">
-        <v>-15555.47390223187</v>
+        <v>-5628.907546551963</v>
       </c>
       <c r="E26" t="n">
-        <v>168288.9402012248</v>
+        <v>120156.8757157875</v>
       </c>
     </row>
     <row r="27">
@@ -1392,16 +1392,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>156538.0000000001</v>
+        <v>96863.00000000006</v>
       </c>
       <c r="C27" t="n">
-        <v>76997.46896944431</v>
+        <v>92439.77833648337</v>
       </c>
       <c r="D27" t="n">
-        <v>-17119.20741477291</v>
+        <v>-7192.641059093</v>
       </c>
       <c r="E27" t="n">
-        <v>216416.2615546715</v>
+        <v>182110.1372773904</v>
       </c>
     </row>
   </sheetData>
@@ -1455,16 +1455,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-694212</v>
+        <v>-834512</v>
       </c>
       <c r="C2" t="n">
-        <v>-316988.2330259276</v>
+        <v>-568234.1452034132</v>
       </c>
       <c r="D2" t="n">
-        <v>1104837.027287472</v>
+        <v>1114763.593643152</v>
       </c>
       <c r="E2" t="n">
-        <v>93636.79426154448</v>
+        <v>-287982.5515602615</v>
       </c>
     </row>
     <row r="3">
@@ -1472,16 +1472,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-660182</v>
+        <v>-797257</v>
       </c>
       <c r="C3" t="n">
-        <v>-301450.1446772239</v>
+        <v>-542178.3524635838</v>
       </c>
       <c r="D3" t="n">
-        <v>1004850.320950248</v>
+        <v>1014776.887305928</v>
       </c>
       <c r="E3" t="n">
-        <v>43218.17627302452</v>
+        <v>-324658.4651576556</v>
       </c>
     </row>
     <row r="4">
@@ -1489,16 +1489,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-626152</v>
+        <v>-760002</v>
       </c>
       <c r="C4" t="n">
-        <v>-285912.0563285203</v>
+        <v>-516122.5597237545</v>
       </c>
       <c r="D4" t="n">
-        <v>904910.0109337254</v>
+        <v>914836.5772894053</v>
       </c>
       <c r="E4" t="n">
-        <v>-7154.045394794899</v>
+        <v>-361287.9824343491</v>
       </c>
     </row>
     <row r="5">
@@ -1506,16 +1506,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-592122</v>
+        <v>-722747</v>
       </c>
       <c r="C5" t="n">
-        <v>-270373.9679798166</v>
+        <v>-490066.7669839251</v>
       </c>
       <c r="D5" t="n">
-        <v>805136.0236275727</v>
+        <v>815062.5899832526</v>
       </c>
       <c r="E5" t="n">
-        <v>-57359.94435224391</v>
+        <v>-397751.1770006726</v>
       </c>
     </row>
     <row r="6">
@@ -1523,16 +1523,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-558092</v>
+        <v>-685492</v>
       </c>
       <c r="C6" t="n">
-        <v>-254835.879631113</v>
+        <v>-464010.9742440957</v>
       </c>
       <c r="D6" t="n">
-        <v>705857.2899582346</v>
+        <v>715783.8563139145</v>
       </c>
       <c r="E6" t="n">
-        <v>-107070.5896728784</v>
+        <v>-433719.1179301813</v>
       </c>
     </row>
     <row r="7">
@@ -1540,16 +1540,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-524061.9999999999</v>
+        <v>-648237</v>
       </c>
       <c r="C7" t="n">
-        <v>-239297.7912824094</v>
+        <v>-437955.1815042665</v>
       </c>
       <c r="D7" t="n">
-        <v>607805.1181869153</v>
+        <v>617731.6845425952</v>
       </c>
       <c r="E7" t="n">
-        <v>-155554.673095494</v>
+        <v>-468460.4969616712</v>
       </c>
     </row>
     <row r="8">
@@ -1557,16 +1557,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-490031.9999999999</v>
+        <v>-610982</v>
       </c>
       <c r="C8" t="n">
-        <v>-223759.7029337058</v>
+        <v>-411899.3887644371</v>
       </c>
       <c r="D8" t="n">
-        <v>512298.7767659657</v>
+        <v>522225.3431216456</v>
       </c>
       <c r="E8" t="n">
-        <v>-201492.9261677399</v>
+        <v>-500656.0456427914</v>
       </c>
     </row>
     <row r="9">
@@ -1574,16 +1574,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-456001.9999999999</v>
+        <v>-573727</v>
       </c>
       <c r="C9" t="n">
-        <v>-208221.6145850021</v>
+        <v>-385843.5960246078</v>
       </c>
       <c r="D9" t="n">
-        <v>421273.2641746689</v>
+        <v>431199.8305303488</v>
       </c>
       <c r="E9" t="n">
-        <v>-242950.3504103332</v>
+        <v>-528370.7654942591</v>
       </c>
     </row>
     <row r="10">
@@ -1591,16 +1591,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-421971.9999999999</v>
+        <v>-536472</v>
       </c>
       <c r="C10" t="n">
-        <v>-192683.5262362985</v>
+        <v>-359787.8032847784</v>
       </c>
       <c r="D10" t="n">
-        <v>337029.7963381566</v>
+        <v>346956.3626938364</v>
       </c>
       <c r="E10" t="n">
-        <v>-277625.7298981418</v>
+        <v>-549303.4405909419</v>
       </c>
     </row>
     <row r="11">
@@ -1608,16 +1608,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-387941.9999999999</v>
+        <v>-499216.9999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>-177145.4378875949</v>
+        <v>-333732.0105449492</v>
       </c>
       <c r="D11" t="n">
-        <v>261747.5728784995</v>
+        <v>271674.1392341793</v>
       </c>
       <c r="E11" t="n">
-        <v>-303339.8650090953</v>
+        <v>-561274.8713107698</v>
       </c>
     </row>
     <row r="12">
@@ -1625,16 +1625,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-353911.9999999999</v>
+        <v>-461961.9999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>-161607.3495388913</v>
+        <v>-307676.2178051197</v>
       </c>
       <c r="D12" t="n">
-        <v>196963.2031256775</v>
+        <v>206889.7694813574</v>
       </c>
       <c r="E12" t="n">
-        <v>-318556.1464132137</v>
+        <v>-562748.4483237623</v>
       </c>
     </row>
     <row r="13">
@@ -1642,16 +1642,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-319881.9999999999</v>
+        <v>-424706.9999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>-146069.2611901876</v>
+        <v>-281620.4250652904</v>
       </c>
       <c r="D13" t="n">
-        <v>143254.1901844384</v>
+        <v>153180.7565401183</v>
       </c>
       <c r="E13" t="n">
-        <v>-322697.0710057491</v>
+        <v>-553146.6685251722</v>
       </c>
     </row>
     <row r="14">
@@ -1659,16 +1659,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-285851.9999999999</v>
+        <v>-387451.9999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>-130531.172841484</v>
+        <v>-255564.6323254611</v>
       </c>
       <c r="D14" t="n">
-        <v>100234.8907216942</v>
+        <v>110161.4570773741</v>
       </c>
       <c r="E14" t="n">
-        <v>-316148.2821197898</v>
+        <v>-532855.1752480869</v>
       </c>
     </row>
     <row r="15">
@@ -1676,16 +1676,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-251821.9999999999</v>
+        <v>-350196.9999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>-114993.0844927804</v>
+        <v>-229508.8395856316</v>
       </c>
       <c r="D15" t="n">
-        <v>66802.53065266434</v>
+        <v>76729.09700834424</v>
       </c>
       <c r="E15" t="n">
-        <v>-300012.5538401159</v>
+        <v>-502976.7425772874</v>
       </c>
     </row>
     <row r="16">
@@ -1693,16 +1693,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-217791.9999999999</v>
+        <v>-312941.9999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-99454.99614407675</v>
+        <v>-203453.0468458023</v>
       </c>
       <c r="D16" t="n">
-        <v>41479.24734720539</v>
+        <v>51405.81370288529</v>
       </c>
       <c r="E16" t="n">
-        <v>-275767.7487968713</v>
+        <v>-464989.233142917</v>
       </c>
     </row>
     <row r="17">
@@ -1710,16 +1710,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-183761.9999999999</v>
+        <v>-275686.9999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>-83916.90779537318</v>
+        <v>-177397.2541059731</v>
       </c>
       <c r="D17" t="n">
-        <v>22712.64131547301</v>
+        <v>32639.20767115292</v>
       </c>
       <c r="E17" t="n">
-        <v>-244966.2664799001</v>
+        <v>-420445.0464348202</v>
       </c>
     </row>
     <row r="18">
@@ -1727,16 +1727,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-149731.9999999999</v>
+        <v>-238431.9999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>-68378.81944666951</v>
+        <v>-151341.4613661437</v>
       </c>
       <c r="D18" t="n">
-        <v>9070.16917260222</v>
+        <v>18996.73552828213</v>
       </c>
       <c r="E18" t="n">
-        <v>-209040.6502740672</v>
+        <v>-370776.7258378615</v>
       </c>
     </row>
     <row r="19">
@@ -1744,16 +1744,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-115702</v>
+        <v>-201176.9999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>-52840.73109796591</v>
+        <v>-125285.6686263144</v>
       </c>
       <c r="D19" t="n">
-        <v>-670.8543224704933</v>
+        <v>9255.712033209413</v>
       </c>
       <c r="E19" t="n">
-        <v>-169213.5854204363</v>
+        <v>-317206.9565931049</v>
       </c>
     </row>
     <row r="20">
@@ -1761,16 +1761,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-81671.99999999996</v>
+        <v>-163921.9999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-37302.64274926222</v>
+        <v>-99229.87588648492</v>
       </c>
       <c r="D20" t="n">
-        <v>-7504.362366704179</v>
+        <v>2422.203988975725</v>
       </c>
       <c r="E20" t="n">
-        <v>-126479.0051159664</v>
+        <v>-260729.6718975091</v>
       </c>
     </row>
     <row r="21">
@@ -1778,16 +1778,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-47641.99999999995</v>
+        <v>-126666.9999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>-21764.55440055867</v>
+        <v>-73174.08314665573</v>
       </c>
       <c r="D21" t="n">
-        <v>-12212.95013673058</v>
+        <v>-2286.383781050673</v>
       </c>
       <c r="E21" t="n">
-        <v>-81619.50453728919</v>
+        <v>-202127.4669277064</v>
       </c>
     </row>
     <row r="22">
@@ -1795,16 +1795,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-13611.99999999995</v>
+        <v>-89411.99999999994</v>
       </c>
       <c r="C22" t="n">
-        <v>-6226.466051855066</v>
+        <v>-47118.29040682642</v>
       </c>
       <c r="D22" t="n">
-        <v>-15398.34766175634</v>
+        <v>-5471.781306076428</v>
       </c>
       <c r="E22" t="n">
-        <v>-35236.81371361135</v>
+        <v>-142002.0717129028</v>
       </c>
     </row>
     <row r="23">
@@ -1812,16 +1812,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>20418.00000000005</v>
+        <v>-52156.99999999995</v>
       </c>
       <c r="C23" t="n">
-        <v>9311.622296848596</v>
+        <v>-21062.49766699699</v>
       </c>
       <c r="D23" t="n">
-        <v>-17513.49380396767</v>
+        <v>-7586.927448287766</v>
       </c>
       <c r="E23" t="n">
-        <v>12216.12849288097</v>
+        <v>-80806.4251152847</v>
       </c>
     </row>
     <row r="24">
@@ -1829,16 +1829,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>54448.00000000005</v>
+        <v>-14901.99999999995</v>
       </c>
       <c r="C24" t="n">
-        <v>24849.7106455522</v>
+        <v>4993.295072832319</v>
       </c>
       <c r="D24" t="n">
-        <v>-18892.02059346736</v>
+        <v>-8965.45423778746</v>
       </c>
       <c r="E24" t="n">
-        <v>60405.69005208489</v>
+        <v>-18874.15916495509</v>
       </c>
     </row>
     <row r="25">
@@ -1846,16 +1846,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>88478.00000000004</v>
+        <v>22353.00000000005</v>
       </c>
       <c r="C25" t="n">
-        <v>40387.79899425592</v>
+        <v>31049.0878126618</v>
       </c>
       <c r="D25" t="n">
-        <v>-19774.10030548955</v>
+        <v>-9847.533949809642</v>
       </c>
       <c r="E25" t="n">
-        <v>109091.6986887664</v>
+        <v>43554.55386285222</v>
       </c>
     </row>
     <row r="26">
@@ -1863,16 +1863,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>122508</v>
+        <v>59608.00000000005</v>
       </c>
       <c r="C26" t="n">
-        <v>55925.88734295947</v>
+        <v>57104.880552491</v>
       </c>
       <c r="D26" t="n">
-        <v>-20328.52851197825</v>
+        <v>-10401.96215629835</v>
       </c>
       <c r="E26" t="n">
-        <v>158105.3588309813</v>
+        <v>106310.9183961927</v>
       </c>
     </row>
     <row r="27">
@@ -1880,16 +1880,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>156538.0000000001</v>
+        <v>96863.00000000006</v>
       </c>
       <c r="C27" t="n">
-        <v>71463.97569166313</v>
+        <v>83160.67329232043</v>
       </c>
       <c r="D27" t="n">
-        <v>-20671.08639628213</v>
+        <v>-10744.52004060223</v>
       </c>
       <c r="E27" t="n">
-        <v>207330.8892953811</v>
+        <v>169279.1532517183</v>
       </c>
     </row>
   </sheetData>
@@ -1943,16 +1943,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-694212</v>
+        <v>-834512</v>
       </c>
       <c r="C2" t="n">
-        <v>-318092.5597239187</v>
+        <v>-570085.9886808201</v>
       </c>
       <c r="D2" t="n">
-        <v>1116245.54996352</v>
+        <v>1126172.1163192</v>
       </c>
       <c r="E2" t="n">
-        <v>103940.9902396009</v>
+        <v>-278425.8723616204</v>
       </c>
     </row>
     <row r="3">
@@ -1960,16 +1960,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-660182</v>
+        <v>-797257</v>
       </c>
       <c r="C3" t="n">
-        <v>-302609.6877101147</v>
+        <v>-544122.7881148611</v>
       </c>
       <c r="D3" t="n">
-        <v>1016245.681336357</v>
+        <v>1026172.247692037</v>
       </c>
       <c r="E3" t="n">
-        <v>53453.99362624227</v>
+        <v>-315207.5404228242</v>
       </c>
     </row>
     <row r="4">
@@ -1977,16 +1977,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-626152</v>
+        <v>-760002</v>
       </c>
       <c r="C4" t="n">
-        <v>-287126.8156963106</v>
+        <v>-518159.5875489021</v>
       </c>
       <c r="D4" t="n">
-        <v>916246.7556816097</v>
+        <v>926173.3220372896</v>
       </c>
       <c r="E4" t="n">
-        <v>2967.939985299134</v>
+        <v>-351988.2655116124</v>
       </c>
     </row>
     <row r="5">
@@ -1994,16 +1994,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-592122</v>
+        <v>-722747</v>
       </c>
       <c r="C5" t="n">
-        <v>-271643.9436825066</v>
+        <v>-492196.3869829431</v>
       </c>
       <c r="D5" t="n">
-        <v>816253.3847891089</v>
+        <v>826179.9511447888</v>
       </c>
       <c r="E5" t="n">
-        <v>-47512.55889339768</v>
+        <v>-388763.4358381544</v>
       </c>
     </row>
     <row r="6">
@@ -2011,16 +2011,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-558092</v>
+        <v>-685492</v>
       </c>
       <c r="C6" t="n">
-        <v>-256161.0716687025</v>
+        <v>-466233.1864169841</v>
       </c>
       <c r="D6" t="n">
-        <v>716285.6815814341</v>
+        <v>726212.247937114</v>
       </c>
       <c r="E6" t="n">
-        <v>-97967.39008726832</v>
+        <v>-425512.9384798701</v>
       </c>
     </row>
     <row r="7">
@@ -2028,16 +2028,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-524061.9999999999</v>
+        <v>-648237</v>
       </c>
       <c r="C7" t="n">
-        <v>-240678.1996548984</v>
+        <v>-440269.9858510252</v>
       </c>
       <c r="D7" t="n">
-        <v>616419.175400461</v>
+        <v>626345.7417561408</v>
       </c>
       <c r="E7" t="n">
-        <v>-148321.0242544374</v>
+        <v>-462161.2440948844</v>
       </c>
     </row>
     <row r="8">
@@ -2045,16 +2045,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-490031.9999999999</v>
+        <v>-610982</v>
       </c>
       <c r="C8" t="n">
-        <v>-225195.3276410943</v>
+        <v>-414306.7852850661</v>
       </c>
       <c r="D8" t="n">
-        <v>516931.934480852</v>
+        <v>526858.5008365319</v>
       </c>
       <c r="E8" t="n">
-        <v>-198295.3931602424</v>
+        <v>-498430.2844485343</v>
       </c>
     </row>
     <row r="9">
@@ -2062,16 +2062,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-456001.9999999999</v>
+        <v>-573727</v>
       </c>
       <c r="C9" t="n">
-        <v>-209712.4556272903</v>
+        <v>-388343.5847191071</v>
       </c>
       <c r="D9" t="n">
-        <v>418791.3445859333</v>
+        <v>428717.9109416131</v>
       </c>
       <c r="E9" t="n">
-        <v>-246923.111041357</v>
+        <v>-533352.673777494</v>
       </c>
     </row>
     <row r="10">
@@ -2079,16 +2079,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-421971.9999999999</v>
+        <v>-536472</v>
       </c>
       <c r="C10" t="n">
-        <v>-194229.5836134862</v>
+        <v>-362380.3841531481</v>
       </c>
       <c r="D10" t="n">
-        <v>324612.8327549468</v>
+        <v>334539.3991106267</v>
       </c>
       <c r="E10" t="n">
-        <v>-291588.7508585394</v>
+        <v>-564312.9850425215</v>
       </c>
     </row>
     <row r="11">
@@ -2096,16 +2096,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-387941.9999999999</v>
+        <v>-499216.9999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>-178746.7115996822</v>
+        <v>-336417.1835871892</v>
       </c>
       <c r="D11" t="n">
-        <v>239122.4404119371</v>
+        <v>249049.006767617</v>
       </c>
       <c r="E11" t="n">
-        <v>-327566.271187745</v>
+        <v>-586585.1768195721</v>
       </c>
     </row>
     <row r="12">
@@ -2113,16 +2113,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-353911.9999999999</v>
+        <v>-461961.9999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>-163263.8395858781</v>
+        <v>-310453.9830212301</v>
       </c>
       <c r="D12" t="n">
-        <v>167427.2548833443</v>
+        <v>177353.8212390243</v>
       </c>
       <c r="E12" t="n">
-        <v>-349748.5847025337</v>
+        <v>-595062.1617822057</v>
       </c>
     </row>
     <row r="13">
@@ -2130,16 +2130,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-319881.9999999999</v>
+        <v>-424706.9999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>-147780.9675720741</v>
+        <v>-284490.7824552712</v>
       </c>
       <c r="D13" t="n">
-        <v>111913.1058266379</v>
+        <v>121839.6721823178</v>
       </c>
       <c r="E13" t="n">
-        <v>-355749.8617454361</v>
+        <v>-587358.1102729533</v>
       </c>
     </row>
     <row r="14">
@@ -2147,16 +2147,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-285851.9999999999</v>
+        <v>-387451.9999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>-132298.09555827</v>
+        <v>-258527.5818893122</v>
       </c>
       <c r="D14" t="n">
-        <v>71170.31435434676</v>
+        <v>81096.88071002666</v>
       </c>
       <c r="E14" t="n">
-        <v>-346979.7812039232</v>
+        <v>-564882.7011792855</v>
       </c>
     </row>
     <row r="15">
@@ -2164,16 +2164,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-251821.9999999999</v>
+        <v>-350196.9999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>-116815.2235444659</v>
+        <v>-232564.3813233532</v>
       </c>
       <c r="D15" t="n">
-        <v>41841.72717672242</v>
+        <v>51768.29353240233</v>
       </c>
       <c r="E15" t="n">
-        <v>-326795.4963677434</v>
+        <v>-530993.0877909508</v>
       </c>
     </row>
     <row r="16">
@@ -2181,16 +2181,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-217791.9999999999</v>
+        <v>-312941.9999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-101332.3515306619</v>
+        <v>-206601.1807573943</v>
       </c>
       <c r="D16" t="n">
-        <v>20811.21950757959</v>
+        <v>30737.7858632595</v>
       </c>
       <c r="E16" t="n">
-        <v>-298313.1320230822</v>
+        <v>-488805.3948941347</v>
       </c>
     </row>
     <row r="17">
@@ -2198,16 +2198,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-183761.9999999999</v>
+        <v>-275686.9999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>-85849.47951685777</v>
+        <v>-180637.9801914351</v>
       </c>
       <c r="D17" t="n">
-        <v>5919.32831518167</v>
+        <v>15845.89467086157</v>
       </c>
       <c r="E17" t="n">
-        <v>-263692.1512016761</v>
+        <v>-440479.0855205735</v>
       </c>
     </row>
     <row r="18">
@@ -2215,16 +2215,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-149731.9999999999</v>
+        <v>-238431.9999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>-70366.60750305373</v>
+        <v>-154674.7796254762</v>
       </c>
       <c r="D18" t="n">
-        <v>-4323.47445588131</v>
+        <v>5603.091899798595</v>
       </c>
       <c r="E18" t="n">
-        <v>-224422.081958935</v>
+        <v>-387503.6877256776</v>
       </c>
     </row>
     <row r="19">
@@ -2232,16 +2232,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-115702</v>
+        <v>-201176.9999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>-54883.73548924967</v>
+        <v>-128711.5790595172</v>
       </c>
       <c r="D19" t="n">
-        <v>-11090.61559105184</v>
+        <v>-1164.049235371933</v>
       </c>
       <c r="E19" t="n">
-        <v>-181676.3510803015</v>
+        <v>-331052.6282948891</v>
       </c>
     </row>
     <row r="20">
@@ -2249,16 +2249,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-81671.99999999996</v>
+        <v>-163921.9999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-39400.86347544563</v>
+        <v>-102748.3784935582</v>
       </c>
       <c r="D20" t="n">
-        <v>-15367.22207317064</v>
+        <v>-5440.655717490738</v>
       </c>
       <c r="E20" t="n">
-        <v>-136440.0855486162</v>
+        <v>-272111.0342110489</v>
       </c>
     </row>
     <row r="21">
@@ -2266,16 +2266,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-47641.99999999995</v>
+        <v>-126666.9999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>-23917.99146164153</v>
+        <v>-76785.1779275992</v>
       </c>
       <c r="D21" t="n">
-        <v>-17952.34850604305</v>
+        <v>-8025.782150363139</v>
       </c>
       <c r="E21" t="n">
-        <v>-89512.33996768453</v>
+        <v>-211477.9600779623</v>
       </c>
     </row>
     <row r="22">
@@ -2283,16 +2283,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-13611.99999999995</v>
+        <v>-89411.99999999994</v>
       </c>
       <c r="C22" t="n">
-        <v>-8435.119447837467</v>
+        <v>-50821.97736164019</v>
       </c>
       <c r="D22" t="n">
-        <v>-19449.54996864095</v>
+        <v>-9522.983612961043</v>
       </c>
       <c r="E22" t="n">
-        <v>-41496.66941647837</v>
+        <v>-149756.9609746012</v>
       </c>
     </row>
     <row r="23">
@@ -2300,16 +2300,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>20418.00000000005</v>
+        <v>-52156.99999999995</v>
       </c>
       <c r="C23" t="n">
-        <v>7047.752565966599</v>
+        <v>-24858.77679568119</v>
       </c>
       <c r="D23" t="n">
-        <v>-20282.2082995089</v>
+        <v>-10355.64194382899</v>
       </c>
       <c r="E23" t="n">
-        <v>7183.544266457749</v>
+        <v>-87371.41873951012</v>
       </c>
     </row>
     <row r="24">
@@ -2317,16 +2317,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>54448.00000000005</v>
+        <v>-14901.99999999995</v>
       </c>
       <c r="C24" t="n">
-        <v>22530.62457977064</v>
+        <v>1104.423770277732</v>
       </c>
       <c r="D24" t="n">
-        <v>-20727.93591074153</v>
+        <v>-10801.36955506163</v>
       </c>
       <c r="E24" t="n">
-        <v>56250.68866902916</v>
+        <v>-24598.94578478384</v>
       </c>
     </row>
     <row r="25">
@@ -2334,16 +2334,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>88478.00000000004</v>
+        <v>22353.00000000005</v>
       </c>
       <c r="C25" t="n">
-        <v>38013.49659357476</v>
+        <v>27067.62433623686</v>
       </c>
       <c r="D25" t="n">
-        <v>-20958.13699519985</v>
+        <v>-11031.57063951994</v>
       </c>
       <c r="E25" t="n">
-        <v>105533.359598375</v>
+        <v>38389.05369671697</v>
       </c>
     </row>
     <row r="26">
@@ -2351,16 +2351,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>122508</v>
+        <v>59608.00000000005</v>
       </c>
       <c r="C26" t="n">
-        <v>53496.3686073788</v>
+        <v>53030.82490219583</v>
       </c>
       <c r="D26" t="n">
-        <v>-21073.10228926309</v>
+        <v>-11146.53593358318</v>
       </c>
       <c r="E26" t="n">
-        <v>154931.2663181158</v>
+        <v>101492.2889686127</v>
       </c>
     </row>
     <row r="27">
@@ -2368,16 +2368,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>156538.0000000001</v>
+        <v>96863.00000000006</v>
       </c>
       <c r="C27" t="n">
-        <v>68979.24062118283</v>
+        <v>78994.02546815475</v>
       </c>
       <c r="D27" t="n">
-        <v>-21128.74285807236</v>
+        <v>-11202.17650239245</v>
       </c>
       <c r="E27" t="n">
-        <v>204388.4977631105</v>
+        <v>164654.8489657624</v>
       </c>
     </row>
   </sheetData>
@@ -2431,16 +2431,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-694212</v>
+        <v>-834512</v>
       </c>
       <c r="C2" t="n">
-        <v>-318967.9386628635</v>
+        <v>-571785.8773257269</v>
       </c>
       <c r="D2" t="n">
-        <v>1125606.069114531</v>
+        <v>1135532.635470211</v>
       </c>
       <c r="E2" t="n">
-        <v>112426.1304516675</v>
+        <v>-270765.2418555159</v>
       </c>
     </row>
     <row r="3">
@@ -2448,16 +2448,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-660182</v>
+        <v>-797257</v>
       </c>
       <c r="C3" t="n">
-        <v>-303528.8355960067</v>
+        <v>-545907.6711920134</v>
       </c>
       <c r="D3" t="n">
-        <v>1025606.069114531</v>
+        <v>1035532.635470211</v>
       </c>
       <c r="E3" t="n">
-        <v>61895.23351852456</v>
+        <v>-307632.0357218024</v>
       </c>
     </row>
     <row r="4">
@@ -2465,16 +2465,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-626152</v>
+        <v>-760002</v>
       </c>
       <c r="C4" t="n">
-        <v>-288089.7325291499</v>
+        <v>-520029.4650582997</v>
       </c>
       <c r="D4" t="n">
-        <v>925606.0691145463</v>
+        <v>935532.6354702262</v>
       </c>
       <c r="E4" t="n">
-        <v>11364.33658539644</v>
+        <v>-344498.8295880735</v>
       </c>
     </row>
     <row r="5">
@@ -2482,16 +2482,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-592122</v>
+        <v>-722747</v>
       </c>
       <c r="C5" t="n">
-        <v>-272650.629462293</v>
+        <v>-494151.258924586</v>
       </c>
       <c r="D5" t="n">
-        <v>825606.0691176662</v>
+        <v>835532.6354733461</v>
       </c>
       <c r="E5" t="n">
-        <v>-39166.56034462678</v>
+        <v>-381365.6234512399</v>
       </c>
     </row>
     <row r="6">
@@ -2499,16 +2499,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-558092</v>
+        <v>-685492</v>
       </c>
       <c r="C6" t="n">
-        <v>-257211.5263954362</v>
+        <v>-468273.0527908724</v>
       </c>
       <c r="D6" t="n">
-        <v>725606.0694146948</v>
+        <v>735532.6357703747</v>
       </c>
       <c r="E6" t="n">
-        <v>-89697.45698074135</v>
+        <v>-418232.4170204976</v>
       </c>
     </row>
     <row r="7">
@@ -2516,16 +2516,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-524061.9999999999</v>
+        <v>-648237</v>
       </c>
       <c r="C7" t="n">
-        <v>-241772.4233285794</v>
+        <v>-442394.8466571587</v>
       </c>
       <c r="D7" t="n">
-        <v>625606.0838273054</v>
+        <v>635532.6501829851</v>
       </c>
       <c r="E7" t="n">
-        <v>-140228.3395012739</v>
+        <v>-455099.1964741737</v>
       </c>
     </row>
     <row r="8">
@@ -2533,16 +2533,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-490031.9999999999</v>
+        <v>-610982</v>
       </c>
       <c r="C8" t="n">
-        <v>-226333.3202617225</v>
+        <v>-416516.6405234451</v>
       </c>
       <c r="D8" t="n">
-        <v>525606.467856646</v>
+        <v>535533.0342123259</v>
       </c>
       <c r="E8" t="n">
-        <v>-190758.8524050764</v>
+        <v>-491965.6063111192</v>
       </c>
     </row>
     <row r="9">
@@ -2550,16 +2550,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-456001.9999999999</v>
+        <v>-573727</v>
       </c>
       <c r="C9" t="n">
-        <v>-210894.2171948657</v>
+        <v>-390638.4343897314</v>
       </c>
       <c r="D9" t="n">
-        <v>425612.4649126929</v>
+        <v>435539.0312683728</v>
       </c>
       <c r="E9" t="n">
-        <v>-241283.7522821728</v>
+        <v>-528826.4031213586</v>
       </c>
     </row>
     <row r="10">
@@ -2567,16 +2567,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-421971.9999999999</v>
+        <v>-536472</v>
       </c>
       <c r="C10" t="n">
-        <v>-195455.1141280089</v>
+        <v>-364760.2282560178</v>
       </c>
       <c r="D10" t="n">
-        <v>325670.5993240419</v>
+        <v>335597.1656797217</v>
       </c>
       <c r="E10" t="n">
-        <v>-291756.514803967</v>
+        <v>-565635.062576296</v>
       </c>
     </row>
     <row r="11">
@@ -2584,16 +2584,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-387941.9999999999</v>
+        <v>-499216.9999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>-180016.0110611521</v>
+        <v>-338882.0221223042</v>
       </c>
       <c r="D11" t="n">
-        <v>226038.9412485755</v>
+        <v>235965.5076042553</v>
       </c>
       <c r="E11" t="n">
-        <v>-341919.0698125765</v>
+        <v>-602133.5145180488</v>
       </c>
     </row>
     <row r="12">
@@ -2601,16 +2601,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-353911.9999999999</v>
+        <v>-461961.9999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>-164576.9079942952</v>
+        <v>-313003.8159885905</v>
       </c>
       <c r="D12" t="n">
-        <v>127638.1777258831</v>
+        <v>137564.744081563</v>
       </c>
       <c r="E12" t="n">
-        <v>-390850.7302684121</v>
+        <v>-637401.0719070275</v>
       </c>
     </row>
     <row r="13">
@@ -2618,16 +2618,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-319881.9999999999</v>
+        <v>-424706.9999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>-149137.8049274384</v>
+        <v>-287125.6098548768</v>
       </c>
       <c r="D13" t="n">
-        <v>82612.44206503418</v>
+        <v>92539.00842071408</v>
       </c>
       <c r="E13" t="n">
-        <v>-386407.3628624041</v>
+        <v>-619293.6014341627</v>
       </c>
     </row>
     <row r="14">
@@ -2635,16 +2635,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-285851.9999999999</v>
+        <v>-387451.9999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>-133698.7018605816</v>
+        <v>-261247.4037211632</v>
       </c>
       <c r="D14" t="n">
-        <v>44186.15143850625</v>
+        <v>54112.71779418615</v>
       </c>
       <c r="E14" t="n">
-        <v>-375364.5504220753</v>
+        <v>-594586.6859269768</v>
       </c>
     </row>
     <row r="15">
@@ -2652,16 +2652,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-251821.9999999999</v>
+        <v>-350196.9999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>-118259.5987937248</v>
+        <v>-235369.1975874496</v>
       </c>
       <c r="D15" t="n">
-        <v>15225.27984709874</v>
+        <v>25151.84620277865</v>
       </c>
       <c r="E15" t="n">
-        <v>-354856.318946626</v>
+        <v>-560414.3513846709</v>
       </c>
     </row>
     <row r="16">
@@ -2669,16 +2669,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-217791.9999999999</v>
+        <v>-312941.9999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-102820.495726868</v>
+        <v>-209490.991453736</v>
       </c>
       <c r="D16" t="n">
-        <v>-3522.26071946275</v>
+        <v>6404.305636217156</v>
       </c>
       <c r="E16" t="n">
-        <v>-324134.7564463307</v>
+        <v>-516028.6858175187</v>
       </c>
     </row>
     <row r="17">
@@ -2686,16 +2686,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-183761.9999999999</v>
+        <v>-275686.9999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>-87381.39266001113</v>
+        <v>-183612.7853200223</v>
       </c>
       <c r="D17" t="n">
-        <v>-13787.36662921808</v>
+        <v>-3860.800273538178</v>
       </c>
       <c r="E17" t="n">
-        <v>-284930.7592892292</v>
+        <v>-463160.5855935604</v>
       </c>
     </row>
     <row r="18">
@@ -2703,16 +2703,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-149731.9999999999</v>
+        <v>-238431.9999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>-71942.28959315433</v>
+        <v>-157734.5791863087</v>
       </c>
       <c r="D18" t="n">
-        <v>-18516.3558456546</v>
+        <v>-8589.789489974697</v>
       </c>
       <c r="E18" t="n">
-        <v>-240190.6454388089</v>
+        <v>-404756.3686762833</v>
       </c>
     </row>
     <row r="19">
@@ -2720,16 +2720,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-115702</v>
+        <v>-201176.9999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>-56503.18652629742</v>
+        <v>-131856.3730525948</v>
       </c>
       <c r="D19" t="n">
-        <v>-20351.90529912181</v>
+        <v>-10425.33894344191</v>
       </c>
       <c r="E19" t="n">
-        <v>-192557.0918254192</v>
+        <v>-343458.7119960367</v>
       </c>
     </row>
     <row r="20">
@@ -2737,16 +2737,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-81671.99999999996</v>
+        <v>-163921.9999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-41064.08345944062</v>
+        <v>-105978.1669188812</v>
       </c>
       <c r="D20" t="n">
-        <v>-20955.43045780783</v>
+        <v>-11028.86410212793</v>
       </c>
       <c r="E20" t="n">
-        <v>-143691.5139172484</v>
+        <v>-280929.0310210091</v>
       </c>
     </row>
     <row r="21">
@@ -2754,16 +2754,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-47641.99999999995</v>
+        <v>-126666.9999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>-25624.98039258382</v>
+        <v>-80099.96078516764</v>
       </c>
       <c r="D21" t="n">
-        <v>-21124.79978557712</v>
+        <v>-11198.23342989721</v>
       </c>
       <c r="E21" t="n">
-        <v>-94391.78017816087</v>
+        <v>-217965.1942150648</v>
       </c>
     </row>
     <row r="22">
@@ -2771,16 +2771,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-13611.99999999995</v>
+        <v>-89411.99999999994</v>
       </c>
       <c r="C22" t="n">
-        <v>-10185.87732572696</v>
+        <v>-54221.75465145393</v>
       </c>
       <c r="D22" t="n">
-        <v>-21165.71746867325</v>
+        <v>-11239.15111299335</v>
       </c>
       <c r="E22" t="n">
-        <v>-44963.59479440017</v>
+        <v>-154872.9057644472</v>
       </c>
     </row>
     <row r="23">
@@ -2788,16 +2788,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>20418.00000000005</v>
+        <v>-52156.99999999995</v>
       </c>
       <c r="C23" t="n">
-        <v>5253.225741129834</v>
+        <v>-28343.54851774033</v>
       </c>
       <c r="D23" t="n">
-        <v>-21174.30375678555</v>
+        <v>-11247.73740110564</v>
       </c>
       <c r="E23" t="n">
-        <v>4496.921984344332</v>
+        <v>-91748.28591884591</v>
       </c>
     </row>
     <row r="24">
@@ -2805,16 +2805,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>54448.00000000005</v>
+        <v>-14901.99999999995</v>
       </c>
       <c r="C24" t="n">
-        <v>20692.32880798663</v>
+        <v>-2465.342384026735</v>
       </c>
       <c r="D24" t="n">
-        <v>-21175.8827586159</v>
+        <v>-11249.316402936</v>
       </c>
       <c r="E24" t="n">
-        <v>53964.44604937079</v>
+        <v>-28616.65878696268</v>
       </c>
     </row>
     <row r="25">
@@ -2822,16 +2822,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>88478.00000000004</v>
+        <v>22353.00000000005</v>
       </c>
       <c r="C25" t="n">
-        <v>36131.43187484343</v>
+        <v>23412.86374968686</v>
       </c>
       <c r="D25" t="n">
-        <v>-21176.13943948973</v>
+        <v>-11249.57308380982</v>
       </c>
       <c r="E25" t="n">
-        <v>103433.2924353538</v>
+        <v>34516.2906658771</v>
       </c>
     </row>
     <row r="26">
@@ -2839,16 +2839,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>122508</v>
+        <v>59608.00000000005</v>
       </c>
       <c r="C26" t="n">
-        <v>51570.53494170035</v>
+        <v>49291.06988340069</v>
       </c>
       <c r="D26" t="n">
-        <v>-21176.17662921157</v>
+        <v>-11249.61027353167</v>
       </c>
       <c r="E26" t="n">
-        <v>152902.3583124888</v>
+        <v>97649.45960986908</v>
       </c>
     </row>
     <row r="27">
@@ -2856,16 +2856,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>156538.0000000001</v>
+        <v>96863.00000000006</v>
       </c>
       <c r="C27" t="n">
-        <v>67009.63800855714</v>
+        <v>75169.27601711429</v>
       </c>
       <c r="D27" t="n">
-        <v>-21176.18146941869</v>
+        <v>-11249.61511373879</v>
       </c>
       <c r="E27" t="n">
-        <v>202371.4565391385</v>
+        <v>160782.6609033756</v>
       </c>
     </row>
   </sheetData>
@@ -2919,16 +2919,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-694212</v>
+        <v>-834512</v>
       </c>
       <c r="C2" t="n">
-        <v>-319762.7631005452</v>
+        <v>-573375.5262010903</v>
       </c>
       <c r="D2" t="n">
-        <v>1128823.817892751</v>
+        <v>1138750.38424843</v>
       </c>
       <c r="E2" t="n">
-        <v>114849.0547922056</v>
+        <v>-269137.1419526599</v>
       </c>
     </row>
     <row r="3">
@@ -2936,16 +2936,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-660182</v>
+        <v>-797257</v>
       </c>
       <c r="C3" t="n">
-        <v>-304363.4012555724</v>
+        <v>-547576.8025111448</v>
       </c>
       <c r="D3" t="n">
-        <v>1028823.817892751</v>
+        <v>1038750.38424843</v>
       </c>
       <c r="E3" t="n">
-        <v>64278.41663717816</v>
+        <v>-306083.4182627144</v>
       </c>
     </row>
     <row r="4">
@@ -2953,16 +2953,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-626152</v>
+        <v>-760002</v>
       </c>
       <c r="C4" t="n">
-        <v>-288964.0394105997</v>
+        <v>-521778.0788211994</v>
       </c>
       <c r="D4" t="n">
-        <v>928823.8178927505</v>
+        <v>938750.3842484304</v>
       </c>
       <c r="E4" t="n">
-        <v>13707.77848215075</v>
+        <v>-343029.6945727691</v>
       </c>
     </row>
     <row r="5">
@@ -2970,16 +2970,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-592122</v>
+        <v>-722747</v>
       </c>
       <c r="C5" t="n">
-        <v>-273564.6775656269</v>
+        <v>-495979.3551312538</v>
       </c>
       <c r="D5" t="n">
-        <v>828823.8178927505</v>
+        <v>838750.3842484304</v>
       </c>
       <c r="E5" t="n">
-        <v>-36862.85967287642</v>
+        <v>-379975.9708828235</v>
       </c>
     </row>
     <row r="6">
@@ -2987,16 +2987,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-558092</v>
+        <v>-685492</v>
       </c>
       <c r="C6" t="n">
-        <v>-258165.3157206542</v>
+        <v>-470180.6314413083</v>
       </c>
       <c r="D6" t="n">
-        <v>728823.8178927505</v>
+        <v>738750.3842484304</v>
       </c>
       <c r="E6" t="n">
-        <v>-87433.4978279036</v>
+        <v>-416922.2471928778</v>
       </c>
     </row>
     <row r="7">
@@ -3004,16 +3004,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-524061.9999999999</v>
+        <v>-648237</v>
       </c>
       <c r="C7" t="n">
-        <v>-242765.9538756814</v>
+        <v>-444381.9077513628</v>
       </c>
       <c r="D7" t="n">
-        <v>628823.8178927506</v>
+        <v>638750.3842484305</v>
       </c>
       <c r="E7" t="n">
-        <v>-138004.1359829308</v>
+        <v>-453868.5235029323</v>
       </c>
     </row>
     <row r="8">
@@ -3021,16 +3021,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-490031.9999999999</v>
+        <v>-610982</v>
       </c>
       <c r="C8" t="n">
-        <v>-227366.5920307087</v>
+        <v>-418583.1840614174</v>
       </c>
       <c r="D8" t="n">
-        <v>528823.8178927506</v>
+        <v>538750.3842484305</v>
       </c>
       <c r="E8" t="n">
-        <v>-188574.7741379581</v>
+        <v>-490814.7998129869</v>
       </c>
     </row>
     <row r="9">
@@ -3038,16 +3038,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-456001.9999999999</v>
+        <v>-573727</v>
       </c>
       <c r="C9" t="n">
-        <v>-211967.230185736</v>
+        <v>-392784.4603714719</v>
       </c>
       <c r="D9" t="n">
-        <v>428823.8178927506</v>
+        <v>438750.3842484305</v>
       </c>
       <c r="E9" t="n">
-        <v>-239145.4122929854</v>
+        <v>-527761.0761230415</v>
       </c>
     </row>
     <row r="10">
@@ -3055,16 +3055,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-421971.9999999999</v>
+        <v>-536472</v>
       </c>
       <c r="C10" t="n">
-        <v>-196567.8683407632</v>
+        <v>-366985.7366815264</v>
       </c>
       <c r="D10" t="n">
-        <v>328823.8178927506</v>
+        <v>338750.3842484305</v>
       </c>
       <c r="E10" t="n">
-        <v>-289716.0504480125</v>
+        <v>-564707.3524330959</v>
       </c>
     </row>
     <row r="11">
@@ -3072,16 +3072,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-387941.9999999999</v>
+        <v>-499216.9999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>-181168.5064957904</v>
+        <v>-341187.0129915809</v>
       </c>
       <c r="D11" t="n">
-        <v>228823.8178927506</v>
+        <v>238750.3842484305</v>
       </c>
       <c r="E11" t="n">
-        <v>-340286.6886030397</v>
+        <v>-601653.6287431504</v>
       </c>
     </row>
     <row r="12">
@@ -3089,16 +3089,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-353911.9999999999</v>
+        <v>-461961.9999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>-165769.1446508177</v>
+        <v>-315388.2893016355</v>
       </c>
       <c r="D12" t="n">
-        <v>128823.8178927506</v>
+        <v>138750.3842484305</v>
       </c>
       <c r="E12" t="n">
-        <v>-390857.3267580671</v>
+        <v>-638599.905053205</v>
       </c>
     </row>
     <row r="13">
@@ -3106,16 +3106,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-319881.9999999999</v>
+        <v>-424706.9999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>-150369.7828058449</v>
+        <v>-289589.5656116898</v>
       </c>
       <c r="D13" t="n">
-        <v>78823.81789275059</v>
+        <v>88750.38424843049</v>
       </c>
       <c r="E13" t="n">
-        <v>-391427.9649130942</v>
+        <v>-625546.1813632593</v>
       </c>
     </row>
     <row r="14">
@@ -3123,16 +3123,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-285851.9999999999</v>
+        <v>-387451.9999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>-134970.4209608722</v>
+        <v>-263790.8419217444</v>
       </c>
       <c r="D14" t="n">
-        <v>28823.8178927506</v>
+        <v>38750.38424843051</v>
       </c>
       <c r="E14" t="n">
-        <v>-391998.6030681215</v>
+        <v>-612492.4576733139</v>
       </c>
     </row>
     <row r="15">
@@ -3140,16 +3140,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-251821.9999999999</v>
+        <v>-350196.9999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>-119571.0591158995</v>
+        <v>-237992.118231799</v>
       </c>
       <c r="D15" t="n">
-        <v>-21176.1821072494</v>
+        <v>-11249.6157515695</v>
       </c>
       <c r="E15" t="n">
-        <v>-392569.2412231488</v>
+        <v>-599438.7339833685</v>
       </c>
     </row>
     <row r="16">
@@ -3157,16 +3157,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-217791.9999999999</v>
+        <v>-312941.9999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-104171.6972709267</v>
+        <v>-212193.3945418535</v>
       </c>
       <c r="D16" t="n">
-        <v>-21176.1821072494</v>
+        <v>-11249.6157515695</v>
       </c>
       <c r="E16" t="n">
-        <v>-343139.8793781761</v>
+        <v>-536385.0102934228</v>
       </c>
     </row>
     <row r="17">
@@ -3174,16 +3174,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-183761.9999999999</v>
+        <v>-275686.9999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>-88772.33542595402</v>
+        <v>-186394.670851908</v>
       </c>
       <c r="D17" t="n">
-        <v>-21176.1821072494</v>
+        <v>-11249.6157515695</v>
       </c>
       <c r="E17" t="n">
-        <v>-293710.5175332034</v>
+        <v>-473331.2866034775</v>
       </c>
     </row>
     <row r="18">
@@ -3191,16 +3191,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-149731.9999999999</v>
+        <v>-238431.9999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>-73372.9735809812</v>
+        <v>-160595.9471619624</v>
       </c>
       <c r="D18" t="n">
-        <v>-21176.1821072494</v>
+        <v>-11249.6157515695</v>
       </c>
       <c r="E18" t="n">
-        <v>-244281.1556882305</v>
+        <v>-410277.5629135318</v>
       </c>
     </row>
     <row r="19">
@@ -3208,16 +3208,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-115702</v>
+        <v>-201176.9999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>-57973.61173600849</v>
+        <v>-134797.223472017</v>
       </c>
       <c r="D19" t="n">
-        <v>-21176.1821072494</v>
+        <v>-11249.6157515695</v>
       </c>
       <c r="E19" t="n">
-        <v>-194851.7938432578</v>
+        <v>-347223.8392235864</v>
       </c>
     </row>
     <row r="20">
@@ -3225,16 +3225,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-81671.99999999996</v>
+        <v>-163921.9999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-42574.24989103578</v>
+        <v>-108998.4997820716</v>
       </c>
       <c r="D20" t="n">
-        <v>-21176.1821072494</v>
+        <v>-11249.6157515695</v>
       </c>
       <c r="E20" t="n">
-        <v>-145422.4319982851</v>
+        <v>-284170.115533641</v>
       </c>
     </row>
     <row r="21">
@@ -3242,16 +3242,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-47641.99999999995</v>
+        <v>-126666.9999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>-27174.88804606302</v>
+        <v>-83199.77609212603</v>
       </c>
       <c r="D21" t="n">
-        <v>-21176.1821072494</v>
+        <v>-11249.6157515695</v>
       </c>
       <c r="E21" t="n">
-        <v>-95993.07015331236</v>
+        <v>-221116.3918436955</v>
       </c>
     </row>
     <row r="22">
@@ -3259,16 +3259,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-13611.99999999995</v>
+        <v>-89411.99999999994</v>
       </c>
       <c r="C22" t="n">
-        <v>-11775.52620109025</v>
+        <v>-57401.0524021805</v>
       </c>
       <c r="D22" t="n">
-        <v>-21176.1821072494</v>
+        <v>-11249.6157515695</v>
       </c>
       <c r="E22" t="n">
-        <v>-46563.7083083396</v>
+        <v>-158062.66815375</v>
       </c>
     </row>
     <row r="23">
@@ -3276,16 +3276,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>20418.00000000005</v>
+        <v>-52156.99999999995</v>
       </c>
       <c r="C23" t="n">
-        <v>3623.835643882456</v>
+        <v>-31602.32871223509</v>
       </c>
       <c r="D23" t="n">
-        <v>-21176.1821072494</v>
+        <v>-11249.6157515695</v>
       </c>
       <c r="E23" t="n">
-        <v>2865.653536633101</v>
+        <v>-95008.94446380452</v>
       </c>
     </row>
     <row r="24">
@@ -3293,16 +3293,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>54448.00000000005</v>
+        <v>-14901.99999999995</v>
       </c>
       <c r="C24" t="n">
-        <v>19023.19748885522</v>
+        <v>-5803.605022289557</v>
       </c>
       <c r="D24" t="n">
-        <v>-21176.1821072494</v>
+        <v>-11249.6157515695</v>
       </c>
       <c r="E24" t="n">
-        <v>52295.01538160587</v>
+        <v>-31955.220773859</v>
       </c>
     </row>
     <row r="25">
@@ -3310,16 +3310,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>88478.00000000004</v>
+        <v>22353.00000000005</v>
       </c>
       <c r="C25" t="n">
-        <v>34422.55933382793</v>
+        <v>19995.11866765586</v>
       </c>
       <c r="D25" t="n">
-        <v>-21176.1821072494</v>
+        <v>-11249.6157515695</v>
       </c>
       <c r="E25" t="n">
-        <v>101724.3772265786</v>
+        <v>31098.50291608642</v>
       </c>
     </row>
     <row r="26">
@@ -3327,16 +3327,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>122508</v>
+        <v>59608.00000000005</v>
       </c>
       <c r="C26" t="n">
-        <v>49821.92117880064</v>
+        <v>45793.84235760127</v>
       </c>
       <c r="D26" t="n">
-        <v>-21176.1821072494</v>
+        <v>-11249.6157515695</v>
       </c>
       <c r="E26" t="n">
-        <v>151153.7390715513</v>
+        <v>94152.22660603184</v>
       </c>
     </row>
     <row r="27">
@@ -3344,16 +3344,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>156538.0000000001</v>
+        <v>96863.00000000006</v>
       </c>
       <c r="C27" t="n">
-        <v>65221.28302377346</v>
+        <v>71592.56604754692</v>
       </c>
       <c r="D27" t="n">
-        <v>-21176.1821072494</v>
+        <v>-11249.6157515695</v>
       </c>
       <c r="E27" t="n">
-        <v>200583.1009165241</v>
+        <v>157205.9502959775</v>
       </c>
     </row>
   </sheetData>
@@ -3407,16 +3407,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-694212</v>
+        <v>-834512</v>
       </c>
       <c r="C2" t="n">
-        <v>-320580.9029836912</v>
+        <v>-575011.8059673824</v>
       </c>
       <c r="D2" t="n">
-        <v>1128823.817892751</v>
+        <v>1138750.38424843</v>
       </c>
       <c r="E2" t="n">
-        <v>114030.9149090595</v>
+        <v>-270773.421718952</v>
       </c>
     </row>
     <row r="3">
@@ -3424,16 +3424,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-660182</v>
+        <v>-797257</v>
       </c>
       <c r="C3" t="n">
-        <v>-305222.4481328757</v>
+        <v>-549294.8962657514</v>
       </c>
       <c r="D3" t="n">
-        <v>1028823.817892751</v>
+        <v>1038750.38424843</v>
       </c>
       <c r="E3" t="n">
-        <v>63419.36975987488</v>
+        <v>-307801.512017321</v>
       </c>
     </row>
     <row r="4">
@@ -3441,16 +3441,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-626152</v>
+        <v>-760002</v>
       </c>
       <c r="C4" t="n">
-        <v>-289863.9932820603</v>
+        <v>-523577.9865641206</v>
       </c>
       <c r="D4" t="n">
-        <v>928823.8178927505</v>
+        <v>938750.3842484304</v>
       </c>
       <c r="E4" t="n">
-        <v>12807.82461069024</v>
+        <v>-344829.6023156901</v>
       </c>
     </row>
     <row r="5">
@@ -3458,16 +3458,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-592122</v>
+        <v>-722747</v>
       </c>
       <c r="C5" t="n">
-        <v>-274505.5384312448</v>
+        <v>-497861.0768624897</v>
       </c>
       <c r="D5" t="n">
-        <v>828823.8178927505</v>
+        <v>838750.3842484304</v>
       </c>
       <c r="E5" t="n">
-        <v>-37803.72053849441</v>
+        <v>-381857.6926140594</v>
       </c>
     </row>
     <row r="6">
@@ -3475,16 +3475,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-558092</v>
+        <v>-685492</v>
       </c>
       <c r="C6" t="n">
-        <v>-259147.0835804294</v>
+        <v>-472144.1671608587</v>
       </c>
       <c r="D6" t="n">
-        <v>728823.8178927505</v>
+        <v>738750.3842484304</v>
       </c>
       <c r="E6" t="n">
-        <v>-88415.26568767894</v>
+        <v>-418885.7829124285</v>
       </c>
     </row>
     <row r="7">
@@ -3492,16 +3492,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-524061.9999999999</v>
+        <v>-648237</v>
       </c>
       <c r="C7" t="n">
-        <v>-243788.628729614</v>
+        <v>-446427.2574592279</v>
       </c>
       <c r="D7" t="n">
-        <v>628823.8178927506</v>
+        <v>638750.3842484305</v>
       </c>
       <c r="E7" t="n">
-        <v>-139026.8108368634</v>
+        <v>-455913.8732107974</v>
       </c>
     </row>
     <row r="8">
@@ -3509,16 +3509,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-490031.9999999999</v>
+        <v>-610982</v>
       </c>
       <c r="C8" t="n">
-        <v>-228430.1738787985</v>
+        <v>-420710.347757597</v>
       </c>
       <c r="D8" t="n">
-        <v>528823.8178927506</v>
+        <v>538750.3842484305</v>
       </c>
       <c r="E8" t="n">
-        <v>-189638.3559860479</v>
+        <v>-492941.9635091665</v>
       </c>
     </row>
     <row r="9">
@@ -3526,16 +3526,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-456001.9999999999</v>
+        <v>-573727</v>
       </c>
       <c r="C9" t="n">
-        <v>-213071.7190279831</v>
+        <v>-394993.4380559662</v>
       </c>
       <c r="D9" t="n">
-        <v>428823.8178927506</v>
+        <v>438750.3842484305</v>
       </c>
       <c r="E9" t="n">
-        <v>-240249.9011352324</v>
+        <v>-529970.0538075357</v>
       </c>
     </row>
     <row r="10">
@@ -3543,16 +3543,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-421971.9999999999</v>
+        <v>-536472</v>
       </c>
       <c r="C10" t="n">
-        <v>-197713.2641771676</v>
+        <v>-369276.5283543352</v>
       </c>
       <c r="D10" t="n">
-        <v>328823.8178927506</v>
+        <v>338750.3842484305</v>
       </c>
       <c r="E10" t="n">
-        <v>-290861.4462844169</v>
+        <v>-566998.1441059047</v>
       </c>
     </row>
     <row r="11">
@@ -3560,16 +3560,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-387941.9999999999</v>
+        <v>-499216.9999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>-182354.8093263522</v>
+        <v>-343559.6186527044</v>
       </c>
       <c r="D11" t="n">
-        <v>228823.8178927506</v>
+        <v>238750.3842484305</v>
       </c>
       <c r="E11" t="n">
-        <v>-341472.9914336015</v>
+        <v>-604026.2344042739</v>
       </c>
     </row>
     <row r="12">
@@ -3577,16 +3577,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-353911.9999999999</v>
+        <v>-461961.9999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>-166996.3544755368</v>
+        <v>-317842.7089510736</v>
       </c>
       <c r="D12" t="n">
-        <v>128823.8178927506</v>
+        <v>138750.3842484305</v>
       </c>
       <c r="E12" t="n">
-        <v>-392084.5365827861</v>
+        <v>-641054.324702643</v>
       </c>
     </row>
     <row r="13">
@@ -3594,16 +3594,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-319881.9999999999</v>
+        <v>-424706.9999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>-151637.8996247213</v>
+        <v>-292125.7992494426</v>
       </c>
       <c r="D13" t="n">
-        <v>78823.81789275059</v>
+        <v>88750.38424843049</v>
       </c>
       <c r="E13" t="n">
-        <v>-392696.0817319707</v>
+        <v>-628082.415001012</v>
       </c>
     </row>
     <row r="14">
@@ -3611,16 +3611,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-285851.9999999999</v>
+        <v>-387451.9999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>-136279.4447739059</v>
+        <v>-266408.8895478117</v>
       </c>
       <c r="D14" t="n">
-        <v>28823.8178927506</v>
+        <v>38750.38424843051</v>
       </c>
       <c r="E14" t="n">
-        <v>-393307.6268811552</v>
+        <v>-615110.5052993811</v>
       </c>
     </row>
     <row r="15">
@@ -3628,16 +3628,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-251821.9999999999</v>
+        <v>-350196.9999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>-120920.9899230904</v>
+        <v>-240691.9798461809</v>
       </c>
       <c r="D15" t="n">
-        <v>-21176.1821072494</v>
+        <v>-11249.6157515695</v>
       </c>
       <c r="E15" t="n">
-        <v>-393919.1720303398</v>
+        <v>-602138.5955977504</v>
       </c>
     </row>
     <row r="16">
@@ -3645,16 +3645,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-217791.9999999999</v>
+        <v>-312941.9999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-105562.535072275</v>
+        <v>-214975.0701445499</v>
       </c>
       <c r="D16" t="n">
-        <v>-21176.1821072494</v>
+        <v>-11249.6157515695</v>
       </c>
       <c r="E16" t="n">
-        <v>-344530.7171795243</v>
+        <v>-539166.6858961195</v>
       </c>
     </row>
     <row r="17">
@@ -3662,16 +3662,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-183761.9999999999</v>
+        <v>-275686.9999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>-90204.0802214595</v>
+        <v>-189258.160442919</v>
       </c>
       <c r="D17" t="n">
-        <v>-21176.1821072494</v>
+        <v>-11249.6157515695</v>
       </c>
       <c r="E17" t="n">
-        <v>-295142.2623287088</v>
+        <v>-476194.7761944885</v>
       </c>
     </row>
     <row r="18">
@@ -3679,16 +3679,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-149731.9999999999</v>
+        <v>-238431.9999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>-74845.62537064409</v>
+        <v>-163541.2507412882</v>
       </c>
       <c r="D18" t="n">
-        <v>-21176.1821072494</v>
+        <v>-11249.6157515695</v>
       </c>
       <c r="E18" t="n">
-        <v>-245753.8074778934</v>
+        <v>-413222.8664928576</v>
       </c>
     </row>
     <row r="19">
@@ -3696,16 +3696,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-115702</v>
+        <v>-201176.9999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>-59487.17051982862</v>
+        <v>-137824.3410396572</v>
       </c>
       <c r="D19" t="n">
-        <v>-21176.1821072494</v>
+        <v>-11249.6157515695</v>
       </c>
       <c r="E19" t="n">
-        <v>-196365.352627078</v>
+        <v>-350250.9567912267</v>
       </c>
     </row>
     <row r="20">
@@ -3713,16 +3713,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-81671.99999999996</v>
+        <v>-163921.9999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-44128.71566901327</v>
+        <v>-112107.4313380265</v>
       </c>
       <c r="D20" t="n">
-        <v>-21176.1821072494</v>
+        <v>-11249.6157515695</v>
       </c>
       <c r="E20" t="n">
-        <v>-146976.8977762626</v>
+        <v>-287279.047089596</v>
       </c>
     </row>
     <row r="21">
@@ -3730,16 +3730,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-47641.99999999995</v>
+        <v>-126666.9999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>-28770.2608181978</v>
+        <v>-86390.5216363956</v>
       </c>
       <c r="D21" t="n">
-        <v>-21176.1821072494</v>
+        <v>-11249.6157515695</v>
       </c>
       <c r="E21" t="n">
-        <v>-97588.44292544715</v>
+        <v>-224307.137387965</v>
       </c>
     </row>
     <row r="22">
@@ -3747,16 +3747,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-13611.99999999995</v>
+        <v>-89411.99999999994</v>
       </c>
       <c r="C22" t="n">
-        <v>-13411.80596738233</v>
+        <v>-60673.61193476466</v>
       </c>
       <c r="D22" t="n">
-        <v>-21176.1821072494</v>
+        <v>-11249.6157515695</v>
       </c>
       <c r="E22" t="n">
-        <v>-48199.98807463168</v>
+        <v>-161335.2276863341</v>
       </c>
     </row>
     <row r="23">
@@ -3764,16 +3764,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>20418.00000000005</v>
+        <v>-52156.99999999995</v>
       </c>
       <c r="C23" t="n">
-        <v>1946.648883433081</v>
+        <v>-34956.70223313384</v>
       </c>
       <c r="D23" t="n">
-        <v>-21176.1821072494</v>
+        <v>-11249.6157515695</v>
       </c>
       <c r="E23" t="n">
-        <v>1188.466776183726</v>
+        <v>-98363.31798470327</v>
       </c>
     </row>
     <row r="24">
@@ -3781,16 +3781,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>54448.00000000005</v>
+        <v>-14901.99999999995</v>
       </c>
       <c r="C24" t="n">
-        <v>17305.10373424855</v>
+        <v>-9239.792531502899</v>
       </c>
       <c r="D24" t="n">
-        <v>-21176.1821072494</v>
+        <v>-11249.6157515695</v>
       </c>
       <c r="E24" t="n">
-        <v>50576.9216269992</v>
+        <v>-35391.40828307235</v>
       </c>
     </row>
     <row r="25">
@@ -3798,16 +3798,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>88478.00000000004</v>
+        <v>22353.00000000005</v>
       </c>
       <c r="C25" t="n">
-        <v>32663.55858506402</v>
+        <v>16477.11717012804</v>
       </c>
       <c r="D25" t="n">
-        <v>-21176.1821072494</v>
+        <v>-11249.6157515695</v>
       </c>
       <c r="E25" t="n">
-        <v>99965.37647781466</v>
+        <v>27580.5014185586</v>
       </c>
     </row>
     <row r="26">
@@ -3815,16 +3815,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>122508</v>
+        <v>59608.00000000005</v>
       </c>
       <c r="C26" t="n">
-        <v>48022.01343587943</v>
+        <v>42194.02687175886</v>
       </c>
       <c r="D26" t="n">
-        <v>-21176.1821072494</v>
+        <v>-11249.6157515695</v>
       </c>
       <c r="E26" t="n">
-        <v>149353.8313286301</v>
+        <v>90552.41112018943</v>
       </c>
     </row>
     <row r="27">
@@ -3832,16 +3832,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>156538.0000000001</v>
+        <v>96863.00000000006</v>
       </c>
       <c r="C27" t="n">
-        <v>63380.4682866949</v>
+        <v>67910.9365733898</v>
       </c>
       <c r="D27" t="n">
-        <v>-21176.1821072494</v>
+        <v>-11249.6157515695</v>
       </c>
       <c r="E27" t="n">
-        <v>198742.2861794456</v>
+        <v>153524.3208218204</v>
       </c>
     </row>
   </sheetData>
@@ -3895,16 +3895,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-694212</v>
+        <v>-834512</v>
       </c>
       <c r="C2" t="n">
-        <v>-315165.4256674917</v>
+        <v>-565177.4827832899</v>
       </c>
       <c r="D2" t="n">
-        <v>1086388.106268457</v>
+        <v>1096314.672624137</v>
       </c>
       <c r="E2" t="n">
-        <v>77010.68060096563</v>
+        <v>-303374.8101591526</v>
       </c>
     </row>
     <row r="3">
@@ -3912,16 +3912,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-660182</v>
+        <v>-797257</v>
       </c>
       <c r="C3" t="n">
-        <v>-299536.1969508663</v>
+        <v>-538968.8569224543</v>
       </c>
       <c r="D3" t="n">
-        <v>986811.9941812449</v>
+        <v>996738.5605369247</v>
       </c>
       <c r="E3" t="n">
-        <v>27093.79723037849</v>
+        <v>-339487.2963855295</v>
       </c>
     </row>
     <row r="4">
@@ -3929,16 +3929,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-626152</v>
+        <v>-760002</v>
       </c>
       <c r="C4" t="n">
-        <v>-283906.9682342409</v>
+        <v>-512760.2310616188</v>
       </c>
       <c r="D4" t="n">
-        <v>887843.8950403822</v>
+        <v>897770.461396062</v>
       </c>
       <c r="E4" t="n">
-        <v>-22215.07319385873</v>
+        <v>-374991.7696655567</v>
       </c>
     </row>
     <row r="5">
@@ -3946,16 +3946,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-592122</v>
+        <v>-722747</v>
       </c>
       <c r="C5" t="n">
-        <v>-268277.7395176155</v>
+        <v>-486551.6052007833</v>
       </c>
       <c r="D5" t="n">
-        <v>790059.6760477136</v>
+        <v>799986.2424033935</v>
       </c>
       <c r="E5" t="n">
-        <v>-70340.0634699018</v>
+        <v>-409312.3627973899</v>
       </c>
     </row>
     <row r="6">
@@ -3963,16 +3963,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-558092</v>
+        <v>-685492</v>
       </c>
       <c r="C6" t="n">
-        <v>-252648.5108009901</v>
+        <v>-460342.9793399479</v>
       </c>
       <c r="D6" t="n">
-        <v>694319.6891601172</v>
+        <v>704246.2555157971</v>
       </c>
       <c r="E6" t="n">
-        <v>-116420.8216408729</v>
+        <v>-441588.7238241509</v>
       </c>
     </row>
     <row r="7">
@@ -3980,16 +3980,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-524061.9999999999</v>
+        <v>-648237</v>
       </c>
       <c r="C7" t="n">
-        <v>-237019.2820843646</v>
+        <v>-434134.3534791123</v>
       </c>
       <c r="D7" t="n">
-        <v>601751.7792792822</v>
+        <v>611678.3456349621</v>
       </c>
       <c r="E7" t="n">
-        <v>-159329.5028050824</v>
+        <v>-470693.0078441502</v>
       </c>
     </row>
     <row r="8">
@@ -3997,16 +3997,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-490031.9999999999</v>
+        <v>-610982</v>
       </c>
       <c r="C8" t="n">
-        <v>-221390.0533677392</v>
+        <v>-407925.7276182767</v>
       </c>
       <c r="D8" t="n">
-        <v>513659.911319979</v>
+        <v>523586.4776756589</v>
       </c>
       <c r="E8" t="n">
-        <v>-197762.1420477602</v>
+        <v>-495321.2499426178</v>
       </c>
     </row>
     <row r="9">
@@ -4014,16 +4014,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-456001.9999999999</v>
+        <v>-573727</v>
       </c>
       <c r="C9" t="n">
-        <v>-205760.8246511138</v>
+        <v>-381717.1017574412</v>
       </c>
       <c r="D9" t="n">
-        <v>431372.7320503047</v>
+        <v>441299.2984059845</v>
       </c>
       <c r="E9" t="n">
-        <v>-230390.0926008091</v>
+        <v>-514144.8033514566</v>
       </c>
     </row>
     <row r="10">
@@ -4031,16 +4031,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-421971.9999999999</v>
+        <v>-536472</v>
       </c>
       <c r="C10" t="n">
-        <v>-190131.5959344884</v>
+        <v>-355508.4758966058</v>
       </c>
       <c r="D10" t="n">
-        <v>356069.690081095</v>
+        <v>365996.2564367749</v>
       </c>
       <c r="E10" t="n">
-        <v>-256033.9058533934</v>
+        <v>-525984.2194598309</v>
       </c>
     </row>
     <row r="11">
@@ -4048,16 +4048,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-387941.9999999999</v>
+        <v>-499216.9999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>-174502.3672178629</v>
+        <v>-329299.8500357702</v>
       </c>
       <c r="D11" t="n">
-        <v>288629.6156713821</v>
+        <v>298556.1820270619</v>
       </c>
       <c r="E11" t="n">
-        <v>-273814.7515464808</v>
+        <v>-529960.6680087082</v>
       </c>
     </row>
     <row r="12">
@@ -4065,16 +4065,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-353911.9999999999</v>
+        <v>-461961.9999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>-158873.1385012376</v>
+        <v>-303091.2241749348</v>
       </c>
       <c r="D12" t="n">
-        <v>229536.2982407009</v>
+        <v>239462.8645963809</v>
       </c>
       <c r="E12" t="n">
-        <v>-283248.8402605365</v>
+        <v>-525590.3595785538</v>
       </c>
     </row>
     <row r="13">
@@ -4082,16 +4082,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-319881.9999999999</v>
+        <v>-424706.9999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>-143243.9097846122</v>
+        <v>-276882.5983140994</v>
       </c>
       <c r="D13" t="n">
-        <v>178854.8627365353</v>
+        <v>188781.4290922153</v>
       </c>
       <c r="E13" t="n">
-        <v>-284271.0470480768</v>
+        <v>-512808.169221884</v>
       </c>
     </row>
     <row r="14">
@@ -4099,16 +4099,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-285851.9999999999</v>
+        <v>-387451.9999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>-127614.6810679868</v>
+        <v>-250673.9724532638</v>
       </c>
       <c r="D14" t="n">
-        <v>136271.870889834</v>
+        <v>146198.4372455139</v>
       </c>
       <c r="E14" t="n">
-        <v>-277194.8101781528</v>
+        <v>-491927.5352077498</v>
       </c>
     </row>
     <row r="15">
@@ -4116,16 +4116,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-251821.9999999999</v>
+        <v>-350196.9999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>-111985.4523513613</v>
+        <v>-224465.3465924282</v>
       </c>
       <c r="D15" t="n">
-        <v>101178.5009907308</v>
+        <v>111105.0673464107</v>
       </c>
       <c r="E15" t="n">
-        <v>-262628.9513606305</v>
+        <v>-463557.2792460175</v>
       </c>
     </row>
     <row r="16">
@@ -4133,16 +4133,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-217791.9999999999</v>
+        <v>-312941.9999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-96356.22363473588</v>
+        <v>-198256.7207315926</v>
       </c>
       <c r="D16" t="n">
-        <v>72772.14631523409</v>
+        <v>82698.71267091398</v>
       </c>
       <c r="E16" t="n">
-        <v>-241376.0773195017</v>
+        <v>-428500.0080606786</v>
       </c>
     </row>
     <row r="17">
@@ -4150,16 +4150,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-183761.9999999999</v>
+        <v>-275686.9999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>-80726.99491811046</v>
+        <v>-172048.0948707571</v>
       </c>
       <c r="D17" t="n">
-        <v>50155.33642707163</v>
+        <v>60081.90278275152</v>
       </c>
       <c r="E17" t="n">
-        <v>-214333.6584910388</v>
+        <v>-387653.1920880055</v>
       </c>
     </row>
     <row r="18">
@@ -4167,16 +4167,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-149731.9999999999</v>
+        <v>-238431.9999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>-65097.76620148512</v>
+        <v>-145839.4690099218</v>
       </c>
       <c r="D18" t="n">
-        <v>32418.24249649755</v>
+        <v>42344.80885217746</v>
       </c>
       <c r="E18" t="n">
-        <v>-182411.5237049875</v>
+        <v>-341926.6601577442</v>
       </c>
     </row>
     <row r="19">
@@ -4184,16 +4184,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-115702</v>
+        <v>-201176.9999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>-49468.5374848597</v>
+        <v>-119630.8431490862</v>
       </c>
       <c r="D19" t="n">
-        <v>18698.72416465114</v>
+        <v>28625.29052033105</v>
       </c>
       <c r="E19" t="n">
-        <v>-146471.8133202085</v>
+        <v>-292182.5526287551</v>
       </c>
     </row>
     <row r="20">
@@ -4201,16 +4201,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-81671.99999999996</v>
+        <v>-163921.9999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-33839.30876823427</v>
+        <v>-93422.21728825069</v>
       </c>
       <c r="D20" t="n">
-        <v>8219.829472297673</v>
+        <v>18146.39582797758</v>
       </c>
       <c r="E20" t="n">
-        <v>-107291.4792959366</v>
+        <v>-239197.8214602731</v>
       </c>
     </row>
     <row r="21">
@@ -4218,16 +4218,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-47641.99999999995</v>
+        <v>-126666.9999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>-18210.08005160882</v>
+        <v>-67213.59142741511</v>
       </c>
       <c r="D21" t="n">
-        <v>308.2047397380827</v>
+        <v>10234.77109541799</v>
       </c>
       <c r="E21" t="n">
-        <v>-65543.87531187068</v>
+        <v>-183645.8203319971</v>
       </c>
     </row>
     <row r="22">
@@ -4235,16 +4235,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-13611.99999999995</v>
+        <v>-89411.99999999994</v>
       </c>
       <c r="C22" t="n">
-        <v>-2580.851334983454</v>
+        <v>-41004.96556657969</v>
       </c>
       <c r="D22" t="n">
-        <v>-5601.713382248341</v>
+        <v>4324.852973431564</v>
       </c>
       <c r="E22" t="n">
-        <v>-21794.56471723175</v>
+        <v>-126092.1125931481</v>
       </c>
     </row>
     <row r="23">
@@ -4252,16 +4252,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>20418.00000000005</v>
+        <v>-52156.99999999995</v>
       </c>
       <c r="C23" t="n">
-        <v>13048.377381642</v>
+        <v>-14796.33970574412</v>
       </c>
       <c r="D23" t="n">
-        <v>-9972.888297108653</v>
+        <v>-46.321941428748</v>
       </c>
       <c r="E23" t="n">
-        <v>23493.48908453339</v>
+        <v>-66999.6616471728</v>
       </c>
     </row>
     <row r="24">
@@ -4269,16 +4269,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>54448.00000000005</v>
+        <v>-14901.99999999995</v>
       </c>
       <c r="C24" t="n">
-        <v>28677.6060982674</v>
+        <v>11412.28615509134</v>
       </c>
       <c r="D24" t="n">
-        <v>-13176.2208992239</v>
+        <v>-3249.654543543998</v>
       </c>
       <c r="E24" t="n">
-        <v>69949.38519904355</v>
+        <v>-6739.368388452608</v>
       </c>
     </row>
     <row r="25">
@@ -4286,16 +4286,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>88478.00000000004</v>
+        <v>22353.00000000005</v>
       </c>
       <c r="C25" t="n">
-        <v>44306.83481489279</v>
+        <v>37620.91201592685</v>
       </c>
       <c r="D25" t="n">
-        <v>-15503.44737696378</v>
+        <v>-5576.881021283879</v>
       </c>
       <c r="E25" t="n">
-        <v>117281.3874379291</v>
+        <v>54397.03099464303</v>
       </c>
     </row>
     <row r="26">
@@ -4303,16 +4303,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>122508</v>
+        <v>59608.00000000005</v>
       </c>
       <c r="C26" t="n">
-        <v>59936.06353151819</v>
+        <v>63829.5378767623</v>
       </c>
       <c r="D26" t="n">
-        <v>-17180.40350805944</v>
+        <v>-7253.837152379537</v>
       </c>
       <c r="E26" t="n">
-        <v>165263.6600234588</v>
+        <v>116183.7007243828</v>
       </c>
     </row>
     <row r="27">
@@ -4320,16 +4320,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>156538.0000000001</v>
+        <v>96863.00000000006</v>
       </c>
       <c r="C27" t="n">
-        <v>75565.29224814364</v>
+        <v>90038.16373759788</v>
       </c>
       <c r="D27" t="n">
-        <v>-18379.46278283931</v>
+        <v>-8452.896427159409</v>
       </c>
       <c r="E27" t="n">
-        <v>213723.8294653044</v>
+        <v>178448.2673104385</v>
       </c>
     </row>
   </sheetData>

--- a/ACCU PnL Output.xlsx
+++ b/ACCU PnL Output.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,444 +476,529 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-834512</v>
+        <v>-476962.5</v>
       </c>
       <c r="C2" t="n">
-        <v>-563308.1341747127</v>
+        <v>-253710.2682653351</v>
       </c>
       <c r="D2" t="n">
-        <v>1085569.534795035</v>
+        <v>611060.7948438321</v>
       </c>
       <c r="E2" t="n">
-        <v>-312250.5993796773</v>
+        <v>-119611.973421503</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-797257</v>
+        <v>-449707.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-537006.0408834483</v>
+        <v>-238508.6789959485</v>
       </c>
       <c r="D3" t="n">
-        <v>986674.7354647927</v>
+        <v>526567.1073635977</v>
       </c>
       <c r="E3" t="n">
-        <v>-347588.3054186557</v>
+        <v>-161649.0716323508</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-760002</v>
+        <v>-422452.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-510703.9475921839</v>
+        <v>-223307.0897265619</v>
       </c>
       <c r="D4" t="n">
-        <v>888905.0619839121</v>
+        <v>448015.8974302537</v>
       </c>
       <c r="E4" t="n">
-        <v>-381800.8856082718</v>
+        <v>-197743.6922963082</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-722747</v>
+        <v>-395197.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-484401.8543009196</v>
+        <v>-208105.5004571753</v>
       </c>
       <c r="D5" t="n">
-        <v>792986.9898404942</v>
+        <v>376239.1797217564</v>
       </c>
       <c r="E5" t="n">
-        <v>-414161.8644604255</v>
+        <v>-227063.8207354189</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-685492</v>
+        <v>-367942.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-458099.7610096553</v>
+        <v>-192903.9111877886</v>
       </c>
       <c r="D6" t="n">
-        <v>699846.2195708972</v>
+        <v>311800.6773240798</v>
       </c>
       <c r="E6" t="n">
-        <v>-443745.541438758</v>
+        <v>-249045.7338637089</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-648237</v>
+        <v>-340687.5</v>
       </c>
       <c r="C7" t="n">
-        <v>-431797.6677183909</v>
+        <v>-177702.3219184021</v>
       </c>
       <c r="D7" t="n">
-        <v>610543.4018159758</v>
+        <v>254958.3316502789</v>
       </c>
       <c r="E7" t="n">
-        <v>-469491.2659024152</v>
+        <v>-263431.4902681232</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-610982</v>
+        <v>-313432.5</v>
       </c>
       <c r="C8" t="n">
-        <v>-405495.5744271266</v>
+        <v>-162500.7326490154</v>
       </c>
       <c r="D8" t="n">
-        <v>526172.9897789193</v>
+        <v>205668.5257886789</v>
       </c>
       <c r="E8" t="n">
-        <v>-490304.5846482073</v>
+        <v>-270264.7068603365</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-573727</v>
+        <v>-286177.5</v>
       </c>
       <c r="C9" t="n">
-        <v>-379193.4811358621</v>
+        <v>-147299.1433796289</v>
       </c>
       <c r="D9" t="n">
-        <v>447746.5951715267</v>
+        <v>163623.8894347927</v>
       </c>
       <c r="E9" t="n">
-        <v>-505173.8859643355</v>
+        <v>-269852.7539448362</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-536472</v>
+        <v>-258922.5</v>
       </c>
       <c r="C10" t="n">
-        <v>-352891.3878445978</v>
+        <v>-132097.5541102422</v>
       </c>
       <c r="D10" t="n">
-        <v>376085.9103500683</v>
+        <v>128312.1899133053</v>
       </c>
       <c r="E10" t="n">
-        <v>-513277.4774945295</v>
+        <v>-262707.8641969369</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-499216.9999999999</v>
+        <v>-231667.5</v>
       </c>
       <c r="C11" t="n">
-        <v>-326589.2945533334</v>
+        <v>-116895.9648408557</v>
       </c>
       <c r="D11" t="n">
-        <v>311745.7064900743</v>
+        <v>99083.40700657133</v>
       </c>
       <c r="E11" t="n">
-        <v>-514060.5880632591</v>
+        <v>-249480.0578342844</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-461961.9999999999</v>
+        <v>-204412.5</v>
       </c>
       <c r="C12" t="n">
-        <v>-300287.2012620691</v>
+        <v>-101694.3755714691</v>
       </c>
       <c r="D12" t="n">
-        <v>254977.6820881198</v>
+        <v>75214.41705197601</v>
       </c>
       <c r="E12" t="n">
-        <v>-507271.5191739491</v>
+        <v>-230892.4585194931</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-424706.9999999999</v>
+        <v>-177157.5</v>
       </c>
       <c r="C13" t="n">
-        <v>-273985.1079708047</v>
+        <v>-86492.78630208247</v>
       </c>
       <c r="D13" t="n">
-        <v>205735.2693566457</v>
+        <v>55964.27855814486</v>
       </c>
       <c r="E13" t="n">
-        <v>-492956.838614159</v>
+        <v>-207686.0077439376</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-387451.9999999999</v>
+        <v>-149902.5</v>
       </c>
       <c r="C14" t="n">
-        <v>-247683.0146795403</v>
+        <v>-71291.19703269599</v>
       </c>
       <c r="D14" t="n">
-        <v>163711.3015638065</v>
+        <v>40616.69539257216</v>
       </c>
       <c r="E14" t="n">
-        <v>-471423.7131157338</v>
+        <v>-180577.0016401238</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-350196.9999999999</v>
+        <v>-122647.5</v>
       </c>
       <c r="C15" t="n">
-        <v>-221380.921388276</v>
+        <v>-56089.60776330926</v>
       </c>
       <c r="D15" t="n">
-        <v>128396.2561726109</v>
+        <v>28509.10429677747</v>
       </c>
       <c r="E15" t="n">
-        <v>-443181.665215665</v>
+        <v>-150228.0034665318</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-312941.9999999999</v>
+        <v>-95392.5</v>
       </c>
       <c r="C16" t="n">
-        <v>-195078.8280970116</v>
+        <v>-40888.01849392266</v>
       </c>
       <c r="D16" t="n">
-        <v>99144.44133079801</v>
+        <v>19049.72637268589</v>
       </c>
       <c r="E16" t="n">
-        <v>-408876.3867662135</v>
+        <v>-117230.7921212368</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-275686.9999999999</v>
+        <v>-68137.5</v>
       </c>
       <c r="C17" t="n">
-        <v>-168776.7348057472</v>
+        <v>-25686.42922453606</v>
       </c>
       <c r="D17" t="n">
-        <v>75237.78847215626</v>
+        <v>11724.89369727427</v>
       </c>
       <c r="E17" t="n">
-        <v>-369225.9463335908</v>
+        <v>-82099.03552726179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-238431.9999999999</v>
+        <v>-40882.5</v>
       </c>
       <c r="C18" t="n">
-        <v>-142474.6415144828</v>
+        <v>-10484.83995514957</v>
       </c>
       <c r="D18" t="n">
-        <v>55940.40061255813</v>
+        <v>6099.22937676842</v>
       </c>
       <c r="E18" t="n">
-        <v>-324966.2409019247</v>
+        <v>-45268.11057838115</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>-201176.9999999999</v>
+        <v>-13627.5</v>
       </c>
       <c r="C19" t="n">
-        <v>-116172.5482232185</v>
+        <v>4716.749314237153</v>
       </c>
       <c r="D19" t="n">
-        <v>40540.50302424414</v>
+        <v>1811.076693925753</v>
       </c>
       <c r="E19" t="n">
-        <v>-276809.0451989743</v>
+        <v>-7099.673991837093</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>-163921.9999999999</v>
+        <v>13627.5</v>
       </c>
       <c r="C20" t="n">
-        <v>-89870.4549319541</v>
+        <v>19918.33858362376</v>
       </c>
       <c r="D20" t="n">
-        <v>28379.24532884999</v>
+        <v>-1434.838727794974</v>
       </c>
       <c r="E20" t="n">
-        <v>-225413.209603104</v>
+        <v>32110.99985582878</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>-126666.9999999999</v>
+        <v>40882.5</v>
       </c>
       <c r="C21" t="n">
-        <v>-63568.36164068966</v>
+        <v>35119.92785301025</v>
       </c>
       <c r="D21" t="n">
-        <v>18867.65578032986</v>
+        <v>-3876.0116279311</v>
       </c>
       <c r="E21" t="n">
-        <v>-171367.7058603597</v>
+        <v>72126.41622507914</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>-89411.99999999994</v>
+        <v>68137.5</v>
       </c>
       <c r="C22" t="n">
-        <v>-37266.26834942534</v>
+        <v>50321.51712239685</v>
       </c>
       <c r="D22" t="n">
-        <v>11494.00368715843</v>
+        <v>-5700.977541950679</v>
       </c>
       <c r="E22" t="n">
-        <v>-115184.2646622669</v>
+        <v>112758.0395804462</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>-52156.99999999995</v>
+        <v>95392.5</v>
       </c>
       <c r="C23" t="n">
-        <v>-10964.17505816105</v>
+        <v>65523.10639178357</v>
       </c>
       <c r="D23" t="n">
-        <v>5824.094069828895</v>
+        <v>-7057.684361282119</v>
       </c>
       <c r="E23" t="n">
-        <v>-57297.08098833211</v>
+        <v>153857.9220305014</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>-14901.99999999995</v>
+        <v>122647.5</v>
       </c>
       <c r="C24" t="n">
-        <v>15337.91823310338</v>
+        <v>80724.69566117006</v>
       </c>
       <c r="D24" t="n">
-        <v>1496.846231199273</v>
+        <v>-8061.040175006648</v>
       </c>
       <c r="E24" t="n">
-        <v>1932.764464302706</v>
+        <v>195311.1554861634</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>22353.00000000005</v>
+        <v>149902.5</v>
       </c>
       <c r="C25" t="n">
-        <v>41640.0115243677</v>
+        <v>95926.28493055666</v>
       </c>
       <c r="D25" t="n">
-        <v>-1782.89062068315</v>
+        <v>-8799.4703734166</v>
       </c>
       <c r="E25" t="n">
-        <v>62210.1209036846</v>
+        <v>237029.3145571401</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>59608.00000000005</v>
+        <v>177157.5</v>
       </c>
       <c r="C26" t="n">
-        <v>67942.10481563213</v>
+        <v>111127.8741999433</v>
       </c>
       <c r="D26" t="n">
-        <v>-4252.80108535308</v>
+        <v>-9340.454659638617</v>
       </c>
       <c r="E26" t="n">
-        <v>123297.3037302791</v>
+        <v>278944.9195403046</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>96863.00000000006</v>
+        <v>204412.5</v>
       </c>
       <c r="C27" t="n">
-        <v>94244.19810689645</v>
+        <v>126329.4634693299</v>
       </c>
       <c r="D27" t="n">
-        <v>-6101.808381462612</v>
+        <v>-9735.098338657619</v>
       </c>
       <c r="E27" t="n">
-        <v>185005.3897254339</v>
+        <v>321006.8651306722</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>51</v>
+      </c>
+      <c r="B28" t="n">
+        <v>231667.5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>141531.0527387165</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-10021.83718151487</v>
+      </c>
+      <c r="E28" t="n">
+        <v>363176.7155572016</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>52</v>
+      </c>
+      <c r="B29" t="n">
+        <v>258922.5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>156732.6420081031</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-10229.3938555755</v>
+      </c>
+      <c r="E29" t="n">
+        <v>405425.7481525276</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>53</v>
+      </c>
+      <c r="B30" t="n">
+        <v>286177.5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>171934.2312774896</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-10379.1059962144</v>
+      </c>
+      <c r="E30" t="n">
+        <v>447732.6252812752</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>54</v>
+      </c>
+      <c r="B31" t="n">
+        <v>313432.5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>187135.8205468763</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-10486.73841714292</v>
+      </c>
+      <c r="E31" t="n">
+        <v>490081.5821297333</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>55</v>
+      </c>
+      <c r="B32" t="n">
+        <v>340687.5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>202337.4098162629</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-10563.87946880281</v>
+      </c>
+      <c r="E32" t="n">
+        <v>532461.0303474601</v>
       </c>
     </row>
   </sheetData>
@@ -927,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,444 +1049,529 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-834512</v>
+        <v>-476962.5</v>
       </c>
       <c r="C2" t="n">
-        <v>-564110.0985171185</v>
+        <v>-254241.4006626579</v>
       </c>
       <c r="D2" t="n">
-        <v>1090112.915852188</v>
+        <v>611378.0723181025</v>
       </c>
       <c r="E2" t="n">
-        <v>-308509.1826649306</v>
+        <v>-119825.8283445555</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-797257</v>
+        <v>-449707.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-537848.1034429744</v>
+        <v>-239061.0566891643</v>
       </c>
       <c r="D3" t="n">
-        <v>990886.858800929</v>
+        <v>525483.1583888773</v>
       </c>
       <c r="E3" t="n">
-        <v>-344218.2446420453</v>
+        <v>-163285.398300287</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-760002</v>
+        <v>-422452.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-511586.1083688303</v>
+        <v>-223880.7127156706</v>
       </c>
       <c r="D4" t="n">
-        <v>892561.0594085245</v>
+        <v>445499.7095001124</v>
       </c>
       <c r="E4" t="n">
-        <v>-379027.0489603058</v>
+        <v>-200833.5032155582</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-722747</v>
+        <v>-395197.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-485324.1132946863</v>
+        <v>-208700.3687421769</v>
       </c>
       <c r="D5" t="n">
-        <v>795811.4592969915</v>
+        <v>372383.9646633124</v>
       </c>
       <c r="E5" t="n">
-        <v>-412259.6539976947</v>
+        <v>-231513.9040788645</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-685492</v>
+        <v>-367942.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-459062.1182205422</v>
+        <v>-193520.0247686832</v>
       </c>
       <c r="D6" t="n">
-        <v>701551.5894247086</v>
+        <v>306809.1747443152</v>
       </c>
       <c r="E6" t="n">
-        <v>-443002.5287958335</v>
+        <v>-254653.350024368</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-648237</v>
+        <v>-340687.5</v>
       </c>
       <c r="C7" t="n">
-        <v>-432800.1231463981</v>
+        <v>-178339.6807951896</v>
       </c>
       <c r="D7" t="n">
-        <v>610881.7960515202</v>
+        <v>249110.4714131248</v>
       </c>
       <c r="E7" t="n">
-        <v>-470155.3270948778</v>
+        <v>-269916.7093820648</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-610982</v>
+        <v>-313432.5</v>
       </c>
       <c r="C8" t="n">
-        <v>-406538.1280722541</v>
+        <v>-163159.3368216959</v>
       </c>
       <c r="D8" t="n">
-        <v>524986.882122295</v>
+        <v>199281.0311512122</v>
       </c>
       <c r="E8" t="n">
-        <v>-492533.2459499591</v>
+        <v>-277310.8056704837</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-573727</v>
+        <v>-286177.5</v>
       </c>
       <c r="C9" t="n">
-        <v>-380276.1329981099</v>
+        <v>-147978.9928482022</v>
       </c>
       <c r="D9" t="n">
-        <v>445003.43323353</v>
+        <v>157011.2307993887</v>
       </c>
       <c r="E9" t="n">
-        <v>-508999.6997645799</v>
+        <v>-277145.2620488135</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-536472</v>
+        <v>-258922.5</v>
       </c>
       <c r="C10" t="n">
-        <v>-354014.1379239658</v>
+        <v>-132798.6488747086</v>
       </c>
       <c r="D10" t="n">
-        <v>371887.6883967301</v>
+        <v>121755.6286361178</v>
       </c>
       <c r="E10" t="n">
-        <v>-518598.4495272358</v>
+        <v>-269965.5202385908</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-499216.9999999999</v>
+        <v>-231667.5</v>
       </c>
       <c r="C11" t="n">
-        <v>-327752.1428498218</v>
+        <v>-117618.3049012148</v>
       </c>
       <c r="D11" t="n">
-        <v>306312.8984777328</v>
+        <v>92811.29826874746</v>
       </c>
       <c r="E11" t="n">
-        <v>-520656.2443720889</v>
+        <v>-256474.5066324673</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-461961.9999999999</v>
+        <v>-204412.5</v>
       </c>
       <c r="C12" t="n">
-        <v>-301490.1477756777</v>
+        <v>-102437.9609277211</v>
       </c>
       <c r="D12" t="n">
-        <v>248614.1951465424</v>
+        <v>69393.77792456929</v>
       </c>
       <c r="E12" t="n">
-        <v>-514837.9526291353</v>
+        <v>-237456.6830031518</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-424706.9999999999</v>
+        <v>-177157.5</v>
       </c>
       <c r="C13" t="n">
-        <v>-275228.1527015336</v>
+        <v>-87257.61695422744</v>
       </c>
       <c r="D13" t="n">
-        <v>198784.7548846299</v>
+        <v>50701.55291234131</v>
       </c>
       <c r="E13" t="n">
-        <v>-501150.3978169037</v>
+        <v>-213713.5640418861</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-387451.9999999999</v>
+        <v>-149902.5</v>
       </c>
       <c r="C14" t="n">
-        <v>-248966.1576273896</v>
+        <v>-72077.27298073377</v>
       </c>
       <c r="D14" t="n">
-        <v>156514.9545328064</v>
+        <v>35964.75639210481</v>
       </c>
       <c r="E14" t="n">
-        <v>-479903.2030945831</v>
+        <v>-186015.016588629</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-350196.9999999999</v>
+        <v>-122647.5</v>
       </c>
       <c r="C15" t="n">
-        <v>-222704.1625532456</v>
+        <v>-56896.92900724011</v>
       </c>
       <c r="D15" t="n">
-        <v>121259.3523695355</v>
+        <v>24477.56322234766</v>
       </c>
       <c r="E15" t="n">
-        <v>-451641.81018371</v>
+        <v>-155066.8657848924</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-312941.9999999999</v>
+        <v>-95392.5</v>
       </c>
       <c r="C16" t="n">
-        <v>-196442.1674791013</v>
+        <v>-41716.58503374632</v>
       </c>
       <c r="D16" t="n">
-        <v>92315.02200216516</v>
+        <v>15616.17816703966</v>
       </c>
       <c r="E16" t="n">
-        <v>-417069.1454769361</v>
+        <v>-121492.9068667067</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-275686.9999999999</v>
+        <v>-68137.5</v>
       </c>
       <c r="C17" t="n">
-        <v>-170180.1724049574</v>
+        <v>-26536.24106025277</v>
       </c>
       <c r="D17" t="n">
-        <v>68897.50165798698</v>
+        <v>8845.481488087278</v>
       </c>
       <c r="E17" t="n">
-        <v>-376969.6707469703</v>
+        <v>-85828.25957216549</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-238431.9999999999</v>
+        <v>-40882.5</v>
       </c>
       <c r="C18" t="n">
-        <v>-143918.1773308133</v>
+        <v>-11355.8970867591</v>
       </c>
       <c r="D18" t="n">
-        <v>50205.276645759</v>
+        <v>3717.621479157377</v>
       </c>
       <c r="E18" t="n">
-        <v>-332144.9006850543</v>
+        <v>-48520.77560760172</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>-201176.9999999999</v>
+        <v>-13627.5</v>
       </c>
       <c r="C19" t="n">
-        <v>-117656.1822566692</v>
+        <v>3824.446886734688</v>
       </c>
       <c r="D19" t="n">
-        <v>35468.48012552252</v>
+        <v>-134.4945599381225</v>
       </c>
       <c r="E19" t="n">
-        <v>-283364.7021311466</v>
+        <v>-9937.547673203435</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>-163921.9999999999</v>
+        <v>13627.5</v>
       </c>
       <c r="C20" t="n">
-        <v>-91394.18718252509</v>
+        <v>19004.79086022836</v>
       </c>
       <c r="D20" t="n">
-        <v>23981.28695576537</v>
+        <v>-3006.454861964769</v>
       </c>
       <c r="E20" t="n">
-        <v>-231334.9002267597</v>
+        <v>29625.83599826359</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>-126666.9999999999</v>
+        <v>40882.5</v>
       </c>
       <c r="C21" t="n">
-        <v>-65132.19210838102</v>
+        <v>34185.13483372191</v>
       </c>
       <c r="D21" t="n">
-        <v>15119.90190045736</v>
+        <v>-5132.631279969664</v>
       </c>
       <c r="E21" t="n">
-        <v>-176679.2902079236</v>
+        <v>69935.00355375225</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>-89411.99999999994</v>
+        <v>68137.5</v>
       </c>
       <c r="C22" t="n">
-        <v>-38870.19703423709</v>
+        <v>49365.4788072157</v>
       </c>
       <c r="D22" t="n">
-        <v>8349.205221504979</v>
+        <v>-6696.3647925107</v>
       </c>
       <c r="E22" t="n">
-        <v>-119932.9918127321</v>
+        <v>110806.614014705</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>-52156.99999999995</v>
+        <v>95392.5</v>
       </c>
       <c r="C23" t="n">
-        <v>-12608.20196009291</v>
+        <v>64545.82278070936</v>
       </c>
       <c r="D23" t="n">
-        <v>3221.345212575077</v>
+        <v>-7839.371068292577</v>
       </c>
       <c r="E23" t="n">
-        <v>-61543.85674751778</v>
+        <v>152098.9517124168</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>-14901.99999999995</v>
+        <v>122647.5</v>
       </c>
       <c r="C24" t="n">
-        <v>13653.79311405116</v>
+        <v>79726.16675420303</v>
       </c>
       <c r="D24" t="n">
-        <v>-630.7708265204215</v>
+        <v>-8670.023920767951</v>
       </c>
       <c r="E24" t="n">
-        <v>-1878.977712469204</v>
+        <v>193703.6428334351</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>22353.00000000005</v>
+        <v>149902.5</v>
       </c>
       <c r="C25" t="n">
-        <v>39915.78818819523</v>
+        <v>94906.5107276967</v>
       </c>
       <c r="D25" t="n">
-        <v>-3502.731128547068</v>
+        <v>-9270.401218329169</v>
       </c>
       <c r="E25" t="n">
-        <v>58766.05705964823</v>
+        <v>235538.6095093675</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>59608.00000000005</v>
+        <v>177157.5</v>
       </c>
       <c r="C26" t="n">
-        <v>66177.78326233939</v>
+        <v>110086.8547011904</v>
       </c>
       <c r="D26" t="n">
-        <v>-5628.907546551963</v>
+        <v>-9702.119154589163</v>
       </c>
       <c r="E26" t="n">
-        <v>120156.8757157875</v>
+        <v>277542.2355466012</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>96863.00000000006</v>
+        <v>204412.5</v>
       </c>
       <c r="C27" t="n">
-        <v>92439.77833648337</v>
+        <v>125267.1986746842</v>
       </c>
       <c r="D27" t="n">
-        <v>-7192.641059093</v>
+        <v>-10011.05994428926</v>
       </c>
       <c r="E27" t="n">
-        <v>182110.1372773904</v>
+        <v>319668.6387303949</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>51</v>
+      </c>
+      <c r="B28" t="n">
+        <v>231667.5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>140447.5426481777</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-10231.13479584729</v>
+      </c>
+      <c r="E28" t="n">
+        <v>361883.9078523304</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>52</v>
+      </c>
+      <c r="B29" t="n">
+        <v>258922.5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>155627.8866216715</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-10387.2337470062</v>
+      </c>
+      <c r="E29" t="n">
+        <v>404163.1528746653</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>53</v>
+      </c>
+      <c r="B30" t="n">
+        <v>286177.5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>170808.2305951652</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-10497.50771039698</v>
+      </c>
+      <c r="E30" t="n">
+        <v>446488.2228847682</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>54</v>
+      </c>
+      <c r="B31" t="n">
+        <v>313432.5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>185988.5745686588</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-10575.11342922217</v>
+      </c>
+      <c r="E31" t="n">
+        <v>488845.9611394367</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>55</v>
+      </c>
+      <c r="B32" t="n">
+        <v>340687.5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>201168.9185421525</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-10629.53389510027</v>
+      </c>
+      <c r="E32" t="n">
+        <v>531226.8846470523</v>
       </c>
     </row>
   </sheetData>
@@ -1415,7 +1585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1452,444 +1622,529 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-834512</v>
+        <v>-476962.5</v>
       </c>
       <c r="C2" t="n">
-        <v>-568234.1452034132</v>
+        <v>-257221.203181657</v>
       </c>
       <c r="D2" t="n">
-        <v>1114763.593643152</v>
+        <v>618227.9608091775</v>
       </c>
       <c r="E2" t="n">
-        <v>-287982.5515602615</v>
+        <v>-115955.7423724795</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-797257</v>
+        <v>-449707.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-542178.3524635838</v>
+        <v>-242160.0513089232</v>
       </c>
       <c r="D3" t="n">
-        <v>1014776.887305928</v>
+        <v>522721.6193882279</v>
       </c>
       <c r="E3" t="n">
-        <v>-324658.4651576556</v>
+        <v>-169145.9319206952</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-760002</v>
+        <v>-422452.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-516122.5597237545</v>
+        <v>-227098.8994361894</v>
       </c>
       <c r="D4" t="n">
-        <v>914836.5772894053</v>
+        <v>431696.1067969311</v>
       </c>
       <c r="E4" t="n">
-        <v>-361287.9824343491</v>
+        <v>-217855.2926392583</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-722747</v>
+        <v>-395197.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-490066.7669839251</v>
+        <v>-212037.7475634558</v>
       </c>
       <c r="D5" t="n">
-        <v>815062.5899832526</v>
+        <v>347452.6389604188</v>
       </c>
       <c r="E5" t="n">
-        <v>-397751.1770006726</v>
+        <v>-259782.6086030369</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-685492</v>
+        <v>-367942.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-464010.9742440957</v>
+        <v>-196976.5956907221</v>
       </c>
       <c r="D6" t="n">
-        <v>715783.8563139145</v>
+        <v>272170.4155007617</v>
       </c>
       <c r="E6" t="n">
-        <v>-433719.1179301813</v>
+        <v>-292748.6801899605</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-648237</v>
+        <v>-340687.5</v>
       </c>
       <c r="C7" t="n">
-        <v>-437955.1815042665</v>
+        <v>-181915.4438179883</v>
       </c>
       <c r="D7" t="n">
-        <v>617731.6845425952</v>
+        <v>207386.0457479397</v>
       </c>
       <c r="E7" t="n">
-        <v>-468460.4969616712</v>
+        <v>-315216.8980700486</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-610982</v>
+        <v>-313432.5</v>
       </c>
       <c r="C8" t="n">
-        <v>-411899.3887644371</v>
+        <v>-166854.2919452546</v>
       </c>
       <c r="D8" t="n">
-        <v>522225.3431216456</v>
+        <v>153677.0328067006</v>
       </c>
       <c r="E8" t="n">
-        <v>-500656.0456427914</v>
+        <v>-326609.759138554</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-573727</v>
+        <v>-286177.5</v>
       </c>
       <c r="C9" t="n">
-        <v>-385843.5960246078</v>
+        <v>-151793.1400725209</v>
       </c>
       <c r="D9" t="n">
-        <v>431199.8305303488</v>
+        <v>110657.7333439564</v>
       </c>
       <c r="E9" t="n">
-        <v>-528370.7654942591</v>
+        <v>-327312.9067285645</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-536472</v>
+        <v>-258922.5</v>
       </c>
       <c r="C10" t="n">
-        <v>-359787.8032847784</v>
+        <v>-136731.9881997872</v>
       </c>
       <c r="D10" t="n">
-        <v>346956.3626938364</v>
+        <v>77225.37327492655</v>
       </c>
       <c r="E10" t="n">
-        <v>-549303.4405909419</v>
+        <v>-318429.1149248607</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-499216.9999999999</v>
+        <v>-231667.5</v>
       </c>
       <c r="C11" t="n">
-        <v>-333732.0105449492</v>
+        <v>-121670.8363270535</v>
       </c>
       <c r="D11" t="n">
-        <v>271674.1392341793</v>
+        <v>51902.0899694676</v>
       </c>
       <c r="E11" t="n">
-        <v>-561274.8713107698</v>
+        <v>-301436.2463575859</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-461961.9999999999</v>
+        <v>-204412.5</v>
       </c>
       <c r="C12" t="n">
-        <v>-307676.2178051197</v>
+        <v>-106609.6844543196</v>
       </c>
       <c r="D12" t="n">
-        <v>206889.7694813574</v>
+        <v>33135.48393773521</v>
       </c>
       <c r="E12" t="n">
-        <v>-562748.4483237623</v>
+        <v>-277886.7005165844</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-424706.9999999999</v>
+        <v>-177157.5</v>
       </c>
       <c r="C13" t="n">
-        <v>-281620.4250652904</v>
+        <v>-91548.53258158604</v>
       </c>
       <c r="D13" t="n">
-        <v>153180.7565401183</v>
+        <v>19493.01179486443</v>
       </c>
       <c r="E13" t="n">
-        <v>-553146.6685251722</v>
+        <v>-249213.0207867216</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-387451.9999999999</v>
+        <v>-149902.5</v>
       </c>
       <c r="C14" t="n">
-        <v>-255564.6323254611</v>
+        <v>-76487.38070885232</v>
       </c>
       <c r="D14" t="n">
-        <v>110161.4570773741</v>
+        <v>9751.988299791712</v>
       </c>
       <c r="E14" t="n">
-        <v>-532855.1752480869</v>
+        <v>-216637.8924090606</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-350196.9999999999</v>
+        <v>-122647.5</v>
       </c>
       <c r="C15" t="n">
-        <v>-229508.8395856316</v>
+        <v>-61426.22883611848</v>
       </c>
       <c r="D15" t="n">
-        <v>76729.09700834424</v>
+        <v>2918.480255558025</v>
       </c>
       <c r="E15" t="n">
-        <v>-502976.7425772874</v>
+        <v>-181155.2485805604</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-312941.9999999999</v>
+        <v>-95392.5</v>
       </c>
       <c r="C16" t="n">
-        <v>-203453.0468458023</v>
+        <v>-46365.07696338475</v>
       </c>
       <c r="D16" t="n">
-        <v>51405.81370288529</v>
+        <v>-1790.107514468374</v>
       </c>
       <c r="E16" t="n">
-        <v>-464989.233142917</v>
+        <v>-143547.6844778531</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-275686.9999999999</v>
+        <v>-68137.5</v>
       </c>
       <c r="C17" t="n">
-        <v>-177397.2541059731</v>
+        <v>-31303.92509065114</v>
       </c>
       <c r="D17" t="n">
-        <v>32639.20767115292</v>
+        <v>-4975.50503949413</v>
       </c>
       <c r="E17" t="n">
-        <v>-420445.0464348202</v>
+        <v>-104416.9301301453</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-238431.9999999999</v>
+        <v>-40882.5</v>
       </c>
       <c r="C18" t="n">
-        <v>-151341.4613661437</v>
+        <v>-16242.77321791742</v>
       </c>
       <c r="D18" t="n">
-        <v>18996.73552828213</v>
+        <v>-7090.651181705468</v>
       </c>
       <c r="E18" t="n">
-        <v>-370776.7258378615</v>
+        <v>-64215.92439962289</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>-201176.9999999999</v>
+        <v>-13627.5</v>
       </c>
       <c r="C19" t="n">
-        <v>-125285.6686263144</v>
+        <v>-1181.621345183696</v>
       </c>
       <c r="D19" t="n">
-        <v>9255.712033209413</v>
+        <v>-8469.177971205161</v>
       </c>
       <c r="E19" t="n">
-        <v>-317206.9565931049</v>
+        <v>-23278.29931638886</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>-163921.9999999999</v>
+        <v>13627.5</v>
       </c>
       <c r="C20" t="n">
-        <v>-99229.87588648492</v>
+        <v>13879.53052755015</v>
       </c>
       <c r="D20" t="n">
-        <v>2422.203988975725</v>
+        <v>-9351.257683227344</v>
       </c>
       <c r="E20" t="n">
-        <v>-260729.6718975091</v>
+        <v>18155.7728443228</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>-126666.9999999999</v>
+        <v>40882.5</v>
       </c>
       <c r="C21" t="n">
-        <v>-73174.08314665573</v>
+        <v>28940.68240028375</v>
       </c>
       <c r="D21" t="n">
-        <v>-2286.383781050673</v>
+        <v>-9905.685889716051</v>
       </c>
       <c r="E21" t="n">
-        <v>-202127.4669277064</v>
+        <v>59917.4965105677</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>-89411.99999999994</v>
+        <v>68137.5</v>
       </c>
       <c r="C22" t="n">
-        <v>-47118.29040682642</v>
+        <v>44001.83427301748</v>
       </c>
       <c r="D22" t="n">
-        <v>-5471.781306076428</v>
+        <v>-10248.24377401993</v>
       </c>
       <c r="E22" t="n">
-        <v>-142002.0717129028</v>
+        <v>101891.0904989976</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>-52156.99999999995</v>
+        <v>95392.5</v>
       </c>
       <c r="C23" t="n">
-        <v>-21062.49766699699</v>
+        <v>59062.98614575132</v>
       </c>
       <c r="D23" t="n">
-        <v>-7586.927448287766</v>
+        <v>-10456.46795510655</v>
       </c>
       <c r="E23" t="n">
-        <v>-80806.4251152847</v>
+        <v>143999.0181906448</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>-14901.99999999995</v>
+        <v>122647.5</v>
       </c>
       <c r="C24" t="n">
-        <v>4993.295072832319</v>
+        <v>74124.13801848493</v>
       </c>
       <c r="D24" t="n">
-        <v>-8965.45423778746</v>
+        <v>-10581.09772024775</v>
       </c>
       <c r="E24" t="n">
-        <v>-18874.15916495509</v>
+        <v>186190.5402982372</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>22353.00000000005</v>
+        <v>149902.5</v>
       </c>
       <c r="C25" t="n">
-        <v>31049.0878126618</v>
+        <v>89185.28989121865</v>
       </c>
       <c r="D25" t="n">
-        <v>-9847.533949809642</v>
+        <v>-10654.61686777804</v>
       </c>
       <c r="E25" t="n">
-        <v>43554.55386285222</v>
+        <v>228433.1730234406</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>59608.00000000005</v>
+        <v>177157.5</v>
       </c>
       <c r="C26" t="n">
-        <v>57104.880552491</v>
+        <v>104246.4417639524</v>
       </c>
       <c r="D26" t="n">
-        <v>-10401.96215629835</v>
+        <v>-10697.39869694326</v>
       </c>
       <c r="E26" t="n">
-        <v>106310.9183961927</v>
+        <v>270706.5430670091</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>96863.00000000006</v>
+        <v>204412.5</v>
       </c>
       <c r="C27" t="n">
-        <v>83160.67329232043</v>
+        <v>119307.5936366861</v>
       </c>
       <c r="D27" t="n">
-        <v>-10744.52004060223</v>
+        <v>-10721.97859504748</v>
       </c>
       <c r="E27" t="n">
-        <v>169279.1532517183</v>
+        <v>312998.1150416386</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>51</v>
+      </c>
+      <c r="B28" t="n">
+        <v>231667.5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>134368.7455094198</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-10735.93356937341</v>
+      </c>
+      <c r="E28" t="n">
+        <v>355300.3119400464</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>52</v>
+      </c>
+      <c r="B29" t="n">
+        <v>258922.5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>149429.8973821535</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-10743.76885503426</v>
+      </c>
+      <c r="E29" t="n">
+        <v>397608.6285271193</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>53</v>
+      </c>
+      <c r="B30" t="n">
+        <v>286177.5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>164491.0492548873</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-10748.12284246232</v>
+      </c>
+      <c r="E30" t="n">
+        <v>439920.4264124249</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>54</v>
+      </c>
+      <c r="B31" t="n">
+        <v>313432.5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>179552.2011276211</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-10750.51911784335</v>
+      </c>
+      <c r="E31" t="n">
+        <v>482234.1820097778</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>55</v>
+      </c>
+      <c r="B32" t="n">
+        <v>340687.5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>194613.3530003547</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-10751.82617789413</v>
+      </c>
+      <c r="E32" t="n">
+        <v>524549.0268224606</v>
       </c>
     </row>
   </sheetData>
@@ -1903,7 +2158,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1940,444 +2195,529 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-834512</v>
+        <v>-476962.5</v>
       </c>
       <c r="C2" t="n">
-        <v>-570085.9886808201</v>
+        <v>-258559.2403763151</v>
       </c>
       <c r="D2" t="n">
-        <v>1126172.1163192</v>
+        <v>626842.018022723</v>
       </c>
       <c r="E2" t="n">
-        <v>-278425.8723616204</v>
+        <v>-108679.722353592</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-797257</v>
+        <v>-449707.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-544122.7881148611</v>
+        <v>-243551.6099913677</v>
       </c>
       <c r="D3" t="n">
-        <v>1026172.247692037</v>
+        <v>527354.7771031142</v>
       </c>
       <c r="E3" t="n">
-        <v>-315207.5404228242</v>
+        <v>-165904.3328882535</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-760002</v>
+        <v>-422452.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-518159.5875489021</v>
+        <v>-228543.9796064204</v>
       </c>
       <c r="D4" t="n">
-        <v>926173.3220372896</v>
+        <v>429214.1872081954</v>
       </c>
       <c r="E4" t="n">
-        <v>-351988.2655116124</v>
+        <v>-221782.2923982249</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-722747</v>
+        <v>-395197.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-492196.3869829431</v>
+        <v>-213536.349221473</v>
       </c>
       <c r="D5" t="n">
-        <v>826179.9511447888</v>
+        <v>335035.675377209</v>
       </c>
       <c r="E5" t="n">
-        <v>-388763.4358381544</v>
+        <v>-273698.173844264</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-685492</v>
+        <v>-367942.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-466233.1864169841</v>
+        <v>-198528.7188365255</v>
       </c>
       <c r="D6" t="n">
-        <v>726212.247937114</v>
+        <v>249545.2830341993</v>
       </c>
       <c r="E6" t="n">
-        <v>-425512.9384798701</v>
+        <v>-316925.9358023262</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-648237</v>
+        <v>-340687.5</v>
       </c>
       <c r="C7" t="n">
-        <v>-440269.9858510252</v>
+        <v>-183521.0884515782</v>
       </c>
       <c r="D7" t="n">
-        <v>626345.7417561408</v>
+        <v>177850.0975056065</v>
       </c>
       <c r="E7" t="n">
-        <v>-462161.2440948844</v>
+        <v>-346358.4909459716</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-610982</v>
+        <v>-313432.5</v>
       </c>
       <c r="C8" t="n">
-        <v>-414306.7852850661</v>
+        <v>-168513.4580666308</v>
       </c>
       <c r="D8" t="n">
-        <v>526858.5008365319</v>
+        <v>122335.9484489001</v>
       </c>
       <c r="E8" t="n">
-        <v>-498430.2844485343</v>
+        <v>-359610.0096177306</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-573727</v>
+        <v>-286177.5</v>
       </c>
       <c r="C9" t="n">
-        <v>-388343.5847191071</v>
+        <v>-153505.8276816834</v>
       </c>
       <c r="D9" t="n">
-        <v>428717.9109416131</v>
+        <v>81593.15697660897</v>
       </c>
       <c r="E9" t="n">
-        <v>-533352.673777494</v>
+        <v>-358090.1707050744</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-536472</v>
+        <v>-258922.5</v>
       </c>
       <c r="C10" t="n">
-        <v>-362380.3841531481</v>
+        <v>-138498.197296736</v>
       </c>
       <c r="D10" t="n">
-        <v>334539.3991106267</v>
+        <v>52264.56979898463</v>
       </c>
       <c r="E10" t="n">
-        <v>-564312.9850425215</v>
+        <v>-345156.1274977514</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-499216.9999999999</v>
+        <v>-231667.5</v>
       </c>
       <c r="C11" t="n">
-        <v>-336417.1835871892</v>
+        <v>-123490.5669117885</v>
       </c>
       <c r="D11" t="n">
-        <v>249049.006767617</v>
+        <v>31234.0621298418</v>
       </c>
       <c r="E11" t="n">
-        <v>-586585.1768195721</v>
+        <v>-323924.0047819468</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-461961.9999999999</v>
+        <v>-204412.5</v>
       </c>
       <c r="C12" t="n">
-        <v>-310453.9830212301</v>
+        <v>-108482.9365268413</v>
       </c>
       <c r="D12" t="n">
-        <v>177353.8212390243</v>
+        <v>16342.17093744387</v>
       </c>
       <c r="E12" t="n">
-        <v>-595062.1617822057</v>
+        <v>-296553.2655893974</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-424706.9999999999</v>
+        <v>-177157.5</v>
       </c>
       <c r="C13" t="n">
-        <v>-284490.7824552712</v>
+        <v>-93475.30614189373</v>
       </c>
       <c r="D13" t="n">
-        <v>121839.6721823178</v>
+        <v>6099.368166380895</v>
       </c>
       <c r="E13" t="n">
-        <v>-587358.1102729533</v>
+        <v>-264533.4379755128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-387451.9999999999</v>
+        <v>-149902.5</v>
       </c>
       <c r="C14" t="n">
-        <v>-258527.5818893122</v>
+        <v>-78467.67575694644</v>
       </c>
       <c r="D14" t="n">
-        <v>81096.88071002666</v>
+        <v>-667.772968789634</v>
       </c>
       <c r="E14" t="n">
-        <v>-564882.7011792855</v>
+        <v>-229037.9487257361</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-350196.9999999999</v>
+        <v>-122647.5</v>
       </c>
       <c r="C15" t="n">
-        <v>-232564.3813233532</v>
+        <v>-63460.04537199903</v>
       </c>
       <c r="D15" t="n">
-        <v>51768.29353240233</v>
+        <v>-4944.379450908438</v>
       </c>
       <c r="E15" t="n">
-        <v>-530993.0877909508</v>
+        <v>-191051.9248229075</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-312941.9999999999</v>
+        <v>-95392.5</v>
       </c>
       <c r="C16" t="n">
-        <v>-206601.1807573943</v>
+        <v>-48452.41498705163</v>
       </c>
       <c r="D16" t="n">
-        <v>30737.7858632595</v>
+        <v>-7529.505883780841</v>
       </c>
       <c r="E16" t="n">
-        <v>-488805.3948941347</v>
+        <v>-151374.4208708325</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-275686.9999999999</v>
+        <v>-68137.5</v>
       </c>
       <c r="C17" t="n">
-        <v>-180637.9801914351</v>
+        <v>-33444.78460210422</v>
       </c>
       <c r="D17" t="n">
-        <v>15845.89467086157</v>
+        <v>-9026.707346378744</v>
       </c>
       <c r="E17" t="n">
-        <v>-440479.0855205735</v>
+        <v>-110608.991948483</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-238431.9999999999</v>
+        <v>-40882.5</v>
       </c>
       <c r="C18" t="n">
-        <v>-154674.7796254762</v>
+        <v>-18437.15421715681</v>
       </c>
       <c r="D18" t="n">
-        <v>5603.091899798595</v>
+        <v>-9859.365677246693</v>
       </c>
       <c r="E18" t="n">
-        <v>-387503.6877256776</v>
+        <v>-69179.01989440351</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>-201176.9999999999</v>
+        <v>-13627.5</v>
       </c>
       <c r="C19" t="n">
-        <v>-128711.5790595172</v>
+        <v>-3429.523832209408</v>
       </c>
       <c r="D19" t="n">
-        <v>-1164.049235371933</v>
+        <v>-10305.09328847933</v>
       </c>
       <c r="E19" t="n">
-        <v>-331052.6282948891</v>
+        <v>-27362.11712068874</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>-163921.9999999999</v>
+        <v>13627.5</v>
       </c>
       <c r="C20" t="n">
-        <v>-102748.3784935582</v>
+        <v>11578.106552738</v>
       </c>
       <c r="D20" t="n">
-        <v>-5440.655717490738</v>
+        <v>-10535.29437293764</v>
       </c>
       <c r="E20" t="n">
-        <v>-272111.0342110489</v>
+        <v>14670.31217980035</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>-126666.9999999999</v>
+        <v>40882.5</v>
       </c>
       <c r="C21" t="n">
-        <v>-76785.1779275992</v>
+        <v>26585.73693768529</v>
       </c>
       <c r="D21" t="n">
-        <v>-8025.782150363139</v>
+        <v>-10650.25966700089</v>
       </c>
       <c r="E21" t="n">
-        <v>-211477.9600779623</v>
+        <v>56817.9772706844</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>-89411.99999999994</v>
+        <v>68137.5</v>
       </c>
       <c r="C22" t="n">
-        <v>-50821.97736164019</v>
+        <v>41593.36732263281</v>
       </c>
       <c r="D22" t="n">
-        <v>-9522.983612961043</v>
+        <v>-10705.90023581015</v>
       </c>
       <c r="E22" t="n">
-        <v>-149756.9609746012</v>
+        <v>99024.96708682265</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>-52156.99999999995</v>
+        <v>95392.5</v>
       </c>
       <c r="C23" t="n">
-        <v>-24858.77679568119</v>
+        <v>56600.9977075801</v>
       </c>
       <c r="D23" t="n">
-        <v>-10355.64194382899</v>
+        <v>-10732.0506407641</v>
       </c>
       <c r="E23" t="n">
-        <v>-87371.41873951012</v>
+        <v>141261.447066816</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>-14901.99999999995</v>
+        <v>122647.5</v>
       </c>
       <c r="C24" t="n">
-        <v>1104.423770277732</v>
+        <v>71608.62809252762</v>
       </c>
       <c r="D24" t="n">
-        <v>-10801.36955506163</v>
+        <v>-10744.00909100515</v>
       </c>
       <c r="E24" t="n">
-        <v>-24598.94578478384</v>
+        <v>183512.1190015225</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>22353.00000000005</v>
+        <v>149902.5</v>
       </c>
       <c r="C25" t="n">
-        <v>27067.62433623686</v>
+        <v>86616.25847747491</v>
       </c>
       <c r="D25" t="n">
-        <v>-11031.57063951994</v>
+        <v>-10749.33973150524</v>
       </c>
       <c r="E25" t="n">
-        <v>38389.05369671697</v>
+        <v>225769.4187459697</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>59608.00000000005</v>
+        <v>177157.5</v>
       </c>
       <c r="C26" t="n">
-        <v>53030.82490219583</v>
+        <v>101623.8888624223</v>
       </c>
       <c r="D26" t="n">
-        <v>-11146.53593358318</v>
+        <v>-10751.66002042914</v>
       </c>
       <c r="E26" t="n">
-        <v>101492.2889686127</v>
+        <v>268029.7288419932</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>96863.00000000006</v>
+        <v>204412.5</v>
       </c>
       <c r="C27" t="n">
-        <v>78994.02546815475</v>
+        <v>116631.5192473697</v>
       </c>
       <c r="D27" t="n">
-        <v>-11202.17650239245</v>
+        <v>-10752.64781474719</v>
       </c>
       <c r="E27" t="n">
-        <v>164654.8489657624</v>
+        <v>310291.3714326225</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>51</v>
+      </c>
+      <c r="B28" t="n">
+        <v>231667.5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>131639.1496323171</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-10753.05973380457</v>
+      </c>
+      <c r="E28" t="n">
+        <v>352553.5898985126</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>52</v>
+      </c>
+      <c r="B29" t="n">
+        <v>258922.5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>146646.7800172645</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-10753.2282319356</v>
+      </c>
+      <c r="E29" t="n">
+        <v>394816.0517853289</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>53</v>
+      </c>
+      <c r="B30" t="n">
+        <v>286177.5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>161654.4104022119</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-10753.29593265608</v>
+      </c>
+      <c r="E30" t="n">
+        <v>437078.6144695558</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>54</v>
+      </c>
+      <c r="B31" t="n">
+        <v>313432.5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>176662.0407871592</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-10753.3226840416</v>
+      </c>
+      <c r="E31" t="n">
+        <v>479341.2181031177</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>55</v>
+      </c>
+      <c r="B32" t="n">
+        <v>340687.5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>191669.6711721068</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-10753.33309183979</v>
+      </c>
+      <c r="E32" t="n">
+        <v>521603.838080267</v>
       </c>
     </row>
   </sheetData>
@@ -2391,7 +2731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2428,444 +2768,529 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-834512</v>
+        <v>-476962.5</v>
       </c>
       <c r="C2" t="n">
-        <v>-571785.8773257269</v>
+        <v>-258750</v>
       </c>
       <c r="D2" t="n">
-        <v>1135532.635470211</v>
+        <v>636028.9264495675</v>
       </c>
       <c r="E2" t="n">
-        <v>-270765.2418555159</v>
+        <v>-99683.57355043245</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-797257</v>
+        <v>-449707.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-545907.6711920134</v>
+        <v>-243750</v>
       </c>
       <c r="D3" t="n">
-        <v>1035532.635470211</v>
+        <v>536029.3104789082</v>
       </c>
       <c r="E3" t="n">
-        <v>-307632.0357218024</v>
+        <v>-157428.1895210918</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-760002</v>
+        <v>-422452.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-520029.4650582997</v>
+        <v>-228750</v>
       </c>
       <c r="D4" t="n">
-        <v>935532.6354702262</v>
+        <v>436035.307534955</v>
       </c>
       <c r="E4" t="n">
-        <v>-344498.8295880735</v>
+        <v>-215167.192465045</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-722747</v>
+        <v>-395197.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-494151.258924586</v>
+        <v>-213750</v>
       </c>
       <c r="D5" t="n">
-        <v>835532.6354733461</v>
+        <v>336093.4419463041</v>
       </c>
       <c r="E5" t="n">
-        <v>-381365.6234512399</v>
+        <v>-272854.0580536959</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-685492</v>
+        <v>-367942.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-468273.0527908724</v>
+        <v>-198750</v>
       </c>
       <c r="D6" t="n">
-        <v>735532.6357703747</v>
+        <v>236461.7838708377</v>
       </c>
       <c r="E6" t="n">
-        <v>-418232.4170204976</v>
+        <v>-330230.7161291623</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-648237</v>
+        <v>-340687.5</v>
       </c>
       <c r="C7" t="n">
-        <v>-442394.8466571587</v>
+        <v>-183750</v>
       </c>
       <c r="D7" t="n">
-        <v>635532.6501829851</v>
+        <v>138061.0203481453</v>
       </c>
       <c r="E7" t="n">
-        <v>-455099.1964741737</v>
+        <v>-386376.4796518547</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-610982</v>
+        <v>-313432.5</v>
       </c>
       <c r="C8" t="n">
-        <v>-416516.6405234451</v>
+        <v>-168750</v>
       </c>
       <c r="D8" t="n">
-        <v>535533.0342123259</v>
+        <v>93035.28468729639</v>
       </c>
       <c r="E8" t="n">
-        <v>-491965.6063111192</v>
+        <v>-389147.2153127036</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-573727</v>
+        <v>-286177.5</v>
       </c>
       <c r="C9" t="n">
-        <v>-390638.4343897314</v>
+        <v>-153750</v>
       </c>
       <c r="D9" t="n">
-        <v>435539.0312683728</v>
+        <v>54608.99406076845</v>
       </c>
       <c r="E9" t="n">
-        <v>-528826.4031213586</v>
+        <v>-385318.5059392315</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-536472</v>
+        <v>-258922.5</v>
       </c>
       <c r="C10" t="n">
-        <v>-364760.2282560178</v>
+        <v>-138750</v>
       </c>
       <c r="D10" t="n">
-        <v>335597.1656797217</v>
+        <v>25648.12246936095</v>
       </c>
       <c r="E10" t="n">
-        <v>-565635.062576296</v>
+        <v>-372024.3775306391</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-499216.9999999999</v>
+        <v>-231667.5</v>
       </c>
       <c r="C11" t="n">
-        <v>-338882.0221223042</v>
+        <v>-123750</v>
       </c>
       <c r="D11" t="n">
-        <v>235965.5076042553</v>
+        <v>6900.581902799455</v>
       </c>
       <c r="E11" t="n">
-        <v>-602133.5145180488</v>
+        <v>-348516.9180972006</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-461961.9999999999</v>
+        <v>-204412.5</v>
       </c>
       <c r="C12" t="n">
-        <v>-313003.8159885905</v>
+        <v>-108750</v>
       </c>
       <c r="D12" t="n">
-        <v>137564.744081563</v>
+        <v>-3364.524006955879</v>
       </c>
       <c r="E12" t="n">
-        <v>-637401.0719070275</v>
+        <v>-316527.0240069559</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-424706.9999999999</v>
+        <v>-177157.5</v>
       </c>
       <c r="C13" t="n">
-        <v>-287125.6098548768</v>
+        <v>-93750</v>
       </c>
       <c r="D13" t="n">
-        <v>92539.00842071408</v>
+        <v>-8093.513223392398</v>
       </c>
       <c r="E13" t="n">
-        <v>-619293.6014341627</v>
+        <v>-279001.0132233924</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-387451.9999999999</v>
+        <v>-149902.5</v>
       </c>
       <c r="C14" t="n">
-        <v>-261247.4037211632</v>
+        <v>-78750</v>
       </c>
       <c r="D14" t="n">
-        <v>54112.71779418615</v>
+        <v>-9929.06267685961</v>
       </c>
       <c r="E14" t="n">
-        <v>-594586.6859269768</v>
+        <v>-238581.5626768596</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-350196.9999999999</v>
+        <v>-122647.5</v>
       </c>
       <c r="C15" t="n">
-        <v>-235369.1975874496</v>
+        <v>-63750</v>
       </c>
       <c r="D15" t="n">
-        <v>25151.84620277865</v>
+        <v>-10532.58783554563</v>
       </c>
       <c r="E15" t="n">
-        <v>-560414.3513846709</v>
+        <v>-196930.0878355456</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-312941.9999999999</v>
+        <v>-95392.5</v>
       </c>
       <c r="C16" t="n">
-        <v>-209490.991453736</v>
+        <v>-48750</v>
       </c>
       <c r="D16" t="n">
-        <v>6404.305636217156</v>
+        <v>-10701.95716331492</v>
       </c>
       <c r="E16" t="n">
-        <v>-516028.6858175187</v>
+        <v>-154844.4571633149</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-275686.9999999999</v>
+        <v>-68137.5</v>
       </c>
       <c r="C17" t="n">
-        <v>-183612.7853200223</v>
+        <v>-33750</v>
       </c>
       <c r="D17" t="n">
-        <v>-3860.800273538178</v>
+        <v>-10742.87484641105</v>
       </c>
       <c r="E17" t="n">
-        <v>-463160.5855935604</v>
+        <v>-112630.3748464111</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-238431.9999999999</v>
+        <v>-40882.5</v>
       </c>
       <c r="C18" t="n">
-        <v>-157734.5791863087</v>
+        <v>-18750</v>
       </c>
       <c r="D18" t="n">
-        <v>-8589.789489974697</v>
+        <v>-10751.46113452335</v>
       </c>
       <c r="E18" t="n">
-        <v>-404756.3686762833</v>
+        <v>-70383.96113452334</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>-201176.9999999999</v>
+        <v>-13627.5</v>
       </c>
       <c r="C19" t="n">
-        <v>-131856.3730525948</v>
+        <v>-3750</v>
       </c>
       <c r="D19" t="n">
-        <v>-10425.33894344191</v>
+        <v>-10753.0401363537</v>
       </c>
       <c r="E19" t="n">
-        <v>-343458.7119960367</v>
+        <v>-28130.54013635369</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>-163921.9999999999</v>
+        <v>13627.5</v>
       </c>
       <c r="C20" t="n">
-        <v>-105978.1669188812</v>
+        <v>11250</v>
       </c>
       <c r="D20" t="n">
-        <v>-11028.86410212793</v>
+        <v>-10753.29681722753</v>
       </c>
       <c r="E20" t="n">
-        <v>-280929.0310210091</v>
+        <v>14124.20318277247</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>-126666.9999999999</v>
+        <v>40882.5</v>
       </c>
       <c r="C21" t="n">
-        <v>-80099.96078516764</v>
+        <v>26250</v>
       </c>
       <c r="D21" t="n">
-        <v>-11198.23342989721</v>
+        <v>-10753.33400694937</v>
       </c>
       <c r="E21" t="n">
-        <v>-217965.1942150648</v>
+        <v>56379.16599305063</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>-89411.99999999994</v>
+        <v>68137.5</v>
       </c>
       <c r="C22" t="n">
-        <v>-54221.75465145393</v>
+        <v>41250</v>
       </c>
       <c r="D22" t="n">
-        <v>-11239.15111299335</v>
+        <v>-10753.33884715649</v>
       </c>
       <c r="E22" t="n">
-        <v>-154872.9057644472</v>
+        <v>98634.1611528435</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>-52156.99999999995</v>
+        <v>95392.5</v>
       </c>
       <c r="C23" t="n">
-        <v>-28343.54851774033</v>
+        <v>56250</v>
       </c>
       <c r="D23" t="n">
-        <v>-11247.73740110564</v>
+        <v>-10753.33941720007</v>
       </c>
       <c r="E23" t="n">
-        <v>-91748.28591884591</v>
+        <v>140889.1605827999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>-14901.99999999995</v>
+        <v>122647.5</v>
       </c>
       <c r="C24" t="n">
-        <v>-2465.342384026735</v>
+        <v>71250</v>
       </c>
       <c r="D24" t="n">
-        <v>-11249.316402936</v>
+        <v>-10753.33947837114</v>
       </c>
       <c r="E24" t="n">
-        <v>-28616.65878696268</v>
+        <v>183144.1605216289</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>22353.00000000005</v>
+        <v>149902.5</v>
       </c>
       <c r="C25" t="n">
-        <v>23412.86374968686</v>
+        <v>86250</v>
       </c>
       <c r="D25" t="n">
-        <v>-11249.57308380982</v>
+        <v>-10753.33948439082</v>
       </c>
       <c r="E25" t="n">
-        <v>34516.2906658771</v>
+        <v>225399.1605156092</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>59608.00000000005</v>
+        <v>177157.5</v>
       </c>
       <c r="C26" t="n">
-        <v>49291.06988340069</v>
+        <v>101250</v>
       </c>
       <c r="D26" t="n">
-        <v>-11249.61027353167</v>
+        <v>-10753.33948493725</v>
       </c>
       <c r="E26" t="n">
-        <v>97649.45960986908</v>
+        <v>267654.1605150627</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>96863.00000000006</v>
+        <v>204412.5</v>
       </c>
       <c r="C27" t="n">
-        <v>75169.27601711429</v>
+        <v>116250</v>
       </c>
       <c r="D27" t="n">
-        <v>-11249.61511373879</v>
+        <v>-10753.3394849832</v>
       </c>
       <c r="E27" t="n">
-        <v>160782.6609033756</v>
+        <v>309909.1605150168</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>51</v>
+      </c>
+      <c r="B28" t="n">
+        <v>231667.5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>131250</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-10753.33948498685</v>
+      </c>
+      <c r="E28" t="n">
+        <v>352164.1605150132</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>52</v>
+      </c>
+      <c r="B29" t="n">
+        <v>258922.5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>146250</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-10753.33948498711</v>
+      </c>
+      <c r="E29" t="n">
+        <v>394419.1605150129</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>53</v>
+      </c>
+      <c r="B30" t="n">
+        <v>286177.5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>161250</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-10753.33948498702</v>
+      </c>
+      <c r="E30" t="n">
+        <v>436674.160515013</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>54</v>
+      </c>
+      <c r="B31" t="n">
+        <v>313432.5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>176250</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-10753.3394849872</v>
+      </c>
+      <c r="E31" t="n">
+        <v>478929.1605150128</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>55</v>
+      </c>
+      <c r="B32" t="n">
+        <v>340687.5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>191250</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-10753.3394849872</v>
+      </c>
+      <c r="E32" t="n">
+        <v>521184.1605150128</v>
       </c>
     </row>
   </sheetData>
@@ -2879,7 +3304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2916,444 +3341,529 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-834512</v>
+        <v>-476962.5</v>
       </c>
       <c r="C2" t="n">
-        <v>-573375.5262010903</v>
+        <v>-258750</v>
       </c>
       <c r="D2" t="n">
-        <v>1138750.38424843</v>
+        <v>639246.6605150128</v>
       </c>
       <c r="E2" t="n">
-        <v>-269137.1419526599</v>
+        <v>-96465.8394849872</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-797257</v>
+        <v>-449707.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-547576.8025111448</v>
+        <v>-243750</v>
       </c>
       <c r="D3" t="n">
-        <v>1038750.38424843</v>
+        <v>539246.6605150128</v>
       </c>
       <c r="E3" t="n">
-        <v>-306083.4182627144</v>
+        <v>-154210.8394849872</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-760002</v>
+        <v>-422452.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-521778.0788211994</v>
+        <v>-228750</v>
       </c>
       <c r="D4" t="n">
-        <v>938750.3842484304</v>
+        <v>439246.6605150128</v>
       </c>
       <c r="E4" t="n">
-        <v>-343029.6945727691</v>
+        <v>-211955.8394849872</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-722747</v>
+        <v>-395197.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-495979.3551312538</v>
+        <v>-213750</v>
       </c>
       <c r="D5" t="n">
-        <v>838750.3842484304</v>
+        <v>339246.6605150128</v>
       </c>
       <c r="E5" t="n">
-        <v>-379975.9708828235</v>
+        <v>-269700.8394849872</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-685492</v>
+        <v>-367942.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-470180.6314413083</v>
+        <v>-198750</v>
       </c>
       <c r="D6" t="n">
-        <v>738750.3842484304</v>
+        <v>239246.6605150128</v>
       </c>
       <c r="E6" t="n">
-        <v>-416922.2471928778</v>
+        <v>-327445.8394849872</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-648237</v>
+        <v>-340687.5</v>
       </c>
       <c r="C7" t="n">
-        <v>-444381.9077513628</v>
+        <v>-183750</v>
       </c>
       <c r="D7" t="n">
-        <v>638750.3842484305</v>
+        <v>139246.6605150128</v>
       </c>
       <c r="E7" t="n">
-        <v>-453868.5235029323</v>
+        <v>-385190.8394849872</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-610982</v>
+        <v>-313432.5</v>
       </c>
       <c r="C8" t="n">
-        <v>-418583.1840614174</v>
+        <v>-168750</v>
       </c>
       <c r="D8" t="n">
-        <v>538750.3842484305</v>
+        <v>89246.6605150128</v>
       </c>
       <c r="E8" t="n">
-        <v>-490814.7998129869</v>
+        <v>-392935.8394849872</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-573727</v>
+        <v>-286177.5</v>
       </c>
       <c r="C9" t="n">
-        <v>-392784.4603714719</v>
+        <v>-153750</v>
       </c>
       <c r="D9" t="n">
-        <v>438750.3842484305</v>
+        <v>39246.6605150128</v>
       </c>
       <c r="E9" t="n">
-        <v>-527761.0761230415</v>
+        <v>-400680.8394849872</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-536472</v>
+        <v>-258922.5</v>
       </c>
       <c r="C10" t="n">
-        <v>-366985.7366815264</v>
+        <v>-138750</v>
       </c>
       <c r="D10" t="n">
-        <v>338750.3842484305</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E10" t="n">
-        <v>-564707.3524330959</v>
+        <v>-408425.8394849872</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-499216.9999999999</v>
+        <v>-231667.5</v>
       </c>
       <c r="C11" t="n">
-        <v>-341187.0129915809</v>
+        <v>-123750</v>
       </c>
       <c r="D11" t="n">
-        <v>238750.3842484305</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E11" t="n">
-        <v>-601653.6287431504</v>
+        <v>-366170.8394849872</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-461961.9999999999</v>
+        <v>-204412.5</v>
       </c>
       <c r="C12" t="n">
-        <v>-315388.2893016355</v>
+        <v>-108750</v>
       </c>
       <c r="D12" t="n">
-        <v>138750.3842484305</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E12" t="n">
-        <v>-638599.905053205</v>
+        <v>-323915.8394849872</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-424706.9999999999</v>
+        <v>-177157.5</v>
       </c>
       <c r="C13" t="n">
-        <v>-289589.5656116898</v>
+        <v>-93750</v>
       </c>
       <c r="D13" t="n">
-        <v>88750.38424843049</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E13" t="n">
-        <v>-625546.1813632593</v>
+        <v>-281660.8394849872</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-387451.9999999999</v>
+        <v>-149902.5</v>
       </c>
       <c r="C14" t="n">
-        <v>-263790.8419217444</v>
+        <v>-78750</v>
       </c>
       <c r="D14" t="n">
-        <v>38750.38424843051</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E14" t="n">
-        <v>-612492.4576733139</v>
+        <v>-239405.8394849872</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-350196.9999999999</v>
+        <v>-122647.5</v>
       </c>
       <c r="C15" t="n">
-        <v>-237992.118231799</v>
+        <v>-63750</v>
       </c>
       <c r="D15" t="n">
-        <v>-11249.6157515695</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E15" t="n">
-        <v>-599438.7339833685</v>
+        <v>-197150.8394849872</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-312941.9999999999</v>
+        <v>-95392.5</v>
       </c>
       <c r="C16" t="n">
-        <v>-212193.3945418535</v>
+        <v>-48750</v>
       </c>
       <c r="D16" t="n">
-        <v>-11249.6157515695</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E16" t="n">
-        <v>-536385.0102934228</v>
+        <v>-154895.8394849872</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-275686.9999999999</v>
+        <v>-68137.5</v>
       </c>
       <c r="C17" t="n">
-        <v>-186394.670851908</v>
+        <v>-33750</v>
       </c>
       <c r="D17" t="n">
-        <v>-11249.6157515695</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E17" t="n">
-        <v>-473331.2866034775</v>
+        <v>-112640.8394849872</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-238431.9999999999</v>
+        <v>-40882.5</v>
       </c>
       <c r="C18" t="n">
-        <v>-160595.9471619624</v>
+        <v>-18750</v>
       </c>
       <c r="D18" t="n">
-        <v>-11249.6157515695</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E18" t="n">
-        <v>-410277.5629135318</v>
+        <v>-70385.8394849872</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>-201176.9999999999</v>
+        <v>-13627.5</v>
       </c>
       <c r="C19" t="n">
-        <v>-134797.223472017</v>
+        <v>-3750</v>
       </c>
       <c r="D19" t="n">
-        <v>-11249.6157515695</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E19" t="n">
-        <v>-347223.8392235864</v>
+        <v>-28130.8394849872</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>-163921.9999999999</v>
+        <v>13627.5</v>
       </c>
       <c r="C20" t="n">
-        <v>-108998.4997820716</v>
+        <v>11250</v>
       </c>
       <c r="D20" t="n">
-        <v>-11249.6157515695</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E20" t="n">
-        <v>-284170.115533641</v>
+        <v>14124.1605150128</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>-126666.9999999999</v>
+        <v>40882.5</v>
       </c>
       <c r="C21" t="n">
-        <v>-83199.77609212603</v>
+        <v>26250</v>
       </c>
       <c r="D21" t="n">
-        <v>-11249.6157515695</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E21" t="n">
-        <v>-221116.3918436955</v>
+        <v>56379.1605150128</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>-89411.99999999994</v>
+        <v>68137.5</v>
       </c>
       <c r="C22" t="n">
-        <v>-57401.0524021805</v>
+        <v>41250</v>
       </c>
       <c r="D22" t="n">
-        <v>-11249.6157515695</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E22" t="n">
-        <v>-158062.66815375</v>
+        <v>98634.1605150128</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>-52156.99999999995</v>
+        <v>95392.5</v>
       </c>
       <c r="C23" t="n">
-        <v>-31602.32871223509</v>
+        <v>56250</v>
       </c>
       <c r="D23" t="n">
-        <v>-11249.6157515695</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E23" t="n">
-        <v>-95008.94446380452</v>
+        <v>140889.1605150128</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>-14901.99999999995</v>
+        <v>122647.5</v>
       </c>
       <c r="C24" t="n">
-        <v>-5803.605022289557</v>
+        <v>71250</v>
       </c>
       <c r="D24" t="n">
-        <v>-11249.6157515695</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E24" t="n">
-        <v>-31955.220773859</v>
+        <v>183144.1605150128</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>22353.00000000005</v>
+        <v>149902.5</v>
       </c>
       <c r="C25" t="n">
-        <v>19995.11866765586</v>
+        <v>86250</v>
       </c>
       <c r="D25" t="n">
-        <v>-11249.6157515695</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E25" t="n">
-        <v>31098.50291608642</v>
+        <v>225399.1605150128</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>59608.00000000005</v>
+        <v>177157.5</v>
       </c>
       <c r="C26" t="n">
-        <v>45793.84235760127</v>
+        <v>101250</v>
       </c>
       <c r="D26" t="n">
-        <v>-11249.6157515695</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E26" t="n">
-        <v>94152.22660603184</v>
+        <v>267654.1605150128</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>96863.00000000006</v>
+        <v>204412.5</v>
       </c>
       <c r="C27" t="n">
-        <v>71592.56604754692</v>
+        <v>116250</v>
       </c>
       <c r="D27" t="n">
-        <v>-11249.6157515695</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E27" t="n">
-        <v>157205.9502959775</v>
+        <v>309909.1605150128</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>51</v>
+      </c>
+      <c r="B28" t="n">
+        <v>231667.5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>131250</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-10753.3394849872</v>
+      </c>
+      <c r="E28" t="n">
+        <v>352164.1605150128</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>52</v>
+      </c>
+      <c r="B29" t="n">
+        <v>258922.5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>146250</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-10753.3394849872</v>
+      </c>
+      <c r="E29" t="n">
+        <v>394419.1605150128</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>53</v>
+      </c>
+      <c r="B30" t="n">
+        <v>286177.5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>161250</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-10753.3394849872</v>
+      </c>
+      <c r="E30" t="n">
+        <v>436674.1605150128</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>54</v>
+      </c>
+      <c r="B31" t="n">
+        <v>313432.5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>176250</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-10753.3394849872</v>
+      </c>
+      <c r="E31" t="n">
+        <v>478929.1605150128</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>55</v>
+      </c>
+      <c r="B32" t="n">
+        <v>340687.5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>191250</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-10753.3394849872</v>
+      </c>
+      <c r="E32" t="n">
+        <v>521184.1605150128</v>
       </c>
     </row>
   </sheetData>
@@ -3367,7 +3877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3404,444 +3914,529 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-834512</v>
+        <v>-476962.5</v>
       </c>
       <c r="C2" t="n">
-        <v>-575011.8059673824</v>
+        <v>-258750</v>
       </c>
       <c r="D2" t="n">
-        <v>1138750.38424843</v>
+        <v>639246.6605150128</v>
       </c>
       <c r="E2" t="n">
-        <v>-270773.421718952</v>
+        <v>-96465.8394849872</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-797257</v>
+        <v>-449707.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-549294.8962657514</v>
+        <v>-243750</v>
       </c>
       <c r="D3" t="n">
-        <v>1038750.38424843</v>
+        <v>539246.6605150128</v>
       </c>
       <c r="E3" t="n">
-        <v>-307801.512017321</v>
+        <v>-154210.8394849872</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-760002</v>
+        <v>-422452.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-523577.9865641206</v>
+        <v>-228750</v>
       </c>
       <c r="D4" t="n">
-        <v>938750.3842484304</v>
+        <v>439246.6605150128</v>
       </c>
       <c r="E4" t="n">
-        <v>-344829.6023156901</v>
+        <v>-211955.8394849872</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-722747</v>
+        <v>-395197.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-497861.0768624897</v>
+        <v>-213750</v>
       </c>
       <c r="D5" t="n">
-        <v>838750.3842484304</v>
+        <v>339246.6605150128</v>
       </c>
       <c r="E5" t="n">
-        <v>-381857.6926140594</v>
+        <v>-269700.8394849872</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-685492</v>
+        <v>-367942.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-472144.1671608587</v>
+        <v>-198750</v>
       </c>
       <c r="D6" t="n">
-        <v>738750.3842484304</v>
+        <v>239246.6605150128</v>
       </c>
       <c r="E6" t="n">
-        <v>-418885.7829124285</v>
+        <v>-327445.8394849872</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-648237</v>
+        <v>-340687.5</v>
       </c>
       <c r="C7" t="n">
-        <v>-446427.2574592279</v>
+        <v>-183750</v>
       </c>
       <c r="D7" t="n">
-        <v>638750.3842484305</v>
+        <v>139246.6605150128</v>
       </c>
       <c r="E7" t="n">
-        <v>-455913.8732107974</v>
+        <v>-385190.8394849872</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-610982</v>
+        <v>-313432.5</v>
       </c>
       <c r="C8" t="n">
-        <v>-420710.347757597</v>
+        <v>-168750</v>
       </c>
       <c r="D8" t="n">
-        <v>538750.3842484305</v>
+        <v>89246.6605150128</v>
       </c>
       <c r="E8" t="n">
-        <v>-492941.9635091665</v>
+        <v>-392935.8394849872</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-573727</v>
+        <v>-286177.5</v>
       </c>
       <c r="C9" t="n">
-        <v>-394993.4380559662</v>
+        <v>-153750</v>
       </c>
       <c r="D9" t="n">
-        <v>438750.3842484305</v>
+        <v>39246.6605150128</v>
       </c>
       <c r="E9" t="n">
-        <v>-529970.0538075357</v>
+        <v>-400680.8394849872</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-536472</v>
+        <v>-258922.5</v>
       </c>
       <c r="C10" t="n">
-        <v>-369276.5283543352</v>
+        <v>-138750</v>
       </c>
       <c r="D10" t="n">
-        <v>338750.3842484305</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E10" t="n">
-        <v>-566998.1441059047</v>
+        <v>-408425.8394849872</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-499216.9999999999</v>
+        <v>-231667.5</v>
       </c>
       <c r="C11" t="n">
-        <v>-343559.6186527044</v>
+        <v>-123750</v>
       </c>
       <c r="D11" t="n">
-        <v>238750.3842484305</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E11" t="n">
-        <v>-604026.2344042739</v>
+        <v>-366170.8394849872</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-461961.9999999999</v>
+        <v>-204412.5</v>
       </c>
       <c r="C12" t="n">
-        <v>-317842.7089510736</v>
+        <v>-108750</v>
       </c>
       <c r="D12" t="n">
-        <v>138750.3842484305</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E12" t="n">
-        <v>-641054.324702643</v>
+        <v>-323915.8394849872</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-424706.9999999999</v>
+        <v>-177157.5</v>
       </c>
       <c r="C13" t="n">
-        <v>-292125.7992494426</v>
+        <v>-93750</v>
       </c>
       <c r="D13" t="n">
-        <v>88750.38424843049</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E13" t="n">
-        <v>-628082.415001012</v>
+        <v>-281660.8394849872</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-387451.9999999999</v>
+        <v>-149902.5</v>
       </c>
       <c r="C14" t="n">
-        <v>-266408.8895478117</v>
+        <v>-78750</v>
       </c>
       <c r="D14" t="n">
-        <v>38750.38424843051</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E14" t="n">
-        <v>-615110.5052993811</v>
+        <v>-239405.8394849872</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-350196.9999999999</v>
+        <v>-122647.5</v>
       </c>
       <c r="C15" t="n">
-        <v>-240691.9798461809</v>
+        <v>-63750</v>
       </c>
       <c r="D15" t="n">
-        <v>-11249.6157515695</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E15" t="n">
-        <v>-602138.5955977504</v>
+        <v>-197150.8394849872</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-312941.9999999999</v>
+        <v>-95392.5</v>
       </c>
       <c r="C16" t="n">
-        <v>-214975.0701445499</v>
+        <v>-48750</v>
       </c>
       <c r="D16" t="n">
-        <v>-11249.6157515695</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E16" t="n">
-        <v>-539166.6858961195</v>
+        <v>-154895.8394849872</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-275686.9999999999</v>
+        <v>-68137.5</v>
       </c>
       <c r="C17" t="n">
-        <v>-189258.160442919</v>
+        <v>-33750</v>
       </c>
       <c r="D17" t="n">
-        <v>-11249.6157515695</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E17" t="n">
-        <v>-476194.7761944885</v>
+        <v>-112640.8394849872</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-238431.9999999999</v>
+        <v>-40882.5</v>
       </c>
       <c r="C18" t="n">
-        <v>-163541.2507412882</v>
+        <v>-18750</v>
       </c>
       <c r="D18" t="n">
-        <v>-11249.6157515695</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E18" t="n">
-        <v>-413222.8664928576</v>
+        <v>-70385.8394849872</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>-201176.9999999999</v>
+        <v>-13627.5</v>
       </c>
       <c r="C19" t="n">
-        <v>-137824.3410396572</v>
+        <v>-3750</v>
       </c>
       <c r="D19" t="n">
-        <v>-11249.6157515695</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E19" t="n">
-        <v>-350250.9567912267</v>
+        <v>-28130.8394849872</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>-163921.9999999999</v>
+        <v>13627.5</v>
       </c>
       <c r="C20" t="n">
-        <v>-112107.4313380265</v>
+        <v>11250</v>
       </c>
       <c r="D20" t="n">
-        <v>-11249.6157515695</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E20" t="n">
-        <v>-287279.047089596</v>
+        <v>14124.1605150128</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>-126666.9999999999</v>
+        <v>40882.5</v>
       </c>
       <c r="C21" t="n">
-        <v>-86390.5216363956</v>
+        <v>26250</v>
       </c>
       <c r="D21" t="n">
-        <v>-11249.6157515695</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E21" t="n">
-        <v>-224307.137387965</v>
+        <v>56379.1605150128</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>-89411.99999999994</v>
+        <v>68137.5</v>
       </c>
       <c r="C22" t="n">
-        <v>-60673.61193476466</v>
+        <v>41250</v>
       </c>
       <c r="D22" t="n">
-        <v>-11249.6157515695</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E22" t="n">
-        <v>-161335.2276863341</v>
+        <v>98634.1605150128</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>-52156.99999999995</v>
+        <v>95392.5</v>
       </c>
       <c r="C23" t="n">
-        <v>-34956.70223313384</v>
+        <v>56250</v>
       </c>
       <c r="D23" t="n">
-        <v>-11249.6157515695</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E23" t="n">
-        <v>-98363.31798470327</v>
+        <v>140889.1605150128</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>-14901.99999999995</v>
+        <v>122647.5</v>
       </c>
       <c r="C24" t="n">
-        <v>-9239.792531502899</v>
+        <v>71250</v>
       </c>
       <c r="D24" t="n">
-        <v>-11249.6157515695</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E24" t="n">
-        <v>-35391.40828307235</v>
+        <v>183144.1605150128</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>22353.00000000005</v>
+        <v>149902.5</v>
       </c>
       <c r="C25" t="n">
-        <v>16477.11717012804</v>
+        <v>86250</v>
       </c>
       <c r="D25" t="n">
-        <v>-11249.6157515695</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E25" t="n">
-        <v>27580.5014185586</v>
+        <v>225399.1605150128</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>59608.00000000005</v>
+        <v>177157.5</v>
       </c>
       <c r="C26" t="n">
-        <v>42194.02687175886</v>
+        <v>101250</v>
       </c>
       <c r="D26" t="n">
-        <v>-11249.6157515695</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E26" t="n">
-        <v>90552.41112018943</v>
+        <v>267654.1605150128</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>96863.00000000006</v>
+        <v>204412.5</v>
       </c>
       <c r="C27" t="n">
-        <v>67910.9365733898</v>
+        <v>116250</v>
       </c>
       <c r="D27" t="n">
-        <v>-11249.6157515695</v>
+        <v>-10753.3394849872</v>
       </c>
       <c r="E27" t="n">
-        <v>153524.3208218204</v>
+        <v>309909.1605150128</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>51</v>
+      </c>
+      <c r="B28" t="n">
+        <v>231667.5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>131250</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-10753.3394849872</v>
+      </c>
+      <c r="E28" t="n">
+        <v>352164.1605150128</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>52</v>
+      </c>
+      <c r="B29" t="n">
+        <v>258922.5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>146250</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-10753.3394849872</v>
+      </c>
+      <c r="E29" t="n">
+        <v>394419.1605150128</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>53</v>
+      </c>
+      <c r="B30" t="n">
+        <v>286177.5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>161250</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-10753.3394849872</v>
+      </c>
+      <c r="E30" t="n">
+        <v>436674.1605150128</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>54</v>
+      </c>
+      <c r="B31" t="n">
+        <v>313432.5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>176250</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-10753.3394849872</v>
+      </c>
+      <c r="E31" t="n">
+        <v>478929.1605150128</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>55</v>
+      </c>
+      <c r="B32" t="n">
+        <v>340687.5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>191250</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-10753.3394849872</v>
+      </c>
+      <c r="E32" t="n">
+        <v>521184.1605150128</v>
       </c>
     </row>
   </sheetData>
@@ -3855,7 +4450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3892,444 +4487,529 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-834512</v>
+        <v>-476962.5</v>
       </c>
       <c r="C2" t="n">
-        <v>-565177.4827832899</v>
+        <v>-255012.632068851</v>
       </c>
       <c r="D2" t="n">
-        <v>1096314.672624137</v>
+        <v>612174.6219015444</v>
       </c>
       <c r="E2" t="n">
-        <v>-303374.8101591526</v>
+        <v>-119800.5101673066</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-797257</v>
+        <v>-449707.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-538968.8569224543</v>
+        <v>-239863.1373516051</v>
       </c>
       <c r="D3" t="n">
-        <v>996738.5605369247</v>
+        <v>524082.7539422412</v>
       </c>
       <c r="E3" t="n">
-        <v>-339487.2963855295</v>
+        <v>-165487.8834093639</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-760002</v>
+        <v>-422452.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-512760.2310616188</v>
+        <v>-224713.6426343591</v>
       </c>
       <c r="D4" t="n">
-        <v>897770.461396062</v>
+        <v>441795.5746725669</v>
       </c>
       <c r="E4" t="n">
-        <v>-374991.7696655567</v>
+        <v>-205370.5679617923</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-722747</v>
+        <v>-395197.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-486551.6052007833</v>
+        <v>-209564.1479171132</v>
       </c>
       <c r="D5" t="n">
-        <v>799986.2424033935</v>
+        <v>366492.5327033572</v>
       </c>
       <c r="E5" t="n">
-        <v>-409312.3627973899</v>
+        <v>-238269.1152137559</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-685492</v>
+        <v>-367942.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-460342.9793399479</v>
+        <v>-194414.6531998672</v>
       </c>
       <c r="D6" t="n">
-        <v>704246.2555157971</v>
+        <v>299052.4582936443</v>
       </c>
       <c r="E6" t="n">
-        <v>-441588.7238241509</v>
+        <v>-263304.6949062228</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-648237</v>
+        <v>-340687.5</v>
       </c>
       <c r="C7" t="n">
-        <v>-434134.3534791123</v>
+        <v>-179265.1584826212</v>
       </c>
       <c r="D7" t="n">
-        <v>611678.3456349621</v>
+        <v>239959.1408629632</v>
       </c>
       <c r="E7" t="n">
-        <v>-470693.0078441502</v>
+        <v>-279993.5176196581</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-610982</v>
+        <v>-313432.5</v>
       </c>
       <c r="C8" t="n">
-        <v>-407925.7276182767</v>
+        <v>-164115.6637653753</v>
       </c>
       <c r="D8" t="n">
-        <v>523586.4776756589</v>
+        <v>189277.7053587975</v>
       </c>
       <c r="E8" t="n">
-        <v>-495321.2499426178</v>
+        <v>-288270.4584065777</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-573727</v>
+        <v>-286177.5</v>
       </c>
       <c r="C9" t="n">
-        <v>-381717.1017574412</v>
+        <v>-148966.1690481293</v>
       </c>
       <c r="D9" t="n">
-        <v>441299.2984059845</v>
+        <v>146694.7135120962</v>
       </c>
       <c r="E9" t="n">
-        <v>-514144.8033514566</v>
+        <v>-288448.9555360331</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-536472</v>
+        <v>-258922.5</v>
       </c>
       <c r="C10" t="n">
-        <v>-355508.4758966058</v>
+        <v>-133816.6743308833</v>
       </c>
       <c r="D10" t="n">
-        <v>365996.2564367749</v>
+        <v>111601.343612993</v>
       </c>
       <c r="E10" t="n">
-        <v>-525984.2194598309</v>
+        <v>-281137.8307178903</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-499216.9999999999</v>
+        <v>-231667.5</v>
       </c>
       <c r="C11" t="n">
-        <v>-329299.8500357702</v>
+        <v>-118667.1796136373</v>
       </c>
       <c r="D11" t="n">
-        <v>298556.1820270619</v>
+        <v>83194.98893749629</v>
       </c>
       <c r="E11" t="n">
-        <v>-529960.6680087082</v>
+        <v>-267139.6906761411</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-461961.9999999999</v>
+        <v>-204412.5</v>
       </c>
       <c r="C12" t="n">
-        <v>-303091.2241749348</v>
+        <v>-103517.6848963915</v>
       </c>
       <c r="D12" t="n">
-        <v>239462.8645963809</v>
+        <v>60578.17904933383</v>
       </c>
       <c r="E12" t="n">
-        <v>-525590.3595785538</v>
+        <v>-247352.0058470576</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-424706.9999999999</v>
+        <v>-177157.5</v>
       </c>
       <c r="C13" t="n">
-        <v>-276882.5983140994</v>
+        <v>-88368.19017914543</v>
       </c>
       <c r="D13" t="n">
-        <v>188781.4290922153</v>
+        <v>42841.08511875975</v>
       </c>
       <c r="E13" t="n">
-        <v>-512808.169221884</v>
+        <v>-222684.6050603857</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-387451.9999999999</v>
+        <v>-149902.5</v>
       </c>
       <c r="C14" t="n">
-        <v>-250673.9724532638</v>
+        <v>-73218.69546189951</v>
       </c>
       <c r="D14" t="n">
-        <v>146198.4372455139</v>
+        <v>29121.56678691335</v>
       </c>
       <c r="E14" t="n">
-        <v>-491927.5352077498</v>
+        <v>-193999.6286749862</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-350196.9999999999</v>
+        <v>-122647.5</v>
       </c>
       <c r="C15" t="n">
-        <v>-224465.3465924282</v>
+        <v>-58069.20074465359</v>
       </c>
       <c r="D15" t="n">
-        <v>111105.0673464107</v>
+        <v>18642.67209455988</v>
       </c>
       <c r="E15" t="n">
-        <v>-463557.2792460175</v>
+        <v>-162074.0286500937</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-312941.9999999999</v>
+        <v>-95392.5</v>
       </c>
       <c r="C16" t="n">
-        <v>-198256.7207315926</v>
+        <v>-42919.70602740766</v>
       </c>
       <c r="D16" t="n">
-        <v>82698.71267091398</v>
+        <v>10731.04736200029</v>
       </c>
       <c r="E16" t="n">
-        <v>-428500.0080606786</v>
+        <v>-127581.1586654074</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-275686.9999999999</v>
+        <v>-68137.5</v>
       </c>
       <c r="C17" t="n">
-        <v>-172048.0948707571</v>
+        <v>-27770.21131016163</v>
       </c>
       <c r="D17" t="n">
-        <v>60081.90278275152</v>
+        <v>4821.129240013864</v>
       </c>
       <c r="E17" t="n">
-        <v>-387653.1920880055</v>
+        <v>-91086.58207014776</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-238431.9999999999</v>
+        <v>-40882.5</v>
       </c>
       <c r="C18" t="n">
-        <v>-145839.4690099218</v>
+        <v>-12620.71659291559</v>
       </c>
       <c r="D18" t="n">
-        <v>42344.80885217746</v>
+        <v>449.9543251535509</v>
       </c>
       <c r="E18" t="n">
-        <v>-341926.6601577442</v>
+        <v>-53053.26226776204</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>-201176.9999999999</v>
+        <v>-13627.5</v>
       </c>
       <c r="C19" t="n">
-        <v>-119630.8431490862</v>
+        <v>2528.778124330333</v>
       </c>
       <c r="D19" t="n">
-        <v>28625.29052033105</v>
+        <v>-2753.378276961699</v>
       </c>
       <c r="E19" t="n">
-        <v>-292182.5526287551</v>
+        <v>-13852.10015263137</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>-163921.9999999999</v>
+        <v>13627.5</v>
       </c>
       <c r="C20" t="n">
-        <v>-93422.21728825069</v>
+        <v>17678.27284157625</v>
       </c>
       <c r="D20" t="n">
-        <v>18146.39582797758</v>
+        <v>-5080.60475470158</v>
       </c>
       <c r="E20" t="n">
-        <v>-239197.8214602731</v>
+        <v>26225.16808687467</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>-126666.9999999999</v>
+        <v>40882.5</v>
       </c>
       <c r="C21" t="n">
-        <v>-67213.59142741511</v>
+        <v>32827.76755882218</v>
       </c>
       <c r="D21" t="n">
-        <v>10234.77109541799</v>
+        <v>-6757.560885797237</v>
       </c>
       <c r="E21" t="n">
-        <v>-183645.8203319971</v>
+        <v>66952.70667302494</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>-89411.99999999994</v>
+        <v>68137.5</v>
       </c>
       <c r="C22" t="n">
-        <v>-41004.96556657969</v>
+        <v>47977.26227606821</v>
       </c>
       <c r="D22" t="n">
-        <v>4324.852973431564</v>
+        <v>-7956.620160577109</v>
       </c>
       <c r="E22" t="n">
-        <v>-126092.1125931481</v>
+        <v>108158.1421154911</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>-52156.99999999995</v>
+        <v>95392.5</v>
       </c>
       <c r="C23" t="n">
-        <v>-14796.33970574412</v>
+        <v>63126.75699331402</v>
       </c>
       <c r="D23" t="n">
-        <v>-46.321941428748</v>
+        <v>-8807.694069432695</v>
       </c>
       <c r="E23" t="n">
-        <v>-66999.6616471728</v>
+        <v>149711.5629238813</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>-14901.99999999995</v>
+        <v>122647.5</v>
       </c>
       <c r="C24" t="n">
-        <v>11412.28615509134</v>
+        <v>78276.25171056006</v>
       </c>
       <c r="D24" t="n">
-        <v>-3249.654543543998</v>
+        <v>-9407.569108953669</v>
       </c>
       <c r="E24" t="n">
-        <v>-6739.368388452608</v>
+        <v>191516.1826016064</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>22353.00000000005</v>
+        <v>149902.5</v>
       </c>
       <c r="C25" t="n">
-        <v>37620.91201592685</v>
+        <v>93425.74642780609</v>
       </c>
       <c r="D25" t="n">
-        <v>-5576.881021283879</v>
+        <v>-9827.590737487833</v>
       </c>
       <c r="E25" t="n">
-        <v>54397.03099464303</v>
+        <v>233500.6556903183</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>59608.00000000005</v>
+        <v>177157.5</v>
       </c>
       <c r="C26" t="n">
-        <v>63829.5378767623</v>
+        <v>108575.241145052</v>
       </c>
       <c r="D26" t="n">
-        <v>-7253.837152379537</v>
+        <v>-10119.83378460371</v>
       </c>
       <c r="E26" t="n">
-        <v>116183.7007243828</v>
+        <v>275612.9073604483</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>96863.00000000006</v>
+        <v>204412.5</v>
       </c>
       <c r="C27" t="n">
-        <v>90038.16373759788</v>
+        <v>123724.7358622981</v>
       </c>
       <c r="D27" t="n">
-        <v>-8452.896427159409</v>
+        <v>-10321.95795622902</v>
       </c>
       <c r="E27" t="n">
-        <v>178448.2673104385</v>
+        <v>317815.277906069</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>51</v>
+      </c>
+      <c r="B28" t="n">
+        <v>231667.5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>138874.2305795439</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-10460.96288692537</v>
+      </c>
+      <c r="E28" t="n">
+        <v>360080.7676926185</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>52</v>
+      </c>
+      <c r="B29" t="n">
+        <v>258922.5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>154023.7252967899</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-10556.0481745941</v>
+      </c>
+      <c r="E29" t="n">
+        <v>402390.1771221958</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>53</v>
+      </c>
+      <c r="B30" t="n">
+        <v>286177.5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>169173.2200140358</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-10620.76212380766</v>
+      </c>
+      <c r="E30" t="n">
+        <v>444729.9578902281</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>54</v>
+      </c>
+      <c r="B31" t="n">
+        <v>313432.5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>184322.7147312817</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-10664.59612627321</v>
+      </c>
+      <c r="E31" t="n">
+        <v>487090.6186050085</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>55</v>
+      </c>
+      <c r="B32" t="n">
+        <v>340687.5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>199472.2094485278</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-10694.15424865698</v>
+      </c>
+      <c r="E32" t="n">
+        <v>529465.5551998708</v>
       </c>
     </row>
   </sheetData>

--- a/ACCU PnL Output.xlsx
+++ b/ACCU PnL Output.xlsx
@@ -479,16 +479,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-476962.5</v>
+        <v>-146667.5</v>
       </c>
       <c r="C2" t="n">
-        <v>-253710.2682653351</v>
+        <v>-127794.4518507125</v>
       </c>
       <c r="D2" t="n">
-        <v>611060.7948438321</v>
+        <v>569816.3520187008</v>
       </c>
       <c r="E2" t="n">
-        <v>-119611.973421503</v>
+        <v>295354.4001679883</v>
       </c>
     </row>
     <row r="3">
@@ -496,16 +496,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-449707.5</v>
+        <v>-129412.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-238508.6789959485</v>
+        <v>-112758.229924741</v>
       </c>
       <c r="D3" t="n">
-        <v>526567.1073635977</v>
+        <v>472487.3971510205</v>
       </c>
       <c r="E3" t="n">
-        <v>-161649.0716323508</v>
+        <v>230316.6672262796</v>
       </c>
     </row>
     <row r="4">
@@ -513,16 +513,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-422452.5</v>
+        <v>-112157.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-223307.0897265619</v>
+        <v>-97722.0079987694</v>
       </c>
       <c r="D4" t="n">
-        <v>448015.8974302537</v>
+        <v>378768.8860781079</v>
       </c>
       <c r="E4" t="n">
-        <v>-197743.6922963082</v>
+        <v>168889.3780793385</v>
       </c>
     </row>
     <row r="5">
@@ -530,16 +530,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-395197.5</v>
+        <v>-94902.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-208105.5004571753</v>
+        <v>-82685.78607279796</v>
       </c>
       <c r="D5" t="n">
-        <v>376239.1797217564</v>
+        <v>291338.2881997209</v>
       </c>
       <c r="E5" t="n">
-        <v>-227063.8207354189</v>
+        <v>113750.0021269229</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +547,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-367942.5</v>
+        <v>-77647.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-192903.9111877886</v>
+        <v>-67649.56414682645</v>
       </c>
       <c r="D6" t="n">
-        <v>311800.6773240798</v>
+        <v>213072.7681629967</v>
       </c>
       <c r="E6" t="n">
-        <v>-249045.7338637089</v>
+        <v>67775.70401617026</v>
       </c>
     </row>
     <row r="7">
@@ -564,16 +564,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-340687.5</v>
+        <v>-60392.5</v>
       </c>
       <c r="C7" t="n">
-        <v>-177702.3219184021</v>
+        <v>-52613.34222085489</v>
       </c>
       <c r="D7" t="n">
-        <v>254958.3316502789</v>
+        <v>146183.3619037867</v>
       </c>
       <c r="E7" t="n">
-        <v>-263431.4902681232</v>
+        <v>33177.51968293177</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +581,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-313432.5</v>
+        <v>-43137.5</v>
       </c>
       <c r="C8" t="n">
-        <v>-162500.7326490154</v>
+        <v>-37577.12029488344</v>
       </c>
       <c r="D8" t="n">
-        <v>205668.5257886789</v>
+        <v>91561.89490482272</v>
       </c>
       <c r="E8" t="n">
-        <v>-270264.7068603365</v>
+        <v>10847.27460993928</v>
       </c>
     </row>
     <row r="9">
@@ -598,16 +598,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-286177.5</v>
+        <v>-25882.5</v>
       </c>
       <c r="C9" t="n">
-        <v>-147299.1433796289</v>
+        <v>-22540.89836891193</v>
       </c>
       <c r="D9" t="n">
-        <v>163623.8894347927</v>
+        <v>48683.50401869792</v>
       </c>
       <c r="E9" t="n">
-        <v>-269852.7539448362</v>
+        <v>260.1056497859827</v>
       </c>
     </row>
     <row r="10">
@@ -615,16 +615,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-258922.5</v>
+        <v>-8627.5</v>
       </c>
       <c r="C10" t="n">
-        <v>-132097.5541102422</v>
+        <v>-7504.676442940428</v>
       </c>
       <c r="D10" t="n">
-        <v>128312.1899133053</v>
+        <v>15989.30690232549</v>
       </c>
       <c r="E10" t="n">
-        <v>-262707.8641969369</v>
+        <v>-142.8695406149363</v>
       </c>
     </row>
     <row r="11">
@@ -632,16 +632,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-231667.5</v>
+        <v>8627.5</v>
       </c>
       <c r="C11" t="n">
-        <v>-116895.9648408557</v>
+        <v>7531.545483031077</v>
       </c>
       <c r="D11" t="n">
-        <v>99083.40700657133</v>
+        <v>-8593.753197120152</v>
       </c>
       <c r="E11" t="n">
-        <v>-249480.0578342844</v>
+        <v>7565.292285910926</v>
       </c>
     </row>
     <row r="12">
@@ -649,16 +649,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-204412.5</v>
+        <v>25882.5</v>
       </c>
       <c r="C12" t="n">
-        <v>-101694.3755714691</v>
+        <v>22567.76740900252</v>
       </c>
       <c r="D12" t="n">
-        <v>75214.41705197601</v>
+        <v>-27284.90558403696</v>
       </c>
       <c r="E12" t="n">
-        <v>-230892.4585194931</v>
+        <v>21165.36182496556</v>
       </c>
     </row>
     <row r="13">
@@ -666,16 +666,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-177157.5</v>
+        <v>43137.5</v>
       </c>
       <c r="C13" t="n">
-        <v>-86492.78630208247</v>
+        <v>37603.98933497409</v>
       </c>
       <c r="D13" t="n">
-        <v>55964.27855814486</v>
+        <v>-42300.90516780277</v>
       </c>
       <c r="E13" t="n">
-        <v>-207686.0077439376</v>
+        <v>38440.58416717132</v>
       </c>
     </row>
     <row r="14">
@@ -683,16 +683,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-149902.5</v>
+        <v>60392.5</v>
       </c>
       <c r="C14" t="n">
-        <v>-71291.19703269599</v>
+        <v>52640.21126094565</v>
       </c>
       <c r="D14" t="n">
-        <v>40616.69539257216</v>
+        <v>-55823.84299426405</v>
       </c>
       <c r="E14" t="n">
-        <v>-180577.0016401238</v>
+        <v>57208.8682666816</v>
       </c>
     </row>
     <row r="15">
@@ -700,16 +700,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-122647.5</v>
+        <v>77647.5</v>
       </c>
       <c r="C15" t="n">
-        <v>-56089.60776330926</v>
+        <v>67676.4331869171</v>
       </c>
       <c r="D15" t="n">
-        <v>28509.10429677747</v>
+        <v>-69951.12378627453</v>
       </c>
       <c r="E15" t="n">
-        <v>-150228.0034665318</v>
+        <v>75372.80940064257</v>
       </c>
     </row>
     <row r="16">
@@ -717,16 +717,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-95392.5</v>
+        <v>94902.5</v>
       </c>
       <c r="C16" t="n">
-        <v>-40888.01849392266</v>
+        <v>82712.65511288866</v>
       </c>
       <c r="D16" t="n">
-        <v>19049.72637268589</v>
+        <v>-86563.13074294805</v>
       </c>
       <c r="E16" t="n">
-        <v>-117230.7921212368</v>
+        <v>91052.02436994061</v>
       </c>
     </row>
     <row r="17">
@@ -734,16 +734,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-68137.5</v>
+        <v>112157.5</v>
       </c>
       <c r="C17" t="n">
-        <v>-25686.42922453606</v>
+        <v>97748.87703886011</v>
       </c>
       <c r="D17" t="n">
-        <v>11724.89369727427</v>
+        <v>-107136.1252894143</v>
       </c>
       <c r="E17" t="n">
-        <v>-82099.03552726179</v>
+        <v>102770.2517494458</v>
       </c>
     </row>
     <row r="18">
@@ -751,16 +751,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-40882.5</v>
+        <v>129412.5</v>
       </c>
       <c r="C18" t="n">
-        <v>-10484.83995514957</v>
+        <v>112785.0989648316</v>
       </c>
       <c r="D18" t="n">
-        <v>6099.22937676842</v>
+        <v>-132581.361451815</v>
       </c>
       <c r="E18" t="n">
-        <v>-45268.11057838115</v>
+        <v>109616.2375130165</v>
       </c>
     </row>
     <row r="19">
@@ -768,16 +768,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>-13627.5</v>
+        <v>146667.5</v>
       </c>
       <c r="C19" t="n">
-        <v>4716.749314237153</v>
+        <v>127821.3208908031</v>
       </c>
       <c r="D19" t="n">
-        <v>1811.076693925753</v>
+        <v>-163185.2247024122</v>
       </c>
       <c r="E19" t="n">
-        <v>-7099.673991837093</v>
+        <v>111303.5961883909</v>
       </c>
     </row>
     <row r="20">
@@ -785,16 +785,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>13627.5</v>
+        <v>163922.5</v>
       </c>
       <c r="C20" t="n">
-        <v>19918.33858362376</v>
+        <v>142857.5428167746</v>
       </c>
       <c r="D20" t="n">
-        <v>-1434.838727794974</v>
+        <v>-198676.3130340873</v>
       </c>
       <c r="E20" t="n">
-        <v>32110.99985582878</v>
+        <v>108103.7297826873</v>
       </c>
     </row>
     <row r="21">
@@ -802,16 +802,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>40882.5</v>
+        <v>181177.5</v>
       </c>
       <c r="C21" t="n">
-        <v>35119.92785301025</v>
+        <v>157893.7647427461</v>
       </c>
       <c r="D21" t="n">
-        <v>-3876.0116279311</v>
+        <v>-238389.9591012541</v>
       </c>
       <c r="E21" t="n">
-        <v>72126.41622507914</v>
+        <v>100681.305641492</v>
       </c>
     </row>
     <row r="22">
@@ -819,16 +819,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>68137.5</v>
+        <v>198432.5</v>
       </c>
       <c r="C22" t="n">
-        <v>50321.51712239685</v>
+        <v>172929.9866687177</v>
       </c>
       <c r="D22" t="n">
-        <v>-5700.977541950679</v>
+        <v>-281469.2607227648</v>
       </c>
       <c r="E22" t="n">
-        <v>112758.0395804462</v>
+        <v>89893.22594595293</v>
       </c>
     </row>
     <row r="23">
@@ -836,16 +836,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>95392.5</v>
+        <v>215687.5</v>
       </c>
       <c r="C23" t="n">
-        <v>65523.10639178357</v>
+        <v>187966.2085946891</v>
       </c>
       <c r="D23" t="n">
-        <v>-7057.684361282119</v>
+        <v>-327043.392921738</v>
       </c>
       <c r="E23" t="n">
-        <v>153857.9220305014</v>
+        <v>76610.31567295117</v>
       </c>
     </row>
     <row r="24">
@@ -853,16 +853,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>122647.5</v>
+        <v>232942.5</v>
       </c>
       <c r="C24" t="n">
-        <v>80724.69566117006</v>
+        <v>203002.4305206606</v>
       </c>
       <c r="D24" t="n">
-        <v>-8061.040175006648</v>
+        <v>-374348.111121724</v>
       </c>
       <c r="E24" t="n">
-        <v>195311.1554861634</v>
+        <v>61596.81939893664</v>
       </c>
     </row>
     <row r="25">
@@ -870,16 +870,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>149902.5</v>
+        <v>250197.5</v>
       </c>
       <c r="C25" t="n">
-        <v>95926.28493055666</v>
+        <v>218038.6524466322</v>
       </c>
       <c r="D25" t="n">
-        <v>-8799.4703734166</v>
+        <v>-422781.9918528022</v>
       </c>
       <c r="E25" t="n">
-        <v>237029.3145571401</v>
+        <v>45454.16059382993</v>
       </c>
     </row>
     <row r="26">
@@ -887,16 +887,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>177157.5</v>
+        <v>267452.5</v>
       </c>
       <c r="C26" t="n">
-        <v>111127.8741999433</v>
+        <v>233074.8743726036</v>
       </c>
       <c r="D26" t="n">
-        <v>-9340.454659638617</v>
+        <v>-471911.934972809</v>
       </c>
       <c r="E26" t="n">
-        <v>278944.9195403046</v>
+        <v>28615.43939979462</v>
       </c>
     </row>
     <row r="27">
@@ -904,16 +904,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>204412.5</v>
+        <v>284707.5</v>
       </c>
       <c r="C27" t="n">
-        <v>126329.4634693299</v>
+        <v>248111.0962985751</v>
       </c>
       <c r="D27" t="n">
-        <v>-9735.098338657619</v>
+        <v>-521448.8450500911</v>
       </c>
       <c r="E27" t="n">
-        <v>321006.8651306722</v>
+        <v>11369.75124848395</v>
       </c>
     </row>
     <row r="28">
@@ -921,16 +921,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>231667.5</v>
+        <v>301962.5</v>
       </c>
       <c r="C28" t="n">
-        <v>141531.0527387165</v>
+        <v>263147.3182245466</v>
       </c>
       <c r="D28" t="n">
-        <v>-10021.83718151487</v>
+        <v>-571212.2217345325</v>
       </c>
       <c r="E28" t="n">
-        <v>363176.7155572016</v>
+        <v>-6102.403509985888</v>
       </c>
     </row>
     <row r="29">
@@ -938,16 +938,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>258922.5</v>
+        <v>319217.5</v>
       </c>
       <c r="C29" t="n">
-        <v>156732.6420081031</v>
+        <v>278183.5401505181</v>
       </c>
       <c r="D29" t="n">
-        <v>-10229.3938555755</v>
+        <v>-621095.922630073</v>
       </c>
       <c r="E29" t="n">
-        <v>405425.7481525276</v>
+        <v>-23694.88247955497</v>
       </c>
     </row>
     <row r="30">
@@ -955,16 +955,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>286177.5</v>
+        <v>336472.5</v>
       </c>
       <c r="C30" t="n">
-        <v>171934.2312774896</v>
+        <v>293219.7620764896</v>
       </c>
       <c r="D30" t="n">
-        <v>-10379.1059962144</v>
+        <v>-671040.8374807235</v>
       </c>
       <c r="E30" t="n">
-        <v>447732.6252812752</v>
+        <v>-41348.57540423388</v>
       </c>
     </row>
     <row r="31">
@@ -972,16 +972,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>313432.5</v>
+        <v>353727.5</v>
       </c>
       <c r="C31" t="n">
-        <v>187135.8205468763</v>
+        <v>308255.9840024612</v>
       </c>
       <c r="D31" t="n">
-        <v>-10486.73841714292</v>
+        <v>-721015.6494290361</v>
       </c>
       <c r="E31" t="n">
-        <v>490081.5821297333</v>
+        <v>-59032.16542657488</v>
       </c>
     </row>
     <row r="32">
@@ -989,16 +989,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>340687.5</v>
+        <v>370982.5</v>
       </c>
       <c r="C32" t="n">
-        <v>202337.4098162629</v>
+        <v>323292.2059284326</v>
       </c>
       <c r="D32" t="n">
-        <v>-10563.87946880281</v>
+        <v>-771004.5126950047</v>
       </c>
       <c r="E32" t="n">
-        <v>532461.0303474601</v>
+        <v>-76729.80676657206</v>
       </c>
     </row>
   </sheetData>
@@ -1052,16 +1052,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-476962.5</v>
+        <v>-146667.5</v>
       </c>
       <c r="C2" t="n">
-        <v>-254241.4006626579</v>
+        <v>-128519.065054164</v>
       </c>
       <c r="D2" t="n">
-        <v>611378.0723181025</v>
+        <v>574858.0355792802</v>
       </c>
       <c r="E2" t="n">
-        <v>-119825.8283445555</v>
+        <v>299671.4705251163</v>
       </c>
     </row>
     <row r="3">
@@ -1069,16 +1069,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-449707.5</v>
+        <v>-129412.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-239061.0566891643</v>
+        <v>-113511.8276563305</v>
       </c>
       <c r="D3" t="n">
-        <v>525483.1583888773</v>
+        <v>475434.6730359904</v>
       </c>
       <c r="E3" t="n">
-        <v>-163285.398300287</v>
+        <v>232510.3453796599</v>
       </c>
     </row>
     <row r="4">
@@ -1086,16 +1086,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-422452.5</v>
+        <v>-112157.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-223880.7127156706</v>
+        <v>-98504.5902584971</v>
       </c>
       <c r="D4" t="n">
-        <v>445499.7095001124</v>
+        <v>377454.6768091338</v>
       </c>
       <c r="E4" t="n">
-        <v>-200833.5032155582</v>
+        <v>166792.5865506367</v>
       </c>
     </row>
     <row r="5">
@@ -1103,16 +1103,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-395197.5</v>
+        <v>-94902.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-208700.3687421769</v>
+        <v>-83497.35286066367</v>
       </c>
       <c r="D5" t="n">
-        <v>372383.9646633124</v>
+        <v>283575.4138556345</v>
       </c>
       <c r="E5" t="n">
-        <v>-231513.9040788645</v>
+        <v>105175.5609949708</v>
       </c>
     </row>
     <row r="6">
@@ -1120,16 +1120,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-367942.5</v>
+        <v>-77647.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-193520.0247686832</v>
+        <v>-68490.11546283023</v>
       </c>
       <c r="D6" t="n">
-        <v>306809.1747443152</v>
+        <v>198451.8462852921</v>
       </c>
       <c r="E6" t="n">
-        <v>-254653.350024368</v>
+        <v>52314.23082246186</v>
       </c>
     </row>
     <row r="7">
@@ -1137,16 +1137,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-340687.5</v>
+        <v>-60392.5</v>
       </c>
       <c r="C7" t="n">
-        <v>-178339.6807951896</v>
+        <v>-53482.8780649968</v>
       </c>
       <c r="D7" t="n">
-        <v>249110.4714131248</v>
+        <v>127012.5383774344</v>
       </c>
       <c r="E7" t="n">
-        <v>-269916.7093820648</v>
+        <v>13137.16031243758</v>
       </c>
     </row>
     <row r="8">
@@ -1154,16 +1154,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-313432.5</v>
+        <v>-43137.5</v>
       </c>
       <c r="C8" t="n">
-        <v>-163159.3368216959</v>
+        <v>-38475.64066716336</v>
       </c>
       <c r="D8" t="n">
-        <v>199281.0311512122</v>
+        <v>71536.48801572874</v>
       </c>
       <c r="E8" t="n">
-        <v>-277310.8056704837</v>
+        <v>-10076.65265143462</v>
       </c>
     </row>
     <row r="9">
@@ -1171,16 +1171,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-286177.5</v>
+        <v>-25882.5</v>
       </c>
       <c r="C9" t="n">
-        <v>-147978.9928482022</v>
+        <v>-23468.40326932992</v>
       </c>
       <c r="D9" t="n">
-        <v>157011.2307993887</v>
+        <v>30668.60514943784</v>
       </c>
       <c r="E9" t="n">
-        <v>-277145.2620488135</v>
+        <v>-18682.29811989208</v>
       </c>
     </row>
     <row r="10">
@@ -1188,16 +1188,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-258922.5</v>
+        <v>-8627.5</v>
       </c>
       <c r="C10" t="n">
-        <v>-132798.6488747086</v>
+        <v>-8461.165871496429</v>
       </c>
       <c r="D10" t="n">
-        <v>121755.6286361178</v>
+        <v>1151.82731527958</v>
       </c>
       <c r="E10" t="n">
-        <v>-269965.5202385908</v>
+        <v>-15936.83855621685</v>
       </c>
     </row>
     <row r="11">
@@ -1205,16 +1205,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-231667.5</v>
+        <v>8627.5</v>
       </c>
       <c r="C11" t="n">
-        <v>-117618.3049012148</v>
+        <v>6546.071526337008</v>
       </c>
       <c r="D11" t="n">
-        <v>92811.29826874746</v>
+        <v>-20096.5330046047</v>
       </c>
       <c r="E11" t="n">
-        <v>-256474.5066324673</v>
+        <v>-4922.961478267691</v>
       </c>
     </row>
     <row r="12">
@@ -1222,16 +1222,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-204412.5</v>
+        <v>25882.5</v>
       </c>
       <c r="C12" t="n">
-        <v>-102437.9609277211</v>
+        <v>21553.30892417033</v>
       </c>
       <c r="D12" t="n">
-        <v>69393.77792456929</v>
+        <v>-35288.49580344382</v>
       </c>
       <c r="E12" t="n">
-        <v>-237456.6830031518</v>
+        <v>12147.31312072651</v>
       </c>
     </row>
     <row r="13">
@@ -1239,16 +1239,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-177157.5</v>
+        <v>43137.5</v>
       </c>
       <c r="C13" t="n">
-        <v>-87257.61695422744</v>
+        <v>36560.54632200382</v>
       </c>
       <c r="D13" t="n">
-        <v>50701.55291234131</v>
+        <v>-46117.03506881042</v>
       </c>
       <c r="E13" t="n">
-        <v>-213713.5640418861</v>
+        <v>33581.0112531934</v>
       </c>
     </row>
     <row r="14">
@@ -1256,16 +1256,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-149902.5</v>
+        <v>60392.5</v>
       </c>
       <c r="C14" t="n">
-        <v>-72077.27298073377</v>
+        <v>51567.78371983732</v>
       </c>
       <c r="D14" t="n">
-        <v>35964.75639210481</v>
+        <v>-54330.12958162929</v>
       </c>
       <c r="E14" t="n">
-        <v>-186015.016588629</v>
+        <v>57630.15413820802</v>
       </c>
     </row>
     <row r="15">
@@ -1273,16 +1273,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-122647.5</v>
+        <v>77647.5</v>
       </c>
       <c r="C15" t="n">
-        <v>-56896.92900724011</v>
+        <v>66575.02111767081</v>
       </c>
       <c r="D15" t="n">
-        <v>24477.56322234766</v>
+        <v>-62150.26450195571</v>
       </c>
       <c r="E15" t="n">
-        <v>-155066.8657848924</v>
+        <v>82072.2566157151</v>
       </c>
     </row>
     <row r="16">
@@ -1290,16 +1290,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-95392.5</v>
+        <v>94902.5</v>
       </c>
       <c r="C16" t="n">
-        <v>-41716.58503374632</v>
+        <v>81582.25851550419</v>
       </c>
       <c r="D16" t="n">
-        <v>15616.17816703966</v>
+        <v>-72348.15707472639</v>
       </c>
       <c r="E16" t="n">
-        <v>-121492.9068667067</v>
+        <v>104136.6014407778</v>
       </c>
     </row>
     <row r="17">
@@ -1307,16 +1307,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-68137.5</v>
+        <v>112157.5</v>
       </c>
       <c r="C17" t="n">
-        <v>-26536.24106025277</v>
+        <v>96589.49591333757</v>
       </c>
       <c r="D17" t="n">
-        <v>8845.481488087278</v>
+        <v>-87792.51216420441</v>
       </c>
       <c r="E17" t="n">
-        <v>-85828.25957216549</v>
+        <v>120954.4837491332</v>
       </c>
     </row>
     <row r="18">
@@ -1324,16 +1324,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-40882.5</v>
+        <v>129412.5</v>
       </c>
       <c r="C18" t="n">
-        <v>-11355.8970867591</v>
+        <v>111596.7333111711</v>
       </c>
       <c r="D18" t="n">
-        <v>3717.621479157377</v>
+        <v>-110598.4277071906</v>
       </c>
       <c r="E18" t="n">
-        <v>-48520.77560760172</v>
+        <v>130410.8056039805</v>
       </c>
     </row>
     <row r="19">
@@ -1341,16 +1341,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>-13627.5</v>
+        <v>146667.5</v>
       </c>
       <c r="C19" t="n">
-        <v>3824.446886734688</v>
+        <v>126603.9707090046</v>
       </c>
       <c r="D19" t="n">
-        <v>-134.4945599381225</v>
+        <v>-141413.6855798304</v>
       </c>
       <c r="E19" t="n">
-        <v>-9937.547673203435</v>
+        <v>131857.7851291741</v>
       </c>
     </row>
     <row r="20">
@@ -1358,16 +1358,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>13627.5</v>
+        <v>163922.5</v>
       </c>
       <c r="C20" t="n">
-        <v>19004.79086022836</v>
+        <v>141611.2081068379</v>
       </c>
       <c r="D20" t="n">
-        <v>-3006.454861964769</v>
+        <v>-179360.9145852138</v>
       </c>
       <c r="E20" t="n">
-        <v>29625.83599826359</v>
+        <v>126172.7935216241</v>
       </c>
     </row>
     <row r="21">
@@ -1375,16 +1375,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>40882.5</v>
+        <v>181177.5</v>
       </c>
       <c r="C21" t="n">
-        <v>34185.13483372191</v>
+        <v>156618.4455046713</v>
       </c>
       <c r="D21" t="n">
-        <v>-5132.631279969664</v>
+        <v>-222636.2222688251</v>
       </c>
       <c r="E21" t="n">
-        <v>69935.00355375225</v>
+        <v>115159.7232358462</v>
       </c>
     </row>
     <row r="22">
@@ -1392,16 +1392,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>68137.5</v>
+        <v>198432.5</v>
       </c>
       <c r="C22" t="n">
-        <v>49365.4788072157</v>
+        <v>171625.6829025048</v>
       </c>
       <c r="D22" t="n">
-        <v>-6696.3647925107</v>
+        <v>-269303.8302319443</v>
       </c>
       <c r="E22" t="n">
-        <v>110806.614014705</v>
+        <v>100754.3526705605</v>
       </c>
     </row>
     <row r="23">
@@ -1409,16 +1409,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>95392.5</v>
+        <v>215687.5</v>
       </c>
       <c r="C23" t="n">
-        <v>64545.82278070936</v>
+        <v>186632.9203003383</v>
       </c>
       <c r="D23" t="n">
-        <v>-7839.371068292577</v>
+        <v>-317834.2870747838</v>
       </c>
       <c r="E23" t="n">
-        <v>152098.9517124168</v>
+        <v>84486.13322555448</v>
       </c>
     </row>
     <row r="24">
@@ -1426,16 +1426,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>122647.5</v>
+        <v>232942.5</v>
       </c>
       <c r="C24" t="n">
-        <v>79726.16675420303</v>
+        <v>201640.1576981717</v>
       </c>
       <c r="D24" t="n">
-        <v>-8670.023920767951</v>
+        <v>-367255.9029696992</v>
       </c>
       <c r="E24" t="n">
-        <v>193703.6428334351</v>
+        <v>67326.7547284725</v>
       </c>
     </row>
     <row r="25">
@@ -1443,16 +1443,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>149902.5</v>
+        <v>250197.5</v>
       </c>
       <c r="C25" t="n">
-        <v>94906.5107276967</v>
+        <v>216647.3950960052</v>
       </c>
       <c r="D25" t="n">
-        <v>-9270.401218329169</v>
+        <v>-417052.1094035918</v>
       </c>
       <c r="E25" t="n">
-        <v>235538.6095093675</v>
+        <v>49792.78569241334</v>
       </c>
     </row>
     <row r="26">
@@ -1460,16 +1460,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>177157.5</v>
+        <v>267452.5</v>
       </c>
       <c r="C26" t="n">
-        <v>110086.8547011904</v>
+        <v>231654.6324938386</v>
       </c>
       <c r="D26" t="n">
-        <v>-9702.119154589163</v>
+        <v>-466987.6805371583</v>
       </c>
       <c r="E26" t="n">
-        <v>277542.2355466012</v>
+        <v>32119.45195668028</v>
       </c>
     </row>
     <row r="27">
@@ -1477,16 +1477,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>204412.5</v>
+        <v>284707.5</v>
       </c>
       <c r="C27" t="n">
-        <v>125267.1986746842</v>
+        <v>246661.869891672</v>
       </c>
       <c r="D27" t="n">
-        <v>-10011.05994428926</v>
+        <v>-516969.4083036086</v>
       </c>
       <c r="E27" t="n">
-        <v>319668.6387303949</v>
+        <v>14399.96158806345</v>
       </c>
     </row>
     <row r="28">
@@ -1494,16 +1494,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>231667.5</v>
+        <v>301962.5</v>
       </c>
       <c r="C28" t="n">
-        <v>140447.5426481777</v>
+        <v>261669.1072895055</v>
       </c>
       <c r="D28" t="n">
-        <v>-10231.13479584729</v>
+        <v>-566964.7890892634</v>
       </c>
       <c r="E28" t="n">
-        <v>361883.9078523304</v>
+        <v>-3333.181799757876</v>
       </c>
     </row>
     <row r="29">
@@ -1511,16 +1511,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>258922.5</v>
+        <v>319217.5</v>
       </c>
       <c r="C29" t="n">
-        <v>155627.8866216715</v>
+        <v>276676.3446873389</v>
       </c>
       <c r="D29" t="n">
-        <v>-10387.2337470062</v>
+        <v>-616963.7715456653</v>
       </c>
       <c r="E29" t="n">
-        <v>404163.1528746653</v>
+        <v>-21069.92685832642</v>
       </c>
     </row>
     <row r="30">
@@ -1528,16 +1528,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>286177.5</v>
+        <v>336472.5</v>
       </c>
       <c r="C30" t="n">
-        <v>170808.2305951652</v>
+        <v>291683.5820851723</v>
       </c>
       <c r="D30" t="n">
-        <v>-10497.50771039698</v>
+        <v>-666963.5907821768</v>
       </c>
       <c r="E30" t="n">
-        <v>446488.2228847682</v>
+        <v>-38807.50869700452</v>
       </c>
     </row>
     <row r="31">
@@ -1545,16 +1545,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>313432.5</v>
+        <v>353727.5</v>
       </c>
       <c r="C31" t="n">
-        <v>185988.5745686588</v>
+        <v>306690.8194830058</v>
       </c>
       <c r="D31" t="n">
-        <v>-10575.11342922217</v>
+        <v>-716963.5737321926</v>
       </c>
       <c r="E31" t="n">
-        <v>488845.9611394367</v>
+        <v>-56545.25424918684</v>
       </c>
     </row>
     <row r="32">
@@ -1562,16 +1562,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>340687.5</v>
+        <v>370982.5</v>
       </c>
       <c r="C32" t="n">
-        <v>201168.9185421525</v>
+        <v>321698.0568808393</v>
       </c>
       <c r="D32" t="n">
-        <v>-10629.53389510027</v>
+        <v>-766963.5790785851</v>
       </c>
       <c r="E32" t="n">
-        <v>531226.8846470523</v>
+        <v>-74283.02219774586</v>
       </c>
     </row>
   </sheetData>
@@ -1625,16 +1625,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-476962.5</v>
+        <v>-146667.5</v>
       </c>
       <c r="C2" t="n">
-        <v>-257221.203181657</v>
+        <v>-128700</v>
       </c>
       <c r="D2" t="n">
-        <v>618227.9608091775</v>
+        <v>586571.7169127685</v>
       </c>
       <c r="E2" t="n">
-        <v>-115955.7423724795</v>
+        <v>311204.2169127685</v>
       </c>
     </row>
     <row r="3">
@@ -1642,16 +1642,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-449707.5</v>
+        <v>-129412.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-242160.0513089232</v>
+        <v>-113700</v>
       </c>
       <c r="D3" t="n">
-        <v>522721.6193882279</v>
+        <v>486571.7169127686</v>
       </c>
       <c r="E3" t="n">
-        <v>-169145.9319206952</v>
+        <v>243459.2169127686</v>
       </c>
     </row>
     <row r="4">
@@ -1659,16 +1659,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-422452.5</v>
+        <v>-112157.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-227098.8994361894</v>
+        <v>-98700</v>
       </c>
       <c r="D4" t="n">
-        <v>431696.1067969311</v>
+        <v>386571.7169127686</v>
       </c>
       <c r="E4" t="n">
-        <v>-217855.2926392583</v>
+        <v>175714.2169127686</v>
       </c>
     </row>
     <row r="5">
@@ -1676,16 +1676,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-395197.5</v>
+        <v>-94902.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-212037.7475634558</v>
+        <v>-83700</v>
       </c>
       <c r="D5" t="n">
-        <v>347452.6389604188</v>
+        <v>286571.7169127686</v>
       </c>
       <c r="E5" t="n">
-        <v>-259782.6086030369</v>
+        <v>107969.2169127686</v>
       </c>
     </row>
     <row r="6">
@@ -1693,16 +1693,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-367942.5</v>
+        <v>-77647.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-196976.5956907221</v>
+        <v>-68700</v>
       </c>
       <c r="D6" t="n">
-        <v>272170.4155007617</v>
+        <v>186571.7169127686</v>
       </c>
       <c r="E6" t="n">
-        <v>-292748.6801899605</v>
+        <v>40224.21691276861</v>
       </c>
     </row>
     <row r="7">
@@ -1710,16 +1710,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-340687.5</v>
+        <v>-60392.5</v>
       </c>
       <c r="C7" t="n">
-        <v>-181915.4438179883</v>
+        <v>-53700</v>
       </c>
       <c r="D7" t="n">
-        <v>207386.0457479397</v>
+        <v>86571.71691276861</v>
       </c>
       <c r="E7" t="n">
-        <v>-315216.8980700486</v>
+        <v>-27520.78308723139</v>
       </c>
     </row>
     <row r="8">
@@ -1727,16 +1727,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-313432.5</v>
+        <v>-43137.5</v>
       </c>
       <c r="C8" t="n">
-        <v>-166854.2919452546</v>
+        <v>-38700</v>
       </c>
       <c r="D8" t="n">
-        <v>153677.0328067006</v>
+        <v>36571.71691276861</v>
       </c>
       <c r="E8" t="n">
-        <v>-326609.759138554</v>
+        <v>-45265.78308723139</v>
       </c>
     </row>
     <row r="9">
@@ -1744,16 +1744,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-286177.5</v>
+        <v>-25882.5</v>
       </c>
       <c r="C9" t="n">
-        <v>-151793.1400725209</v>
+        <v>-23700</v>
       </c>
       <c r="D9" t="n">
-        <v>110657.7333439564</v>
+        <v>-13428.28308723139</v>
       </c>
       <c r="E9" t="n">
-        <v>-327312.9067285645</v>
+        <v>-63010.78308723139</v>
       </c>
     </row>
     <row r="10">
@@ -1761,16 +1761,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-258922.5</v>
+        <v>-8627.5</v>
       </c>
       <c r="C10" t="n">
-        <v>-136731.9881997872</v>
+        <v>-8700</v>
       </c>
       <c r="D10" t="n">
-        <v>77225.37327492655</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E10" t="n">
-        <v>-318429.1149248607</v>
+        <v>-80755.78308723139</v>
       </c>
     </row>
     <row r="11">
@@ -1778,16 +1778,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-231667.5</v>
+        <v>8627.5</v>
       </c>
       <c r="C11" t="n">
-        <v>-121670.8363270535</v>
+        <v>6300</v>
       </c>
       <c r="D11" t="n">
-        <v>51902.0899694676</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E11" t="n">
-        <v>-301436.2463575859</v>
+        <v>-48500.78308723139</v>
       </c>
     </row>
     <row r="12">
@@ -1795,16 +1795,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-204412.5</v>
+        <v>25882.5</v>
       </c>
       <c r="C12" t="n">
-        <v>-106609.6844543196</v>
+        <v>21300</v>
       </c>
       <c r="D12" t="n">
-        <v>33135.48393773521</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E12" t="n">
-        <v>-277886.7005165844</v>
+        <v>-16245.78308723139</v>
       </c>
     </row>
     <row r="13">
@@ -1812,16 +1812,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-177157.5</v>
+        <v>43137.5</v>
       </c>
       <c r="C13" t="n">
-        <v>-91548.53258158604</v>
+        <v>36300</v>
       </c>
       <c r="D13" t="n">
-        <v>19493.01179486443</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E13" t="n">
-        <v>-249213.0207867216</v>
+        <v>16009.21691276861</v>
       </c>
     </row>
     <row r="14">
@@ -1829,16 +1829,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-149902.5</v>
+        <v>60392.5</v>
       </c>
       <c r="C14" t="n">
-        <v>-76487.38070885232</v>
+        <v>51300</v>
       </c>
       <c r="D14" t="n">
-        <v>9751.988299791712</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E14" t="n">
-        <v>-216637.8924090606</v>
+        <v>48264.21691276861</v>
       </c>
     </row>
     <row r="15">
@@ -1846,16 +1846,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-122647.5</v>
+        <v>77647.5</v>
       </c>
       <c r="C15" t="n">
-        <v>-61426.22883611848</v>
+        <v>66300</v>
       </c>
       <c r="D15" t="n">
-        <v>2918.480255558025</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E15" t="n">
-        <v>-181155.2485805604</v>
+        <v>80519.21691276861</v>
       </c>
     </row>
     <row r="16">
@@ -1863,16 +1863,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-95392.5</v>
+        <v>94902.5</v>
       </c>
       <c r="C16" t="n">
-        <v>-46365.07696338475</v>
+        <v>81300</v>
       </c>
       <c r="D16" t="n">
-        <v>-1790.107514468374</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E16" t="n">
-        <v>-143547.6844778531</v>
+        <v>112774.2169127686</v>
       </c>
     </row>
     <row r="17">
@@ -1880,16 +1880,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-68137.5</v>
+        <v>112157.5</v>
       </c>
       <c r="C17" t="n">
-        <v>-31303.92509065114</v>
+        <v>96300</v>
       </c>
       <c r="D17" t="n">
-        <v>-4975.50503949413</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E17" t="n">
-        <v>-104416.9301301453</v>
+        <v>145029.2169127686</v>
       </c>
     </row>
     <row r="18">
@@ -1897,16 +1897,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-40882.5</v>
+        <v>129412.5</v>
       </c>
       <c r="C18" t="n">
-        <v>-16242.77321791742</v>
+        <v>111300</v>
       </c>
       <c r="D18" t="n">
-        <v>-7090.651181705468</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E18" t="n">
-        <v>-64215.92439962289</v>
+        <v>177284.2169127686</v>
       </c>
     </row>
     <row r="19">
@@ -1914,16 +1914,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>-13627.5</v>
+        <v>146667.5</v>
       </c>
       <c r="C19" t="n">
-        <v>-1181.621345183696</v>
+        <v>126300</v>
       </c>
       <c r="D19" t="n">
-        <v>-8469.177971205161</v>
+        <v>-113428.2830872314</v>
       </c>
       <c r="E19" t="n">
-        <v>-23278.29931638886</v>
+        <v>159539.2169127686</v>
       </c>
     </row>
     <row r="20">
@@ -1931,16 +1931,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>13627.5</v>
+        <v>163922.5</v>
       </c>
       <c r="C20" t="n">
-        <v>13879.53052755015</v>
+        <v>141300</v>
       </c>
       <c r="D20" t="n">
-        <v>-9351.257683227344</v>
+        <v>-163428.2830872314</v>
       </c>
       <c r="E20" t="n">
-        <v>18155.7728443228</v>
+        <v>141794.2169127686</v>
       </c>
     </row>
     <row r="21">
@@ -1948,16 +1948,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>40882.5</v>
+        <v>181177.5</v>
       </c>
       <c r="C21" t="n">
-        <v>28940.68240028375</v>
+        <v>156300</v>
       </c>
       <c r="D21" t="n">
-        <v>-9905.685889716051</v>
+        <v>-213428.2830872314</v>
       </c>
       <c r="E21" t="n">
-        <v>59917.4965105677</v>
+        <v>124049.2169127686</v>
       </c>
     </row>
     <row r="22">
@@ -1965,16 +1965,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>68137.5</v>
+        <v>198432.5</v>
       </c>
       <c r="C22" t="n">
-        <v>44001.83427301748</v>
+        <v>171300</v>
       </c>
       <c r="D22" t="n">
-        <v>-10248.24377401993</v>
+        <v>-263428.2830872314</v>
       </c>
       <c r="E22" t="n">
-        <v>101891.0904989976</v>
+        <v>106304.2169127686</v>
       </c>
     </row>
     <row r="23">
@@ -1982,16 +1982,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>95392.5</v>
+        <v>215687.5</v>
       </c>
       <c r="C23" t="n">
-        <v>59062.98614575132</v>
+        <v>186300</v>
       </c>
       <c r="D23" t="n">
-        <v>-10456.46795510655</v>
+        <v>-313428.2830872314</v>
       </c>
       <c r="E23" t="n">
-        <v>143999.0181906448</v>
+        <v>88559.21691276861</v>
       </c>
     </row>
     <row r="24">
@@ -1999,16 +1999,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>122647.5</v>
+        <v>232942.5</v>
       </c>
       <c r="C24" t="n">
-        <v>74124.13801848493</v>
+        <v>201300</v>
       </c>
       <c r="D24" t="n">
-        <v>-10581.09772024775</v>
+        <v>-363428.2830872314</v>
       </c>
       <c r="E24" t="n">
-        <v>186190.5402982372</v>
+        <v>70814.21691276861</v>
       </c>
     </row>
     <row r="25">
@@ -2016,16 +2016,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>149902.5</v>
+        <v>250197.5</v>
       </c>
       <c r="C25" t="n">
-        <v>89185.28989121865</v>
+        <v>216300</v>
       </c>
       <c r="D25" t="n">
-        <v>-10654.61686777804</v>
+        <v>-413428.2830872314</v>
       </c>
       <c r="E25" t="n">
-        <v>228433.1730234406</v>
+        <v>53069.21691276861</v>
       </c>
     </row>
     <row r="26">
@@ -2033,16 +2033,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>177157.5</v>
+        <v>267452.5</v>
       </c>
       <c r="C26" t="n">
-        <v>104246.4417639524</v>
+        <v>231300</v>
       </c>
       <c r="D26" t="n">
-        <v>-10697.39869694326</v>
+        <v>-463428.2830872314</v>
       </c>
       <c r="E26" t="n">
-        <v>270706.5430670091</v>
+        <v>35324.21691276861</v>
       </c>
     </row>
     <row r="27">
@@ -2050,16 +2050,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>204412.5</v>
+        <v>284707.5</v>
       </c>
       <c r="C27" t="n">
-        <v>119307.5936366861</v>
+        <v>246300</v>
       </c>
       <c r="D27" t="n">
-        <v>-10721.97859504748</v>
+        <v>-513428.2830872314</v>
       </c>
       <c r="E27" t="n">
-        <v>312998.1150416386</v>
+        <v>17579.21691276861</v>
       </c>
     </row>
     <row r="28">
@@ -2067,16 +2067,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>231667.5</v>
+        <v>301962.5</v>
       </c>
       <c r="C28" t="n">
-        <v>134368.7455094198</v>
+        <v>261300</v>
       </c>
       <c r="D28" t="n">
-        <v>-10735.93356937341</v>
+        <v>-563428.2830872313</v>
       </c>
       <c r="E28" t="n">
-        <v>355300.3119400464</v>
+        <v>-165.7830872313352</v>
       </c>
     </row>
     <row r="29">
@@ -2084,16 +2084,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>258922.5</v>
+        <v>319217.5</v>
       </c>
       <c r="C29" t="n">
-        <v>149429.8973821535</v>
+        <v>276300</v>
       </c>
       <c r="D29" t="n">
-        <v>-10743.76885503426</v>
+        <v>-613428.2830872313</v>
       </c>
       <c r="E29" t="n">
-        <v>397608.6285271193</v>
+        <v>-17910.78308723134</v>
       </c>
     </row>
     <row r="30">
@@ -2101,16 +2101,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>286177.5</v>
+        <v>336472.5</v>
       </c>
       <c r="C30" t="n">
-        <v>164491.0492548873</v>
+        <v>291300</v>
       </c>
       <c r="D30" t="n">
-        <v>-10748.12284246232</v>
+        <v>-663428.2830872313</v>
       </c>
       <c r="E30" t="n">
-        <v>439920.4264124249</v>
+        <v>-35655.78308723134</v>
       </c>
     </row>
     <row r="31">
@@ -2118,16 +2118,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>313432.5</v>
+        <v>353727.5</v>
       </c>
       <c r="C31" t="n">
-        <v>179552.2011276211</v>
+        <v>306300</v>
       </c>
       <c r="D31" t="n">
-        <v>-10750.51911784335</v>
+        <v>-713428.2830872313</v>
       </c>
       <c r="E31" t="n">
-        <v>482234.1820097778</v>
+        <v>-53400.78308723134</v>
       </c>
     </row>
     <row r="32">
@@ -2135,16 +2135,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>340687.5</v>
+        <v>370982.5</v>
       </c>
       <c r="C32" t="n">
-        <v>194613.3530003547</v>
+        <v>321300</v>
       </c>
       <c r="D32" t="n">
-        <v>-10751.82617789413</v>
+        <v>-763428.2830872313</v>
       </c>
       <c r="E32" t="n">
-        <v>524549.0268224606</v>
+        <v>-71145.78308723134</v>
       </c>
     </row>
   </sheetData>
@@ -2198,16 +2198,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-476962.5</v>
+        <v>-146667.5</v>
       </c>
       <c r="C2" t="n">
-        <v>-258559.2403763151</v>
+        <v>-128700</v>
       </c>
       <c r="D2" t="n">
-        <v>626842.018022723</v>
+        <v>586571.7169127685</v>
       </c>
       <c r="E2" t="n">
-        <v>-108679.722353592</v>
+        <v>311204.2169127685</v>
       </c>
     </row>
     <row r="3">
@@ -2215,16 +2215,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-449707.5</v>
+        <v>-129412.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-243551.6099913677</v>
+        <v>-113700</v>
       </c>
       <c r="D3" t="n">
-        <v>527354.7771031142</v>
+        <v>486571.7169127686</v>
       </c>
       <c r="E3" t="n">
-        <v>-165904.3328882535</v>
+        <v>243459.2169127686</v>
       </c>
     </row>
     <row r="4">
@@ -2232,16 +2232,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-422452.5</v>
+        <v>-112157.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-228543.9796064204</v>
+        <v>-98700</v>
       </c>
       <c r="D4" t="n">
-        <v>429214.1872081954</v>
+        <v>386571.7169127686</v>
       </c>
       <c r="E4" t="n">
-        <v>-221782.2923982249</v>
+        <v>175714.2169127686</v>
       </c>
     </row>
     <row r="5">
@@ -2249,16 +2249,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-395197.5</v>
+        <v>-94902.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-213536.349221473</v>
+        <v>-83700</v>
       </c>
       <c r="D5" t="n">
-        <v>335035.675377209</v>
+        <v>286571.7169127686</v>
       </c>
       <c r="E5" t="n">
-        <v>-273698.173844264</v>
+        <v>107969.2169127686</v>
       </c>
     </row>
     <row r="6">
@@ -2266,16 +2266,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-367942.5</v>
+        <v>-77647.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-198528.7188365255</v>
+        <v>-68700</v>
       </c>
       <c r="D6" t="n">
-        <v>249545.2830341993</v>
+        <v>186571.7169127686</v>
       </c>
       <c r="E6" t="n">
-        <v>-316925.9358023262</v>
+        <v>40224.21691276861</v>
       </c>
     </row>
     <row r="7">
@@ -2283,16 +2283,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-340687.5</v>
+        <v>-60392.5</v>
       </c>
       <c r="C7" t="n">
-        <v>-183521.0884515782</v>
+        <v>-53700</v>
       </c>
       <c r="D7" t="n">
-        <v>177850.0975056065</v>
+        <v>86571.71691276861</v>
       </c>
       <c r="E7" t="n">
-        <v>-346358.4909459716</v>
+        <v>-27520.78308723139</v>
       </c>
     </row>
     <row r="8">
@@ -2300,16 +2300,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-313432.5</v>
+        <v>-43137.5</v>
       </c>
       <c r="C8" t="n">
-        <v>-168513.4580666308</v>
+        <v>-38700</v>
       </c>
       <c r="D8" t="n">
-        <v>122335.9484489001</v>
+        <v>36571.71691276861</v>
       </c>
       <c r="E8" t="n">
-        <v>-359610.0096177306</v>
+        <v>-45265.78308723139</v>
       </c>
     </row>
     <row r="9">
@@ -2317,16 +2317,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-286177.5</v>
+        <v>-25882.5</v>
       </c>
       <c r="C9" t="n">
-        <v>-153505.8276816834</v>
+        <v>-23700</v>
       </c>
       <c r="D9" t="n">
-        <v>81593.15697660897</v>
+        <v>-13428.28308723139</v>
       </c>
       <c r="E9" t="n">
-        <v>-358090.1707050744</v>
+        <v>-63010.78308723139</v>
       </c>
     </row>
     <row r="10">
@@ -2334,16 +2334,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-258922.5</v>
+        <v>-8627.5</v>
       </c>
       <c r="C10" t="n">
-        <v>-138498.197296736</v>
+        <v>-8700</v>
       </c>
       <c r="D10" t="n">
-        <v>52264.56979898463</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E10" t="n">
-        <v>-345156.1274977514</v>
+        <v>-80755.78308723139</v>
       </c>
     </row>
     <row r="11">
@@ -2351,16 +2351,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-231667.5</v>
+        <v>8627.5</v>
       </c>
       <c r="C11" t="n">
-        <v>-123490.5669117885</v>
+        <v>6300</v>
       </c>
       <c r="D11" t="n">
-        <v>31234.0621298418</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E11" t="n">
-        <v>-323924.0047819468</v>
+        <v>-48500.78308723139</v>
       </c>
     </row>
     <row r="12">
@@ -2368,16 +2368,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-204412.5</v>
+        <v>25882.5</v>
       </c>
       <c r="C12" t="n">
-        <v>-108482.9365268413</v>
+        <v>21300</v>
       </c>
       <c r="D12" t="n">
-        <v>16342.17093744387</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E12" t="n">
-        <v>-296553.2655893974</v>
+        <v>-16245.78308723139</v>
       </c>
     </row>
     <row r="13">
@@ -2385,16 +2385,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-177157.5</v>
+        <v>43137.5</v>
       </c>
       <c r="C13" t="n">
-        <v>-93475.30614189373</v>
+        <v>36300</v>
       </c>
       <c r="D13" t="n">
-        <v>6099.368166380895</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E13" t="n">
-        <v>-264533.4379755128</v>
+        <v>16009.21691276861</v>
       </c>
     </row>
     <row r="14">
@@ -2402,16 +2402,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-149902.5</v>
+        <v>60392.5</v>
       </c>
       <c r="C14" t="n">
-        <v>-78467.67575694644</v>
+        <v>51300</v>
       </c>
       <c r="D14" t="n">
-        <v>-667.772968789634</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E14" t="n">
-        <v>-229037.9487257361</v>
+        <v>48264.21691276861</v>
       </c>
     </row>
     <row r="15">
@@ -2419,16 +2419,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-122647.5</v>
+        <v>77647.5</v>
       </c>
       <c r="C15" t="n">
-        <v>-63460.04537199903</v>
+        <v>66300</v>
       </c>
       <c r="D15" t="n">
-        <v>-4944.379450908438</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E15" t="n">
-        <v>-191051.9248229075</v>
+        <v>80519.21691276861</v>
       </c>
     </row>
     <row r="16">
@@ -2436,16 +2436,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-95392.5</v>
+        <v>94902.5</v>
       </c>
       <c r="C16" t="n">
-        <v>-48452.41498705163</v>
+        <v>81300</v>
       </c>
       <c r="D16" t="n">
-        <v>-7529.505883780841</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E16" t="n">
-        <v>-151374.4208708325</v>
+        <v>112774.2169127686</v>
       </c>
     </row>
     <row r="17">
@@ -2453,16 +2453,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-68137.5</v>
+        <v>112157.5</v>
       </c>
       <c r="C17" t="n">
-        <v>-33444.78460210422</v>
+        <v>96300</v>
       </c>
       <c r="D17" t="n">
-        <v>-9026.707346378744</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E17" t="n">
-        <v>-110608.991948483</v>
+        <v>145029.2169127686</v>
       </c>
     </row>
     <row r="18">
@@ -2470,16 +2470,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-40882.5</v>
+        <v>129412.5</v>
       </c>
       <c r="C18" t="n">
-        <v>-18437.15421715681</v>
+        <v>111300</v>
       </c>
       <c r="D18" t="n">
-        <v>-9859.365677246693</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E18" t="n">
-        <v>-69179.01989440351</v>
+        <v>177284.2169127686</v>
       </c>
     </row>
     <row r="19">
@@ -2487,16 +2487,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>-13627.5</v>
+        <v>146667.5</v>
       </c>
       <c r="C19" t="n">
-        <v>-3429.523832209408</v>
+        <v>126300</v>
       </c>
       <c r="D19" t="n">
-        <v>-10305.09328847933</v>
+        <v>-113428.2830872314</v>
       </c>
       <c r="E19" t="n">
-        <v>-27362.11712068874</v>
+        <v>159539.2169127686</v>
       </c>
     </row>
     <row r="20">
@@ -2504,16 +2504,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>13627.5</v>
+        <v>163922.5</v>
       </c>
       <c r="C20" t="n">
-        <v>11578.106552738</v>
+        <v>141300</v>
       </c>
       <c r="D20" t="n">
-        <v>-10535.29437293764</v>
+        <v>-163428.2830872314</v>
       </c>
       <c r="E20" t="n">
-        <v>14670.31217980035</v>
+        <v>141794.2169127686</v>
       </c>
     </row>
     <row r="21">
@@ -2521,16 +2521,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>40882.5</v>
+        <v>181177.5</v>
       </c>
       <c r="C21" t="n">
-        <v>26585.73693768529</v>
+        <v>156300</v>
       </c>
       <c r="D21" t="n">
-        <v>-10650.25966700089</v>
+        <v>-213428.2830872314</v>
       </c>
       <c r="E21" t="n">
-        <v>56817.9772706844</v>
+        <v>124049.2169127686</v>
       </c>
     </row>
     <row r="22">
@@ -2538,16 +2538,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>68137.5</v>
+        <v>198432.5</v>
       </c>
       <c r="C22" t="n">
-        <v>41593.36732263281</v>
+        <v>171300</v>
       </c>
       <c r="D22" t="n">
-        <v>-10705.90023581015</v>
+        <v>-263428.2830872314</v>
       </c>
       <c r="E22" t="n">
-        <v>99024.96708682265</v>
+        <v>106304.2169127686</v>
       </c>
     </row>
     <row r="23">
@@ -2555,16 +2555,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>95392.5</v>
+        <v>215687.5</v>
       </c>
       <c r="C23" t="n">
-        <v>56600.9977075801</v>
+        <v>186300</v>
       </c>
       <c r="D23" t="n">
-        <v>-10732.0506407641</v>
+        <v>-313428.2830872314</v>
       </c>
       <c r="E23" t="n">
-        <v>141261.447066816</v>
+        <v>88559.21691276861</v>
       </c>
     </row>
     <row r="24">
@@ -2572,16 +2572,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>122647.5</v>
+        <v>232942.5</v>
       </c>
       <c r="C24" t="n">
-        <v>71608.62809252762</v>
+        <v>201300</v>
       </c>
       <c r="D24" t="n">
-        <v>-10744.00909100515</v>
+        <v>-363428.2830872314</v>
       </c>
       <c r="E24" t="n">
-        <v>183512.1190015225</v>
+        <v>70814.21691276861</v>
       </c>
     </row>
     <row r="25">
@@ -2589,16 +2589,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>149902.5</v>
+        <v>250197.5</v>
       </c>
       <c r="C25" t="n">
-        <v>86616.25847747491</v>
+        <v>216300</v>
       </c>
       <c r="D25" t="n">
-        <v>-10749.33973150524</v>
+        <v>-413428.2830872314</v>
       </c>
       <c r="E25" t="n">
-        <v>225769.4187459697</v>
+        <v>53069.21691276861</v>
       </c>
     </row>
     <row r="26">
@@ -2606,16 +2606,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>177157.5</v>
+        <v>267452.5</v>
       </c>
       <c r="C26" t="n">
-        <v>101623.8888624223</v>
+        <v>231300</v>
       </c>
       <c r="D26" t="n">
-        <v>-10751.66002042914</v>
+        <v>-463428.2830872314</v>
       </c>
       <c r="E26" t="n">
-        <v>268029.7288419932</v>
+        <v>35324.21691276861</v>
       </c>
     </row>
     <row r="27">
@@ -2623,16 +2623,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>204412.5</v>
+        <v>284707.5</v>
       </c>
       <c r="C27" t="n">
-        <v>116631.5192473697</v>
+        <v>246300</v>
       </c>
       <c r="D27" t="n">
-        <v>-10752.64781474719</v>
+        <v>-513428.2830872314</v>
       </c>
       <c r="E27" t="n">
-        <v>310291.3714326225</v>
+        <v>17579.21691276861</v>
       </c>
     </row>
     <row r="28">
@@ -2640,16 +2640,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>231667.5</v>
+        <v>301962.5</v>
       </c>
       <c r="C28" t="n">
-        <v>131639.1496323171</v>
+        <v>261300</v>
       </c>
       <c r="D28" t="n">
-        <v>-10753.05973380457</v>
+        <v>-563428.2830872313</v>
       </c>
       <c r="E28" t="n">
-        <v>352553.5898985126</v>
+        <v>-165.7830872313352</v>
       </c>
     </row>
     <row r="29">
@@ -2657,16 +2657,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>258922.5</v>
+        <v>319217.5</v>
       </c>
       <c r="C29" t="n">
-        <v>146646.7800172645</v>
+        <v>276300</v>
       </c>
       <c r="D29" t="n">
-        <v>-10753.2282319356</v>
+        <v>-613428.2830872313</v>
       </c>
       <c r="E29" t="n">
-        <v>394816.0517853289</v>
+        <v>-17910.78308723134</v>
       </c>
     </row>
     <row r="30">
@@ -2674,16 +2674,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>286177.5</v>
+        <v>336472.5</v>
       </c>
       <c r="C30" t="n">
-        <v>161654.4104022119</v>
+        <v>291300</v>
       </c>
       <c r="D30" t="n">
-        <v>-10753.29593265608</v>
+        <v>-663428.2830872313</v>
       </c>
       <c r="E30" t="n">
-        <v>437078.6144695558</v>
+        <v>-35655.78308723134</v>
       </c>
     </row>
     <row r="31">
@@ -2691,16 +2691,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>313432.5</v>
+        <v>353727.5</v>
       </c>
       <c r="C31" t="n">
-        <v>176662.0407871592</v>
+        <v>306300</v>
       </c>
       <c r="D31" t="n">
-        <v>-10753.3226840416</v>
+        <v>-713428.2830872313</v>
       </c>
       <c r="E31" t="n">
-        <v>479341.2181031177</v>
+        <v>-53400.78308723134</v>
       </c>
     </row>
     <row r="32">
@@ -2708,16 +2708,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>340687.5</v>
+        <v>370982.5</v>
       </c>
       <c r="C32" t="n">
-        <v>191669.6711721068</v>
+        <v>321300</v>
       </c>
       <c r="D32" t="n">
-        <v>-10753.33309183979</v>
+        <v>-763428.2830872313</v>
       </c>
       <c r="E32" t="n">
-        <v>521603.838080267</v>
+        <v>-71145.78308723134</v>
       </c>
     </row>
   </sheetData>
@@ -2771,16 +2771,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-476962.5</v>
+        <v>-146667.5</v>
       </c>
       <c r="C2" t="n">
-        <v>-258750</v>
+        <v>-128700</v>
       </c>
       <c r="D2" t="n">
-        <v>636028.9264495675</v>
+        <v>586571.7169127685</v>
       </c>
       <c r="E2" t="n">
-        <v>-99683.57355043245</v>
+        <v>311204.2169127685</v>
       </c>
     </row>
     <row r="3">
@@ -2788,16 +2788,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-449707.5</v>
+        <v>-129412.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-243750</v>
+        <v>-113700</v>
       </c>
       <c r="D3" t="n">
-        <v>536029.3104789082</v>
+        <v>486571.7169127686</v>
       </c>
       <c r="E3" t="n">
-        <v>-157428.1895210918</v>
+        <v>243459.2169127686</v>
       </c>
     </row>
     <row r="4">
@@ -2805,16 +2805,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-422452.5</v>
+        <v>-112157.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-228750</v>
+        <v>-98700</v>
       </c>
       <c r="D4" t="n">
-        <v>436035.307534955</v>
+        <v>386571.7169127686</v>
       </c>
       <c r="E4" t="n">
-        <v>-215167.192465045</v>
+        <v>175714.2169127686</v>
       </c>
     </row>
     <row r="5">
@@ -2822,16 +2822,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-395197.5</v>
+        <v>-94902.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-213750</v>
+        <v>-83700</v>
       </c>
       <c r="D5" t="n">
-        <v>336093.4419463041</v>
+        <v>286571.7169127686</v>
       </c>
       <c r="E5" t="n">
-        <v>-272854.0580536959</v>
+        <v>107969.2169127686</v>
       </c>
     </row>
     <row r="6">
@@ -2839,16 +2839,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-367942.5</v>
+        <v>-77647.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-198750</v>
+        <v>-68700</v>
       </c>
       <c r="D6" t="n">
-        <v>236461.7838708377</v>
+        <v>186571.7169127686</v>
       </c>
       <c r="E6" t="n">
-        <v>-330230.7161291623</v>
+        <v>40224.21691276861</v>
       </c>
     </row>
     <row r="7">
@@ -2856,16 +2856,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-340687.5</v>
+        <v>-60392.5</v>
       </c>
       <c r="C7" t="n">
-        <v>-183750</v>
+        <v>-53700</v>
       </c>
       <c r="D7" t="n">
-        <v>138061.0203481453</v>
+        <v>86571.71691276861</v>
       </c>
       <c r="E7" t="n">
-        <v>-386376.4796518547</v>
+        <v>-27520.78308723139</v>
       </c>
     </row>
     <row r="8">
@@ -2873,16 +2873,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-313432.5</v>
+        <v>-43137.5</v>
       </c>
       <c r="C8" t="n">
-        <v>-168750</v>
+        <v>-38700</v>
       </c>
       <c r="D8" t="n">
-        <v>93035.28468729639</v>
+        <v>36571.71691276861</v>
       </c>
       <c r="E8" t="n">
-        <v>-389147.2153127036</v>
+        <v>-45265.78308723139</v>
       </c>
     </row>
     <row r="9">
@@ -2890,16 +2890,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-286177.5</v>
+        <v>-25882.5</v>
       </c>
       <c r="C9" t="n">
-        <v>-153750</v>
+        <v>-23700</v>
       </c>
       <c r="D9" t="n">
-        <v>54608.99406076845</v>
+        <v>-13428.28308723139</v>
       </c>
       <c r="E9" t="n">
-        <v>-385318.5059392315</v>
+        <v>-63010.78308723139</v>
       </c>
     </row>
     <row r="10">
@@ -2907,16 +2907,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-258922.5</v>
+        <v>-8627.5</v>
       </c>
       <c r="C10" t="n">
-        <v>-138750</v>
+        <v>-8700</v>
       </c>
       <c r="D10" t="n">
-        <v>25648.12246936095</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E10" t="n">
-        <v>-372024.3775306391</v>
+        <v>-80755.78308723139</v>
       </c>
     </row>
     <row r="11">
@@ -2924,16 +2924,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-231667.5</v>
+        <v>8627.5</v>
       </c>
       <c r="C11" t="n">
-        <v>-123750</v>
+        <v>6300</v>
       </c>
       <c r="D11" t="n">
-        <v>6900.581902799455</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E11" t="n">
-        <v>-348516.9180972006</v>
+        <v>-48500.78308723139</v>
       </c>
     </row>
     <row r="12">
@@ -2941,16 +2941,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-204412.5</v>
+        <v>25882.5</v>
       </c>
       <c r="C12" t="n">
-        <v>-108750</v>
+        <v>21300</v>
       </c>
       <c r="D12" t="n">
-        <v>-3364.524006955879</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E12" t="n">
-        <v>-316527.0240069559</v>
+        <v>-16245.78308723139</v>
       </c>
     </row>
     <row r="13">
@@ -2958,16 +2958,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-177157.5</v>
+        <v>43137.5</v>
       </c>
       <c r="C13" t="n">
-        <v>-93750</v>
+        <v>36300</v>
       </c>
       <c r="D13" t="n">
-        <v>-8093.513223392398</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E13" t="n">
-        <v>-279001.0132233924</v>
+        <v>16009.21691276861</v>
       </c>
     </row>
     <row r="14">
@@ -2975,16 +2975,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-149902.5</v>
+        <v>60392.5</v>
       </c>
       <c r="C14" t="n">
-        <v>-78750</v>
+        <v>51300</v>
       </c>
       <c r="D14" t="n">
-        <v>-9929.06267685961</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E14" t="n">
-        <v>-238581.5626768596</v>
+        <v>48264.21691276861</v>
       </c>
     </row>
     <row r="15">
@@ -2992,16 +2992,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-122647.5</v>
+        <v>77647.5</v>
       </c>
       <c r="C15" t="n">
-        <v>-63750</v>
+        <v>66300</v>
       </c>
       <c r="D15" t="n">
-        <v>-10532.58783554563</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E15" t="n">
-        <v>-196930.0878355456</v>
+        <v>80519.21691276861</v>
       </c>
     </row>
     <row r="16">
@@ -3009,16 +3009,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-95392.5</v>
+        <v>94902.5</v>
       </c>
       <c r="C16" t="n">
-        <v>-48750</v>
+        <v>81300</v>
       </c>
       <c r="D16" t="n">
-        <v>-10701.95716331492</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E16" t="n">
-        <v>-154844.4571633149</v>
+        <v>112774.2169127686</v>
       </c>
     </row>
     <row r="17">
@@ -3026,16 +3026,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-68137.5</v>
+        <v>112157.5</v>
       </c>
       <c r="C17" t="n">
-        <v>-33750</v>
+        <v>96300</v>
       </c>
       <c r="D17" t="n">
-        <v>-10742.87484641105</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E17" t="n">
-        <v>-112630.3748464111</v>
+        <v>145029.2169127686</v>
       </c>
     </row>
     <row r="18">
@@ -3043,16 +3043,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-40882.5</v>
+        <v>129412.5</v>
       </c>
       <c r="C18" t="n">
-        <v>-18750</v>
+        <v>111300</v>
       </c>
       <c r="D18" t="n">
-        <v>-10751.46113452335</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E18" t="n">
-        <v>-70383.96113452334</v>
+        <v>177284.2169127686</v>
       </c>
     </row>
     <row r="19">
@@ -3060,16 +3060,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>-13627.5</v>
+        <v>146667.5</v>
       </c>
       <c r="C19" t="n">
-        <v>-3750</v>
+        <v>126300</v>
       </c>
       <c r="D19" t="n">
-        <v>-10753.0401363537</v>
+        <v>-113428.2830872314</v>
       </c>
       <c r="E19" t="n">
-        <v>-28130.54013635369</v>
+        <v>159539.2169127686</v>
       </c>
     </row>
     <row r="20">
@@ -3077,16 +3077,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>13627.5</v>
+        <v>163922.5</v>
       </c>
       <c r="C20" t="n">
-        <v>11250</v>
+        <v>141300</v>
       </c>
       <c r="D20" t="n">
-        <v>-10753.29681722753</v>
+        <v>-163428.2830872314</v>
       </c>
       <c r="E20" t="n">
-        <v>14124.20318277247</v>
+        <v>141794.2169127686</v>
       </c>
     </row>
     <row r="21">
@@ -3094,16 +3094,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>40882.5</v>
+        <v>181177.5</v>
       </c>
       <c r="C21" t="n">
-        <v>26250</v>
+        <v>156300</v>
       </c>
       <c r="D21" t="n">
-        <v>-10753.33400694937</v>
+        <v>-213428.2830872314</v>
       </c>
       <c r="E21" t="n">
-        <v>56379.16599305063</v>
+        <v>124049.2169127686</v>
       </c>
     </row>
     <row r="22">
@@ -3111,16 +3111,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>68137.5</v>
+        <v>198432.5</v>
       </c>
       <c r="C22" t="n">
-        <v>41250</v>
+        <v>171300</v>
       </c>
       <c r="D22" t="n">
-        <v>-10753.33884715649</v>
+        <v>-263428.2830872314</v>
       </c>
       <c r="E22" t="n">
-        <v>98634.1611528435</v>
+        <v>106304.2169127686</v>
       </c>
     </row>
     <row r="23">
@@ -3128,16 +3128,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>95392.5</v>
+        <v>215687.5</v>
       </c>
       <c r="C23" t="n">
-        <v>56250</v>
+        <v>186300</v>
       </c>
       <c r="D23" t="n">
-        <v>-10753.33941720007</v>
+        <v>-313428.2830872314</v>
       </c>
       <c r="E23" t="n">
-        <v>140889.1605827999</v>
+        <v>88559.21691276861</v>
       </c>
     </row>
     <row r="24">
@@ -3145,16 +3145,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>122647.5</v>
+        <v>232942.5</v>
       </c>
       <c r="C24" t="n">
-        <v>71250</v>
+        <v>201300</v>
       </c>
       <c r="D24" t="n">
-        <v>-10753.33947837114</v>
+        <v>-363428.2830872314</v>
       </c>
       <c r="E24" t="n">
-        <v>183144.1605216289</v>
+        <v>70814.21691276861</v>
       </c>
     </row>
     <row r="25">
@@ -3162,16 +3162,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>149902.5</v>
+        <v>250197.5</v>
       </c>
       <c r="C25" t="n">
-        <v>86250</v>
+        <v>216300</v>
       </c>
       <c r="D25" t="n">
-        <v>-10753.33948439082</v>
+        <v>-413428.2830872314</v>
       </c>
       <c r="E25" t="n">
-        <v>225399.1605156092</v>
+        <v>53069.21691276861</v>
       </c>
     </row>
     <row r="26">
@@ -3179,16 +3179,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>177157.5</v>
+        <v>267452.5</v>
       </c>
       <c r="C26" t="n">
-        <v>101250</v>
+        <v>231300</v>
       </c>
       <c r="D26" t="n">
-        <v>-10753.33948493725</v>
+        <v>-463428.2830872314</v>
       </c>
       <c r="E26" t="n">
-        <v>267654.1605150627</v>
+        <v>35324.21691276861</v>
       </c>
     </row>
     <row r="27">
@@ -3196,16 +3196,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>204412.5</v>
+        <v>284707.5</v>
       </c>
       <c r="C27" t="n">
-        <v>116250</v>
+        <v>246300</v>
       </c>
       <c r="D27" t="n">
-        <v>-10753.3394849832</v>
+        <v>-513428.2830872314</v>
       </c>
       <c r="E27" t="n">
-        <v>309909.1605150168</v>
+        <v>17579.21691276861</v>
       </c>
     </row>
     <row r="28">
@@ -3213,16 +3213,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>231667.5</v>
+        <v>301962.5</v>
       </c>
       <c r="C28" t="n">
-        <v>131250</v>
+        <v>261300</v>
       </c>
       <c r="D28" t="n">
-        <v>-10753.33948498685</v>
+        <v>-563428.2830872313</v>
       </c>
       <c r="E28" t="n">
-        <v>352164.1605150132</v>
+        <v>-165.7830872313352</v>
       </c>
     </row>
     <row r="29">
@@ -3230,16 +3230,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>258922.5</v>
+        <v>319217.5</v>
       </c>
       <c r="C29" t="n">
-        <v>146250</v>
+        <v>276300</v>
       </c>
       <c r="D29" t="n">
-        <v>-10753.33948498711</v>
+        <v>-613428.2830872313</v>
       </c>
       <c r="E29" t="n">
-        <v>394419.1605150129</v>
+        <v>-17910.78308723134</v>
       </c>
     </row>
     <row r="30">
@@ -3247,16 +3247,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>286177.5</v>
+        <v>336472.5</v>
       </c>
       <c r="C30" t="n">
-        <v>161250</v>
+        <v>291300</v>
       </c>
       <c r="D30" t="n">
-        <v>-10753.33948498702</v>
+        <v>-663428.2830872313</v>
       </c>
       <c r="E30" t="n">
-        <v>436674.160515013</v>
+        <v>-35655.78308723134</v>
       </c>
     </row>
     <row r="31">
@@ -3264,16 +3264,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>313432.5</v>
+        <v>353727.5</v>
       </c>
       <c r="C31" t="n">
-        <v>176250</v>
+        <v>306300</v>
       </c>
       <c r="D31" t="n">
-        <v>-10753.3394849872</v>
+        <v>-713428.2830872313</v>
       </c>
       <c r="E31" t="n">
-        <v>478929.1605150128</v>
+        <v>-53400.78308723134</v>
       </c>
     </row>
     <row r="32">
@@ -3281,16 +3281,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>340687.5</v>
+        <v>370982.5</v>
       </c>
       <c r="C32" t="n">
-        <v>191250</v>
+        <v>321300</v>
       </c>
       <c r="D32" t="n">
-        <v>-10753.3394849872</v>
+        <v>-763428.2830872313</v>
       </c>
       <c r="E32" t="n">
-        <v>521184.1605150128</v>
+        <v>-71145.78308723134</v>
       </c>
     </row>
   </sheetData>
@@ -3344,16 +3344,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-476962.5</v>
+        <v>-146667.5</v>
       </c>
       <c r="C2" t="n">
-        <v>-258750</v>
+        <v>-128700</v>
       </c>
       <c r="D2" t="n">
-        <v>639246.6605150128</v>
+        <v>586571.7169127685</v>
       </c>
       <c r="E2" t="n">
-        <v>-96465.8394849872</v>
+        <v>311204.2169127685</v>
       </c>
     </row>
     <row r="3">
@@ -3361,16 +3361,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-449707.5</v>
+        <v>-129412.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-243750</v>
+        <v>-113700</v>
       </c>
       <c r="D3" t="n">
-        <v>539246.6605150128</v>
+        <v>486571.7169127686</v>
       </c>
       <c r="E3" t="n">
-        <v>-154210.8394849872</v>
+        <v>243459.2169127686</v>
       </c>
     </row>
     <row r="4">
@@ -3378,16 +3378,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-422452.5</v>
+        <v>-112157.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-228750</v>
+        <v>-98700</v>
       </c>
       <c r="D4" t="n">
-        <v>439246.6605150128</v>
+        <v>386571.7169127686</v>
       </c>
       <c r="E4" t="n">
-        <v>-211955.8394849872</v>
+        <v>175714.2169127686</v>
       </c>
     </row>
     <row r="5">
@@ -3395,16 +3395,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-395197.5</v>
+        <v>-94902.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-213750</v>
+        <v>-83700</v>
       </c>
       <c r="D5" t="n">
-        <v>339246.6605150128</v>
+        <v>286571.7169127686</v>
       </c>
       <c r="E5" t="n">
-        <v>-269700.8394849872</v>
+        <v>107969.2169127686</v>
       </c>
     </row>
     <row r="6">
@@ -3412,16 +3412,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-367942.5</v>
+        <v>-77647.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-198750</v>
+        <v>-68700</v>
       </c>
       <c r="D6" t="n">
-        <v>239246.6605150128</v>
+        <v>186571.7169127686</v>
       </c>
       <c r="E6" t="n">
-        <v>-327445.8394849872</v>
+        <v>40224.21691276861</v>
       </c>
     </row>
     <row r="7">
@@ -3429,16 +3429,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-340687.5</v>
+        <v>-60392.5</v>
       </c>
       <c r="C7" t="n">
-        <v>-183750</v>
+        <v>-53700</v>
       </c>
       <c r="D7" t="n">
-        <v>139246.6605150128</v>
+        <v>86571.71691276861</v>
       </c>
       <c r="E7" t="n">
-        <v>-385190.8394849872</v>
+        <v>-27520.78308723139</v>
       </c>
     </row>
     <row r="8">
@@ -3446,16 +3446,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-313432.5</v>
+        <v>-43137.5</v>
       </c>
       <c r="C8" t="n">
-        <v>-168750</v>
+        <v>-38700</v>
       </c>
       <c r="D8" t="n">
-        <v>89246.6605150128</v>
+        <v>36571.71691276861</v>
       </c>
       <c r="E8" t="n">
-        <v>-392935.8394849872</v>
+        <v>-45265.78308723139</v>
       </c>
     </row>
     <row r="9">
@@ -3463,16 +3463,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-286177.5</v>
+        <v>-25882.5</v>
       </c>
       <c r="C9" t="n">
-        <v>-153750</v>
+        <v>-23700</v>
       </c>
       <c r="D9" t="n">
-        <v>39246.6605150128</v>
+        <v>-13428.28308723139</v>
       </c>
       <c r="E9" t="n">
-        <v>-400680.8394849872</v>
+        <v>-63010.78308723139</v>
       </c>
     </row>
     <row r="10">
@@ -3480,16 +3480,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-258922.5</v>
+        <v>-8627.5</v>
       </c>
       <c r="C10" t="n">
-        <v>-138750</v>
+        <v>-8700</v>
       </c>
       <c r="D10" t="n">
-        <v>-10753.3394849872</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E10" t="n">
-        <v>-408425.8394849872</v>
+        <v>-80755.78308723139</v>
       </c>
     </row>
     <row r="11">
@@ -3497,16 +3497,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-231667.5</v>
+        <v>8627.5</v>
       </c>
       <c r="C11" t="n">
-        <v>-123750</v>
+        <v>6300</v>
       </c>
       <c r="D11" t="n">
-        <v>-10753.3394849872</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E11" t="n">
-        <v>-366170.8394849872</v>
+        <v>-48500.78308723139</v>
       </c>
     </row>
     <row r="12">
@@ -3514,16 +3514,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-204412.5</v>
+        <v>25882.5</v>
       </c>
       <c r="C12" t="n">
-        <v>-108750</v>
+        <v>21300</v>
       </c>
       <c r="D12" t="n">
-        <v>-10753.3394849872</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E12" t="n">
-        <v>-323915.8394849872</v>
+        <v>-16245.78308723139</v>
       </c>
     </row>
     <row r="13">
@@ -3531,16 +3531,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-177157.5</v>
+        <v>43137.5</v>
       </c>
       <c r="C13" t="n">
-        <v>-93750</v>
+        <v>36300</v>
       </c>
       <c r="D13" t="n">
-        <v>-10753.3394849872</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E13" t="n">
-        <v>-281660.8394849872</v>
+        <v>16009.21691276861</v>
       </c>
     </row>
     <row r="14">
@@ -3548,16 +3548,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-149902.5</v>
+        <v>60392.5</v>
       </c>
       <c r="C14" t="n">
-        <v>-78750</v>
+        <v>51300</v>
       </c>
       <c r="D14" t="n">
-        <v>-10753.3394849872</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E14" t="n">
-        <v>-239405.8394849872</v>
+        <v>48264.21691276861</v>
       </c>
     </row>
     <row r="15">
@@ -3565,16 +3565,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-122647.5</v>
+        <v>77647.5</v>
       </c>
       <c r="C15" t="n">
-        <v>-63750</v>
+        <v>66300</v>
       </c>
       <c r="D15" t="n">
-        <v>-10753.3394849872</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E15" t="n">
-        <v>-197150.8394849872</v>
+        <v>80519.21691276861</v>
       </c>
     </row>
     <row r="16">
@@ -3582,16 +3582,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-95392.5</v>
+        <v>94902.5</v>
       </c>
       <c r="C16" t="n">
-        <v>-48750</v>
+        <v>81300</v>
       </c>
       <c r="D16" t="n">
-        <v>-10753.3394849872</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E16" t="n">
-        <v>-154895.8394849872</v>
+        <v>112774.2169127686</v>
       </c>
     </row>
     <row r="17">
@@ -3599,16 +3599,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-68137.5</v>
+        <v>112157.5</v>
       </c>
       <c r="C17" t="n">
-        <v>-33750</v>
+        <v>96300</v>
       </c>
       <c r="D17" t="n">
-        <v>-10753.3394849872</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E17" t="n">
-        <v>-112640.8394849872</v>
+        <v>145029.2169127686</v>
       </c>
     </row>
     <row r="18">
@@ -3616,16 +3616,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-40882.5</v>
+        <v>129412.5</v>
       </c>
       <c r="C18" t="n">
-        <v>-18750</v>
+        <v>111300</v>
       </c>
       <c r="D18" t="n">
-        <v>-10753.3394849872</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E18" t="n">
-        <v>-70385.8394849872</v>
+        <v>177284.2169127686</v>
       </c>
     </row>
     <row r="19">
@@ -3633,16 +3633,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>-13627.5</v>
+        <v>146667.5</v>
       </c>
       <c r="C19" t="n">
-        <v>-3750</v>
+        <v>126300</v>
       </c>
       <c r="D19" t="n">
-        <v>-10753.3394849872</v>
+        <v>-113428.2830872314</v>
       </c>
       <c r="E19" t="n">
-        <v>-28130.8394849872</v>
+        <v>159539.2169127686</v>
       </c>
     </row>
     <row r="20">
@@ -3650,16 +3650,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>13627.5</v>
+        <v>163922.5</v>
       </c>
       <c r="C20" t="n">
-        <v>11250</v>
+        <v>141300</v>
       </c>
       <c r="D20" t="n">
-        <v>-10753.3394849872</v>
+        <v>-163428.2830872314</v>
       </c>
       <c r="E20" t="n">
-        <v>14124.1605150128</v>
+        <v>141794.2169127686</v>
       </c>
     </row>
     <row r="21">
@@ -3667,16 +3667,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>40882.5</v>
+        <v>181177.5</v>
       </c>
       <c r="C21" t="n">
-        <v>26250</v>
+        <v>156300</v>
       </c>
       <c r="D21" t="n">
-        <v>-10753.3394849872</v>
+        <v>-213428.2830872314</v>
       </c>
       <c r="E21" t="n">
-        <v>56379.1605150128</v>
+        <v>124049.2169127686</v>
       </c>
     </row>
     <row r="22">
@@ -3684,16 +3684,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>68137.5</v>
+        <v>198432.5</v>
       </c>
       <c r="C22" t="n">
-        <v>41250</v>
+        <v>171300</v>
       </c>
       <c r="D22" t="n">
-        <v>-10753.3394849872</v>
+        <v>-263428.2830872314</v>
       </c>
       <c r="E22" t="n">
-        <v>98634.1605150128</v>
+        <v>106304.2169127686</v>
       </c>
     </row>
     <row r="23">
@@ -3701,16 +3701,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>95392.5</v>
+        <v>215687.5</v>
       </c>
       <c r="C23" t="n">
-        <v>56250</v>
+        <v>186300</v>
       </c>
       <c r="D23" t="n">
-        <v>-10753.3394849872</v>
+        <v>-313428.2830872314</v>
       </c>
       <c r="E23" t="n">
-        <v>140889.1605150128</v>
+        <v>88559.21691276861</v>
       </c>
     </row>
     <row r="24">
@@ -3718,16 +3718,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>122647.5</v>
+        <v>232942.5</v>
       </c>
       <c r="C24" t="n">
-        <v>71250</v>
+        <v>201300</v>
       </c>
       <c r="D24" t="n">
-        <v>-10753.3394849872</v>
+        <v>-363428.2830872314</v>
       </c>
       <c r="E24" t="n">
-        <v>183144.1605150128</v>
+        <v>70814.21691276861</v>
       </c>
     </row>
     <row r="25">
@@ -3735,16 +3735,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>149902.5</v>
+        <v>250197.5</v>
       </c>
       <c r="C25" t="n">
-        <v>86250</v>
+        <v>216300</v>
       </c>
       <c r="D25" t="n">
-        <v>-10753.3394849872</v>
+        <v>-413428.2830872314</v>
       </c>
       <c r="E25" t="n">
-        <v>225399.1605150128</v>
+        <v>53069.21691276861</v>
       </c>
     </row>
     <row r="26">
@@ -3752,16 +3752,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>177157.5</v>
+        <v>267452.5</v>
       </c>
       <c r="C26" t="n">
-        <v>101250</v>
+        <v>231300</v>
       </c>
       <c r="D26" t="n">
-        <v>-10753.3394849872</v>
+        <v>-463428.2830872314</v>
       </c>
       <c r="E26" t="n">
-        <v>267654.1605150128</v>
+        <v>35324.21691276861</v>
       </c>
     </row>
     <row r="27">
@@ -3769,16 +3769,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>204412.5</v>
+        <v>284707.5</v>
       </c>
       <c r="C27" t="n">
-        <v>116250</v>
+        <v>246300</v>
       </c>
       <c r="D27" t="n">
-        <v>-10753.3394849872</v>
+        <v>-513428.2830872314</v>
       </c>
       <c r="E27" t="n">
-        <v>309909.1605150128</v>
+        <v>17579.21691276861</v>
       </c>
     </row>
     <row r="28">
@@ -3786,16 +3786,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>231667.5</v>
+        <v>301962.5</v>
       </c>
       <c r="C28" t="n">
-        <v>131250</v>
+        <v>261300</v>
       </c>
       <c r="D28" t="n">
-        <v>-10753.3394849872</v>
+        <v>-563428.2830872313</v>
       </c>
       <c r="E28" t="n">
-        <v>352164.1605150128</v>
+        <v>-165.7830872313352</v>
       </c>
     </row>
     <row r="29">
@@ -3803,16 +3803,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>258922.5</v>
+        <v>319217.5</v>
       </c>
       <c r="C29" t="n">
-        <v>146250</v>
+        <v>276300</v>
       </c>
       <c r="D29" t="n">
-        <v>-10753.3394849872</v>
+        <v>-613428.2830872313</v>
       </c>
       <c r="E29" t="n">
-        <v>394419.1605150128</v>
+        <v>-17910.78308723134</v>
       </c>
     </row>
     <row r="30">
@@ -3820,16 +3820,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>286177.5</v>
+        <v>336472.5</v>
       </c>
       <c r="C30" t="n">
-        <v>161250</v>
+        <v>291300</v>
       </c>
       <c r="D30" t="n">
-        <v>-10753.3394849872</v>
+        <v>-663428.2830872313</v>
       </c>
       <c r="E30" t="n">
-        <v>436674.1605150128</v>
+        <v>-35655.78308723134</v>
       </c>
     </row>
     <row r="31">
@@ -3837,16 +3837,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>313432.5</v>
+        <v>353727.5</v>
       </c>
       <c r="C31" t="n">
-        <v>176250</v>
+        <v>306300</v>
       </c>
       <c r="D31" t="n">
-        <v>-10753.3394849872</v>
+        <v>-713428.2830872313</v>
       </c>
       <c r="E31" t="n">
-        <v>478929.1605150128</v>
+        <v>-53400.78308723134</v>
       </c>
     </row>
     <row r="32">
@@ -3854,16 +3854,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>340687.5</v>
+        <v>370982.5</v>
       </c>
       <c r="C32" t="n">
-        <v>191250</v>
+        <v>321300</v>
       </c>
       <c r="D32" t="n">
-        <v>-10753.3394849872</v>
+        <v>-763428.2830872313</v>
       </c>
       <c r="E32" t="n">
-        <v>521184.1605150128</v>
+        <v>-71145.78308723134</v>
       </c>
     </row>
   </sheetData>
@@ -3917,16 +3917,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-476962.5</v>
+        <v>-146667.5</v>
       </c>
       <c r="C2" t="n">
-        <v>-258750</v>
+        <v>-128700</v>
       </c>
       <c r="D2" t="n">
-        <v>639246.6605150128</v>
+        <v>586571.7169127685</v>
       </c>
       <c r="E2" t="n">
-        <v>-96465.8394849872</v>
+        <v>311204.2169127685</v>
       </c>
     </row>
     <row r="3">
@@ -3934,16 +3934,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-449707.5</v>
+        <v>-129412.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-243750</v>
+        <v>-113700</v>
       </c>
       <c r="D3" t="n">
-        <v>539246.6605150128</v>
+        <v>486571.7169127686</v>
       </c>
       <c r="E3" t="n">
-        <v>-154210.8394849872</v>
+        <v>243459.2169127686</v>
       </c>
     </row>
     <row r="4">
@@ -3951,16 +3951,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-422452.5</v>
+        <v>-112157.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-228750</v>
+        <v>-98700</v>
       </c>
       <c r="D4" t="n">
-        <v>439246.6605150128</v>
+        <v>386571.7169127686</v>
       </c>
       <c r="E4" t="n">
-        <v>-211955.8394849872</v>
+        <v>175714.2169127686</v>
       </c>
     </row>
     <row r="5">
@@ -3968,16 +3968,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-395197.5</v>
+        <v>-94902.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-213750</v>
+        <v>-83700</v>
       </c>
       <c r="D5" t="n">
-        <v>339246.6605150128</v>
+        <v>286571.7169127686</v>
       </c>
       <c r="E5" t="n">
-        <v>-269700.8394849872</v>
+        <v>107969.2169127686</v>
       </c>
     </row>
     <row r="6">
@@ -3985,16 +3985,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-367942.5</v>
+        <v>-77647.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-198750</v>
+        <v>-68700</v>
       </c>
       <c r="D6" t="n">
-        <v>239246.6605150128</v>
+        <v>186571.7169127686</v>
       </c>
       <c r="E6" t="n">
-        <v>-327445.8394849872</v>
+        <v>40224.21691276861</v>
       </c>
     </row>
     <row r="7">
@@ -4002,16 +4002,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-340687.5</v>
+        <v>-60392.5</v>
       </c>
       <c r="C7" t="n">
-        <v>-183750</v>
+        <v>-53700</v>
       </c>
       <c r="D7" t="n">
-        <v>139246.6605150128</v>
+        <v>86571.71691276861</v>
       </c>
       <c r="E7" t="n">
-        <v>-385190.8394849872</v>
+        <v>-27520.78308723139</v>
       </c>
     </row>
     <row r="8">
@@ -4019,16 +4019,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-313432.5</v>
+        <v>-43137.5</v>
       </c>
       <c r="C8" t="n">
-        <v>-168750</v>
+        <v>-38700</v>
       </c>
       <c r="D8" t="n">
-        <v>89246.6605150128</v>
+        <v>36571.71691276861</v>
       </c>
       <c r="E8" t="n">
-        <v>-392935.8394849872</v>
+        <v>-45265.78308723139</v>
       </c>
     </row>
     <row r="9">
@@ -4036,16 +4036,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-286177.5</v>
+        <v>-25882.5</v>
       </c>
       <c r="C9" t="n">
-        <v>-153750</v>
+        <v>-23700</v>
       </c>
       <c r="D9" t="n">
-        <v>39246.6605150128</v>
+        <v>-13428.28308723139</v>
       </c>
       <c r="E9" t="n">
-        <v>-400680.8394849872</v>
+        <v>-63010.78308723139</v>
       </c>
     </row>
     <row r="10">
@@ -4053,16 +4053,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-258922.5</v>
+        <v>-8627.5</v>
       </c>
       <c r="C10" t="n">
-        <v>-138750</v>
+        <v>-8700</v>
       </c>
       <c r="D10" t="n">
-        <v>-10753.3394849872</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E10" t="n">
-        <v>-408425.8394849872</v>
+        <v>-80755.78308723139</v>
       </c>
     </row>
     <row r="11">
@@ -4070,16 +4070,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-231667.5</v>
+        <v>8627.5</v>
       </c>
       <c r="C11" t="n">
-        <v>-123750</v>
+        <v>6300</v>
       </c>
       <c r="D11" t="n">
-        <v>-10753.3394849872</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E11" t="n">
-        <v>-366170.8394849872</v>
+        <v>-48500.78308723139</v>
       </c>
     </row>
     <row r="12">
@@ -4087,16 +4087,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-204412.5</v>
+        <v>25882.5</v>
       </c>
       <c r="C12" t="n">
-        <v>-108750</v>
+        <v>21300</v>
       </c>
       <c r="D12" t="n">
-        <v>-10753.3394849872</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E12" t="n">
-        <v>-323915.8394849872</v>
+        <v>-16245.78308723139</v>
       </c>
     </row>
     <row r="13">
@@ -4104,16 +4104,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-177157.5</v>
+        <v>43137.5</v>
       </c>
       <c r="C13" t="n">
-        <v>-93750</v>
+        <v>36300</v>
       </c>
       <c r="D13" t="n">
-        <v>-10753.3394849872</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E13" t="n">
-        <v>-281660.8394849872</v>
+        <v>16009.21691276861</v>
       </c>
     </row>
     <row r="14">
@@ -4121,16 +4121,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-149902.5</v>
+        <v>60392.5</v>
       </c>
       <c r="C14" t="n">
-        <v>-78750</v>
+        <v>51300</v>
       </c>
       <c r="D14" t="n">
-        <v>-10753.3394849872</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E14" t="n">
-        <v>-239405.8394849872</v>
+        <v>48264.21691276861</v>
       </c>
     </row>
     <row r="15">
@@ -4138,16 +4138,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-122647.5</v>
+        <v>77647.5</v>
       </c>
       <c r="C15" t="n">
-        <v>-63750</v>
+        <v>66300</v>
       </c>
       <c r="D15" t="n">
-        <v>-10753.3394849872</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E15" t="n">
-        <v>-197150.8394849872</v>
+        <v>80519.21691276861</v>
       </c>
     </row>
     <row r="16">
@@ -4155,16 +4155,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-95392.5</v>
+        <v>94902.5</v>
       </c>
       <c r="C16" t="n">
-        <v>-48750</v>
+        <v>81300</v>
       </c>
       <c r="D16" t="n">
-        <v>-10753.3394849872</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E16" t="n">
-        <v>-154895.8394849872</v>
+        <v>112774.2169127686</v>
       </c>
     </row>
     <row r="17">
@@ -4172,16 +4172,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-68137.5</v>
+        <v>112157.5</v>
       </c>
       <c r="C17" t="n">
-        <v>-33750</v>
+        <v>96300</v>
       </c>
       <c r="D17" t="n">
-        <v>-10753.3394849872</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E17" t="n">
-        <v>-112640.8394849872</v>
+        <v>145029.2169127686</v>
       </c>
     </row>
     <row r="18">
@@ -4189,16 +4189,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-40882.5</v>
+        <v>129412.5</v>
       </c>
       <c r="C18" t="n">
-        <v>-18750</v>
+        <v>111300</v>
       </c>
       <c r="D18" t="n">
-        <v>-10753.3394849872</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E18" t="n">
-        <v>-70385.8394849872</v>
+        <v>177284.2169127686</v>
       </c>
     </row>
     <row r="19">
@@ -4206,16 +4206,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>-13627.5</v>
+        <v>146667.5</v>
       </c>
       <c r="C19" t="n">
-        <v>-3750</v>
+        <v>126300</v>
       </c>
       <c r="D19" t="n">
-        <v>-10753.3394849872</v>
+        <v>-113428.2830872314</v>
       </c>
       <c r="E19" t="n">
-        <v>-28130.8394849872</v>
+        <v>159539.2169127686</v>
       </c>
     </row>
     <row r="20">
@@ -4223,16 +4223,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>13627.5</v>
+        <v>163922.5</v>
       </c>
       <c r="C20" t="n">
-        <v>11250</v>
+        <v>141300</v>
       </c>
       <c r="D20" t="n">
-        <v>-10753.3394849872</v>
+        <v>-163428.2830872314</v>
       </c>
       <c r="E20" t="n">
-        <v>14124.1605150128</v>
+        <v>141794.2169127686</v>
       </c>
     </row>
     <row r="21">
@@ -4240,16 +4240,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>40882.5</v>
+        <v>181177.5</v>
       </c>
       <c r="C21" t="n">
-        <v>26250</v>
+        <v>156300</v>
       </c>
       <c r="D21" t="n">
-        <v>-10753.3394849872</v>
+        <v>-213428.2830872314</v>
       </c>
       <c r="E21" t="n">
-        <v>56379.1605150128</v>
+        <v>124049.2169127686</v>
       </c>
     </row>
     <row r="22">
@@ -4257,16 +4257,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>68137.5</v>
+        <v>198432.5</v>
       </c>
       <c r="C22" t="n">
-        <v>41250</v>
+        <v>171300</v>
       </c>
       <c r="D22" t="n">
-        <v>-10753.3394849872</v>
+        <v>-263428.2830872314</v>
       </c>
       <c r="E22" t="n">
-        <v>98634.1605150128</v>
+        <v>106304.2169127686</v>
       </c>
     </row>
     <row r="23">
@@ -4274,16 +4274,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>95392.5</v>
+        <v>215687.5</v>
       </c>
       <c r="C23" t="n">
-        <v>56250</v>
+        <v>186300</v>
       </c>
       <c r="D23" t="n">
-        <v>-10753.3394849872</v>
+        <v>-313428.2830872314</v>
       </c>
       <c r="E23" t="n">
-        <v>140889.1605150128</v>
+        <v>88559.21691276861</v>
       </c>
     </row>
     <row r="24">
@@ -4291,16 +4291,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>122647.5</v>
+        <v>232942.5</v>
       </c>
       <c r="C24" t="n">
-        <v>71250</v>
+        <v>201300</v>
       </c>
       <c r="D24" t="n">
-        <v>-10753.3394849872</v>
+        <v>-363428.2830872314</v>
       </c>
       <c r="E24" t="n">
-        <v>183144.1605150128</v>
+        <v>70814.21691276861</v>
       </c>
     </row>
     <row r="25">
@@ -4308,16 +4308,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>149902.5</v>
+        <v>250197.5</v>
       </c>
       <c r="C25" t="n">
-        <v>86250</v>
+        <v>216300</v>
       </c>
       <c r="D25" t="n">
-        <v>-10753.3394849872</v>
+        <v>-413428.2830872314</v>
       </c>
       <c r="E25" t="n">
-        <v>225399.1605150128</v>
+        <v>53069.21691276861</v>
       </c>
     </row>
     <row r="26">
@@ -4325,16 +4325,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>177157.5</v>
+        <v>267452.5</v>
       </c>
       <c r="C26" t="n">
-        <v>101250</v>
+        <v>231300</v>
       </c>
       <c r="D26" t="n">
-        <v>-10753.3394849872</v>
+        <v>-463428.2830872314</v>
       </c>
       <c r="E26" t="n">
-        <v>267654.1605150128</v>
+        <v>35324.21691276861</v>
       </c>
     </row>
     <row r="27">
@@ -4342,16 +4342,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>204412.5</v>
+        <v>284707.5</v>
       </c>
       <c r="C27" t="n">
-        <v>116250</v>
+        <v>246300</v>
       </c>
       <c r="D27" t="n">
-        <v>-10753.3394849872</v>
+        <v>-513428.2830872314</v>
       </c>
       <c r="E27" t="n">
-        <v>309909.1605150128</v>
+        <v>17579.21691276861</v>
       </c>
     </row>
     <row r="28">
@@ -4359,16 +4359,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>231667.5</v>
+        <v>301962.5</v>
       </c>
       <c r="C28" t="n">
-        <v>131250</v>
+        <v>261300</v>
       </c>
       <c r="D28" t="n">
-        <v>-10753.3394849872</v>
+        <v>-563428.2830872313</v>
       </c>
       <c r="E28" t="n">
-        <v>352164.1605150128</v>
+        <v>-165.7830872313352</v>
       </c>
     </row>
     <row r="29">
@@ -4376,16 +4376,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>258922.5</v>
+        <v>319217.5</v>
       </c>
       <c r="C29" t="n">
-        <v>146250</v>
+        <v>276300</v>
       </c>
       <c r="D29" t="n">
-        <v>-10753.3394849872</v>
+        <v>-613428.2830872313</v>
       </c>
       <c r="E29" t="n">
-        <v>394419.1605150128</v>
+        <v>-17910.78308723134</v>
       </c>
     </row>
     <row r="30">
@@ -4393,16 +4393,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>286177.5</v>
+        <v>336472.5</v>
       </c>
       <c r="C30" t="n">
-        <v>161250</v>
+        <v>291300</v>
       </c>
       <c r="D30" t="n">
-        <v>-10753.3394849872</v>
+        <v>-663428.2830872313</v>
       </c>
       <c r="E30" t="n">
-        <v>436674.1605150128</v>
+        <v>-35655.78308723134</v>
       </c>
     </row>
     <row r="31">
@@ -4410,16 +4410,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>313432.5</v>
+        <v>353727.5</v>
       </c>
       <c r="C31" t="n">
-        <v>176250</v>
+        <v>306300</v>
       </c>
       <c r="D31" t="n">
-        <v>-10753.3394849872</v>
+        <v>-713428.2830872313</v>
       </c>
       <c r="E31" t="n">
-        <v>478929.1605150128</v>
+        <v>-53400.78308723134</v>
       </c>
     </row>
     <row r="32">
@@ -4427,16 +4427,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>340687.5</v>
+        <v>370982.5</v>
       </c>
       <c r="C32" t="n">
-        <v>191250</v>
+        <v>321300</v>
       </c>
       <c r="D32" t="n">
-        <v>-10753.3394849872</v>
+        <v>-763428.2830872313</v>
       </c>
       <c r="E32" t="n">
-        <v>521184.1605150128</v>
+        <v>-71145.78308723134</v>
       </c>
     </row>
   </sheetData>
@@ -4490,16 +4490,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-476962.5</v>
+        <v>-146667.5</v>
       </c>
       <c r="C2" t="n">
-        <v>-255012.632068851</v>
+        <v>-128700</v>
       </c>
       <c r="D2" t="n">
-        <v>612174.6219015444</v>
+        <v>586571.7169127685</v>
       </c>
       <c r="E2" t="n">
-        <v>-119800.5101673066</v>
+        <v>311204.2169127685</v>
       </c>
     </row>
     <row r="3">
@@ -4507,16 +4507,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-449707.5</v>
+        <v>-129412.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-239863.1373516051</v>
+        <v>-113700</v>
       </c>
       <c r="D3" t="n">
-        <v>524082.7539422412</v>
+        <v>486571.7169127686</v>
       </c>
       <c r="E3" t="n">
-        <v>-165487.8834093639</v>
+        <v>243459.2169127686</v>
       </c>
     </row>
     <row r="4">
@@ -4524,16 +4524,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-422452.5</v>
+        <v>-112157.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-224713.6426343591</v>
+        <v>-98700</v>
       </c>
       <c r="D4" t="n">
-        <v>441795.5746725669</v>
+        <v>386571.7169127686</v>
       </c>
       <c r="E4" t="n">
-        <v>-205370.5679617923</v>
+        <v>175714.2169127686</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-395197.5</v>
+        <v>-94902.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-209564.1479171132</v>
+        <v>-83700</v>
       </c>
       <c r="D5" t="n">
-        <v>366492.5327033572</v>
+        <v>286571.7169127686</v>
       </c>
       <c r="E5" t="n">
-        <v>-238269.1152137559</v>
+        <v>107969.2169127686</v>
       </c>
     </row>
     <row r="6">
@@ -4558,16 +4558,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-367942.5</v>
+        <v>-77647.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-194414.6531998672</v>
+        <v>-68700</v>
       </c>
       <c r="D6" t="n">
-        <v>299052.4582936443</v>
+        <v>186571.7169127686</v>
       </c>
       <c r="E6" t="n">
-        <v>-263304.6949062228</v>
+        <v>40224.21691276861</v>
       </c>
     </row>
     <row r="7">
@@ -4575,16 +4575,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-340687.5</v>
+        <v>-60392.5</v>
       </c>
       <c r="C7" t="n">
-        <v>-179265.1584826212</v>
+        <v>-53700</v>
       </c>
       <c r="D7" t="n">
-        <v>239959.1408629632</v>
+        <v>86571.71691276861</v>
       </c>
       <c r="E7" t="n">
-        <v>-279993.5176196581</v>
+        <v>-27520.78308723139</v>
       </c>
     </row>
     <row r="8">
@@ -4592,16 +4592,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-313432.5</v>
+        <v>-43137.5</v>
       </c>
       <c r="C8" t="n">
-        <v>-164115.6637653753</v>
+        <v>-38700</v>
       </c>
       <c r="D8" t="n">
-        <v>189277.7053587975</v>
+        <v>36571.71691276861</v>
       </c>
       <c r="E8" t="n">
-        <v>-288270.4584065777</v>
+        <v>-45265.78308723139</v>
       </c>
     </row>
     <row r="9">
@@ -4609,16 +4609,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-286177.5</v>
+        <v>-25882.5</v>
       </c>
       <c r="C9" t="n">
-        <v>-148966.1690481293</v>
+        <v>-23700</v>
       </c>
       <c r="D9" t="n">
-        <v>146694.7135120962</v>
+        <v>-13428.28308723139</v>
       </c>
       <c r="E9" t="n">
-        <v>-288448.9555360331</v>
+        <v>-63010.78308723139</v>
       </c>
     </row>
     <row r="10">
@@ -4626,16 +4626,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-258922.5</v>
+        <v>-8627.5</v>
       </c>
       <c r="C10" t="n">
-        <v>-133816.6743308833</v>
+        <v>-8700</v>
       </c>
       <c r="D10" t="n">
-        <v>111601.343612993</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E10" t="n">
-        <v>-281137.8307178903</v>
+        <v>-80755.78308723139</v>
       </c>
     </row>
     <row r="11">
@@ -4643,16 +4643,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-231667.5</v>
+        <v>8627.5</v>
       </c>
       <c r="C11" t="n">
-        <v>-118667.1796136373</v>
+        <v>6300</v>
       </c>
       <c r="D11" t="n">
-        <v>83194.98893749629</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E11" t="n">
-        <v>-267139.6906761411</v>
+        <v>-48500.78308723139</v>
       </c>
     </row>
     <row r="12">
@@ -4660,16 +4660,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-204412.5</v>
+        <v>25882.5</v>
       </c>
       <c r="C12" t="n">
-        <v>-103517.6848963915</v>
+        <v>21300</v>
       </c>
       <c r="D12" t="n">
-        <v>60578.17904933383</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E12" t="n">
-        <v>-247352.0058470576</v>
+        <v>-16245.78308723139</v>
       </c>
     </row>
     <row r="13">
@@ -4677,16 +4677,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-177157.5</v>
+        <v>43137.5</v>
       </c>
       <c r="C13" t="n">
-        <v>-88368.19017914543</v>
+        <v>36300</v>
       </c>
       <c r="D13" t="n">
-        <v>42841.08511875975</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E13" t="n">
-        <v>-222684.6050603857</v>
+        <v>16009.21691276861</v>
       </c>
     </row>
     <row r="14">
@@ -4694,16 +4694,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-149902.5</v>
+        <v>60392.5</v>
       </c>
       <c r="C14" t="n">
-        <v>-73218.69546189951</v>
+        <v>51300</v>
       </c>
       <c r="D14" t="n">
-        <v>29121.56678691335</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E14" t="n">
-        <v>-193999.6286749862</v>
+        <v>48264.21691276861</v>
       </c>
     </row>
     <row r="15">
@@ -4711,16 +4711,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-122647.5</v>
+        <v>77647.5</v>
       </c>
       <c r="C15" t="n">
-        <v>-58069.20074465359</v>
+        <v>66300</v>
       </c>
       <c r="D15" t="n">
-        <v>18642.67209455988</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E15" t="n">
-        <v>-162074.0286500937</v>
+        <v>80519.21691276861</v>
       </c>
     </row>
     <row r="16">
@@ -4728,16 +4728,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-95392.5</v>
+        <v>94902.5</v>
       </c>
       <c r="C16" t="n">
-        <v>-42919.70602740766</v>
+        <v>81300</v>
       </c>
       <c r="D16" t="n">
-        <v>10731.04736200029</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E16" t="n">
-        <v>-127581.1586654074</v>
+        <v>112774.2169127686</v>
       </c>
     </row>
     <row r="17">
@@ -4745,16 +4745,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-68137.5</v>
+        <v>112157.5</v>
       </c>
       <c r="C17" t="n">
-        <v>-27770.21131016163</v>
+        <v>96300</v>
       </c>
       <c r="D17" t="n">
-        <v>4821.129240013864</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E17" t="n">
-        <v>-91086.58207014776</v>
+        <v>145029.2169127686</v>
       </c>
     </row>
     <row r="18">
@@ -4762,16 +4762,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-40882.5</v>
+        <v>129412.5</v>
       </c>
       <c r="C18" t="n">
-        <v>-12620.71659291559</v>
+        <v>111300</v>
       </c>
       <c r="D18" t="n">
-        <v>449.9543251535509</v>
+        <v>-63428.28308723139</v>
       </c>
       <c r="E18" t="n">
-        <v>-53053.26226776204</v>
+        <v>177284.2169127686</v>
       </c>
     </row>
     <row r="19">
@@ -4779,16 +4779,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>-13627.5</v>
+        <v>146667.5</v>
       </c>
       <c r="C19" t="n">
-        <v>2528.778124330333</v>
+        <v>126300</v>
       </c>
       <c r="D19" t="n">
-        <v>-2753.378276961699</v>
+        <v>-113428.2830872314</v>
       </c>
       <c r="E19" t="n">
-        <v>-13852.10015263137</v>
+        <v>159539.2169127686</v>
       </c>
     </row>
     <row r="20">
@@ -4796,16 +4796,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>13627.5</v>
+        <v>163922.5</v>
       </c>
       <c r="C20" t="n">
-        <v>17678.27284157625</v>
+        <v>141300</v>
       </c>
       <c r="D20" t="n">
-        <v>-5080.60475470158</v>
+        <v>-163428.2830872314</v>
       </c>
       <c r="E20" t="n">
-        <v>26225.16808687467</v>
+        <v>141794.2169127686</v>
       </c>
     </row>
     <row r="21">
@@ -4813,16 +4813,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>40882.5</v>
+        <v>181177.5</v>
       </c>
       <c r="C21" t="n">
-        <v>32827.76755882218</v>
+        <v>156300</v>
       </c>
       <c r="D21" t="n">
-        <v>-6757.560885797237</v>
+        <v>-213428.2830872314</v>
       </c>
       <c r="E21" t="n">
-        <v>66952.70667302494</v>
+        <v>124049.2169127686</v>
       </c>
     </row>
     <row r="22">
@@ -4830,16 +4830,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>68137.5</v>
+        <v>198432.5</v>
       </c>
       <c r="C22" t="n">
-        <v>47977.26227606821</v>
+        <v>171300</v>
       </c>
       <c r="D22" t="n">
-        <v>-7956.620160577109</v>
+        <v>-263428.2830872314</v>
       </c>
       <c r="E22" t="n">
-        <v>108158.1421154911</v>
+        <v>106304.2169127686</v>
       </c>
     </row>
     <row r="23">
@@ -4847,16 +4847,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>95392.5</v>
+        <v>215687.5</v>
       </c>
       <c r="C23" t="n">
-        <v>63126.75699331402</v>
+        <v>186300</v>
       </c>
       <c r="D23" t="n">
-        <v>-8807.694069432695</v>
+        <v>-313428.2830872314</v>
       </c>
       <c r="E23" t="n">
-        <v>149711.5629238813</v>
+        <v>88559.21691276861</v>
       </c>
     </row>
     <row r="24">
@@ -4864,16 +4864,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>122647.5</v>
+        <v>232942.5</v>
       </c>
       <c r="C24" t="n">
-        <v>78276.25171056006</v>
+        <v>201300</v>
       </c>
       <c r="D24" t="n">
-        <v>-9407.569108953669</v>
+        <v>-363428.2830872314</v>
       </c>
       <c r="E24" t="n">
-        <v>191516.1826016064</v>
+        <v>70814.21691276861</v>
       </c>
     </row>
     <row r="25">
@@ -4881,16 +4881,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>149902.5</v>
+        <v>250197.5</v>
       </c>
       <c r="C25" t="n">
-        <v>93425.74642780609</v>
+        <v>216300</v>
       </c>
       <c r="D25" t="n">
-        <v>-9827.590737487833</v>
+        <v>-413428.2830872314</v>
       </c>
       <c r="E25" t="n">
-        <v>233500.6556903183</v>
+        <v>53069.21691276861</v>
       </c>
     </row>
     <row r="26">
@@ -4898,16 +4898,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>177157.5</v>
+        <v>267452.5</v>
       </c>
       <c r="C26" t="n">
-        <v>108575.241145052</v>
+        <v>231300</v>
       </c>
       <c r="D26" t="n">
-        <v>-10119.83378460371</v>
+        <v>-463428.2830872314</v>
       </c>
       <c r="E26" t="n">
-        <v>275612.9073604483</v>
+        <v>35324.21691276861</v>
       </c>
     </row>
     <row r="27">
@@ -4915,16 +4915,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>204412.5</v>
+        <v>284707.5</v>
       </c>
       <c r="C27" t="n">
-        <v>123724.7358622981</v>
+        <v>246300</v>
       </c>
       <c r="D27" t="n">
-        <v>-10321.95795622902</v>
+        <v>-513428.2830872314</v>
       </c>
       <c r="E27" t="n">
-        <v>317815.277906069</v>
+        <v>17579.21691276861</v>
       </c>
     </row>
     <row r="28">
@@ -4932,16 +4932,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>231667.5</v>
+        <v>301962.5</v>
       </c>
       <c r="C28" t="n">
-        <v>138874.2305795439</v>
+        <v>261300</v>
       </c>
       <c r="D28" t="n">
-        <v>-10460.96288692537</v>
+        <v>-563428.2830872313</v>
       </c>
       <c r="E28" t="n">
-        <v>360080.7676926185</v>
+        <v>-165.7830872313352</v>
       </c>
     </row>
     <row r="29">
@@ -4949,16 +4949,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>258922.5</v>
+        <v>319217.5</v>
       </c>
       <c r="C29" t="n">
-        <v>154023.7252967899</v>
+        <v>276300</v>
       </c>
       <c r="D29" t="n">
-        <v>-10556.0481745941</v>
+        <v>-613428.2830872313</v>
       </c>
       <c r="E29" t="n">
-        <v>402390.1771221958</v>
+        <v>-17910.78308723134</v>
       </c>
     </row>
     <row r="30">
@@ -4966,16 +4966,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>286177.5</v>
+        <v>336472.5</v>
       </c>
       <c r="C30" t="n">
-        <v>169173.2200140358</v>
+        <v>291300</v>
       </c>
       <c r="D30" t="n">
-        <v>-10620.76212380766</v>
+        <v>-663428.2830872313</v>
       </c>
       <c r="E30" t="n">
-        <v>444729.9578902281</v>
+        <v>-35655.78308723134</v>
       </c>
     </row>
     <row r="31">
@@ -4983,16 +4983,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>313432.5</v>
+        <v>353727.5</v>
       </c>
       <c r="C31" t="n">
-        <v>184322.7147312817</v>
+        <v>306300</v>
       </c>
       <c r="D31" t="n">
-        <v>-10664.59612627321</v>
+        <v>-713428.2830872313</v>
       </c>
       <c r="E31" t="n">
-        <v>487090.6186050085</v>
+        <v>-53400.78308723134</v>
       </c>
     </row>
     <row r="32">
@@ -5000,16 +5000,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>340687.5</v>
+        <v>370982.5</v>
       </c>
       <c r="C32" t="n">
-        <v>199472.2094485278</v>
+        <v>321300</v>
       </c>
       <c r="D32" t="n">
-        <v>-10694.15424865698</v>
+        <v>-763428.2830872313</v>
       </c>
       <c r="E32" t="n">
-        <v>529465.5551998708</v>
+        <v>-71145.78308723134</v>
       </c>
     </row>
   </sheetData>
